--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -836,7 +836,11 @@
       <c r="M6" s="4" t="inlineStr"/>
       <c r="N6" s="4" t="inlineStr"/>
       <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr"/>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>save test</t>
+        </is>
+      </c>
       <c r="Q6" s="4" t="inlineStr"/>
       <c r="R6" s="4" t="inlineStr"/>
       <c r="S6" s="4" t="inlineStr"/>
@@ -6902,8 +6906,10 @@
       <c r="R99" s="3" t="inlineStr"/>
       <c r="S99" s="3" t="inlineStr"/>
       <c r="T99" s="3" t="inlineStr"/>
-      <c r="U99" s="3" t="n">
-        <v>0</v>
+      <c r="U99" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V99" s="3" t="inlineStr"/>
       <c r="W99" s="3" t="inlineStr">
@@ -6961,8 +6967,10 @@
       <c r="R100" s="3" t="inlineStr"/>
       <c r="S100" s="3" t="inlineStr"/>
       <c r="T100" s="3" t="inlineStr"/>
-      <c r="U100" s="3" t="n">
-        <v>0</v>
+      <c r="U100" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V100" s="3" t="inlineStr"/>
       <c r="W100" s="3" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -836,11 +836,7 @@
       <c r="M6" s="4" t="inlineStr"/>
       <c r="N6" s="4" t="inlineStr"/>
       <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>save test</t>
-        </is>
-      </c>
+      <c r="P6" s="4" t="inlineStr"/>
       <c r="Q6" s="4" t="inlineStr"/>
       <c r="R6" s="4" t="inlineStr"/>
       <c r="S6" s="4" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -621,11 +621,13 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -681,7 +683,9 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
@@ -741,7 +745,9 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
         <is>
@@ -801,7 +807,9 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
         <is>
@@ -1421,7 +1429,9 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
         <is>
@@ -1481,7 +1491,9 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1689,7 +1701,9 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z160"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,8 +621,10 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
@@ -683,8 +685,10 @@
       <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
@@ -745,8 +749,10 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr">
@@ -807,8 +813,10 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr">
@@ -1429,8 +1437,10 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
-        <v>0</v>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
@@ -1491,8 +1501,10 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
@@ -1701,8 +1713,10 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
@@ -2387,20 +2401,20 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves ingesting material into the body.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
@@ -2432,7 +2446,7 @@
       <c r="V30" s="3" t="inlineStr"/>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr">
@@ -2521,14 +2535,14 @@
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
@@ -2580,91 +2594,83 @@
       <c r="Z32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050370</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">dental hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr"/>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="inlineStr"/>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr"/>
-      <c r="T33" s="3" t="inlineStr">
-        <is>
-          <t>Tooth-brushing, flossing, using mouthwash</t>
-        </is>
-      </c>
-      <c r="U33" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V33" s="3" t="inlineStr"/>
-      <c r="W33" s="3" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050456</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X33" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y33" s="3" t="inlineStr"/>
-      <c r="Z33" s="3" t="inlineStr"/>
+      <c r="X33" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y33" s="2" t="inlineStr"/>
+      <c r="Z33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>diagnostic healthcare behaviour</t>
+          <t xml:space="preserve">dental hygiene behaviour </t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr"/>
@@ -2682,12 +2688,12 @@
       <c r="P34" s="3" t="inlineStr"/>
       <c r="Q34" s="3" t="inlineStr"/>
       <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
-        </is>
-      </c>
-      <c r="T34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr">
+        <is>
+          <t>Tooth-brushing, flossing, using mouthwash</t>
+        </is>
+      </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2710,25 +2716,25 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">digital interaction behaviour </t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr"/>
@@ -2746,7 +2752,11 @@
       <c r="P35" s="3" t="inlineStr"/>
       <c r="Q35" s="3" t="inlineStr"/>
       <c r="R35" s="3" t="inlineStr"/>
-      <c r="S35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+        </is>
+      </c>
       <c r="T35" s="3" t="inlineStr"/>
       <c r="U35" s="3" t="inlineStr">
         <is>
@@ -2770,25 +2780,25 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>distress minimisation behaviour</t>
+          <t xml:space="preserve">digital interaction behaviour </t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr"/>
@@ -2804,11 +2814,7 @@
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
-        </is>
-      </c>
+      <c r="Q36" s="3" t="inlineStr"/>
       <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr"/>
       <c r="T36" s="3" t="inlineStr"/>
@@ -2834,25 +2840,25 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>dressing behaviour</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr"/>
@@ -2868,7 +2874,11 @@
       <c r="N37" s="3" t="inlineStr"/>
       <c r="O37" s="3" t="inlineStr"/>
       <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
+        </is>
+      </c>
       <c r="R37" s="3" t="inlineStr"/>
       <c r="S37" s="3" t="inlineStr"/>
       <c r="T37" s="3" t="inlineStr"/>
@@ -2894,25 +2904,25 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>dressing behaviour</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oral consumption behaviour that involves swallowing a liquid material. </t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr"/>
@@ -2954,25 +2964,25 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>e-cigarette use</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
+          <t xml:space="preserve">Oral consumption behaviour that involves swallowing a liquid material. </t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>electronic vaping device use</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr"/>
@@ -2990,11 +3000,7 @@
       <c r="P39" s="3" t="inlineStr"/>
       <c r="Q39" s="3" t="inlineStr"/>
       <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
-        </is>
-      </c>
+      <c r="S39" s="3" t="inlineStr"/>
       <c r="T39" s="3" t="inlineStr"/>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -3018,25 +3024,25 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>eating</t>
+          <t>e-cigarette use</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oral consumption behaviour that involves chewing and swallowing some solid components </t>
+          <t>Inhaling consumption that that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>electronic vaping device use</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr"/>
@@ -3054,7 +3060,11 @@
       <c r="P40" s="3" t="inlineStr"/>
       <c r="Q40" s="3" t="inlineStr"/>
       <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+        </is>
+      </c>
       <c r="T40" s="3" t="inlineStr"/>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -3078,32 +3088,28 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>eating</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t xml:space="preserve">Oral consumption behaviour that involves chewing and swallowing some solid components </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>oral consumption</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr"/>
       <c r="I41" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3118,17 +3124,8 @@
       <c r="P41" s="3" t="inlineStr"/>
       <c r="Q41" s="3" t="inlineStr"/>
       <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
-        </is>
-      </c>
-      <c r="T41" s="3" t="inlineStr">
-        <is>
-          <t>Spending, Purchasing, Selling, Investing, Renting, Gambling, Saving, Paying debts, Leasing</t>
-        </is>
-      </c>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
       <c r="U41" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3137,7 +3134,7 @@
       <c r="V41" s="3" t="inlineStr"/>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr">
@@ -3151,28 +3148,32 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>electronic vaping device use</t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3187,8 +3188,17 @@
       <c r="P42" s="3" t="inlineStr"/>
       <c r="Q42" s="3" t="inlineStr"/>
       <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr"/>
-      <c r="T42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t>Spending, Purchasing, Selling, Investing, Renting, Gambling, Saving, Paying debts, Leasing</t>
+        </is>
+      </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3197,7 +3207,7 @@
       <c r="V42" s="3" t="inlineStr"/>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X42" s="3" t="inlineStr">
@@ -3211,29 +3221,25 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
-        </is>
-      </c>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr"/>
@@ -3252,11 +3258,7 @@
       <c r="Q43" s="3" t="inlineStr"/>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr">
-        <is>
-          <t>Greeting customers cheerily when tired has high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="T43" s="3" t="inlineStr"/>
       <c r="U43" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3265,7 +3267,7 @@
       <c r="V43" s="3" t="inlineStr"/>
       <c r="W43" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X43" s="3" t="inlineStr">
@@ -3279,25 +3281,29 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr"/>
@@ -3315,14 +3321,10 @@
       <c r="P44" s="3" t="inlineStr"/>
       <c r="Q44" s="3" t="inlineStr"/>
       <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
-        </is>
-      </c>
+      <c r="S44" s="3" t="inlineStr"/>
       <c r="T44" s="3" t="inlineStr">
         <is>
-          <t>Hiring, Firing, Suspending, Promoting, Demoting, Contracting, Working at a job</t>
+          <t>Greeting customers cheerily when tired has high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
@@ -3333,7 +3335,7 @@
       <c r="V44" s="3" t="inlineStr"/>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr">
@@ -3347,25 +3349,25 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>enjoyment behaviour</t>
+          <t>employment behaviour</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="H45" s="3" t="inlineStr"/>
@@ -3383,10 +3385,14 @@
       <c r="P45" s="3" t="inlineStr"/>
       <c r="Q45" s="3" t="inlineStr"/>
       <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+        </is>
+      </c>
       <c r="T45" s="3" t="inlineStr">
         <is>
-          <t>Playing</t>
+          <t>Hiring, Firing, Suspending, Promoting, Demoting, Contracting, Working at a job</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
@@ -3397,7 +3403,7 @@
       <c r="V45" s="3" t="inlineStr"/>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; JH; PS</t>
         </is>
       </c>
       <c r="X45" s="3" t="inlineStr">
@@ -3411,36 +3417,28 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr"/>
       <c r="I46" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3455,14 +3453,10 @@
       <c r="P46" s="3" t="inlineStr"/>
       <c r="Q46" s="3" t="inlineStr"/>
       <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
-        </is>
-      </c>
+      <c r="S46" s="3" t="inlineStr"/>
       <c r="T46" s="3" t="inlineStr">
         <is>
-          <t>Doing housework, Cleaning, Gardening, Farming, Harvesting</t>
+          <t>Playing</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
@@ -3487,28 +3481,36 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr"/>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -3523,10 +3525,14 @@
       <c r="P47" s="3" t="inlineStr"/>
       <c r="Q47" s="3" t="inlineStr"/>
       <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
       <c r="T47" s="3" t="inlineStr">
         <is>
-          <t>Urinating, Defecating, Induced vomiting</t>
+          <t>Doing housework, Cleaning, Gardening, Farming, Harvesting</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
@@ -3537,7 +3543,7 @@
       <c r="V47" s="3" t="inlineStr"/>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X47" s="3" t="inlineStr">
@@ -3551,25 +3557,25 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>excretion behaviour</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr"/>
@@ -3588,7 +3594,11 @@
       <c r="Q48" s="3" t="inlineStr"/>
       <c r="R48" s="3" t="inlineStr"/>
       <c r="S48" s="3" t="inlineStr"/>
-      <c r="T48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr">
+        <is>
+          <t>Urinating, Defecating, Induced vomiting</t>
+        </is>
+      </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3597,7 +3607,7 @@
       <c r="V48" s="3" t="inlineStr"/>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X48" s="3" t="inlineStr">
@@ -3609,348 +3619,331 @@
       <c r="Z48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050443</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X49" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y49" s="3" t="inlineStr"/>
+      <c r="Z49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr"/>
+      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
+      <c r="T50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X50" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y50" s="2" t="inlineStr"/>
+      <c r="Z50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050458</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
+      <c r="W51" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X51" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y51" s="2" t="inlineStr"/>
+      <c r="Z51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>BFO:0000034</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050369</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr"/>
-      <c r="Q50" s="3" t="inlineStr"/>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" s="3" t="inlineStr"/>
-      <c r="W50" s="3" t="inlineStr">
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050459</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
+      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
+      <c r="W53" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X50" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y50" s="3" t="inlineStr"/>
-      <c r="Z50" s="3" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036037</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="inlineStr"/>
-      <c r="I51" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr"/>
-      <c r="Q51" s="3" t="inlineStr"/>
-      <c r="R51" s="3" t="inlineStr"/>
-      <c r="S51" s="3" t="inlineStr"/>
-      <c r="T51" s="3" t="inlineStr">
-        <is>
-          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
-        </is>
-      </c>
-      <c r="U51" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V51" s="3" t="inlineStr"/>
-      <c r="W51" s="3" t="inlineStr">
-        <is>
-          <t>OC; PS</t>
-        </is>
-      </c>
-      <c r="X51" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y51" s="3" t="inlineStr"/>
-      <c r="Z51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036075</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">harmful behaviour </t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that causes net harm.</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H52" s="3" t="inlineStr"/>
-      <c r="I52" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="3" t="inlineStr"/>
-      <c r="L52" s="3" t="inlineStr"/>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="inlineStr"/>
-      <c r="Q52" s="3" t="inlineStr"/>
-      <c r="R52" s="3" t="inlineStr"/>
-      <c r="S52" s="3" t="inlineStr"/>
-      <c r="T52" s="3" t="inlineStr">
-        <is>
-          <t>Vandalism, Sabotaging, Polluting</t>
-        </is>
-      </c>
-      <c r="U52" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" s="3" t="inlineStr"/>
-      <c r="W52" s="3" t="inlineStr">
-        <is>
-          <t>OC; PS</t>
-        </is>
-      </c>
-      <c r="X52" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y52" s="3" t="inlineStr"/>
-      <c r="Z52" s="3" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050398</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr"/>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="inlineStr"/>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr"/>
-      <c r="Q53" s="3" t="inlineStr"/>
-      <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" s="3" t="inlineStr"/>
-      <c r="W53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X53" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y53" s="3" t="inlineStr"/>
-      <c r="Z53" s="3" t="inlineStr"/>
+      <c r="X53" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y53" s="2" t="inlineStr"/>
+      <c r="Z53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>handwashing</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr"/>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr"/>
@@ -3978,7 +3971,7 @@
       <c r="V54" s="3" t="inlineStr"/>
       <c r="W54" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X54" s="3" t="inlineStr">
@@ -3992,25 +3985,25 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves the transmission of information.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr"/>
       <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
@@ -4031,7 +4024,7 @@
       <c r="S55" s="3" t="inlineStr"/>
       <c r="T55" s="3" t="inlineStr">
         <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
+          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
@@ -4042,7 +4035,7 @@
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X55" s="3" t="inlineStr">
@@ -4056,25 +4049,25 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr"/>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">function </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr"/>
@@ -4092,15 +4085,10 @@
       <c r="P56" s="3" t="inlineStr"/>
       <c r="Q56" s="3" t="inlineStr"/>
       <c r="R56" s="3" t="inlineStr"/>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
+      <c r="S56" s="3" t="inlineStr"/>
       <c r="T56" s="3" t="inlineStr">
         <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+          <t>Vandalism, Sabotaging, Polluting</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
@@ -4111,7 +4099,7 @@
       <c r="V56" s="3" t="inlineStr"/>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X56" s="3" t="inlineStr">
@@ -4125,29 +4113,25 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr"/>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="H57" s="3" t="inlineStr"/>
@@ -4167,10 +4151,15 @@
       <c r="R57" s="3" t="inlineStr"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr"/>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="inlineStr">
+        <is>
+          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
+        </is>
+      </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4179,7 +4168,7 @@
       <c r="V57" s="3" t="inlineStr"/>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X57" s="3" t="inlineStr">
@@ -4193,25 +4182,25 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>An individual human behaviour that relates to health.</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr"/>
       <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr"/>
@@ -4220,11 +4209,7 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="J58" s="3" t="inlineStr"/>
       <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="inlineStr"/>
       <c r="M58" s="3" t="inlineStr"/>
@@ -4233,15 +4218,7 @@
       <c r="P58" s="3" t="inlineStr"/>
       <c r="Q58" s="3" t="inlineStr"/>
       <c r="R58" s="3" t="inlineStr"/>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
-        </is>
-      </c>
+      <c r="S58" s="3" t="inlineStr"/>
       <c r="T58" s="3" t="inlineStr"/>
       <c r="U58" s="3" t="inlineStr">
         <is>
@@ -4251,7 +4228,7 @@
       <c r="V58" s="3" t="inlineStr"/>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X58" s="3" t="inlineStr">
@@ -4260,47 +4237,37 @@
         </is>
       </c>
       <c r="Y58" s="3" t="inlineStr"/>
-      <c r="Z58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
-o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
-</t>
-        </is>
-      </c>
+      <c r="Z58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr"/>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
+        </is>
+      </c>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr"/>
       <c r="I59" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4313,20 +4280,12 @@
       <c r="N59" s="3" t="inlineStr"/>
       <c r="O59" s="3" t="inlineStr"/>
       <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
+      <c r="Q59" s="3" t="inlineStr"/>
       <c r="R59" s="3" t="inlineStr"/>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
+      <c r="S59" s="3" t="inlineStr"/>
       <c r="T59" s="3" t="inlineStr">
         <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
@@ -4337,7 +4296,7 @@
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X59" s="3" t="inlineStr">
@@ -4351,36 +4310,28 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr"/>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t xml:space="preserve">function </t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr"/>
       <c r="I60" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4392,7 +4343,310 @@
       <c r="M60" s="3" t="inlineStr"/>
       <c r="N60" s="3" t="inlineStr"/>
       <c r="O60" s="3" t="inlineStr"/>
-      <c r="P60" s="3" t="inlineStr">
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="T60" s="3" t="inlineStr">
+        <is>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+        </is>
+      </c>
+      <c r="U60" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr">
+        <is>
+          <t>RW; OC; PS</t>
+        </is>
+      </c>
+      <c r="X60" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y60" s="3" t="inlineStr"/>
+      <c r="Z60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036076</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr"/>
+      <c r="Q61" s="3" t="inlineStr"/>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="T61" s="3" t="inlineStr"/>
+      <c r="U61" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V61" s="3" t="inlineStr"/>
+      <c r="W61" s="3" t="inlineStr">
+        <is>
+          <t>OC; PS; RW</t>
+        </is>
+      </c>
+      <c r="X61" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y61" s="3" t="inlineStr"/>
+      <c r="Z61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr"/>
+      <c r="F62" s="3" t="inlineStr"/>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr"/>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr"/>
+      <c r="L62" s="3" t="inlineStr"/>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+        </is>
+      </c>
+      <c r="T62" s="3" t="inlineStr"/>
+      <c r="U62" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V62" s="3" t="inlineStr"/>
+      <c r="W62" s="3" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="X62" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y62" s="3" t="inlineStr"/>
+      <c r="Z62" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
+o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr"/>
+      <c r="F63" s="3" t="inlineStr"/>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr"/>
+      <c r="K63" s="3" t="inlineStr"/>
+      <c r="L63" s="3" t="inlineStr"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
+      <c r="Q63" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="R63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="T63" s="3" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
+      <c r="U63" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V63" s="3" t="inlineStr"/>
+      <c r="W63" s="3" t="inlineStr">
+        <is>
+          <t>RW; PS</t>
+        </is>
+      </c>
+      <c r="X63" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y63" s="3" t="inlineStr"/>
+      <c r="Z63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr"/>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
+      <c r="L64" s="3" t="inlineStr"/>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr">
         <is>
           <t>b is a behaviour pattern means:
 - b is instance_of uniform process aggregate; 
@@ -4404,286 +4658,18 @@
 - For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
-      <c r="Q60" s="3" t="inlineStr">
+      <c r="Q64" s="3" t="inlineStr">
         <is>
           <t>behaviour pattern</t>
         </is>
       </c>
-      <c r="R60" s="3" t="inlineStr"/>
-      <c r="S60" s="3" t="inlineStr">
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr">
         <is>
           <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
 This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
-      <c r="T60" s="3" t="inlineStr"/>
-      <c r="U60" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" s="3" t="inlineStr"/>
-      <c r="W60" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X60" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y60" s="3" t="inlineStr"/>
-      <c r="Z60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050207</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
-      <c r="P61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
-        </is>
-      </c>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr"/>
-      <c r="T61" s="3" t="inlineStr"/>
-      <c r="U61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" s="3" t="inlineStr"/>
-      <c r="W61" s="3" t="inlineStr">
-        <is>
-          <t>RW; PS</t>
-        </is>
-      </c>
-      <c r="X61" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y61" s="3" t="inlineStr"/>
-      <c r="Z61" s="3" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050394</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="3" t="inlineStr"/>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="inlineStr"/>
-      <c r="I62" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J62" s="3" t="inlineStr"/>
-      <c r="K62" s="3" t="inlineStr"/>
-      <c r="L62" s="3" t="inlineStr"/>
-      <c r="M62" s="3" t="inlineStr"/>
-      <c r="N62" s="3" t="inlineStr"/>
-      <c r="O62" s="3" t="inlineStr"/>
-      <c r="P62" s="3" t="inlineStr"/>
-      <c r="Q62" s="3" t="inlineStr"/>
-      <c r="R62" s="3" t="inlineStr"/>
-      <c r="S62" s="3" t="inlineStr"/>
-      <c r="T62" s="3" t="inlineStr"/>
-      <c r="U62" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" s="3" t="inlineStr"/>
-      <c r="W62" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X62" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y62" s="3" t="inlineStr"/>
-      <c r="Z62" s="3" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050447</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr"/>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="inlineStr"/>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J63" s="3" t="inlineStr"/>
-      <c r="K63" s="3" t="inlineStr"/>
-      <c r="L63" s="3" t="inlineStr"/>
-      <c r="M63" s="3" t="inlineStr"/>
-      <c r="N63" s="3" t="inlineStr"/>
-      <c r="O63" s="3" t="inlineStr"/>
-      <c r="P63" s="3" t="inlineStr"/>
-      <c r="Q63" s="3" t="inlineStr"/>
-      <c r="R63" s="3" t="inlineStr"/>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
-      <c r="T63" s="3" t="inlineStr"/>
-      <c r="U63" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" s="3" t="inlineStr"/>
-      <c r="W63" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X63" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y63" s="3" t="inlineStr"/>
-      <c r="Z63" s="3" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="3" t="inlineStr"/>
-      <c r="G64" s="3" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I64" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J64" s="3" t="inlineStr"/>
-      <c r="K64" s="3" t="inlineStr"/>
-      <c r="L64" s="3" t="inlineStr"/>
-      <c r="M64" s="3" t="inlineStr"/>
-      <c r="N64" s="3" t="inlineStr"/>
-      <c r="O64" s="3" t="inlineStr"/>
-      <c r="P64" s="3" t="inlineStr"/>
-      <c r="Q64" s="3" t="inlineStr"/>
-      <c r="R64" s="3" t="inlineStr"/>
-      <c r="S64" s="3" t="inlineStr"/>
       <c r="T64" s="3" t="inlineStr"/>
       <c r="U64" s="3" t="inlineStr">
         <is>
@@ -4693,7 +4679,7 @@
       <c r="V64" s="3" t="inlineStr"/>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X64" s="3" t="inlineStr">
@@ -4707,28 +4693,36 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr"/>
       <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I65" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4740,8 +4734,16 @@
       <c r="M65" s="3" t="inlineStr"/>
       <c r="N65" s="3" t="inlineStr"/>
       <c r="O65" s="3" t="inlineStr"/>
-      <c r="P65" s="3" t="inlineStr"/>
-      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="Q65" s="3" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
       <c r="R65" s="3" t="inlineStr"/>
       <c r="S65" s="3" t="inlineStr"/>
       <c r="T65" s="3" t="inlineStr"/>
@@ -4753,7 +4755,7 @@
       <c r="V65" s="3" t="inlineStr"/>
       <c r="W65" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="X65" s="3" t="inlineStr">
@@ -4767,25 +4769,25 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr"/>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H66" s="3" t="inlineStr"/>
@@ -4813,7 +4815,7 @@
       <c r="V66" s="3" t="inlineStr"/>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X66" s="3" t="inlineStr">
@@ -4827,25 +4829,29 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour showing an emotion such as mirth, joy, or scorn with a chuckle or explosive vocal sound.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr"/>
       <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H67" s="3" t="inlineStr"/>
@@ -4863,7 +4869,11 @@
       <c r="P67" s="3" t="inlineStr"/>
       <c r="Q67" s="3" t="inlineStr"/>
       <c r="R67" s="3" t="inlineStr"/>
-      <c r="S67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="T67" s="3" t="inlineStr"/>
       <c r="U67" s="3" t="inlineStr">
         <is>
@@ -4887,25 +4897,25 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr"/>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
@@ -4928,11 +4938,7 @@
       <c r="Q68" s="3" t="inlineStr"/>
       <c r="R68" s="3" t="inlineStr"/>
       <c r="S68" s="3" t="inlineStr"/>
-      <c r="T68" s="3" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="T68" s="3" t="inlineStr"/>
       <c r="U68" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -4955,25 +4961,25 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr"/>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="H69" s="3" t="inlineStr"/>
@@ -5001,7 +5007,7 @@
       <c r="V69" s="3" t="inlineStr"/>
       <c r="W69" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X69" s="3" t="inlineStr">
@@ -5015,25 +5021,25 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr"/>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H70" s="3" t="inlineStr"/>
@@ -5061,7 +5067,7 @@
       <c r="V70" s="3" t="inlineStr"/>
       <c r="W70" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH</t>
         </is>
       </c>
       <c r="X70" s="3" t="inlineStr">
@@ -5075,32 +5081,33 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr"/>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
+https://www.merriam-webster.com/dictionary/laugh</t>
+        </is>
+      </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H71" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr"/>
       <c r="I71" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5116,11 +5123,7 @@
       <c r="Q71" s="3" t="inlineStr"/>
       <c r="R71" s="3" t="inlineStr"/>
       <c r="S71" s="3" t="inlineStr"/>
-      <c r="T71" s="3" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="T71" s="3" t="inlineStr"/>
       <c r="U71" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5129,7 +5132,7 @@
       <c r="V71" s="3" t="inlineStr"/>
       <c r="W71" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X71" s="3" t="inlineStr">
@@ -5143,28 +5146,32 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H72" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I72" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5180,7 +5187,11 @@
       <c r="Q72" s="3" t="inlineStr"/>
       <c r="R72" s="3" t="inlineStr"/>
       <c r="S72" s="3" t="inlineStr"/>
-      <c r="T72" s="3" t="inlineStr"/>
+      <c r="T72" s="3" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5189,7 +5200,7 @@
       <c r="V72" s="3" t="inlineStr"/>
       <c r="W72" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X72" s="3" t="inlineStr">
@@ -5203,25 +5214,25 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H73" s="3" t="inlineStr"/>
@@ -5249,7 +5260,7 @@
       <c r="V73" s="3" t="inlineStr"/>
       <c r="W73" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X73" s="3" t="inlineStr">
@@ -5263,25 +5274,25 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr"/>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H74" s="3" t="inlineStr"/>
@@ -5300,11 +5311,7 @@
       <c r="Q74" s="3" t="inlineStr"/>
       <c r="R74" s="3" t="inlineStr"/>
       <c r="S74" s="3" t="inlineStr"/>
-      <c r="T74" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T74" s="3" t="inlineStr"/>
       <c r="U74" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5313,7 +5320,7 @@
       <c r="V74" s="3" t="inlineStr"/>
       <c r="W74" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X74" s="3" t="inlineStr">
@@ -5327,28 +5334,32 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr"/>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H75" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I75" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5364,7 +5375,11 @@
       <c r="Q75" s="3" t="inlineStr"/>
       <c r="R75" s="3" t="inlineStr"/>
       <c r="S75" s="3" t="inlineStr"/>
-      <c r="T75" s="3" t="inlineStr"/>
+      <c r="T75" s="3" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5373,7 +5388,7 @@
       <c r="V75" s="3" t="inlineStr"/>
       <c r="W75" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X75" s="3" t="inlineStr">
@@ -5387,25 +5402,25 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H76" s="3" t="inlineStr"/>
@@ -5421,17 +5436,9 @@
       <c r="N76" s="3" t="inlineStr"/>
       <c r="O76" s="3" t="inlineStr"/>
       <c r="P76" s="3" t="inlineStr"/>
-      <c r="Q76" s="3" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="Q76" s="3" t="inlineStr"/>
       <c r="R76" s="3" t="inlineStr"/>
-      <c r="S76" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="S76" s="3" t="inlineStr"/>
       <c r="T76" s="3" t="inlineStr"/>
       <c r="U76" s="3" t="inlineStr">
         <is>
@@ -5441,7 +5448,7 @@
       <c r="V76" s="3" t="inlineStr"/>
       <c r="W76" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X76" s="3" t="inlineStr">
@@ -5455,29 +5462,25 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">making a referral to another health care service </t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr"/>
@@ -5496,11 +5499,7 @@
       <c r="Q77" s="3" t="inlineStr"/>
       <c r="R77" s="3" t="inlineStr"/>
       <c r="S77" s="3" t="inlineStr"/>
-      <c r="T77" s="3" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="T77" s="3" t="inlineStr"/>
       <c r="U77" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5509,7 +5508,7 @@
       <c r="V77" s="3" t="inlineStr"/>
       <c r="W77" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X77" s="3" t="inlineStr">
@@ -5523,25 +5522,25 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H78" s="3" t="inlineStr"/>
@@ -5562,7 +5561,7 @@
       <c r="S78" s="3" t="inlineStr"/>
       <c r="T78" s="3" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
         </is>
       </c>
       <c r="U78" s="3" t="inlineStr">
@@ -5573,7 +5572,7 @@
       <c r="V78" s="3" t="inlineStr"/>
       <c r="W78" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X78" s="3" t="inlineStr">
@@ -5587,25 +5586,25 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr"/>
@@ -5633,7 +5632,7 @@
       <c r="V79" s="3" t="inlineStr"/>
       <c r="W79" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X79" s="3" t="inlineStr">
@@ -5647,25 +5646,25 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr"/>
       <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr"/>
@@ -5681,9 +5680,17 @@
       <c r="N80" s="3" t="inlineStr"/>
       <c r="O80" s="3" t="inlineStr"/>
       <c r="P80" s="3" t="inlineStr"/>
-      <c r="Q80" s="3" t="inlineStr"/>
+      <c r="Q80" s="3" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R80" s="3" t="inlineStr"/>
-      <c r="S80" s="3" t="inlineStr"/>
+      <c r="S80" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
       <c r="T80" s="3" t="inlineStr"/>
       <c r="U80" s="3" t="inlineStr">
         <is>
@@ -5707,25 +5714,29 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr"/>
       <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H81" s="3" t="inlineStr"/>
@@ -5744,7 +5755,11 @@
       <c r="Q81" s="3" t="inlineStr"/>
       <c r="R81" s="3" t="inlineStr"/>
       <c r="S81" s="3" t="inlineStr"/>
-      <c r="T81" s="3" t="inlineStr"/>
+      <c r="T81" s="3" t="inlineStr">
+        <is>
+          <t>writing has high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5753,7 +5768,7 @@
       <c r="V81" s="3" t="inlineStr"/>
       <c r="W81" s="3" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X81" s="3" t="inlineStr">
@@ -5767,25 +5782,25 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr"/>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr"/>
       <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H82" s="3" t="inlineStr"/>
@@ -5804,7 +5819,11 @@
       <c r="Q82" s="3" t="inlineStr"/>
       <c r="R82" s="3" t="inlineStr"/>
       <c r="S82" s="3" t="inlineStr"/>
-      <c r="T82" s="3" t="inlineStr"/>
+      <c r="T82" s="3" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5813,7 +5832,7 @@
       <c r="V82" s="3" t="inlineStr"/>
       <c r="W82" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X82" s="3" t="inlineStr">
@@ -5827,25 +5846,25 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr"/>
       <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H83" s="3" t="inlineStr"/>
@@ -5863,16 +5882,8 @@
       <c r="P83" s="3" t="inlineStr"/>
       <c r="Q83" s="3" t="inlineStr"/>
       <c r="R83" s="3" t="inlineStr"/>
-      <c r="S83" s="3" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T83" s="3" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S83" s="3" t="inlineStr"/>
+      <c r="T83" s="3" t="inlineStr"/>
       <c r="U83" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5881,7 +5892,7 @@
       <c r="V83" s="3" t="inlineStr"/>
       <c r="W83" s="3" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X83" s="3" t="inlineStr">
@@ -5895,18 +5906,18 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr"/>
@@ -5955,29 +5966,25 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr"/>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H85" s="3" t="inlineStr"/>
@@ -5996,11 +6003,7 @@
       <c r="Q85" s="3" t="inlineStr"/>
       <c r="R85" s="3" t="inlineStr"/>
       <c r="S85" s="3" t="inlineStr"/>
-      <c r="T85" s="3" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
+      <c r="T85" s="3" t="inlineStr"/>
       <c r="U85" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6009,7 +6012,7 @@
       <c r="V85" s="3" t="inlineStr"/>
       <c r="W85" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X85" s="3" t="inlineStr">
@@ -6023,25 +6026,25 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr"/>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H86" s="3" t="inlineStr"/>
@@ -6059,17 +6062,8 @@
       <c r="P86" s="3" t="inlineStr"/>
       <c r="Q86" s="3" t="inlineStr"/>
       <c r="R86" s="3" t="inlineStr"/>
-      <c r="S86" s="3" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
-      <c r="T86" s="3" t="inlineStr">
-        <is>
-          <t>Comforting, feeding, encouraging</t>
-        </is>
-      </c>
+      <c r="S86" s="3" t="inlineStr"/>
+      <c r="T86" s="3" t="inlineStr"/>
       <c r="U86" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6078,7 +6072,7 @@
       <c r="V86" s="3" t="inlineStr"/>
       <c r="W86" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X86" s="3" t="inlineStr">
@@ -6092,25 +6086,25 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr"/>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr"/>
@@ -6130,12 +6124,12 @@
       <c r="R87" s="3" t="inlineStr"/>
       <c r="S87" s="3" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
       <c r="T87" s="3" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Pointing</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
@@ -6146,7 +6140,7 @@
       <c r="V87" s="3" t="inlineStr"/>
       <c r="W87" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X87" s="3" t="inlineStr">
@@ -6160,32 +6154,28 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>non-linguistic communication behaviour using vocalisations</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr"/>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H88" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr"/>
       <c r="I88" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6200,16 +6190,8 @@
       <c r="P88" s="3" t="inlineStr"/>
       <c r="Q88" s="3" t="inlineStr"/>
       <c r="R88" s="3" t="inlineStr"/>
-      <c r="S88" s="3" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
-        </is>
-      </c>
-      <c r="T88" s="3" t="inlineStr">
-        <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
-        </is>
-      </c>
+      <c r="S88" s="3" t="inlineStr"/>
+      <c r="T88" s="3" t="inlineStr"/>
       <c r="U88" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6218,7 +6200,7 @@
       <c r="V88" s="3" t="inlineStr"/>
       <c r="W88" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X88" s="3" t="inlineStr">
@@ -6232,25 +6214,29 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H89" s="3" t="inlineStr"/>
@@ -6269,7 +6255,11 @@
       <c r="Q89" s="3" t="inlineStr"/>
       <c r="R89" s="3" t="inlineStr"/>
       <c r="S89" s="3" t="inlineStr"/>
-      <c r="T89" s="3" t="inlineStr"/>
+      <c r="T89" s="3" t="inlineStr">
+        <is>
+          <t>harassment behaviour occurred three times</t>
+        </is>
+      </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6278,7 +6268,7 @@
       <c r="V89" s="3" t="inlineStr"/>
       <c r="W89" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X89" s="3" t="inlineStr">
@@ -6292,25 +6282,25 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr"/>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr"/>
@@ -6328,8 +6318,17 @@
       <c r="P90" s="3" t="inlineStr"/>
       <c r="Q90" s="3" t="inlineStr"/>
       <c r="R90" s="3" t="inlineStr"/>
-      <c r="S90" s="3" t="inlineStr"/>
-      <c r="T90" s="3" t="inlineStr"/>
+      <c r="S90" s="3" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+        </is>
+      </c>
+      <c r="T90" s="3" t="inlineStr">
+        <is>
+          <t>Comforting, feeding, encouraging</t>
+        </is>
+      </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6338,7 +6337,7 @@
       <c r="V90" s="3" t="inlineStr"/>
       <c r="W90" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X90" s="3" t="inlineStr">
@@ -6352,25 +6351,25 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3" t="inlineStr"/>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="H91" s="3" t="inlineStr"/>
@@ -6388,10 +6387,14 @@
       <c r="P91" s="3" t="inlineStr"/>
       <c r="Q91" s="3" t="inlineStr"/>
       <c r="R91" s="3" t="inlineStr"/>
-      <c r="S91" s="3" t="inlineStr"/>
+      <c r="S91" s="3" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+        </is>
+      </c>
       <c r="T91" s="3" t="inlineStr">
         <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U91" s="3" t="inlineStr">
@@ -6402,7 +6405,7 @@
       <c r="V91" s="3" t="inlineStr"/>
       <c r="W91" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X91" s="3" t="inlineStr">
@@ -6416,28 +6419,32 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr"/>
       <c r="F92" s="3" t="inlineStr"/>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="H92" s="3" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I92" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6454,12 +6461,12 @@
       <c r="R92" s="3" t="inlineStr"/>
       <c r="S92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
       <c r="T92" s="3" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
         </is>
       </c>
       <c r="U92" s="3" t="inlineStr">
@@ -6470,7 +6477,7 @@
       <c r="V92" s="3" t="inlineStr"/>
       <c r="W92" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X92" s="3" t="inlineStr">
@@ -6484,25 +6491,25 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr"/>
       <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H93" s="3" t="inlineStr"/>
@@ -6521,11 +6528,7 @@
       <c r="Q93" s="3" t="inlineStr"/>
       <c r="R93" s="3" t="inlineStr"/>
       <c r="S93" s="3" t="inlineStr"/>
-      <c r="T93" s="3" t="inlineStr">
-        <is>
-          <t>Undergoing surgery</t>
-        </is>
-      </c>
+      <c r="T93" s="3" t="inlineStr"/>
       <c r="U93" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6548,25 +6551,25 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3" t="inlineStr"/>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H94" s="3" t="inlineStr"/>
@@ -6608,25 +6611,25 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H95" s="3" t="inlineStr"/>
@@ -6645,7 +6648,11 @@
       <c r="Q95" s="3" t="inlineStr"/>
       <c r="R95" s="3" t="inlineStr"/>
       <c r="S95" s="3" t="inlineStr"/>
-      <c r="T95" s="3" t="inlineStr"/>
+      <c r="T95" s="3" t="inlineStr">
+        <is>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
+        </is>
+      </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6668,25 +6675,25 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr"/>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H96" s="3" t="inlineStr"/>
@@ -6704,8 +6711,16 @@
       <c r="P96" s="3" t="inlineStr"/>
       <c r="Q96" s="3" t="inlineStr"/>
       <c r="R96" s="3" t="inlineStr"/>
-      <c r="S96" s="3" t="inlineStr"/>
-      <c r="T96" s="3" t="inlineStr"/>
+      <c r="S96" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
+      <c r="T96" s="3" t="inlineStr">
+        <is>
+          <t>Blood test to check for anaemia, psychological testing</t>
+        </is>
+      </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6728,25 +6743,25 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr"/>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H97" s="3" t="inlineStr"/>
@@ -6765,7 +6780,11 @@
       <c r="Q97" s="3" t="inlineStr"/>
       <c r="R97" s="3" t="inlineStr"/>
       <c r="S97" s="3" t="inlineStr"/>
-      <c r="T97" s="3" t="inlineStr"/>
+      <c r="T97" s="3" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6788,32 +6807,28 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr"/>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H98" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr"/>
       <c r="I98" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6828,16 +6843,8 @@
       <c r="P98" s="3" t="inlineStr"/>
       <c r="Q98" s="3" t="inlineStr"/>
       <c r="R98" s="3" t="inlineStr"/>
-      <c r="S98" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="T98" s="3" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+      <c r="S98" s="3" t="inlineStr"/>
+      <c r="T98" s="3" t="inlineStr"/>
       <c r="U98" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6846,7 +6853,7 @@
       <c r="V98" s="3" t="inlineStr"/>
       <c r="W98" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X98" s="3" t="inlineStr">
@@ -6860,25 +6867,25 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr"/>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr"/>
@@ -6896,16 +6903,8 @@
       <c r="P99" s="3" t="inlineStr"/>
       <c r="Q99" s="3" t="inlineStr"/>
       <c r="R99" s="3" t="inlineStr"/>
-      <c r="S99" s="3" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
-        </is>
-      </c>
-      <c r="T99" s="3" t="inlineStr">
-        <is>
-          <t>Wrestling, fencing</t>
-        </is>
-      </c>
+      <c r="S99" s="3" t="inlineStr"/>
+      <c r="T99" s="3" t="inlineStr"/>
       <c r="U99" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6914,7 +6913,7 @@
       <c r="V99" s="3" t="inlineStr"/>
       <c r="W99" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X99" s="3" t="inlineStr">
@@ -6928,25 +6927,25 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H100" s="3" t="inlineStr"/>
@@ -6965,11 +6964,7 @@
       <c r="Q100" s="3" t="inlineStr"/>
       <c r="R100" s="3" t="inlineStr"/>
       <c r="S100" s="3" t="inlineStr"/>
-      <c r="T100" s="3" t="inlineStr">
-        <is>
-          <t>Touching</t>
-        </is>
-      </c>
+      <c r="T100" s="3" t="inlineStr"/>
       <c r="U100" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6992,29 +6987,25 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H101" s="3" t="inlineStr"/>
@@ -7033,11 +7024,7 @@
       <c r="Q101" s="3" t="inlineStr"/>
       <c r="R101" s="3" t="inlineStr"/>
       <c r="S101" s="3" t="inlineStr"/>
-      <c r="T101" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="T101" s="3" t="inlineStr"/>
       <c r="U101" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7046,7 +7033,7 @@
       <c r="V101" s="3" t="inlineStr"/>
       <c r="W101" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X101" s="3" t="inlineStr">
@@ -7060,25 +7047,25 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr"/>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H102" s="3" t="inlineStr">
@@ -7100,23 +7087,25 @@
       <c r="P102" s="3" t="inlineStr"/>
       <c r="Q102" s="3" t="inlineStr"/>
       <c r="R102" s="3" t="inlineStr"/>
-      <c r="S102" s="3" t="inlineStr"/>
+      <c r="S102" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+        </is>
+      </c>
       <c r="T102" s="3" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U102" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V102" s="3" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>Nail-cutting</t>
+        </is>
+      </c>
+      <c r="U102" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V102" s="3" t="inlineStr"/>
       <c r="W102" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X102" s="3" t="inlineStr">
@@ -7130,25 +7119,25 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr"/>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H103" s="3" t="inlineStr"/>
@@ -7166,10 +7155,14 @@
       <c r="P103" s="3" t="inlineStr"/>
       <c r="Q103" s="3" t="inlineStr"/>
       <c r="R103" s="3" t="inlineStr"/>
-      <c r="S103" s="3" t="inlineStr"/>
+      <c r="S103" s="3" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="T103" s="3" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
@@ -7180,7 +7173,7 @@
       <c r="V103" s="3" t="inlineStr"/>
       <c r="W103" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X103" s="3" t="inlineStr">
@@ -7194,32 +7187,28 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr"/>
       <c r="F104" s="3" t="inlineStr"/>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H104" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="inlineStr"/>
       <c r="I104" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7237,7 +7226,7 @@
       <c r="S104" s="3" t="inlineStr"/>
       <c r="T104" s="3" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U104" s="3" t="inlineStr">
@@ -7248,7 +7237,7 @@
       <c r="V104" s="3" t="inlineStr"/>
       <c r="W104" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X104" s="3" t="inlineStr">
@@ -7262,25 +7251,29 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr"/>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H105" s="3" t="inlineStr"/>
@@ -7299,7 +7292,11 @@
       <c r="Q105" s="3" t="inlineStr"/>
       <c r="R105" s="3" t="inlineStr"/>
       <c r="S105" s="3" t="inlineStr"/>
-      <c r="T105" s="3" t="inlineStr"/>
+      <c r="T105" s="3" t="inlineStr">
+        <is>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7308,7 +7305,7 @@
       <c r="V105" s="3" t="inlineStr"/>
       <c r="W105" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X105" s="3" t="inlineStr">
@@ -7322,29 +7319,32 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr"/>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="H106" s="3" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I106" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7360,16 +7360,22 @@
       <c r="Q106" s="3" t="inlineStr"/>
       <c r="R106" s="3" t="inlineStr"/>
       <c r="S106" s="3" t="inlineStr"/>
-      <c r="T106" s="3" t="inlineStr"/>
-      <c r="U106" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V106" s="3" t="inlineStr"/>
+      <c r="T106" s="3" t="inlineStr">
+        <is>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U106" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" s="3" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W106" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X106" s="3" t="inlineStr">
@@ -7383,25 +7389,25 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr"/>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H107" s="3" t="inlineStr"/>
@@ -7420,7 +7426,11 @@
       <c r="Q107" s="3" t="inlineStr"/>
       <c r="R107" s="3" t="inlineStr"/>
       <c r="S107" s="3" t="inlineStr"/>
-      <c r="T107" s="3" t="inlineStr"/>
+      <c r="T107" s="3" t="inlineStr">
+        <is>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
+        </is>
+      </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7429,7 +7439,7 @@
       <c r="V107" s="3" t="inlineStr"/>
       <c r="W107" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X107" s="3" t="inlineStr">
@@ -7443,25 +7453,25 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H108" s="3" t="inlineStr">
@@ -7484,7 +7494,11 @@
       <c r="Q108" s="3" t="inlineStr"/>
       <c r="R108" s="3" t="inlineStr"/>
       <c r="S108" s="3" t="inlineStr"/>
-      <c r="T108" s="3" t="inlineStr"/>
+      <c r="T108" s="3" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7493,7 +7507,7 @@
       <c r="V108" s="3" t="inlineStr"/>
       <c r="W108" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X108" s="3" t="inlineStr">
@@ -7507,25 +7521,25 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr"/>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H109" s="3" t="inlineStr"/>
@@ -7567,25 +7581,26 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H110" s="3" t="inlineStr"/>
@@ -7627,25 +7642,25 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr"/>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H111" s="3" t="inlineStr"/>
@@ -7663,12 +7678,7 @@
       <c r="P111" s="3" t="inlineStr"/>
       <c r="Q111" s="3" t="inlineStr"/>
       <c r="R111" s="3" t="inlineStr"/>
-      <c r="S111" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="S111" s="3" t="inlineStr"/>
       <c r="T111" s="3" t="inlineStr"/>
       <c r="U111" s="3" t="inlineStr">
         <is>
@@ -7678,7 +7688,7 @@
       <c r="V111" s="3" t="inlineStr"/>
       <c r="W111" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X111" s="3" t="inlineStr">
@@ -7690,104 +7700,96 @@
       <c r="Z111" s="3" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036066</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">pro-social behaviour </t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr"/>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
-        </is>
-      </c>
-      <c r="E112" s="3" t="inlineStr"/>
-      <c r="F112" s="3" t="inlineStr"/>
-      <c r="G112" s="3" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H112" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I112" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J112" s="3" t="inlineStr"/>
-      <c r="K112" s="3" t="inlineStr"/>
-      <c r="L112" s="3" t="inlineStr"/>
-      <c r="M112" s="3" t="inlineStr"/>
-      <c r="N112" s="3" t="inlineStr"/>
-      <c r="O112" s="3" t="inlineStr"/>
-      <c r="P112" s="3" t="inlineStr"/>
-      <c r="Q112" s="3" t="inlineStr"/>
-      <c r="R112" s="3" t="inlineStr"/>
-      <c r="S112" s="3" t="inlineStr"/>
-      <c r="T112" s="3" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
-      <c r="U112" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V112" s="3" t="inlineStr"/>
-      <c r="W112" s="3" t="inlineStr">
-        <is>
-          <t>OC; PS; RW</t>
-        </is>
-      </c>
-      <c r="X112" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y112" s="3" t="inlineStr"/>
-      <c r="Z112" s="3" t="inlineStr"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050460</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr"/>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>A postural behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
+      <c r="L112" s="2" t="inlineStr"/>
+      <c r="M112" s="2" t="inlineStr"/>
+      <c r="N112" s="2" t="inlineStr"/>
+      <c r="O112" s="2" t="inlineStr"/>
+      <c r="P112" s="2" t="inlineStr"/>
+      <c r="Q112" s="2" t="inlineStr"/>
+      <c r="R112" s="2" t="inlineStr"/>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
+      <c r="T112" s="2" t="inlineStr"/>
+      <c r="U112" s="2" t="inlineStr"/>
+      <c r="V112" s="2" t="inlineStr"/>
+      <c r="W112" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X112" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y112" s="2" t="inlineStr"/>
+      <c r="Z112" s="2" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr"/>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
@@ -7801,11 +7803,7 @@
       <c r="M113" s="3" t="inlineStr"/>
       <c r="N113" s="3" t="inlineStr"/>
       <c r="O113" s="3" t="inlineStr"/>
-      <c r="P113" s="3" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P113" s="3" t="inlineStr"/>
       <c r="Q113" s="3" t="inlineStr"/>
       <c r="R113" s="3" t="inlineStr"/>
       <c r="S113" s="3" t="inlineStr"/>
@@ -7818,7 +7816,7 @@
       <c r="V113" s="3" t="inlineStr"/>
       <c r="W113" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X113" s="3" t="inlineStr">
@@ -7832,25 +7830,25 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr"/>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr"/>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H114" s="3" t="inlineStr"/>
@@ -7892,25 +7890,25 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr"/>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr"/>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H115" s="3" t="inlineStr"/>
@@ -7952,25 +7950,25 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr"/>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr"/>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H116" s="3" t="inlineStr"/>
@@ -7988,7 +7986,12 @@
       <c r="P116" s="3" t="inlineStr"/>
       <c r="Q116" s="3" t="inlineStr"/>
       <c r="R116" s="3" t="inlineStr"/>
-      <c r="S116" s="3" t="inlineStr"/>
+      <c r="S116" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
       <c r="T116" s="3" t="inlineStr"/>
       <c r="U116" s="3" t="inlineStr">
         <is>
@@ -8012,28 +8015,32 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">pro-social behaviour </t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr"/>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr"/>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H117" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H117" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I117" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8049,7 +8056,11 @@
       <c r="Q117" s="3" t="inlineStr"/>
       <c r="R117" s="3" t="inlineStr"/>
       <c r="S117" s="3" t="inlineStr"/>
-      <c r="T117" s="3" t="inlineStr"/>
+      <c r="T117" s="3" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8058,7 +8069,7 @@
       <c r="V117" s="3" t="inlineStr"/>
       <c r="W117" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X117" s="3" t="inlineStr">
@@ -8072,28 +8083,36 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr"/>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H118" s="3" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I118" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8105,7 +8124,11 @@
       <c r="M118" s="3" t="inlineStr"/>
       <c r="N118" s="3" t="inlineStr"/>
       <c r="O118" s="3" t="inlineStr"/>
-      <c r="P118" s="3" t="inlineStr"/>
+      <c r="P118" s="3" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q118" s="3" t="inlineStr"/>
       <c r="R118" s="3" t="inlineStr"/>
       <c r="S118" s="3" t="inlineStr"/>
@@ -8118,7 +8141,7 @@
       <c r="V118" s="3" t="inlineStr"/>
       <c r="W118" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X118" s="3" t="inlineStr">
@@ -8132,25 +8155,25 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr"/>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr"/>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H119" s="3" t="inlineStr"/>
@@ -8192,25 +8215,25 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr"/>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H120" s="3" t="inlineStr"/>
@@ -8252,25 +8275,25 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr"/>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H121" s="3" t="inlineStr"/>
@@ -8312,25 +8335,25 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H122" s="3" t="inlineStr"/>
@@ -8372,25 +8395,25 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H123" s="3" t="inlineStr"/>
@@ -8432,25 +8455,25 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr"/>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr"/>
       <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H124" s="3" t="inlineStr"/>
@@ -8478,7 +8501,7 @@
       <c r="V124" s="3" t="inlineStr"/>
       <c r="W124" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X124" s="3" t="inlineStr">
@@ -8492,25 +8515,25 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr"/>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr"/>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr"/>
@@ -8538,7 +8561,7 @@
       <c r="V125" s="3" t="inlineStr"/>
       <c r="W125" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X125" s="3" t="inlineStr">
@@ -8552,29 +8575,25 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr"/>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H126" s="3" t="inlineStr"/>
@@ -8592,11 +8611,7 @@
       <c r="P126" s="3" t="inlineStr"/>
       <c r="Q126" s="3" t="inlineStr"/>
       <c r="R126" s="3" t="inlineStr"/>
-      <c r="S126" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="S126" s="3" t="inlineStr"/>
       <c r="T126" s="3" t="inlineStr"/>
       <c r="U126" s="3" t="inlineStr">
         <is>
@@ -8606,7 +8621,7 @@
       <c r="V126" s="3" t="inlineStr"/>
       <c r="W126" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X126" s="3" t="inlineStr">
@@ -8620,25 +8635,25 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr"/>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H127" s="3" t="inlineStr"/>
@@ -8656,16 +8671,8 @@
       <c r="P127" s="3" t="inlineStr"/>
       <c r="Q127" s="3" t="inlineStr"/>
       <c r="R127" s="3" t="inlineStr"/>
-      <c r="S127" s="3" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T127" s="3" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+      <c r="S127" s="3" t="inlineStr"/>
+      <c r="T127" s="3" t="inlineStr"/>
       <c r="U127" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8674,7 +8681,7 @@
       <c r="V127" s="3" t="inlineStr"/>
       <c r="W127" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X127" s="3" t="inlineStr">
@@ -8688,25 +8695,25 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr"/>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr"/>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr"/>
@@ -8748,25 +8755,25 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr"/>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr"/>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H129" s="3" t="inlineStr"/>
@@ -8784,11 +8791,7 @@
       <c r="P129" s="3" t="inlineStr"/>
       <c r="Q129" s="3" t="inlineStr"/>
       <c r="R129" s="3" t="inlineStr"/>
-      <c r="S129" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S129" s="3" t="inlineStr"/>
       <c r="T129" s="3" t="inlineStr"/>
       <c r="U129" s="3" t="inlineStr">
         <is>
@@ -8798,7 +8801,7 @@
       <c r="V129" s="3" t="inlineStr"/>
       <c r="W129" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X129" s="3" t="inlineStr">
@@ -8812,25 +8815,25 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr"/>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H130" s="3" t="inlineStr"/>
@@ -8848,16 +8851,8 @@
       <c r="P130" s="3" t="inlineStr"/>
       <c r="Q130" s="3" t="inlineStr"/>
       <c r="R130" s="3" t="inlineStr"/>
-      <c r="S130" s="3" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T130" s="3" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+      <c r="S130" s="3" t="inlineStr"/>
+      <c r="T130" s="3" t="inlineStr"/>
       <c r="U130" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8866,7 +8861,7 @@
       <c r="V130" s="3" t="inlineStr"/>
       <c r="W130" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X130" s="3" t="inlineStr">
@@ -8880,25 +8875,29 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr"/>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H131" s="3" t="inlineStr"/>
@@ -8916,7 +8915,11 @@
       <c r="P131" s="3" t="inlineStr"/>
       <c r="Q131" s="3" t="inlineStr"/>
       <c r="R131" s="3" t="inlineStr"/>
-      <c r="S131" s="3" t="inlineStr"/>
+      <c r="S131" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
       <c r="T131" s="3" t="inlineStr"/>
       <c r="U131" s="3" t="inlineStr">
         <is>
@@ -8926,7 +8929,7 @@
       <c r="V131" s="3" t="inlineStr"/>
       <c r="W131" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X131" s="3" t="inlineStr">
@@ -8940,18 +8943,18 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr"/>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves sexual arousal.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr"/>
@@ -8961,11 +8964,7 @@
           <t>life function-related behaviour</t>
         </is>
       </c>
-      <c r="H132" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="H132" s="3" t="inlineStr"/>
       <c r="I132" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8987,7 +8986,7 @@
       </c>
       <c r="T132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+          <t>Fertility preservation</t>
         </is>
       </c>
       <c r="U132" s="3" t="inlineStr">
@@ -8998,7 +8997,7 @@
       <c r="V132" s="3" t="inlineStr"/>
       <c r="W132" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X132" s="3" t="inlineStr">
@@ -9012,25 +9011,25 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr"/>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr"/>
       <c r="F133" s="3" t="inlineStr"/>
       <c r="G133" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H133" s="3" t="inlineStr"/>
@@ -9058,7 +9057,7 @@
       <c r="V133" s="3" t="inlineStr"/>
       <c r="W133" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X133" s="3" t="inlineStr">
@@ -9072,25 +9071,25 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr"/>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr"/>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H134" s="3" t="inlineStr"/>
@@ -9108,12 +9107,12 @@
       <c r="P134" s="3" t="inlineStr"/>
       <c r="Q134" s="3" t="inlineStr"/>
       <c r="R134" s="3" t="inlineStr"/>
-      <c r="S134" s="3" t="inlineStr"/>
-      <c r="T134" s="3" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="S134" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="T134" s="3" t="inlineStr"/>
       <c r="U134" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9122,7 +9121,7 @@
       <c r="V134" s="3" t="inlineStr"/>
       <c r="W134" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X134" s="3" t="inlineStr">
@@ -9136,25 +9135,25 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr"/>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr"/>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H135" s="3" t="inlineStr"/>
@@ -9172,8 +9171,16 @@
       <c r="P135" s="3" t="inlineStr"/>
       <c r="Q135" s="3" t="inlineStr"/>
       <c r="R135" s="3" t="inlineStr"/>
-      <c r="S135" s="3" t="inlineStr"/>
-      <c r="T135" s="3" t="inlineStr"/>
+      <c r="S135" s="3" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T135" s="3" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9182,7 +9189,7 @@
       <c r="V135" s="3" t="inlineStr"/>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X135" s="3" t="inlineStr">
@@ -9196,32 +9203,28 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr"/>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H136" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H136" s="3" t="inlineStr"/>
       <c r="I136" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9236,17 +9239,8 @@
       <c r="P136" s="3" t="inlineStr"/>
       <c r="Q136" s="3" t="inlineStr"/>
       <c r="R136" s="3" t="inlineStr"/>
-      <c r="S136" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T136" s="3" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S136" s="3" t="inlineStr"/>
+      <c r="T136" s="3" t="inlineStr"/>
       <c r="U136" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9255,7 +9249,7 @@
       <c r="V136" s="3" t="inlineStr"/>
       <c r="W136" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X136" s="3" t="inlineStr">
@@ -9269,28 +9263,32 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr"/>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H137" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H137" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I137" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9305,8 +9303,16 @@
       <c r="P137" s="3" t="inlineStr"/>
       <c r="Q137" s="3" t="inlineStr"/>
       <c r="R137" s="3" t="inlineStr"/>
-      <c r="S137" s="3" t="inlineStr"/>
-      <c r="T137" s="3" t="inlineStr"/>
+      <c r="S137" s="3" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T137" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U137" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9315,7 +9321,7 @@
       <c r="V137" s="3" t="inlineStr"/>
       <c r="W137" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X137" s="3" t="inlineStr">
@@ -9329,25 +9335,25 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr"/>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr"/>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H138" s="3" t="inlineStr"/>
@@ -9375,7 +9381,7 @@
       <c r="V138" s="3" t="inlineStr"/>
       <c r="W138" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X138" s="3" t="inlineStr">
@@ -9389,25 +9395,25 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr"/>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H139" s="3" t="inlineStr"/>
@@ -9426,7 +9432,11 @@
       <c r="Q139" s="3" t="inlineStr"/>
       <c r="R139" s="3" t="inlineStr"/>
       <c r="S139" s="3" t="inlineStr"/>
-      <c r="T139" s="3" t="inlineStr"/>
+      <c r="T139" s="3" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U139" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9435,7 +9445,7 @@
       <c r="V139" s="3" t="inlineStr"/>
       <c r="W139" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X139" s="3" t="inlineStr">
@@ -9449,25 +9459,25 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr"/>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H140" s="3" t="inlineStr"/>
@@ -9486,11 +9496,7 @@
       <c r="Q140" s="3" t="inlineStr"/>
       <c r="R140" s="3" t="inlineStr"/>
       <c r="S140" s="3" t="inlineStr"/>
-      <c r="T140" s="3" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T140" s="3" t="inlineStr"/>
       <c r="U140" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9499,7 +9505,7 @@
       <c r="V140" s="3" t="inlineStr"/>
       <c r="W140" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X140" s="3" t="inlineStr">
@@ -9513,28 +9519,32 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr"/>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr"/>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H141" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H141" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I141" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9549,8 +9559,17 @@
       <c r="P141" s="3" t="inlineStr"/>
       <c r="Q141" s="3" t="inlineStr"/>
       <c r="R141" s="3" t="inlineStr"/>
-      <c r="S141" s="3" t="inlineStr"/>
-      <c r="T141" s="3" t="inlineStr"/>
+      <c r="S141" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T141" s="3" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U141" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9559,7 +9578,7 @@
       <c r="V141" s="3" t="inlineStr"/>
       <c r="W141" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X141" s="3" t="inlineStr">
@@ -9573,32 +9592,28 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr"/>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr"/>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H142" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H142" s="3" t="inlineStr"/>
       <c r="I142" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9611,17 +9626,9 @@
       <c r="N142" s="3" t="inlineStr"/>
       <c r="O142" s="3" t="inlineStr"/>
       <c r="P142" s="3" t="inlineStr"/>
-      <c r="Q142" s="3" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q142" s="3" t="inlineStr"/>
       <c r="R142" s="3" t="inlineStr"/>
-      <c r="S142" s="3" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S142" s="3" t="inlineStr"/>
       <c r="T142" s="3" t="inlineStr"/>
       <c r="U142" s="3" t="inlineStr">
         <is>
@@ -9631,7 +9638,7 @@
       <c r="V142" s="3" t="inlineStr"/>
       <c r="W142" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X142" s="3" t="inlineStr">
@@ -9645,25 +9652,25 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr"/>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr"/>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H143" s="3" t="inlineStr"/>
@@ -9691,7 +9698,7 @@
       <c r="V143" s="3" t="inlineStr"/>
       <c r="W143" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X143" s="3" t="inlineStr">
@@ -9705,25 +9712,25 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr"/>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr"/>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H144" s="3" t="inlineStr"/>
@@ -9741,11 +9748,7 @@
       <c r="P144" s="3" t="inlineStr"/>
       <c r="Q144" s="3" t="inlineStr"/>
       <c r="R144" s="3" t="inlineStr"/>
-      <c r="S144" s="3" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S144" s="3" t="inlineStr"/>
       <c r="T144" s="3" t="inlineStr"/>
       <c r="U144" s="3" t="inlineStr">
         <is>
@@ -9755,7 +9758,7 @@
       <c r="V144" s="3" t="inlineStr"/>
       <c r="W144" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X144" s="3" t="inlineStr">
@@ -9769,32 +9772,28 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr"/>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr"/>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H145" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H145" s="3" t="inlineStr"/>
       <c r="I145" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9807,14 +9806,14 @@
       <c r="N145" s="3" t="inlineStr"/>
       <c r="O145" s="3" t="inlineStr"/>
       <c r="P145" s="3" t="inlineStr"/>
-      <c r="Q145" s="3" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q145" s="3" t="inlineStr"/>
       <c r="R145" s="3" t="inlineStr"/>
       <c r="S145" s="3" t="inlineStr"/>
-      <c r="T145" s="3" t="inlineStr"/>
+      <c r="T145" s="3" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U145" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9823,7 +9822,7 @@
       <c r="V145" s="3" t="inlineStr"/>
       <c r="W145" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X145" s="3" t="inlineStr">
@@ -9837,32 +9836,28 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr"/>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr"/>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H146" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H146" s="3" t="inlineStr"/>
       <c r="I146" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9887,7 +9882,7 @@
       <c r="V146" s="3" t="inlineStr"/>
       <c r="W146" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X146" s="3" t="inlineStr">
@@ -9901,25 +9896,25 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr"/>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr"/>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t xml:space="preserve">consumption behaviour </t>
         </is>
       </c>
       <c r="H147" s="3" t="inlineStr">
@@ -9939,9 +9934,17 @@
       <c r="N147" s="3" t="inlineStr"/>
       <c r="O147" s="3" t="inlineStr"/>
       <c r="P147" s="3" t="inlineStr"/>
-      <c r="Q147" s="3" t="inlineStr"/>
+      <c r="Q147" s="3" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R147" s="3" t="inlineStr"/>
-      <c r="S147" s="3" t="inlineStr"/>
+      <c r="S147" s="3" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T147" s="3" t="inlineStr"/>
       <c r="U147" s="3" t="inlineStr">
         <is>
@@ -9951,7 +9954,7 @@
       <c r="V147" s="3" t="inlineStr"/>
       <c r="W147" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X147" s="3" t="inlineStr">
@@ -9965,32 +9968,28 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr"/>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr"/>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
-      <c r="H148" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H148" s="3" t="inlineStr"/>
       <c r="I148" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10003,11 +10002,7 @@
       <c r="N148" s="3" t="inlineStr"/>
       <c r="O148" s="3" t="inlineStr"/>
       <c r="P148" s="3" t="inlineStr"/>
-      <c r="Q148" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q148" s="3" t="inlineStr"/>
       <c r="R148" s="3" t="inlineStr"/>
       <c r="S148" s="3" t="inlineStr"/>
       <c r="T148" s="3" t="inlineStr"/>
@@ -10019,7 +10014,7 @@
       <c r="V148" s="3" t="inlineStr"/>
       <c r="W148" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X148" s="3" t="inlineStr">
@@ -10033,32 +10028,28 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr"/>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr"/>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H149" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H149" s="3" t="inlineStr"/>
       <c r="I149" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10071,13 +10062,13 @@
       <c r="N149" s="3" t="inlineStr"/>
       <c r="O149" s="3" t="inlineStr"/>
       <c r="P149" s="3" t="inlineStr"/>
-      <c r="Q149" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q149" s="3" t="inlineStr"/>
       <c r="R149" s="3" t="inlineStr"/>
-      <c r="S149" s="3" t="inlineStr"/>
+      <c r="S149" s="3" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="T149" s="3" t="inlineStr"/>
       <c r="U149" s="3" t="inlineStr">
         <is>
@@ -10087,7 +10078,7 @@
       <c r="V149" s="3" t="inlineStr"/>
       <c r="W149" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X149" s="3" t="inlineStr">
@@ -10099,103 +10090,94 @@
       <c r="Z149" s="3" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050208</t>
-        </is>
-      </c>
-      <c r="B150" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
-      <c r="D150" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="E150" s="3" t="inlineStr"/>
-      <c r="F150" s="3" t="inlineStr"/>
-      <c r="G150" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="H150" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I150" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J150" s="3" t="inlineStr"/>
-      <c r="K150" s="3" t="inlineStr"/>
-      <c r="L150" s="3" t="inlineStr"/>
-      <c r="M150" s="3" t="inlineStr"/>
-      <c r="N150" s="3" t="inlineStr"/>
-      <c r="O150" s="3" t="inlineStr"/>
-      <c r="P150" s="3" t="inlineStr"/>
-      <c r="Q150" s="3" t="inlineStr"/>
-      <c r="R150" s="3" t="inlineStr"/>
-      <c r="S150" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
-      <c r="T150" s="3" t="inlineStr"/>
-      <c r="U150" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V150" s="3" t="inlineStr"/>
-      <c r="W150" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X150" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y150" s="3" t="inlineStr"/>
-      <c r="Z150" s="3" t="inlineStr"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050461</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr"/>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>A vocalisation behaviour that expresses something using words.</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr"/>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="inlineStr"/>
+      <c r="K150" s="2" t="inlineStr"/>
+      <c r="L150" s="2" t="inlineStr"/>
+      <c r="M150" s="2" t="inlineStr"/>
+      <c r="N150" s="2" t="inlineStr"/>
+      <c r="O150" s="2" t="inlineStr"/>
+      <c r="P150" s="2" t="inlineStr"/>
+      <c r="Q150" s="2" t="inlineStr"/>
+      <c r="R150" s="2" t="inlineStr"/>
+      <c r="S150" s="2" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+      <c r="T150" s="2" t="inlineStr"/>
+      <c r="U150" s="2" t="inlineStr"/>
+      <c r="V150" s="2" t="inlineStr"/>
+      <c r="W150" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X150" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y150" s="2" t="inlineStr"/>
+      <c r="Z150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr"/>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr"/>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H151" s="3" t="inlineStr"/>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I151" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10208,14 +10190,14 @@
       <c r="N151" s="3" t="inlineStr"/>
       <c r="O151" s="3" t="inlineStr"/>
       <c r="P151" s="3" t="inlineStr"/>
-      <c r="Q151" s="3" t="inlineStr"/>
+      <c r="Q151" s="3" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R151" s="3" t="inlineStr"/>
       <c r="S151" s="3" t="inlineStr"/>
-      <c r="T151" s="3" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="T151" s="3" t="inlineStr"/>
       <c r="U151" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10224,7 +10206,7 @@
       <c r="V151" s="3" t="inlineStr"/>
       <c r="W151" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X151" s="3" t="inlineStr">
@@ -10238,28 +10220,32 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr"/>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr"/>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
-      <c r="H152" s="3" t="inlineStr"/>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H152" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I152" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10284,7 +10270,7 @@
       <c r="V152" s="3" t="inlineStr"/>
       <c r="W152" s="3" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X152" s="3" t="inlineStr">
@@ -10298,28 +10284,32 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr"/>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr"/>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H153" s="3" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="H153" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I153" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10334,12 +10324,7 @@
       <c r="P153" s="3" t="inlineStr"/>
       <c r="Q153" s="3" t="inlineStr"/>
       <c r="R153" s="3" t="inlineStr"/>
-      <c r="S153" s="3" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S153" s="3" t="inlineStr"/>
       <c r="T153" s="3" t="inlineStr"/>
       <c r="U153" s="3" t="inlineStr">
         <is>
@@ -10349,7 +10334,7 @@
       <c r="V153" s="3" t="inlineStr"/>
       <c r="W153" s="3" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X153" s="3" t="inlineStr">
@@ -10363,28 +10348,32 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr"/>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="H154" s="3" t="inlineStr"/>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
+      <c r="H154" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I154" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10397,13 +10386,13 @@
       <c r="N154" s="3" t="inlineStr"/>
       <c r="O154" s="3" t="inlineStr"/>
       <c r="P154" s="3" t="inlineStr"/>
-      <c r="Q154" s="3" t="inlineStr"/>
+      <c r="Q154" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R154" s="3" t="inlineStr"/>
-      <c r="S154" s="3" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
+      <c r="S154" s="3" t="inlineStr"/>
       <c r="T154" s="3" t="inlineStr"/>
       <c r="U154" s="3" t="inlineStr">
         <is>
@@ -10413,7 +10402,7 @@
       <c r="V154" s="3" t="inlineStr"/>
       <c r="W154" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X154" s="3" t="inlineStr">
@@ -10427,34 +10416,30 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr"/>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr"/>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H155" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I155" s="3" t="inlineStr">
@@ -10468,17 +10453,12 @@
       <c r="M155" s="3" t="inlineStr"/>
       <c r="N155" s="3" t="inlineStr"/>
       <c r="O155" s="3" t="inlineStr"/>
-      <c r="P155" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
-      <c r="Q155" s="3" t="inlineStr"/>
+      <c r="P155" s="3" t="inlineStr"/>
+      <c r="Q155" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R155" s="3" t="inlineStr"/>
       <c r="S155" s="3" t="inlineStr"/>
       <c r="T155" s="3" t="inlineStr"/>
@@ -10504,28 +10484,36 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr"/>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H156" s="3" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H156" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I156" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10542,7 +10530,8 @@
       <c r="R156" s="3" t="inlineStr"/>
       <c r="S156" s="3" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
       <c r="T156" s="3" t="inlineStr"/>
@@ -10554,7 +10543,7 @@
       <c r="V156" s="3" t="inlineStr"/>
       <c r="W156" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X156" s="3" t="inlineStr">
@@ -10568,25 +10557,25 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr"/>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr"/>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H157" s="3" t="inlineStr"/>
@@ -10605,7 +10594,11 @@
       <c r="Q157" s="3" t="inlineStr"/>
       <c r="R157" s="3" t="inlineStr"/>
       <c r="S157" s="3" t="inlineStr"/>
-      <c r="T157" s="3" t="inlineStr"/>
+      <c r="T157" s="3" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U157" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10628,25 +10621,25 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr"/>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour using one's voice to produce sounds.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr"/>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H158" s="3" t="inlineStr"/>
@@ -10674,7 +10667,7 @@
       <c r="V158" s="3" t="inlineStr"/>
       <c r="W158" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X158" s="3" t="inlineStr">
@@ -10688,32 +10681,28 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr"/>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr"/>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H159" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H159" s="3" t="inlineStr"/>
       <c r="I159" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10728,7 +10717,12 @@
       <c r="P159" s="3" t="inlineStr"/>
       <c r="Q159" s="3" t="inlineStr"/>
       <c r="R159" s="3" t="inlineStr"/>
-      <c r="S159" s="3" t="inlineStr"/>
+      <c r="S159" s="3" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
       <c r="T159" s="3" t="inlineStr"/>
       <c r="U159" s="3" t="inlineStr">
         <is>
@@ -10738,7 +10732,7 @@
       <c r="V159" s="3" t="inlineStr"/>
       <c r="W159" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X159" s="3" t="inlineStr">
@@ -10752,25 +10746,25 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr"/>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr"/>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H160" s="3" t="inlineStr"/>
@@ -10788,12 +10782,12 @@
       <c r="P160" s="3" t="inlineStr"/>
       <c r="Q160" s="3" t="inlineStr"/>
       <c r="R160" s="3" t="inlineStr"/>
-      <c r="S160" s="3" t="inlineStr"/>
-      <c r="T160" s="3" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S160" s="3" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T160" s="3" t="inlineStr"/>
       <c r="U160" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10812,6 +10806,395 @@
       </c>
       <c r="Y160" s="3" t="inlineStr"/>
       <c r="Z160" s="3" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr"/>
+      <c r="F161" s="3" t="inlineStr"/>
+      <c r="G161" s="3" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H161" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I161" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J161" s="3" t="inlineStr"/>
+      <c r="K161" s="3" t="inlineStr"/>
+      <c r="L161" s="3" t="inlineStr"/>
+      <c r="M161" s="3" t="inlineStr"/>
+      <c r="N161" s="3" t="inlineStr"/>
+      <c r="O161" s="3" t="inlineStr"/>
+      <c r="P161" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
+      <c r="Q161" s="3" t="inlineStr"/>
+      <c r="R161" s="3" t="inlineStr"/>
+      <c r="S161" s="3" t="inlineStr"/>
+      <c r="T161" s="3" t="inlineStr"/>
+      <c r="U161" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V161" s="3" t="inlineStr"/>
+      <c r="W161" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X161" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y161" s="3" t="inlineStr"/>
+      <c r="Z161" s="3" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050399</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr"/>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr"/>
+      <c r="F162" s="3" t="inlineStr"/>
+      <c r="G162" s="3" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H162" s="3" t="inlineStr"/>
+      <c r="I162" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J162" s="3" t="inlineStr"/>
+      <c r="K162" s="3" t="inlineStr"/>
+      <c r="L162" s="3" t="inlineStr"/>
+      <c r="M162" s="3" t="inlineStr"/>
+      <c r="N162" s="3" t="inlineStr"/>
+      <c r="O162" s="3" t="inlineStr"/>
+      <c r="P162" s="3" t="inlineStr"/>
+      <c r="Q162" s="3" t="inlineStr"/>
+      <c r="R162" s="3" t="inlineStr"/>
+      <c r="S162" s="3" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
+      <c r="T162" s="3" t="inlineStr"/>
+      <c r="U162" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V162" s="3" t="inlineStr"/>
+      <c r="W162" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X162" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y162" s="3" t="inlineStr"/>
+      <c r="Z162" s="3" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050379</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr"/>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr"/>
+      <c r="F163" s="3" t="inlineStr"/>
+      <c r="G163" s="3" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H163" s="3" t="inlineStr"/>
+      <c r="I163" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J163" s="3" t="inlineStr"/>
+      <c r="K163" s="3" t="inlineStr"/>
+      <c r="L163" s="3" t="inlineStr"/>
+      <c r="M163" s="3" t="inlineStr"/>
+      <c r="N163" s="3" t="inlineStr"/>
+      <c r="O163" s="3" t="inlineStr"/>
+      <c r="P163" s="3" t="inlineStr"/>
+      <c r="Q163" s="3" t="inlineStr"/>
+      <c r="R163" s="3" t="inlineStr"/>
+      <c r="S163" s="3" t="inlineStr"/>
+      <c r="T163" s="3" t="inlineStr"/>
+      <c r="U163" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V163" s="3" t="inlineStr"/>
+      <c r="W163" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X163" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y163" s="3" t="inlineStr"/>
+      <c r="Z163" s="3" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050442</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr"/>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr"/>
+      <c r="F164" s="3" t="inlineStr"/>
+      <c r="G164" s="3" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H164" s="3" t="inlineStr"/>
+      <c r="I164" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J164" s="3" t="inlineStr"/>
+      <c r="K164" s="3" t="inlineStr"/>
+      <c r="L164" s="3" t="inlineStr"/>
+      <c r="M164" s="3" t="inlineStr"/>
+      <c r="N164" s="3" t="inlineStr"/>
+      <c r="O164" s="3" t="inlineStr"/>
+      <c r="P164" s="3" t="inlineStr"/>
+      <c r="Q164" s="3" t="inlineStr"/>
+      <c r="R164" s="3" t="inlineStr"/>
+      <c r="S164" s="3" t="inlineStr"/>
+      <c r="T164" s="3" t="inlineStr"/>
+      <c r="U164" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V164" s="3" t="inlineStr"/>
+      <c r="W164" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X164" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y164" s="3" t="inlineStr"/>
+      <c r="Z164" s="3" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr"/>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="inlineStr"/>
+      <c r="F165" s="3" t="inlineStr"/>
+      <c r="G165" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H165" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I165" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J165" s="3" t="inlineStr"/>
+      <c r="K165" s="3" t="inlineStr"/>
+      <c r="L165" s="3" t="inlineStr"/>
+      <c r="M165" s="3" t="inlineStr"/>
+      <c r="N165" s="3" t="inlineStr"/>
+      <c r="O165" s="3" t="inlineStr"/>
+      <c r="P165" s="3" t="inlineStr"/>
+      <c r="Q165" s="3" t="inlineStr"/>
+      <c r="R165" s="3" t="inlineStr"/>
+      <c r="S165" s="3" t="inlineStr"/>
+      <c r="T165" s="3" t="inlineStr"/>
+      <c r="U165" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V165" s="3" t="inlineStr"/>
+      <c r="W165" s="3" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="X165" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y165" s="3" t="inlineStr"/>
+      <c r="Z165" s="3" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr"/>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr"/>
+      <c r="F166" s="3" t="inlineStr"/>
+      <c r="G166" s="3" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H166" s="3" t="inlineStr"/>
+      <c r="I166" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J166" s="3" t="inlineStr"/>
+      <c r="K166" s="3" t="inlineStr"/>
+      <c r="L166" s="3" t="inlineStr"/>
+      <c r="M166" s="3" t="inlineStr"/>
+      <c r="N166" s="3" t="inlineStr"/>
+      <c r="O166" s="3" t="inlineStr"/>
+      <c r="P166" s="3" t="inlineStr"/>
+      <c r="Q166" s="3" t="inlineStr"/>
+      <c r="R166" s="3" t="inlineStr"/>
+      <c r="S166" s="3" t="inlineStr"/>
+      <c r="T166" s="3" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U166" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V166" s="3" t="inlineStr"/>
+      <c r="W166" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X166" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y166" s="3" t="inlineStr"/>
+      <c r="Z166" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -2631,10 +2631,16 @@
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+        </is>
+      </c>
       <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V33" s="2" t="inlineStr"/>
       <c r="W33" s="2" t="inlineStr">
         <is>
@@ -3719,7 +3725,9 @@
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V50" s="2" t="inlineStr"/>
       <c r="W50" s="2" t="inlineStr">
         <is>
@@ -3783,7 +3791,9 @@
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V51" s="2" t="inlineStr"/>
       <c r="W51" s="2" t="inlineStr">
         <is>
@@ -3907,7 +3917,9 @@
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V53" s="2" t="inlineStr"/>
       <c r="W53" s="2" t="inlineStr">
         <is>
@@ -7748,7 +7760,9 @@
         </is>
       </c>
       <c r="T112" s="2" t="inlineStr"/>
-      <c r="U112" s="2" t="inlineStr"/>
+      <c r="U112" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V112" s="2" t="inlineStr"/>
       <c r="W112" s="2" t="inlineStr">
         <is>
@@ -10134,7 +10148,9 @@
         </is>
       </c>
       <c r="T150" s="2" t="inlineStr"/>
-      <c r="U150" s="2" t="inlineStr"/>
+      <c r="U150" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2638,8 +2638,10 @@
       </c>
       <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="n">
-        <v>0</v>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V33" s="2" t="inlineStr"/>
       <c r="W33" s="2" t="inlineStr">
@@ -3725,8 +3727,10 @@
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="n">
-        <v>0</v>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V50" s="2" t="inlineStr"/>
       <c r="W50" s="2" t="inlineStr">
@@ -3791,8 +3795,10 @@
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="n">
-        <v>0</v>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V51" s="2" t="inlineStr"/>
       <c r="W51" s="2" t="inlineStr">
@@ -3917,8 +3923,10 @@
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="n">
-        <v>0</v>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V53" s="2" t="inlineStr"/>
       <c r="W53" s="2" t="inlineStr">
@@ -4252,321 +4260,282 @@
       <c r="Z58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr"/>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="inlineStr"/>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr"/>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J59" s="3" t="inlineStr"/>
-      <c r="K59" s="3" t="inlineStr"/>
-      <c r="L59" s="3" t="inlineStr"/>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
-      <c r="O59" s="3" t="inlineStr"/>
-      <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="inlineStr"/>
-      <c r="R59" s="3" t="inlineStr"/>
-      <c r="S59" s="3" t="inlineStr"/>
-      <c r="T59" s="3" t="inlineStr">
-        <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
-        </is>
-      </c>
-      <c r="U59" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" s="3" t="inlineStr"/>
-      <c r="W59" s="3" t="inlineStr">
-        <is>
-          <t>OC; PS</t>
-        </is>
-      </c>
-      <c r="X59" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y59" s="3" t="inlineStr"/>
-      <c r="Z59" s="3" t="inlineStr"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050462</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr"/>
+      <c r="Q59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59" s="2" t="inlineStr"/>
+      <c r="W59" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X59" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y59" s="2" t="inlineStr"/>
+      <c r="Z59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036001</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="3" t="inlineStr"/>
-      <c r="G60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">function </t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="inlineStr"/>
-      <c r="I60" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J60" s="3" t="inlineStr"/>
-      <c r="K60" s="3" t="inlineStr"/>
-      <c r="L60" s="3" t="inlineStr"/>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr"/>
-      <c r="O60" s="3" t="inlineStr"/>
-      <c r="P60" s="3" t="inlineStr"/>
-      <c r="Q60" s="3" t="inlineStr"/>
-      <c r="R60" s="3" t="inlineStr"/>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="inlineStr">
-        <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
-        </is>
-      </c>
-      <c r="U60" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" s="3" t="inlineStr"/>
-      <c r="W60" s="3" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
-      <c r="X60" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y60" s="3" t="inlineStr"/>
-      <c r="Z60" s="3" t="inlineStr"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050463</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>high emotional management  exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr"/>
+      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y60" s="2" t="inlineStr"/>
+      <c r="Z60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036076</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr"/>
-      <c r="I61" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
-      <c r="P61" s="3" t="inlineStr"/>
-      <c r="Q61" s="3" t="inlineStr"/>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
-      <c r="T61" s="3" t="inlineStr"/>
-      <c r="U61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" s="3" t="inlineStr"/>
-      <c r="W61" s="3" t="inlineStr">
-        <is>
-          <t>OC; PS; RW</t>
-        </is>
-      </c>
-      <c r="X61" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y61" s="3" t="inlineStr"/>
-      <c r="Z61" s="3" t="inlineStr"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050464</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Mental exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" s="2" t="inlineStr"/>
+      <c r="W61" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X61" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y61" s="2" t="inlineStr"/>
+      <c r="Z61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="3" t="inlineStr"/>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="inlineStr"/>
-      <c r="I62" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr"/>
-      <c r="L62" s="3" t="inlineStr"/>
-      <c r="M62" s="3" t="inlineStr"/>
-      <c r="N62" s="3" t="inlineStr"/>
-      <c r="O62" s="3" t="inlineStr"/>
-      <c r="P62" s="3" t="inlineStr"/>
-      <c r="Q62" s="3" t="inlineStr"/>
-      <c r="R62" s="3" t="inlineStr"/>
-      <c r="S62" s="3" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
-        </is>
-      </c>
-      <c r="T62" s="3" t="inlineStr"/>
-      <c r="U62" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" s="3" t="inlineStr"/>
-      <c r="W62" s="3" t="inlineStr">
-        <is>
-          <t>RW; OC; JH</t>
-        </is>
-      </c>
-      <c r="X62" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y62" s="3" t="inlineStr"/>
-      <c r="Z62" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
-o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
-</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050465</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
+      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2" t="inlineStr"/>
+      <c r="W62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X62" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y62" s="2" t="inlineStr"/>
+      <c r="Z62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr"/>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
+        </is>
+      </c>
       <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr"/>
       <c r="I63" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4579,20 +4548,12 @@
       <c r="N63" s="3" t="inlineStr"/>
       <c r="O63" s="3" t="inlineStr"/>
       <c r="P63" s="3" t="inlineStr"/>
-      <c r="Q63" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
+      <c r="Q63" s="3" t="inlineStr"/>
       <c r="R63" s="3" t="inlineStr"/>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
+      <c r="S63" s="3" t="inlineStr"/>
       <c r="T63" s="3" t="inlineStr">
         <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
         </is>
       </c>
       <c r="U63" s="3" t="inlineStr">
@@ -4603,7 +4564,7 @@
       <c r="V63" s="3" t="inlineStr"/>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X63" s="3" t="inlineStr">
@@ -4617,36 +4578,28 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr"/>
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t xml:space="preserve">function </t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr"/>
       <c r="I64" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -4658,7 +4611,310 @@
       <c r="M64" s="3" t="inlineStr"/>
       <c r="N64" s="3" t="inlineStr"/>
       <c r="O64" s="3" t="inlineStr"/>
-      <c r="P64" s="3" t="inlineStr">
+      <c r="P64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="T64" s="3" t="inlineStr">
+        <is>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+        </is>
+      </c>
+      <c r="U64" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V64" s="3" t="inlineStr"/>
+      <c r="W64" s="3" t="inlineStr">
+        <is>
+          <t>RW; OC; PS</t>
+        </is>
+      </c>
+      <c r="X64" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y64" s="3" t="inlineStr"/>
+      <c r="Z64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036076</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr"/>
+      <c r="F65" s="3" t="inlineStr"/>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr"/>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="inlineStr"/>
+      <c r="K65" s="3" t="inlineStr"/>
+      <c r="L65" s="3" t="inlineStr"/>
+      <c r="M65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="T65" s="3" t="inlineStr"/>
+      <c r="U65" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V65" s="3" t="inlineStr"/>
+      <c r="W65" s="3" t="inlineStr">
+        <is>
+          <t>OC; PS; RW</t>
+        </is>
+      </c>
+      <c r="X65" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y65" s="3" t="inlineStr"/>
+      <c r="Z65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr"/>
+      <c r="F66" s="3" t="inlineStr"/>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr"/>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr"/>
+      <c r="L66" s="3" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="inlineStr"/>
+      <c r="R66" s="3" t="inlineStr"/>
+      <c r="S66" s="3" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+        </is>
+      </c>
+      <c r="T66" s="3" t="inlineStr"/>
+      <c r="U66" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V66" s="3" t="inlineStr"/>
+      <c r="W66" s="3" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="X66" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y66" s="3" t="inlineStr"/>
+      <c r="Z66" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
+o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr"/>
+      <c r="F67" s="3" t="inlineStr"/>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J67" s="3" t="inlineStr"/>
+      <c r="K67" s="3" t="inlineStr"/>
+      <c r="L67" s="3" t="inlineStr"/>
+      <c r="M67" s="3" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr"/>
+      <c r="Q67" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="R67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="T67" s="3" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
+      <c r="U67" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V67" s="3" t="inlineStr"/>
+      <c r="W67" s="3" t="inlineStr">
+        <is>
+          <t>RW; PS</t>
+        </is>
+      </c>
+      <c r="X67" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y67" s="3" t="inlineStr"/>
+      <c r="Z67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr"/>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr"/>
+      <c r="K68" s="3" t="inlineStr"/>
+      <c r="L68" s="3" t="inlineStr"/>
+      <c r="M68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr"/>
+      <c r="P68" s="3" t="inlineStr">
         <is>
           <t>b is a behaviour pattern means:
 - b is instance_of uniform process aggregate; 
@@ -4670,286 +4926,18 @@
 - For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
-      <c r="Q64" s="3" t="inlineStr">
+      <c r="Q68" s="3" t="inlineStr">
         <is>
           <t>behaviour pattern</t>
         </is>
       </c>
-      <c r="R64" s="3" t="inlineStr"/>
-      <c r="S64" s="3" t="inlineStr">
+      <c r="R68" s="3" t="inlineStr"/>
+      <c r="S68" s="3" t="inlineStr">
         <is>
           <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
 This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
-      <c r="T64" s="3" t="inlineStr"/>
-      <c r="U64" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" s="3" t="inlineStr"/>
-      <c r="W64" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X64" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y64" s="3" t="inlineStr"/>
-      <c r="Z64" s="3" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050207</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="3" t="inlineStr"/>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I65" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J65" s="3" t="inlineStr"/>
-      <c r="K65" s="3" t="inlineStr"/>
-      <c r="L65" s="3" t="inlineStr"/>
-      <c r="M65" s="3" t="inlineStr"/>
-      <c r="N65" s="3" t="inlineStr"/>
-      <c r="O65" s="3" t="inlineStr"/>
-      <c r="P65" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
-        </is>
-      </c>
-      <c r="Q65" s="3" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="R65" s="3" t="inlineStr"/>
-      <c r="S65" s="3" t="inlineStr"/>
-      <c r="T65" s="3" t="inlineStr"/>
-      <c r="U65" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" s="3" t="inlineStr"/>
-      <c r="W65" s="3" t="inlineStr">
-        <is>
-          <t>RW; PS</t>
-        </is>
-      </c>
-      <c r="X65" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y65" s="3" t="inlineStr"/>
-      <c r="Z65" s="3" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050394</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr"/>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr"/>
-      <c r="F66" s="3" t="inlineStr"/>
-      <c r="G66" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H66" s="3" t="inlineStr"/>
-      <c r="I66" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J66" s="3" t="inlineStr"/>
-      <c r="K66" s="3" t="inlineStr"/>
-      <c r="L66" s="3" t="inlineStr"/>
-      <c r="M66" s="3" t="inlineStr"/>
-      <c r="N66" s="3" t="inlineStr"/>
-      <c r="O66" s="3" t="inlineStr"/>
-      <c r="P66" s="3" t="inlineStr"/>
-      <c r="Q66" s="3" t="inlineStr"/>
-      <c r="R66" s="3" t="inlineStr"/>
-      <c r="S66" s="3" t="inlineStr"/>
-      <c r="T66" s="3" t="inlineStr"/>
-      <c r="U66" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V66" s="3" t="inlineStr"/>
-      <c r="W66" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X66" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y66" s="3" t="inlineStr"/>
-      <c r="Z66" s="3" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050447</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr"/>
-      <c r="F67" s="3" t="inlineStr"/>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H67" s="3" t="inlineStr"/>
-      <c r="I67" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J67" s="3" t="inlineStr"/>
-      <c r="K67" s="3" t="inlineStr"/>
-      <c r="L67" s="3" t="inlineStr"/>
-      <c r="M67" s="3" t="inlineStr"/>
-      <c r="N67" s="3" t="inlineStr"/>
-      <c r="O67" s="3" t="inlineStr"/>
-      <c r="P67" s="3" t="inlineStr"/>
-      <c r="Q67" s="3" t="inlineStr"/>
-      <c r="R67" s="3" t="inlineStr"/>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
-      <c r="T67" s="3" t="inlineStr"/>
-      <c r="U67" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V67" s="3" t="inlineStr"/>
-      <c r="W67" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X67" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y67" s="3" t="inlineStr"/>
-      <c r="Z67" s="3" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr"/>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="3" t="inlineStr"/>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I68" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J68" s="3" t="inlineStr"/>
-      <c r="K68" s="3" t="inlineStr"/>
-      <c r="L68" s="3" t="inlineStr"/>
-      <c r="M68" s="3" t="inlineStr"/>
-      <c r="N68" s="3" t="inlineStr"/>
-      <c r="O68" s="3" t="inlineStr"/>
-      <c r="P68" s="3" t="inlineStr"/>
-      <c r="Q68" s="3" t="inlineStr"/>
-      <c r="R68" s="3" t="inlineStr"/>
-      <c r="S68" s="3" t="inlineStr"/>
       <c r="T68" s="3" t="inlineStr"/>
       <c r="U68" s="3" t="inlineStr">
         <is>
@@ -4959,7 +4947,7 @@
       <c r="V68" s="3" t="inlineStr"/>
       <c r="W68" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X68" s="3" t="inlineStr">
@@ -4973,28 +4961,36 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr"/>
       <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I69" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5006,8 +5002,16 @@
       <c r="M69" s="3" t="inlineStr"/>
       <c r="N69" s="3" t="inlineStr"/>
       <c r="O69" s="3" t="inlineStr"/>
-      <c r="P69" s="3" t="inlineStr"/>
-      <c r="Q69" s="3" t="inlineStr"/>
+      <c r="P69" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="Q69" s="3" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
       <c r="R69" s="3" t="inlineStr"/>
       <c r="S69" s="3" t="inlineStr"/>
       <c r="T69" s="3" t="inlineStr"/>
@@ -5019,7 +5023,7 @@
       <c r="V69" s="3" t="inlineStr"/>
       <c r="W69" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="X69" s="3" t="inlineStr">
@@ -5033,25 +5037,25 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr"/>
       <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H70" s="3" t="inlineStr"/>
@@ -5079,7 +5083,7 @@
       <c r="V70" s="3" t="inlineStr"/>
       <c r="W70" s="3" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X70" s="3" t="inlineStr">
@@ -5093,30 +5097,29 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
-https://www.merriam-webster.com/dictionary/laugh</t>
-        </is>
-      </c>
+      <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H71" s="3" t="inlineStr"/>
@@ -5134,7 +5137,11 @@
       <c r="P71" s="3" t="inlineStr"/>
       <c r="Q71" s="3" t="inlineStr"/>
       <c r="R71" s="3" t="inlineStr"/>
-      <c r="S71" s="3" t="inlineStr"/>
+      <c r="S71" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="T71" s="3" t="inlineStr"/>
       <c r="U71" s="3" t="inlineStr">
         <is>
@@ -5158,25 +5165,25 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H72" s="3" t="inlineStr">
@@ -5199,11 +5206,7 @@
       <c r="Q72" s="3" t="inlineStr"/>
       <c r="R72" s="3" t="inlineStr"/>
       <c r="S72" s="3" t="inlineStr"/>
-      <c r="T72" s="3" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="T72" s="3" t="inlineStr"/>
       <c r="U72" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5226,25 +5229,25 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="H73" s="3" t="inlineStr"/>
@@ -5272,7 +5275,7 @@
       <c r="V73" s="3" t="inlineStr"/>
       <c r="W73" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X73" s="3" t="inlineStr">
@@ -5286,25 +5289,25 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr"/>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H74" s="3" t="inlineStr"/>
@@ -5332,7 +5335,7 @@
       <c r="V74" s="3" t="inlineStr"/>
       <c r="W74" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH</t>
         </is>
       </c>
       <c r="X74" s="3" t="inlineStr">
@@ -5346,32 +5349,33 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr"/>
-      <c r="F75" s="3" t="inlineStr"/>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
+https://www.merriam-webster.com/dictionary/laugh</t>
+        </is>
+      </c>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H75" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr"/>
       <c r="I75" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5387,11 +5391,7 @@
       <c r="Q75" s="3" t="inlineStr"/>
       <c r="R75" s="3" t="inlineStr"/>
       <c r="S75" s="3" t="inlineStr"/>
-      <c r="T75" s="3" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="T75" s="3" t="inlineStr"/>
       <c r="U75" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5400,7 +5400,7 @@
       <c r="V75" s="3" t="inlineStr"/>
       <c r="W75" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X75" s="3" t="inlineStr">
@@ -5414,28 +5414,32 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
       <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H76" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I76" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5451,7 +5455,11 @@
       <c r="Q76" s="3" t="inlineStr"/>
       <c r="R76" s="3" t="inlineStr"/>
       <c r="S76" s="3" t="inlineStr"/>
-      <c r="T76" s="3" t="inlineStr"/>
+      <c r="T76" s="3" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5460,7 +5468,7 @@
       <c r="V76" s="3" t="inlineStr"/>
       <c r="W76" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X76" s="3" t="inlineStr">
@@ -5474,25 +5482,25 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr"/>
@@ -5520,7 +5528,7 @@
       <c r="V77" s="3" t="inlineStr"/>
       <c r="W77" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X77" s="3" t="inlineStr">
@@ -5534,25 +5542,25 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H78" s="3" t="inlineStr"/>
@@ -5571,11 +5579,7 @@
       <c r="Q78" s="3" t="inlineStr"/>
       <c r="R78" s="3" t="inlineStr"/>
       <c r="S78" s="3" t="inlineStr"/>
-      <c r="T78" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T78" s="3" t="inlineStr"/>
       <c r="U78" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5584,7 +5588,7 @@
       <c r="V78" s="3" t="inlineStr"/>
       <c r="W78" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X78" s="3" t="inlineStr">
@@ -5598,28 +5602,32 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H79" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5635,7 +5643,11 @@
       <c r="Q79" s="3" t="inlineStr"/>
       <c r="R79" s="3" t="inlineStr"/>
       <c r="S79" s="3" t="inlineStr"/>
-      <c r="T79" s="3" t="inlineStr"/>
+      <c r="T79" s="3" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -5644,7 +5656,7 @@
       <c r="V79" s="3" t="inlineStr"/>
       <c r="W79" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X79" s="3" t="inlineStr">
@@ -5656,287 +5668,275 @@
       <c r="Z79" s="3" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050412</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr"/>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="E80" s="3" t="inlineStr"/>
-      <c r="F80" s="3" t="inlineStr"/>
-      <c r="G80" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H80" s="3" t="inlineStr"/>
-      <c r="I80" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J80" s="3" t="inlineStr"/>
-      <c r="K80" s="3" t="inlineStr"/>
-      <c r="L80" s="3" t="inlineStr"/>
-      <c r="M80" s="3" t="inlineStr"/>
-      <c r="N80" s="3" t="inlineStr"/>
-      <c r="O80" s="3" t="inlineStr"/>
-      <c r="P80" s="3" t="inlineStr"/>
-      <c r="Q80" s="3" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
-      <c r="R80" s="3" t="inlineStr"/>
-      <c r="S80" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
-      <c r="T80" s="3" t="inlineStr"/>
-      <c r="U80" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V80" s="3" t="inlineStr"/>
-      <c r="W80" s="3" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050466</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr"/>
+      <c r="Q80" s="2" t="inlineStr"/>
+      <c r="R80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T80" s="2" t="inlineStr"/>
+      <c r="U80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80" s="2" t="inlineStr"/>
+      <c r="W80" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X80" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y80" s="3" t="inlineStr"/>
-      <c r="Z80" s="3" t="inlineStr"/>
+      <c r="X80" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y80" s="2" t="inlineStr"/>
+      <c r="Z80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050431</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050467</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr"/>
+      <c r="K81" s="2" t="inlineStr"/>
+      <c r="L81" s="2" t="inlineStr"/>
+      <c r="M81" s="2" t="inlineStr"/>
+      <c r="N81" s="2" t="inlineStr"/>
+      <c r="O81" s="2" t="inlineStr"/>
+      <c r="P81" s="2" t="inlineStr"/>
+      <c r="Q81" s="2" t="inlineStr"/>
+      <c r="R81" s="2" t="inlineStr"/>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T81" s="2" t="inlineStr"/>
+      <c r="U81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81" s="2" t="inlineStr"/>
+      <c r="W81" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X81" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y81" s="2" t="inlineStr"/>
+      <c r="Z81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050468</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Mental exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr"/>
-      <c r="F81" s="3" t="inlineStr"/>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="H81" s="3" t="inlineStr"/>
-      <c r="I81" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J81" s="3" t="inlineStr"/>
-      <c r="K81" s="3" t="inlineStr"/>
-      <c r="L81" s="3" t="inlineStr"/>
-      <c r="M81" s="3" t="inlineStr"/>
-      <c r="N81" s="3" t="inlineStr"/>
-      <c r="O81" s="3" t="inlineStr"/>
-      <c r="P81" s="3" t="inlineStr"/>
-      <c r="Q81" s="3" t="inlineStr"/>
-      <c r="R81" s="3" t="inlineStr"/>
-      <c r="S81" s="3" t="inlineStr"/>
-      <c r="T81" s="3" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="U81" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V81" s="3" t="inlineStr"/>
-      <c r="W81" s="3" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="X81" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y81" s="3" t="inlineStr"/>
-      <c r="Z81" s="3" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036041</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr"/>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="E82" s="3" t="inlineStr"/>
-      <c r="F82" s="3" t="inlineStr"/>
-      <c r="G82" s="3" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H82" s="3" t="inlineStr"/>
-      <c r="I82" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J82" s="3" t="inlineStr"/>
-      <c r="K82" s="3" t="inlineStr"/>
-      <c r="L82" s="3" t="inlineStr"/>
-      <c r="M82" s="3" t="inlineStr"/>
-      <c r="N82" s="3" t="inlineStr"/>
-      <c r="O82" s="3" t="inlineStr"/>
-      <c r="P82" s="3" t="inlineStr"/>
-      <c r="Q82" s="3" t="inlineStr"/>
-      <c r="R82" s="3" t="inlineStr"/>
-      <c r="S82" s="3" t="inlineStr"/>
-      <c r="T82" s="3" t="inlineStr">
-        <is>
-          <t>Yoga, Taichi</t>
-        </is>
-      </c>
-      <c r="U82" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V82" s="3" t="inlineStr"/>
-      <c r="W82" s="3" t="inlineStr">
-        <is>
-          <t>OC; PS</t>
-        </is>
-      </c>
-      <c r="X82" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y82" s="3" t="inlineStr"/>
-      <c r="Z82" s="3" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr"/>
+      <c r="N82" s="2" t="inlineStr"/>
+      <c r="O82" s="2" t="inlineStr"/>
+      <c r="P82" s="2" t="inlineStr"/>
+      <c r="Q82" s="2" t="inlineStr"/>
+      <c r="R82" s="2" t="inlineStr"/>
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T82" s="2" t="inlineStr"/>
+      <c r="U82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82" s="2" t="inlineStr"/>
+      <c r="W82" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X82" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y82" s="2" t="inlineStr"/>
+      <c r="Z82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr"/>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr"/>
-      <c r="F83" s="3" t="inlineStr"/>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="inlineStr"/>
-      <c r="I83" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J83" s="3" t="inlineStr"/>
-      <c r="K83" s="3" t="inlineStr"/>
-      <c r="L83" s="3" t="inlineStr"/>
-      <c r="M83" s="3" t="inlineStr"/>
-      <c r="N83" s="3" t="inlineStr"/>
-      <c r="O83" s="3" t="inlineStr"/>
-      <c r="P83" s="3" t="inlineStr"/>
-      <c r="Q83" s="3" t="inlineStr"/>
-      <c r="R83" s="3" t="inlineStr"/>
-      <c r="S83" s="3" t="inlineStr"/>
-      <c r="T83" s="3" t="inlineStr"/>
-      <c r="U83" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V83" s="3" t="inlineStr"/>
-      <c r="W83" s="3" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050469</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr"/>
+      <c r="M83" s="2" t="inlineStr"/>
+      <c r="N83" s="2" t="inlineStr"/>
+      <c r="O83" s="2" t="inlineStr"/>
+      <c r="P83" s="2" t="inlineStr"/>
+      <c r="Q83" s="2" t="inlineStr"/>
+      <c r="R83" s="2" t="inlineStr"/>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
+      <c r="T83" s="2" t="inlineStr"/>
+      <c r="U83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83" s="2" t="inlineStr"/>
+      <c r="W83" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X83" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y83" s="3" t="inlineStr"/>
-      <c r="Z83" s="3" t="inlineStr"/>
+      <c r="X83" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y83" s="2" t="inlineStr"/>
+      <c r="Z83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr"/>
       <c r="F84" s="3" t="inlineStr"/>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H84" s="3" t="inlineStr"/>
@@ -5964,7 +5964,7 @@
       <c r="V84" s="3" t="inlineStr"/>
       <c r="W84" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X84" s="3" t="inlineStr">
@@ -5978,25 +5978,25 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr"/>
       <c r="F85" s="3" t="inlineStr"/>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H85" s="3" t="inlineStr"/>
@@ -6024,7 +6024,7 @@
       <c r="V85" s="3" t="inlineStr"/>
       <c r="W85" s="3" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X85" s="3" t="inlineStr">
@@ -6038,25 +6038,25 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr"/>
       <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H86" s="3" t="inlineStr"/>
@@ -6075,7 +6075,11 @@
       <c r="Q86" s="3" t="inlineStr"/>
       <c r="R86" s="3" t="inlineStr"/>
       <c r="S86" s="3" t="inlineStr"/>
-      <c r="T86" s="3" t="inlineStr"/>
+      <c r="T86" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6084,7 +6088,7 @@
       <c r="V86" s="3" t="inlineStr"/>
       <c r="W86" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X86" s="3" t="inlineStr">
@@ -6098,25 +6102,25 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr"/>
       <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr"/>
@@ -6134,16 +6138,8 @@
       <c r="P87" s="3" t="inlineStr"/>
       <c r="Q87" s="3" t="inlineStr"/>
       <c r="R87" s="3" t="inlineStr"/>
-      <c r="S87" s="3" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T87" s="3" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S87" s="3" t="inlineStr"/>
+      <c r="T87" s="3" t="inlineStr"/>
       <c r="U87" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6152,7 +6148,7 @@
       <c r="V87" s="3" t="inlineStr"/>
       <c r="W87" s="3" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X87" s="3" t="inlineStr">
@@ -6166,25 +6162,25 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr"/>
       <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H88" s="3" t="inlineStr"/>
@@ -6200,9 +6196,17 @@
       <c r="N88" s="3" t="inlineStr"/>
       <c r="O88" s="3" t="inlineStr"/>
       <c r="P88" s="3" t="inlineStr"/>
-      <c r="Q88" s="3" t="inlineStr"/>
+      <c r="Q88" s="3" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R88" s="3" t="inlineStr"/>
-      <c r="S88" s="3" t="inlineStr"/>
+      <c r="S88" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
       <c r="T88" s="3" t="inlineStr"/>
       <c r="U88" s="3" t="inlineStr">
         <is>
@@ -6226,29 +6230,29 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H89" s="3" t="inlineStr"/>
@@ -6269,7 +6273,7 @@
       <c r="S89" s="3" t="inlineStr"/>
       <c r="T89" s="3" t="inlineStr">
         <is>
-          <t>harassment behaviour occurred three times</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U89" s="3" t="inlineStr">
@@ -6294,25 +6298,25 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr"/>
       <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr"/>
@@ -6330,15 +6334,10 @@
       <c r="P90" s="3" t="inlineStr"/>
       <c r="Q90" s="3" t="inlineStr"/>
       <c r="R90" s="3" t="inlineStr"/>
-      <c r="S90" s="3" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="S90" s="3" t="inlineStr"/>
       <c r="T90" s="3" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>Yoga, Taichi</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
@@ -6361,287 +6360,275 @@
       <c r="Z90" s="3" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036005</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object management behaviour </t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr"/>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
-        </is>
-      </c>
-      <c r="E91" s="3" t="inlineStr"/>
-      <c r="F91" s="3" t="inlineStr"/>
-      <c r="G91" s="3" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="H91" s="3" t="inlineStr"/>
-      <c r="I91" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J91" s="3" t="inlineStr"/>
-      <c r="K91" s="3" t="inlineStr"/>
-      <c r="L91" s="3" t="inlineStr"/>
-      <c r="M91" s="3" t="inlineStr"/>
-      <c r="N91" s="3" t="inlineStr"/>
-      <c r="O91" s="3" t="inlineStr"/>
-      <c r="P91" s="3" t="inlineStr"/>
-      <c r="Q91" s="3" t="inlineStr"/>
-      <c r="R91" s="3" t="inlineStr"/>
-      <c r="S91" s="3" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
-        </is>
-      </c>
-      <c r="T91" s="3" t="inlineStr">
-        <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
-        </is>
-      </c>
-      <c r="U91" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V91" s="3" t="inlineStr"/>
-      <c r="W91" s="3" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
-      <c r="X91" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y91" s="3" t="inlineStr"/>
-      <c r="Z91" s="3" t="inlineStr"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050470</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr"/>
+      <c r="L91" s="2" t="inlineStr"/>
+      <c r="M91" s="2" t="inlineStr"/>
+      <c r="N91" s="2" t="inlineStr"/>
+      <c r="O91" s="2" t="inlineStr"/>
+      <c r="P91" s="2" t="inlineStr"/>
+      <c r="Q91" s="2" t="inlineStr"/>
+      <c r="R91" s="2" t="inlineStr"/>
+      <c r="S91" s="2" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T91" s="2" t="inlineStr"/>
+      <c r="U91" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V91" s="2" t="inlineStr"/>
+      <c r="W91" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X91" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y91" s="2" t="inlineStr"/>
+      <c r="Z91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036027</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object-using behaviour </t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr"/>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr"/>
-      <c r="F92" s="3" t="inlineStr"/>
-      <c r="G92" s="3" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H92" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I92" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J92" s="3" t="inlineStr"/>
-      <c r="K92" s="3" t="inlineStr"/>
-      <c r="L92" s="3" t="inlineStr"/>
-      <c r="M92" s="3" t="inlineStr"/>
-      <c r="N92" s="3" t="inlineStr"/>
-      <c r="O92" s="3" t="inlineStr"/>
-      <c r="P92" s="3" t="inlineStr"/>
-      <c r="Q92" s="3" t="inlineStr"/>
-      <c r="R92" s="3" t="inlineStr"/>
-      <c r="S92" s="3" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
-        </is>
-      </c>
-      <c r="T92" s="3" t="inlineStr">
-        <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
-        </is>
-      </c>
-      <c r="U92" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V92" s="3" t="inlineStr"/>
-      <c r="W92" s="3" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
-      <c r="X92" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y92" s="3" t="inlineStr"/>
-      <c r="Z92" s="3" t="inlineStr"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050471</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>moderate emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr"/>
+      <c r="L92" s="2" t="inlineStr"/>
+      <c r="M92" s="2" t="inlineStr"/>
+      <c r="N92" s="2" t="inlineStr"/>
+      <c r="O92" s="2" t="inlineStr"/>
+      <c r="P92" s="2" t="inlineStr"/>
+      <c r="Q92" s="2" t="inlineStr"/>
+      <c r="R92" s="2" t="inlineStr"/>
+      <c r="S92" s="2" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T92" s="2" t="inlineStr"/>
+      <c r="U92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92" s="2" t="inlineStr"/>
+      <c r="W92" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X92" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y92" s="2" t="inlineStr"/>
+      <c r="Z92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050417</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr"/>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
-        </is>
-      </c>
-      <c r="E93" s="3" t="inlineStr"/>
-      <c r="F93" s="3" t="inlineStr"/>
-      <c r="G93" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H93" s="3" t="inlineStr"/>
-      <c r="I93" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J93" s="3" t="inlineStr"/>
-      <c r="K93" s="3" t="inlineStr"/>
-      <c r="L93" s="3" t="inlineStr"/>
-      <c r="M93" s="3" t="inlineStr"/>
-      <c r="N93" s="3" t="inlineStr"/>
-      <c r="O93" s="3" t="inlineStr"/>
-      <c r="P93" s="3" t="inlineStr"/>
-      <c r="Q93" s="3" t="inlineStr"/>
-      <c r="R93" s="3" t="inlineStr"/>
-      <c r="S93" s="3" t="inlineStr"/>
-      <c r="T93" s="3" t="inlineStr"/>
-      <c r="U93" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V93" s="3" t="inlineStr"/>
-      <c r="W93" s="3" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050472</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
+      <c r="L93" s="2" t="inlineStr"/>
+      <c r="M93" s="2" t="inlineStr"/>
+      <c r="N93" s="2" t="inlineStr"/>
+      <c r="O93" s="2" t="inlineStr"/>
+      <c r="P93" s="2" t="inlineStr"/>
+      <c r="Q93" s="2" t="inlineStr"/>
+      <c r="R93" s="2" t="inlineStr"/>
+      <c r="S93" s="2" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T93" s="2" t="inlineStr"/>
+      <c r="U93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V93" s="2" t="inlineStr"/>
+      <c r="W93" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X93" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y93" s="3" t="inlineStr"/>
-      <c r="Z93" s="3" t="inlineStr"/>
+      <c r="X93" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y93" s="2" t="inlineStr"/>
+      <c r="Z93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050407</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr"/>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr"/>
-      <c r="F94" s="3" t="inlineStr"/>
-      <c r="G94" s="3" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
-      <c r="H94" s="3" t="inlineStr"/>
-      <c r="I94" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J94" s="3" t="inlineStr"/>
-      <c r="K94" s="3" t="inlineStr"/>
-      <c r="L94" s="3" t="inlineStr"/>
-      <c r="M94" s="3" t="inlineStr"/>
-      <c r="N94" s="3" t="inlineStr"/>
-      <c r="O94" s="3" t="inlineStr"/>
-      <c r="P94" s="3" t="inlineStr"/>
-      <c r="Q94" s="3" t="inlineStr"/>
-      <c r="R94" s="3" t="inlineStr"/>
-      <c r="S94" s="3" t="inlineStr"/>
-      <c r="T94" s="3" t="inlineStr"/>
-      <c r="U94" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V94" s="3" t="inlineStr"/>
-      <c r="W94" s="3" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050473</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
+      <c r="L94" s="2" t="inlineStr"/>
+      <c r="M94" s="2" t="inlineStr"/>
+      <c r="N94" s="2" t="inlineStr"/>
+      <c r="O94" s="2" t="inlineStr"/>
+      <c r="P94" s="2" t="inlineStr"/>
+      <c r="Q94" s="2" t="inlineStr"/>
+      <c r="R94" s="2" t="inlineStr"/>
+      <c r="S94" s="2" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="T94" s="2" t="inlineStr"/>
+      <c r="U94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V94" s="2" t="inlineStr"/>
+      <c r="W94" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X94" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y94" s="3" t="inlineStr"/>
-      <c r="Z94" s="3" t="inlineStr"/>
+      <c r="X94" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y94" s="2" t="inlineStr"/>
+      <c r="Z94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3" t="inlineStr"/>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H95" s="3" t="inlineStr"/>
@@ -6660,11 +6647,7 @@
       <c r="Q95" s="3" t="inlineStr"/>
       <c r="R95" s="3" t="inlineStr"/>
       <c r="S95" s="3" t="inlineStr"/>
-      <c r="T95" s="3" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="T95" s="3" t="inlineStr"/>
       <c r="U95" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6687,25 +6670,25 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr"/>
       <c r="F96" s="3" t="inlineStr"/>
       <c r="G96" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H96" s="3" t="inlineStr"/>
@@ -6723,16 +6706,8 @@
       <c r="P96" s="3" t="inlineStr"/>
       <c r="Q96" s="3" t="inlineStr"/>
       <c r="R96" s="3" t="inlineStr"/>
-      <c r="S96" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
-      <c r="T96" s="3" t="inlineStr">
-        <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
-        </is>
-      </c>
+      <c r="S96" s="3" t="inlineStr"/>
+      <c r="T96" s="3" t="inlineStr"/>
       <c r="U96" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6755,25 +6730,25 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr"/>
       <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H97" s="3" t="inlineStr"/>
@@ -6792,11 +6767,7 @@
       <c r="Q97" s="3" t="inlineStr"/>
       <c r="R97" s="3" t="inlineStr"/>
       <c r="S97" s="3" t="inlineStr"/>
-      <c r="T97" s="3" t="inlineStr">
-        <is>
-          <t>Undergoing surgery</t>
-        </is>
-      </c>
+      <c r="T97" s="3" t="inlineStr"/>
       <c r="U97" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6805,7 +6776,7 @@
       <c r="V97" s="3" t="inlineStr"/>
       <c r="W97" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X97" s="3" t="inlineStr">
@@ -6819,25 +6790,25 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr"/>
       <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H98" s="3" t="inlineStr"/>
@@ -6879,25 +6850,25 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr"/>
       <c r="F99" s="3" t="inlineStr"/>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr"/>
@@ -6915,8 +6886,16 @@
       <c r="P99" s="3" t="inlineStr"/>
       <c r="Q99" s="3" t="inlineStr"/>
       <c r="R99" s="3" t="inlineStr"/>
-      <c r="S99" s="3" t="inlineStr"/>
-      <c r="T99" s="3" t="inlineStr"/>
+      <c r="S99" s="3" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="T99" s="3" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -6925,7 +6904,7 @@
       <c r="V99" s="3" t="inlineStr"/>
       <c r="W99" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X99" s="3" t="inlineStr">
@@ -6939,25 +6918,25 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>non-linguistic communication behaviour using vocalisations</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3" t="inlineStr"/>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H100" s="3" t="inlineStr"/>
@@ -6999,25 +6978,29 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H101" s="3" t="inlineStr"/>
@@ -7036,7 +7019,11 @@
       <c r="Q101" s="3" t="inlineStr"/>
       <c r="R101" s="3" t="inlineStr"/>
       <c r="S101" s="3" t="inlineStr"/>
-      <c r="T101" s="3" t="inlineStr"/>
+      <c r="T101" s="3" t="inlineStr">
+        <is>
+          <t>harassment behaviour occurred three times</t>
+        </is>
+      </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7045,7 +7032,7 @@
       <c r="V101" s="3" t="inlineStr"/>
       <c r="W101" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X101" s="3" t="inlineStr">
@@ -7059,32 +7046,28 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr"/>
       <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H102" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr"/>
       <c r="I102" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7101,12 +7084,13 @@
       <c r="R102" s="3" t="inlineStr"/>
       <c r="S102" s="3" t="inlineStr">
         <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="T102" s="3" t="inlineStr">
         <is>
-          <t>Nail-cutting</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="U102" s="3" t="inlineStr">
@@ -7117,7 +7101,7 @@
       <c r="V102" s="3" t="inlineStr"/>
       <c r="W102" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X102" s="3" t="inlineStr">
@@ -7131,25 +7115,25 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr"/>
       <c r="F103" s="3" t="inlineStr"/>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="H103" s="3" t="inlineStr"/>
@@ -7169,12 +7153,12 @@
       <c r="R103" s="3" t="inlineStr"/>
       <c r="S103" s="3" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="T103" s="3" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U103" s="3" t="inlineStr">
@@ -7185,7 +7169,7 @@
       <c r="V103" s="3" t="inlineStr"/>
       <c r="W103" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X103" s="3" t="inlineStr">
@@ -7199,18 +7183,18 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr"/>
@@ -7220,7 +7204,11 @@
           <t>material entity-related behaviour</t>
         </is>
       </c>
-      <c r="H104" s="3" t="inlineStr"/>
+      <c r="H104" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7235,10 +7223,14 @@
       <c r="P104" s="3" t="inlineStr"/>
       <c r="Q104" s="3" t="inlineStr"/>
       <c r="R104" s="3" t="inlineStr"/>
-      <c r="S104" s="3" t="inlineStr"/>
+      <c r="S104" s="3" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
       <c r="T104" s="3" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
         </is>
       </c>
       <c r="U104" s="3" t="inlineStr">
@@ -7249,7 +7241,7 @@
       <c r="V104" s="3" t="inlineStr"/>
       <c r="W104" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X104" s="3" t="inlineStr">
@@ -7263,29 +7255,25 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>oral consumption</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr"/>
       <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H105" s="3" t="inlineStr"/>
@@ -7304,11 +7292,7 @@
       <c r="Q105" s="3" t="inlineStr"/>
       <c r="R105" s="3" t="inlineStr"/>
       <c r="S105" s="3" t="inlineStr"/>
-      <c r="T105" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="T105" s="3" t="inlineStr"/>
       <c r="U105" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7317,7 +7301,7 @@
       <c r="V105" s="3" t="inlineStr"/>
       <c r="W105" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X105" s="3" t="inlineStr">
@@ -7331,32 +7315,28 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr"/>
       <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H106" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="inlineStr"/>
       <c r="I106" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7372,22 +7352,16 @@
       <c r="Q106" s="3" t="inlineStr"/>
       <c r="R106" s="3" t="inlineStr"/>
       <c r="S106" s="3" t="inlineStr"/>
-      <c r="T106" s="3" t="inlineStr">
-        <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U106" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V106" s="3" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+      <c r="T106" s="3" t="inlineStr"/>
+      <c r="U106" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V106" s="3" t="inlineStr"/>
       <c r="W106" s="3" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X106" s="3" t="inlineStr">
@@ -7401,25 +7375,25 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr"/>
       <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H107" s="3" t="inlineStr"/>
@@ -7440,7 +7414,7 @@
       <c r="S107" s="3" t="inlineStr"/>
       <c r="T107" s="3" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="U107" s="3" t="inlineStr">
@@ -7451,7 +7425,7 @@
       <c r="V107" s="3" t="inlineStr"/>
       <c r="W107" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X107" s="3" t="inlineStr">
@@ -7465,32 +7439,28 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="3" t="inlineStr"/>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H108" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H108" s="3" t="inlineStr"/>
       <c r="I108" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7505,10 +7475,14 @@
       <c r="P108" s="3" t="inlineStr"/>
       <c r="Q108" s="3" t="inlineStr"/>
       <c r="R108" s="3" t="inlineStr"/>
-      <c r="S108" s="3" t="inlineStr"/>
+      <c r="S108" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="T108" s="3" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="U108" s="3" t="inlineStr">
@@ -7519,7 +7493,7 @@
       <c r="V108" s="3" t="inlineStr"/>
       <c r="W108" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X108" s="3" t="inlineStr">
@@ -7533,25 +7507,25 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr"/>
       <c r="F109" s="3" t="inlineStr"/>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H109" s="3" t="inlineStr"/>
@@ -7570,7 +7544,11 @@
       <c r="Q109" s="3" t="inlineStr"/>
       <c r="R109" s="3" t="inlineStr"/>
       <c r="S109" s="3" t="inlineStr"/>
-      <c r="T109" s="3" t="inlineStr"/>
+      <c r="T109" s="3" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7593,26 +7571,25 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H110" s="3" t="inlineStr"/>
@@ -7654,25 +7631,25 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr"/>
       <c r="F111" s="3" t="inlineStr"/>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H111" s="3" t="inlineStr"/>
@@ -7700,7 +7677,7 @@
       <c r="V111" s="3" t="inlineStr"/>
       <c r="W111" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X111" s="3" t="inlineStr">
@@ -7712,100 +7689,90 @@
       <c r="Z111" s="3" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050460</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr"/>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>A postural behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
-      <c r="L112" s="2" t="inlineStr"/>
-      <c r="M112" s="2" t="inlineStr"/>
-      <c r="N112" s="2" t="inlineStr"/>
-      <c r="O112" s="2" t="inlineStr"/>
-      <c r="P112" s="2" t="inlineStr"/>
-      <c r="Q112" s="2" t="inlineStr"/>
-      <c r="R112" s="2" t="inlineStr"/>
-      <c r="S112" s="2" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
-        </is>
-      </c>
-      <c r="T112" s="2" t="inlineStr"/>
-      <c r="U112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V112" s="2" t="inlineStr"/>
-      <c r="W112" s="2" t="inlineStr">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050406</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr"/>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr"/>
+      <c r="F112" s="3" t="inlineStr"/>
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr"/>
+      <c r="I112" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J112" s="3" t="inlineStr"/>
+      <c r="K112" s="3" t="inlineStr"/>
+      <c r="L112" s="3" t="inlineStr"/>
+      <c r="M112" s="3" t="inlineStr"/>
+      <c r="N112" s="3" t="inlineStr"/>
+      <c r="O112" s="3" t="inlineStr"/>
+      <c r="P112" s="3" t="inlineStr"/>
+      <c r="Q112" s="3" t="inlineStr"/>
+      <c r="R112" s="3" t="inlineStr"/>
+      <c r="S112" s="3" t="inlineStr"/>
+      <c r="T112" s="3" t="inlineStr"/>
+      <c r="U112" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V112" s="3" t="inlineStr"/>
+      <c r="W112" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X112" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y112" s="2" t="inlineStr"/>
-      <c r="Z112" s="2" t="inlineStr"/>
+      <c r="X112" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y112" s="3" t="inlineStr"/>
+      <c r="Z112" s="3" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr"/>
       <c r="F113" s="3" t="inlineStr"/>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H113" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H113" s="3" t="inlineStr"/>
       <c r="I113" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7830,7 +7797,7 @@
       <c r="V113" s="3" t="inlineStr"/>
       <c r="W113" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X113" s="3" t="inlineStr">
@@ -7844,28 +7811,32 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr"/>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr"/>
       <c r="F114" s="3" t="inlineStr"/>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H114" s="3" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I114" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7880,8 +7851,16 @@
       <c r="P114" s="3" t="inlineStr"/>
       <c r="Q114" s="3" t="inlineStr"/>
       <c r="R114" s="3" t="inlineStr"/>
-      <c r="S114" s="3" t="inlineStr"/>
-      <c r="T114" s="3" t="inlineStr"/>
+      <c r="S114" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+        </is>
+      </c>
+      <c r="T114" s="3" t="inlineStr">
+        <is>
+          <t>Nail-cutting</t>
+        </is>
+      </c>
       <c r="U114" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7890,7 +7869,7 @@
       <c r="V114" s="3" t="inlineStr"/>
       <c r="W114" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X114" s="3" t="inlineStr">
@@ -7904,25 +7883,25 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr"/>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr"/>
       <c r="F115" s="3" t="inlineStr"/>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H115" s="3" t="inlineStr"/>
@@ -7940,8 +7919,16 @@
       <c r="P115" s="3" t="inlineStr"/>
       <c r="Q115" s="3" t="inlineStr"/>
       <c r="R115" s="3" t="inlineStr"/>
-      <c r="S115" s="3" t="inlineStr"/>
-      <c r="T115" s="3" t="inlineStr"/>
+      <c r="S115" s="3" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
+      <c r="T115" s="3" t="inlineStr">
+        <is>
+          <t>Wrestling, fencing</t>
+        </is>
+      </c>
       <c r="U115" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -7950,7 +7937,7 @@
       <c r="V115" s="3" t="inlineStr"/>
       <c r="W115" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X115" s="3" t="inlineStr">
@@ -7964,25 +7951,25 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr"/>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr"/>
       <c r="F116" s="3" t="inlineStr"/>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H116" s="3" t="inlineStr"/>
@@ -8000,13 +7987,12 @@
       <c r="P116" s="3" t="inlineStr"/>
       <c r="Q116" s="3" t="inlineStr"/>
       <c r="R116" s="3" t="inlineStr"/>
-      <c r="S116" s="3" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
-      <c r="T116" s="3" t="inlineStr"/>
+      <c r="S116" s="3" t="inlineStr"/>
+      <c r="T116" s="3" t="inlineStr">
+        <is>
+          <t>Touching</t>
+        </is>
+      </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8029,32 +8015,32 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr"/>
       <c r="F117" s="3" t="inlineStr"/>
       <c r="G117" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H117" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H117" s="3" t="inlineStr"/>
       <c r="I117" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8072,7 +8058,7 @@
       <c r="S117" s="3" t="inlineStr"/>
       <c r="T117" s="3" t="inlineStr">
         <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
@@ -8083,7 +8069,7 @@
       <c r="V117" s="3" t="inlineStr"/>
       <c r="W117" s="3" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X117" s="3" t="inlineStr">
@@ -8097,34 +8083,30 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">physical impact behaviour </t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr"/>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr"/>
       <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="H118" s="3" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I118" s="3" t="inlineStr">
@@ -8138,24 +8120,26 @@
       <c r="M118" s="3" t="inlineStr"/>
       <c r="N118" s="3" t="inlineStr"/>
       <c r="O118" s="3" t="inlineStr"/>
-      <c r="P118" s="3" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P118" s="3" t="inlineStr"/>
       <c r="Q118" s="3" t="inlineStr"/>
       <c r="R118" s="3" t="inlineStr"/>
       <c r="S118" s="3" t="inlineStr"/>
-      <c r="T118" s="3" t="inlineStr"/>
-      <c r="U118" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V118" s="3" t="inlineStr"/>
+      <c r="T118" s="3" t="inlineStr">
+        <is>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V118" s="3" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W118" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X118" s="3" t="inlineStr">
@@ -8169,25 +8153,25 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr"/>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr"/>
       <c r="F119" s="3" t="inlineStr"/>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H119" s="3" t="inlineStr"/>
@@ -8206,7 +8190,11 @@
       <c r="Q119" s="3" t="inlineStr"/>
       <c r="R119" s="3" t="inlineStr"/>
       <c r="S119" s="3" t="inlineStr"/>
-      <c r="T119" s="3" t="inlineStr"/>
+      <c r="T119" s="3" t="inlineStr">
+        <is>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
+        </is>
+      </c>
       <c r="U119" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8215,7 +8203,7 @@
       <c r="V119" s="3" t="inlineStr"/>
       <c r="W119" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X119" s="3" t="inlineStr">
@@ -8229,28 +8217,32 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr"/>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3" t="inlineStr"/>
       <c r="G120" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H120" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H120" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I120" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8266,7 +8258,11 @@
       <c r="Q120" s="3" t="inlineStr"/>
       <c r="R120" s="3" t="inlineStr"/>
       <c r="S120" s="3" t="inlineStr"/>
-      <c r="T120" s="3" t="inlineStr"/>
+      <c r="T120" s="3" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U120" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8275,7 +8271,7 @@
       <c r="V120" s="3" t="inlineStr"/>
       <c r="W120" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X120" s="3" t="inlineStr">
@@ -8289,25 +8285,25 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr"/>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3" t="inlineStr"/>
       <c r="G121" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H121" s="3" t="inlineStr"/>
@@ -8349,25 +8345,26 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3" t="inlineStr"/>
       <c r="G122" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H122" s="3" t="inlineStr"/>
@@ -8409,25 +8406,25 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H123" s="3" t="inlineStr"/>
@@ -8455,7 +8452,7 @@
       <c r="V123" s="3" t="inlineStr"/>
       <c r="W123" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X123" s="3" t="inlineStr">
@@ -8467,90 +8464,102 @@
       <c r="Z123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050353</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>providing in health screening</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr"/>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr"/>
-      <c r="F124" s="3" t="inlineStr"/>
-      <c r="G124" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">providing healthcare testing </t>
-        </is>
-      </c>
-      <c r="H124" s="3" t="inlineStr"/>
-      <c r="I124" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J124" s="3" t="inlineStr"/>
-      <c r="K124" s="3" t="inlineStr"/>
-      <c r="L124" s="3" t="inlineStr"/>
-      <c r="M124" s="3" t="inlineStr"/>
-      <c r="N124" s="3" t="inlineStr"/>
-      <c r="O124" s="3" t="inlineStr"/>
-      <c r="P124" s="3" t="inlineStr"/>
-      <c r="Q124" s="3" t="inlineStr"/>
-      <c r="R124" s="3" t="inlineStr"/>
-      <c r="S124" s="3" t="inlineStr"/>
-      <c r="T124" s="3" t="inlineStr"/>
-      <c r="U124" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V124" s="3" t="inlineStr"/>
-      <c r="W124" s="3" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050460</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr"/>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>A postural behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J124" s="2" t="inlineStr"/>
+      <c r="K124" s="2" t="inlineStr"/>
+      <c r="L124" s="2" t="inlineStr"/>
+      <c r="M124" s="2" t="inlineStr"/>
+      <c r="N124" s="2" t="inlineStr"/>
+      <c r="O124" s="2" t="inlineStr"/>
+      <c r="P124" s="2" t="inlineStr"/>
+      <c r="Q124" s="2" t="inlineStr"/>
+      <c r="R124" s="2" t="inlineStr"/>
+      <c r="S124" s="2" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
+      <c r="T124" s="2" t="inlineStr"/>
+      <c r="U124" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V124" s="2" t="inlineStr"/>
+      <c r="W124" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X124" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y124" s="3" t="inlineStr"/>
-      <c r="Z124" s="3" t="inlineStr"/>
+      <c r="X124" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y124" s="2" t="inlineStr"/>
+      <c r="Z124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr"/>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr"/>
       <c r="F125" s="3" t="inlineStr"/>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
-      <c r="H125" s="3" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H125" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I125" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8575,7 +8584,7 @@
       <c r="V125" s="3" t="inlineStr"/>
       <c r="W125" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X125" s="3" t="inlineStr">
@@ -8589,25 +8598,25 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr"/>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H126" s="3" t="inlineStr"/>
@@ -8649,25 +8658,25 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr"/>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3" t="inlineStr"/>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H127" s="3" t="inlineStr"/>
@@ -8709,25 +8718,25 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr"/>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr"/>
       <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr"/>
@@ -8745,7 +8754,12 @@
       <c r="P128" s="3" t="inlineStr"/>
       <c r="Q128" s="3" t="inlineStr"/>
       <c r="R128" s="3" t="inlineStr"/>
-      <c r="S128" s="3" t="inlineStr"/>
+      <c r="S128" s="3" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
       <c r="T128" s="3" t="inlineStr"/>
       <c r="U128" s="3" t="inlineStr">
         <is>
@@ -8769,28 +8783,32 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t xml:space="preserve">pro-social behaviour </t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr"/>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr"/>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
-        </is>
-      </c>
-      <c r="H129" s="3" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H129" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I129" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8806,7 +8824,11 @@
       <c r="Q129" s="3" t="inlineStr"/>
       <c r="R129" s="3" t="inlineStr"/>
       <c r="S129" s="3" t="inlineStr"/>
-      <c r="T129" s="3" t="inlineStr"/>
+      <c r="T129" s="3" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U129" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -8815,7 +8837,7 @@
       <c r="V129" s="3" t="inlineStr"/>
       <c r="W129" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X129" s="3" t="inlineStr">
@@ -8829,28 +8851,36 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>reclining</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3" t="inlineStr"/>
       <c r="G130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H130" s="3" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H130" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I130" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8862,7 +8892,11 @@
       <c r="M130" s="3" t="inlineStr"/>
       <c r="N130" s="3" t="inlineStr"/>
       <c r="O130" s="3" t="inlineStr"/>
-      <c r="P130" s="3" t="inlineStr"/>
+      <c r="P130" s="3" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q130" s="3" t="inlineStr"/>
       <c r="R130" s="3" t="inlineStr"/>
       <c r="S130" s="3" t="inlineStr"/>
@@ -8875,7 +8909,7 @@
       <c r="V130" s="3" t="inlineStr"/>
       <c r="W130" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X130" s="3" t="inlineStr">
@@ -8889,29 +8923,25 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr"/>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr"/>
       <c r="F131" s="3" t="inlineStr"/>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H131" s="3" t="inlineStr"/>
@@ -8929,11 +8959,7 @@
       <c r="P131" s="3" t="inlineStr"/>
       <c r="Q131" s="3" t="inlineStr"/>
       <c r="R131" s="3" t="inlineStr"/>
-      <c r="S131" s="3" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="S131" s="3" t="inlineStr"/>
       <c r="T131" s="3" t="inlineStr"/>
       <c r="U131" s="3" t="inlineStr">
         <is>
@@ -8943,7 +8969,7 @@
       <c r="V131" s="3" t="inlineStr"/>
       <c r="W131" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X131" s="3" t="inlineStr">
@@ -8957,25 +8983,25 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr"/>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr"/>
       <c r="F132" s="3" t="inlineStr"/>
       <c r="G132" s="3" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H132" s="3" t="inlineStr"/>
@@ -8993,16 +9019,8 @@
       <c r="P132" s="3" t="inlineStr"/>
       <c r="Q132" s="3" t="inlineStr"/>
       <c r="R132" s="3" t="inlineStr"/>
-      <c r="S132" s="3" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T132" s="3" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+      <c r="S132" s="3" t="inlineStr"/>
+      <c r="T132" s="3" t="inlineStr"/>
       <c r="U132" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9011,7 +9029,7 @@
       <c r="V132" s="3" t="inlineStr"/>
       <c r="W132" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X132" s="3" t="inlineStr">
@@ -9025,18 +9043,18 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr"/>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr"/>
@@ -9085,25 +9103,25 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr"/>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr"/>
       <c r="F134" s="3" t="inlineStr"/>
       <c r="G134" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H134" s="3" t="inlineStr"/>
@@ -9121,11 +9139,7 @@
       <c r="P134" s="3" t="inlineStr"/>
       <c r="Q134" s="3" t="inlineStr"/>
       <c r="R134" s="3" t="inlineStr"/>
-      <c r="S134" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S134" s="3" t="inlineStr"/>
       <c r="T134" s="3" t="inlineStr"/>
       <c r="U134" s="3" t="inlineStr">
         <is>
@@ -9149,25 +9163,25 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr"/>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr"/>
       <c r="F135" s="3" t="inlineStr"/>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H135" s="3" t="inlineStr"/>
@@ -9185,16 +9199,8 @@
       <c r="P135" s="3" t="inlineStr"/>
       <c r="Q135" s="3" t="inlineStr"/>
       <c r="R135" s="3" t="inlineStr"/>
-      <c r="S135" s="3" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T135" s="3" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+      <c r="S135" s="3" t="inlineStr"/>
+      <c r="T135" s="3" t="inlineStr"/>
       <c r="U135" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9203,7 +9209,7 @@
       <c r="V135" s="3" t="inlineStr"/>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X135" s="3" t="inlineStr">
@@ -9217,25 +9223,25 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr"/>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3" t="inlineStr"/>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H136" s="3" t="inlineStr"/>
@@ -9277,32 +9283,28 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr"/>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3" t="inlineStr"/>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H137" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>providing healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H137" s="3" t="inlineStr"/>
       <c r="I137" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9317,16 +9319,8 @@
       <c r="P137" s="3" t="inlineStr"/>
       <c r="Q137" s="3" t="inlineStr"/>
       <c r="R137" s="3" t="inlineStr"/>
-      <c r="S137" s="3" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S137" s="3" t="inlineStr"/>
+      <c r="T137" s="3" t="inlineStr"/>
       <c r="U137" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9335,7 +9329,7 @@
       <c r="V137" s="3" t="inlineStr"/>
       <c r="W137" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X137" s="3" t="inlineStr">
@@ -9349,25 +9343,25 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr"/>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr"/>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H138" s="3" t="inlineStr"/>
@@ -9395,7 +9389,7 @@
       <c r="V138" s="3" t="inlineStr"/>
       <c r="W138" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X138" s="3" t="inlineStr">
@@ -9409,25 +9403,25 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr"/>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H139" s="3" t="inlineStr"/>
@@ -9446,11 +9440,7 @@
       <c r="Q139" s="3" t="inlineStr"/>
       <c r="R139" s="3" t="inlineStr"/>
       <c r="S139" s="3" t="inlineStr"/>
-      <c r="T139" s="3" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T139" s="3" t="inlineStr"/>
       <c r="U139" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9459,7 +9449,7 @@
       <c r="V139" s="3" t="inlineStr"/>
       <c r="W139" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X139" s="3" t="inlineStr">
@@ -9473,25 +9463,25 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr"/>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H140" s="3" t="inlineStr"/>
@@ -9533,32 +9523,28 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr"/>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr"/>
       <c r="F141" s="3" t="inlineStr"/>
       <c r="G141" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H141" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">object-using behaviour </t>
+        </is>
+      </c>
+      <c r="H141" s="3" t="inlineStr"/>
       <c r="I141" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9573,17 +9559,8 @@
       <c r="P141" s="3" t="inlineStr"/>
       <c r="Q141" s="3" t="inlineStr"/>
       <c r="R141" s="3" t="inlineStr"/>
-      <c r="S141" s="3" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T141" s="3" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S141" s="3" t="inlineStr"/>
+      <c r="T141" s="3" t="inlineStr"/>
       <c r="U141" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9592,7 +9569,7 @@
       <c r="V141" s="3" t="inlineStr"/>
       <c r="W141" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X141" s="3" t="inlineStr">
@@ -9606,25 +9583,25 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr"/>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr"/>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H142" s="3" t="inlineStr"/>
@@ -9652,7 +9629,7 @@
       <c r="V142" s="3" t="inlineStr"/>
       <c r="W142" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X142" s="3" t="inlineStr">
@@ -9666,25 +9643,29 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr"/>
       <c r="F143" s="3" t="inlineStr"/>
       <c r="G143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H143" s="3" t="inlineStr"/>
@@ -9702,7 +9683,11 @@
       <c r="P143" s="3" t="inlineStr"/>
       <c r="Q143" s="3" t="inlineStr"/>
       <c r="R143" s="3" t="inlineStr"/>
-      <c r="S143" s="3" t="inlineStr"/>
+      <c r="S143" s="3" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
       <c r="T143" s="3" t="inlineStr"/>
       <c r="U143" s="3" t="inlineStr">
         <is>
@@ -9712,7 +9697,7 @@
       <c r="V143" s="3" t="inlineStr"/>
       <c r="W143" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X143" s="3" t="inlineStr">
@@ -9726,25 +9711,25 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr"/>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr"/>
       <c r="F144" s="3" t="inlineStr"/>
       <c r="G144" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H144" s="3" t="inlineStr"/>
@@ -9762,8 +9747,16 @@
       <c r="P144" s="3" t="inlineStr"/>
       <c r="Q144" s="3" t="inlineStr"/>
       <c r="R144" s="3" t="inlineStr"/>
-      <c r="S144" s="3" t="inlineStr"/>
-      <c r="T144" s="3" t="inlineStr"/>
+      <c r="S144" s="3" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T144" s="3" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U144" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9772,7 +9765,7 @@
       <c r="V144" s="3" t="inlineStr"/>
       <c r="W144" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X144" s="3" t="inlineStr">
@@ -9786,25 +9779,25 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr"/>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr"/>
       <c r="F145" s="3" t="inlineStr"/>
       <c r="G145" s="3" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H145" s="3" t="inlineStr"/>
@@ -9823,11 +9816,7 @@
       <c r="Q145" s="3" t="inlineStr"/>
       <c r="R145" s="3" t="inlineStr"/>
       <c r="S145" s="3" t="inlineStr"/>
-      <c r="T145" s="3" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T145" s="3" t="inlineStr"/>
       <c r="U145" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9836,7 +9825,7 @@
       <c r="V145" s="3" t="inlineStr"/>
       <c r="W145" s="3" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X145" s="3" t="inlineStr">
@@ -9850,25 +9839,25 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr"/>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr"/>
       <c r="F146" s="3" t="inlineStr"/>
       <c r="G146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H146" s="3" t="inlineStr"/>
@@ -9886,7 +9875,11 @@
       <c r="P146" s="3" t="inlineStr"/>
       <c r="Q146" s="3" t="inlineStr"/>
       <c r="R146" s="3" t="inlineStr"/>
-      <c r="S146" s="3" t="inlineStr"/>
+      <c r="S146" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
       <c r="T146" s="3" t="inlineStr"/>
       <c r="U146" s="3" t="inlineStr">
         <is>
@@ -9896,7 +9889,7 @@
       <c r="V146" s="3" t="inlineStr"/>
       <c r="W146" s="3" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X146" s="3" t="inlineStr">
@@ -9910,32 +9903,28 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr"/>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr"/>
       <c r="F147" s="3" t="inlineStr"/>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H147" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">harmful behaviour </t>
+        </is>
+      </c>
+      <c r="H147" s="3" t="inlineStr"/>
       <c r="I147" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9948,18 +9937,18 @@
       <c r="N147" s="3" t="inlineStr"/>
       <c r="O147" s="3" t="inlineStr"/>
       <c r="P147" s="3" t="inlineStr"/>
-      <c r="Q147" s="3" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q147" s="3" t="inlineStr"/>
       <c r="R147" s="3" t="inlineStr"/>
       <c r="S147" s="3" t="inlineStr">
         <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
-      <c r="T147" s="3" t="inlineStr"/>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T147" s="3" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U147" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -9968,7 +9957,7 @@
       <c r="V147" s="3" t="inlineStr"/>
       <c r="W147" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X147" s="3" t="inlineStr">
@@ -9982,25 +9971,25 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr"/>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr"/>
       <c r="F148" s="3" t="inlineStr"/>
       <c r="G148" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H148" s="3" t="inlineStr"/>
@@ -10028,7 +10017,7 @@
       <c r="V148" s="3" t="inlineStr"/>
       <c r="W148" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X148" s="3" t="inlineStr">
@@ -10042,28 +10031,32 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr"/>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr"/>
       <c r="F149" s="3" t="inlineStr"/>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
-      <c r="H149" s="3" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H149" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I149" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10080,10 +10073,14 @@
       <c r="R149" s="3" t="inlineStr"/>
       <c r="S149" s="3" t="inlineStr">
         <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
-      <c r="T149" s="3" t="inlineStr"/>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T149" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U149" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10092,7 +10089,7 @@
       <c r="V149" s="3" t="inlineStr"/>
       <c r="W149" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X149" s="3" t="inlineStr">
@@ -10104,96 +10101,90 @@
       <c r="Z149" s="3" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050461</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr"/>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J150" s="2" t="inlineStr"/>
-      <c r="K150" s="2" t="inlineStr"/>
-      <c r="L150" s="2" t="inlineStr"/>
-      <c r="M150" s="2" t="inlineStr"/>
-      <c r="N150" s="2" t="inlineStr"/>
-      <c r="O150" s="2" t="inlineStr"/>
-      <c r="P150" s="2" t="inlineStr"/>
-      <c r="Q150" s="2" t="inlineStr"/>
-      <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
-        </is>
-      </c>
-      <c r="T150" s="2" t="inlineStr"/>
-      <c r="U150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V150" s="2" t="inlineStr"/>
-      <c r="W150" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="X150" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y150" s="2" t="inlineStr"/>
-      <c r="Z150" s="2" t="inlineStr"/>
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036069</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr"/>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr"/>
+      <c r="F150" s="3" t="inlineStr"/>
+      <c r="G150" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H150" s="3" t="inlineStr"/>
+      <c r="I150" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J150" s="3" t="inlineStr"/>
+      <c r="K150" s="3" t="inlineStr"/>
+      <c r="L150" s="3" t="inlineStr"/>
+      <c r="M150" s="3" t="inlineStr"/>
+      <c r="N150" s="3" t="inlineStr"/>
+      <c r="O150" s="3" t="inlineStr"/>
+      <c r="P150" s="3" t="inlineStr"/>
+      <c r="Q150" s="3" t="inlineStr"/>
+      <c r="R150" s="3" t="inlineStr"/>
+      <c r="S150" s="3" t="inlineStr"/>
+      <c r="T150" s="3" t="inlineStr"/>
+      <c r="U150" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V150" s="3" t="inlineStr"/>
+      <c r="W150" s="3" t="inlineStr">
+        <is>
+          <t>OC</t>
+        </is>
+      </c>
+      <c r="X150" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y150" s="3" t="inlineStr"/>
+      <c r="Z150" s="3" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr"/>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr"/>
       <c r="F151" s="3" t="inlineStr"/>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H151" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>learning behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr"/>
       <c r="I151" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10206,14 +10197,14 @@
       <c r="N151" s="3" t="inlineStr"/>
       <c r="O151" s="3" t="inlineStr"/>
       <c r="P151" s="3" t="inlineStr"/>
-      <c r="Q151" s="3" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q151" s="3" t="inlineStr"/>
       <c r="R151" s="3" t="inlineStr"/>
       <c r="S151" s="3" t="inlineStr"/>
-      <c r="T151" s="3" t="inlineStr"/>
+      <c r="T151" s="3" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10222,7 +10213,7 @@
       <c r="V151" s="3" t="inlineStr"/>
       <c r="W151" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X151" s="3" t="inlineStr">
@@ -10236,32 +10227,28 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr"/>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr"/>
       <c r="F152" s="3" t="inlineStr"/>
       <c r="G152" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H152" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H152" s="3" t="inlineStr"/>
       <c r="I152" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10286,7 +10273,7 @@
       <c r="V152" s="3" t="inlineStr"/>
       <c r="W152" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X152" s="3" t="inlineStr">
@@ -10300,25 +10287,25 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr"/>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr"/>
       <c r="F153" s="3" t="inlineStr"/>
       <c r="G153" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H153" s="3" t="inlineStr">
@@ -10340,8 +10327,17 @@
       <c r="P153" s="3" t="inlineStr"/>
       <c r="Q153" s="3" t="inlineStr"/>
       <c r="R153" s="3" t="inlineStr"/>
-      <c r="S153" s="3" t="inlineStr"/>
-      <c r="T153" s="3" t="inlineStr"/>
+      <c r="S153" s="3" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T153" s="3" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U153" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -10350,7 +10346,7 @@
       <c r="V153" s="3" t="inlineStr"/>
       <c r="W153" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X153" s="3" t="inlineStr">
@@ -10364,32 +10360,28 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr"/>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3" t="inlineStr"/>
       <c r="G154" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
-      <c r="H154" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H154" s="3" t="inlineStr"/>
       <c r="I154" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10402,11 +10394,7 @@
       <c r="N154" s="3" t="inlineStr"/>
       <c r="O154" s="3" t="inlineStr"/>
       <c r="P154" s="3" t="inlineStr"/>
-      <c r="Q154" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q154" s="3" t="inlineStr"/>
       <c r="R154" s="3" t="inlineStr"/>
       <c r="S154" s="3" t="inlineStr"/>
       <c r="T154" s="3" t="inlineStr"/>
@@ -10418,7 +10406,7 @@
       <c r="V154" s="3" t="inlineStr"/>
       <c r="W154" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X154" s="3" t="inlineStr">
@@ -10432,32 +10420,28 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr"/>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr"/>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H155" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="H155" s="3" t="inlineStr"/>
       <c r="I155" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10470,11 +10454,7 @@
       <c r="N155" s="3" t="inlineStr"/>
       <c r="O155" s="3" t="inlineStr"/>
       <c r="P155" s="3" t="inlineStr"/>
-      <c r="Q155" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q155" s="3" t="inlineStr"/>
       <c r="R155" s="3" t="inlineStr"/>
       <c r="S155" s="3" t="inlineStr"/>
       <c r="T155" s="3" t="inlineStr"/>
@@ -10486,7 +10466,7 @@
       <c r="V155" s="3" t="inlineStr"/>
       <c r="W155" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X155" s="3" t="inlineStr">
@@ -10500,36 +10480,28 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr"/>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr"/>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="H156" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H156" s="3" t="inlineStr"/>
       <c r="I156" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10544,12 +10516,7 @@
       <c r="P156" s="3" t="inlineStr"/>
       <c r="Q156" s="3" t="inlineStr"/>
       <c r="R156" s="3" t="inlineStr"/>
-      <c r="S156" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S156" s="3" t="inlineStr"/>
       <c r="T156" s="3" t="inlineStr"/>
       <c r="U156" s="3" t="inlineStr">
         <is>
@@ -10559,7 +10526,7 @@
       <c r="V156" s="3" t="inlineStr"/>
       <c r="W156" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X156" s="3" t="inlineStr">
@@ -10573,25 +10540,25 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr"/>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr"/>
       <c r="F157" s="3" t="inlineStr"/>
       <c r="G157" s="3" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H157" s="3" t="inlineStr"/>
@@ -10612,7 +10579,7 @@
       <c r="S157" s="3" t="inlineStr"/>
       <c r="T157" s="3" t="inlineStr">
         <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
         </is>
       </c>
       <c r="U157" s="3" t="inlineStr">
@@ -10623,7 +10590,7 @@
       <c r="V157" s="3" t="inlineStr"/>
       <c r="W157" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X157" s="3" t="inlineStr">
@@ -10637,25 +10604,25 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr"/>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr"/>
       <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H158" s="3" t="inlineStr"/>
@@ -10683,7 +10650,7 @@
       <c r="V158" s="3" t="inlineStr"/>
       <c r="W158" s="3" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X158" s="3" t="inlineStr">
@@ -10697,28 +10664,32 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr"/>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr"/>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H159" s="3" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H159" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I159" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10731,12 +10702,15 @@
       <c r="N159" s="3" t="inlineStr"/>
       <c r="O159" s="3" t="inlineStr"/>
       <c r="P159" s="3" t="inlineStr"/>
-      <c r="Q159" s="3" t="inlineStr"/>
+      <c r="Q159" s="3" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R159" s="3" t="inlineStr"/>
       <c r="S159" s="3" t="inlineStr">
         <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
       <c r="T159" s="3" t="inlineStr"/>
@@ -10748,7 +10722,7 @@
       <c r="V159" s="3" t="inlineStr"/>
       <c r="W159" s="3" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X159" s="3" t="inlineStr">
@@ -10762,25 +10736,25 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr"/>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr"/>
       <c r="F160" s="3" t="inlineStr"/>
       <c r="G160" s="3" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H160" s="3" t="inlineStr"/>
@@ -10798,11 +10772,7 @@
       <c r="P160" s="3" t="inlineStr"/>
       <c r="Q160" s="3" t="inlineStr"/>
       <c r="R160" s="3" t="inlineStr"/>
-      <c r="S160" s="3" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
+      <c r="S160" s="3" t="inlineStr"/>
       <c r="T160" s="3" t="inlineStr"/>
       <c r="U160" s="3" t="inlineStr">
         <is>
@@ -10812,7 +10782,7 @@
       <c r="V160" s="3" t="inlineStr"/>
       <c r="W160" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X160" s="3" t="inlineStr">
@@ -10826,36 +10796,28 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr"/>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3" t="inlineStr"/>
       <c r="G161" s="3" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H161" s="3" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="H161" s="3" t="inlineStr"/>
       <c r="I161" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10867,19 +10829,14 @@
       <c r="M161" s="3" t="inlineStr"/>
       <c r="N161" s="3" t="inlineStr"/>
       <c r="O161" s="3" t="inlineStr"/>
-      <c r="P161" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
+      <c r="P161" s="3" t="inlineStr"/>
       <c r="Q161" s="3" t="inlineStr"/>
       <c r="R161" s="3" t="inlineStr"/>
-      <c r="S161" s="3" t="inlineStr"/>
+      <c r="S161" s="3" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="T161" s="3" t="inlineStr"/>
       <c r="U161" s="3" t="inlineStr">
         <is>
@@ -10889,7 +10846,7 @@
       <c r="V161" s="3" t="inlineStr"/>
       <c r="W161" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X161" s="3" t="inlineStr">
@@ -10901,94 +10858,98 @@
       <c r="Z161" s="3" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B162" s="3" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C162" s="3" t="inlineStr"/>
-      <c r="D162" s="3" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E162" s="3" t="inlineStr"/>
-      <c r="F162" s="3" t="inlineStr"/>
-      <c r="G162" s="3" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H162" s="3" t="inlineStr"/>
-      <c r="I162" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J162" s="3" t="inlineStr"/>
-      <c r="K162" s="3" t="inlineStr"/>
-      <c r="L162" s="3" t="inlineStr"/>
-      <c r="M162" s="3" t="inlineStr"/>
-      <c r="N162" s="3" t="inlineStr"/>
-      <c r="O162" s="3" t="inlineStr"/>
-      <c r="P162" s="3" t="inlineStr"/>
-      <c r="Q162" s="3" t="inlineStr"/>
-      <c r="R162" s="3" t="inlineStr"/>
-      <c r="S162" s="3" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
-      <c r="T162" s="3" t="inlineStr"/>
-      <c r="U162" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V162" s="3" t="inlineStr"/>
-      <c r="W162" s="3" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="X162" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y162" s="3" t="inlineStr"/>
-      <c r="Z162" s="3" t="inlineStr"/>
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050461</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr"/>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>A vocalisation behaviour that expresses something using words.</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="H162" s="2" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="inlineStr"/>
+      <c r="K162" s="2" t="inlineStr"/>
+      <c r="L162" s="2" t="inlineStr"/>
+      <c r="M162" s="2" t="inlineStr"/>
+      <c r="N162" s="2" t="inlineStr"/>
+      <c r="O162" s="2" t="inlineStr"/>
+      <c r="P162" s="2" t="inlineStr"/>
+      <c r="Q162" s="2" t="inlineStr"/>
+      <c r="R162" s="2" t="inlineStr"/>
+      <c r="S162" s="2" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+      <c r="T162" s="2" t="inlineStr"/>
+      <c r="U162" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V162" s="2" t="inlineStr"/>
+      <c r="W162" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X162" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y162" s="2" t="inlineStr"/>
+      <c r="Z162" s="2" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr"/>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr"/>
       <c r="F163" s="3" t="inlineStr"/>
       <c r="G163" s="3" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="H163" s="3" t="inlineStr"/>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="H163" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I163" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11001,7 +10962,11 @@
       <c r="N163" s="3" t="inlineStr"/>
       <c r="O163" s="3" t="inlineStr"/>
       <c r="P163" s="3" t="inlineStr"/>
-      <c r="Q163" s="3" t="inlineStr"/>
+      <c r="Q163" s="3" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R163" s="3" t="inlineStr"/>
       <c r="S163" s="3" t="inlineStr"/>
       <c r="T163" s="3" t="inlineStr"/>
@@ -11013,7 +10978,7 @@
       <c r="V163" s="3" t="inlineStr"/>
       <c r="W163" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X163" s="3" t="inlineStr">
@@ -11027,28 +10992,32 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr"/>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr"/>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="H164" s="3" t="inlineStr"/>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H164" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I164" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11073,7 +11042,7 @@
       <c r="V164" s="3" t="inlineStr"/>
       <c r="W164" s="3" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X164" s="3" t="inlineStr">
@@ -11087,25 +11056,25 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr"/>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr"/>
       <c r="F165" s="3" t="inlineStr"/>
       <c r="G165" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H165" s="3" t="inlineStr">
@@ -11137,7 +11106,7 @@
       <c r="V165" s="3" t="inlineStr"/>
       <c r="W165" s="3" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X165" s="3" t="inlineStr">
@@ -11151,28 +11120,32 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr"/>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr"/>
       <c r="F166" s="3" t="inlineStr"/>
       <c r="G166" s="3" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H166" s="3" t="inlineStr"/>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
+      <c r="H166" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I166" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11185,14 +11158,14 @@
       <c r="N166" s="3" t="inlineStr"/>
       <c r="O166" s="3" t="inlineStr"/>
       <c r="P166" s="3" t="inlineStr"/>
-      <c r="Q166" s="3" t="inlineStr"/>
+      <c r="Q166" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R166" s="3" t="inlineStr"/>
       <c r="S166" s="3" t="inlineStr"/>
-      <c r="T166" s="3" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T166" s="3" t="inlineStr"/>
       <c r="U166" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -11201,7 +11174,7 @@
       <c r="V166" s="3" t="inlineStr"/>
       <c r="W166" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X166" s="3" t="inlineStr">
@@ -11211,6 +11184,789 @@
       </c>
       <c r="Y166" s="3" t="inlineStr"/>
       <c r="Z166" s="3" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036102</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr"/>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr"/>
+      <c r="F167" s="3" t="inlineStr"/>
+      <c r="G167" s="3" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H167" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I167" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J167" s="3" t="inlineStr"/>
+      <c r="K167" s="3" t="inlineStr"/>
+      <c r="L167" s="3" t="inlineStr"/>
+      <c r="M167" s="3" t="inlineStr"/>
+      <c r="N167" s="3" t="inlineStr"/>
+      <c r="O167" s="3" t="inlineStr"/>
+      <c r="P167" s="3" t="inlineStr"/>
+      <c r="Q167" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
+      <c r="R167" s="3" t="inlineStr"/>
+      <c r="S167" s="3" t="inlineStr"/>
+      <c r="T167" s="3" t="inlineStr"/>
+      <c r="U167" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V167" s="3" t="inlineStr"/>
+      <c r="W167" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X167" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y167" s="3" t="inlineStr"/>
+      <c r="Z167" s="3" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr"/>
+      <c r="F168" s="3" t="inlineStr"/>
+      <c r="G168" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H168" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I168" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J168" s="3" t="inlineStr"/>
+      <c r="K168" s="3" t="inlineStr"/>
+      <c r="L168" s="3" t="inlineStr"/>
+      <c r="M168" s="3" t="inlineStr"/>
+      <c r="N168" s="3" t="inlineStr"/>
+      <c r="O168" s="3" t="inlineStr"/>
+      <c r="P168" s="3" t="inlineStr"/>
+      <c r="Q168" s="3" t="inlineStr"/>
+      <c r="R168" s="3" t="inlineStr"/>
+      <c r="S168" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T168" s="3" t="inlineStr"/>
+      <c r="U168" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V168" s="3" t="inlineStr"/>
+      <c r="W168" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X168" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y168" s="3" t="inlineStr"/>
+      <c r="Z168" s="3" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050396</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr"/>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr"/>
+      <c r="F169" s="3" t="inlineStr"/>
+      <c r="G169" s="3" t="inlineStr">
+        <is>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="H169" s="3" t="inlineStr"/>
+      <c r="I169" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J169" s="3" t="inlineStr"/>
+      <c r="K169" s="3" t="inlineStr"/>
+      <c r="L169" s="3" t="inlineStr"/>
+      <c r="M169" s="3" t="inlineStr"/>
+      <c r="N169" s="3" t="inlineStr"/>
+      <c r="O169" s="3" t="inlineStr"/>
+      <c r="P169" s="3" t="inlineStr"/>
+      <c r="Q169" s="3" t="inlineStr"/>
+      <c r="R169" s="3" t="inlineStr"/>
+      <c r="S169" s="3" t="inlineStr"/>
+      <c r="T169" s="3" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
+      <c r="U169" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V169" s="3" t="inlineStr"/>
+      <c r="W169" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X169" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y169" s="3" t="inlineStr"/>
+      <c r="Z169" s="3" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036064</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transporting behaviour </t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr"/>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr"/>
+      <c r="F170" s="3" t="inlineStr"/>
+      <c r="G170" s="3" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
+      <c r="H170" s="3" t="inlineStr"/>
+      <c r="I170" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J170" s="3" t="inlineStr"/>
+      <c r="K170" s="3" t="inlineStr"/>
+      <c r="L170" s="3" t="inlineStr"/>
+      <c r="M170" s="3" t="inlineStr"/>
+      <c r="N170" s="3" t="inlineStr"/>
+      <c r="O170" s="3" t="inlineStr"/>
+      <c r="P170" s="3" t="inlineStr"/>
+      <c r="Q170" s="3" t="inlineStr"/>
+      <c r="R170" s="3" t="inlineStr"/>
+      <c r="S170" s="3" t="inlineStr"/>
+      <c r="T170" s="3" t="inlineStr"/>
+      <c r="U170" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V170" s="3" t="inlineStr"/>
+      <c r="W170" s="3" t="inlineStr">
+        <is>
+          <t>OC; RW</t>
+        </is>
+      </c>
+      <c r="X170" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y170" s="3" t="inlineStr"/>
+      <c r="Z170" s="3" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036059</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">travel behaviour </t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr"/>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>A position-related behaviour that involves changing physical location.</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr"/>
+      <c r="F171" s="3" t="inlineStr"/>
+      <c r="G171" s="3" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H171" s="3" t="inlineStr"/>
+      <c r="I171" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J171" s="3" t="inlineStr"/>
+      <c r="K171" s="3" t="inlineStr"/>
+      <c r="L171" s="3" t="inlineStr"/>
+      <c r="M171" s="3" t="inlineStr"/>
+      <c r="N171" s="3" t="inlineStr"/>
+      <c r="O171" s="3" t="inlineStr"/>
+      <c r="P171" s="3" t="inlineStr"/>
+      <c r="Q171" s="3" t="inlineStr"/>
+      <c r="R171" s="3" t="inlineStr"/>
+      <c r="S171" s="3" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
+      <c r="T171" s="3" t="inlineStr"/>
+      <c r="U171" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V171" s="3" t="inlineStr"/>
+      <c r="W171" s="3" t="inlineStr">
+        <is>
+          <t>OC; RW; PS</t>
+        </is>
+      </c>
+      <c r="X171" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y171" s="3" t="inlineStr"/>
+      <c r="Z171" s="3" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050403</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr"/>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr"/>
+      <c r="F172" s="3" t="inlineStr"/>
+      <c r="G172" s="3" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H172" s="3" t="inlineStr"/>
+      <c r="I172" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J172" s="3" t="inlineStr"/>
+      <c r="K172" s="3" t="inlineStr"/>
+      <c r="L172" s="3" t="inlineStr"/>
+      <c r="M172" s="3" t="inlineStr"/>
+      <c r="N172" s="3" t="inlineStr"/>
+      <c r="O172" s="3" t="inlineStr"/>
+      <c r="P172" s="3" t="inlineStr"/>
+      <c r="Q172" s="3" t="inlineStr"/>
+      <c r="R172" s="3" t="inlineStr"/>
+      <c r="S172" s="3" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T172" s="3" t="inlineStr"/>
+      <c r="U172" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V172" s="3" t="inlineStr"/>
+      <c r="W172" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X172" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y172" s="3" t="inlineStr"/>
+      <c r="Z172" s="3" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr"/>
+      <c r="F173" s="3" t="inlineStr"/>
+      <c r="G173" s="3" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H173" s="3" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I173" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J173" s="3" t="inlineStr"/>
+      <c r="K173" s="3" t="inlineStr"/>
+      <c r="L173" s="3" t="inlineStr"/>
+      <c r="M173" s="3" t="inlineStr"/>
+      <c r="N173" s="3" t="inlineStr"/>
+      <c r="O173" s="3" t="inlineStr"/>
+      <c r="P173" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
+      <c r="Q173" s="3" t="inlineStr"/>
+      <c r="R173" s="3" t="inlineStr"/>
+      <c r="S173" s="3" t="inlineStr"/>
+      <c r="T173" s="3" t="inlineStr"/>
+      <c r="U173" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V173" s="3" t="inlineStr"/>
+      <c r="W173" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X173" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y173" s="3" t="inlineStr"/>
+      <c r="Z173" s="3" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050399</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr"/>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr"/>
+      <c r="F174" s="3" t="inlineStr"/>
+      <c r="G174" s="3" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H174" s="3" t="inlineStr"/>
+      <c r="I174" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J174" s="3" t="inlineStr"/>
+      <c r="K174" s="3" t="inlineStr"/>
+      <c r="L174" s="3" t="inlineStr"/>
+      <c r="M174" s="3" t="inlineStr"/>
+      <c r="N174" s="3" t="inlineStr"/>
+      <c r="O174" s="3" t="inlineStr"/>
+      <c r="P174" s="3" t="inlineStr"/>
+      <c r="Q174" s="3" t="inlineStr"/>
+      <c r="R174" s="3" t="inlineStr"/>
+      <c r="S174" s="3" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
+      <c r="T174" s="3" t="inlineStr"/>
+      <c r="U174" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V174" s="3" t="inlineStr"/>
+      <c r="W174" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X174" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y174" s="3" t="inlineStr"/>
+      <c r="Z174" s="3" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050379</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr"/>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr"/>
+      <c r="F175" s="3" t="inlineStr"/>
+      <c r="G175" s="3" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H175" s="3" t="inlineStr"/>
+      <c r="I175" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J175" s="3" t="inlineStr"/>
+      <c r="K175" s="3" t="inlineStr"/>
+      <c r="L175" s="3" t="inlineStr"/>
+      <c r="M175" s="3" t="inlineStr"/>
+      <c r="N175" s="3" t="inlineStr"/>
+      <c r="O175" s="3" t="inlineStr"/>
+      <c r="P175" s="3" t="inlineStr"/>
+      <c r="Q175" s="3" t="inlineStr"/>
+      <c r="R175" s="3" t="inlineStr"/>
+      <c r="S175" s="3" t="inlineStr"/>
+      <c r="T175" s="3" t="inlineStr"/>
+      <c r="U175" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V175" s="3" t="inlineStr"/>
+      <c r="W175" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X175" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y175" s="3" t="inlineStr"/>
+      <c r="Z175" s="3" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050442</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr"/>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr"/>
+      <c r="F176" s="3" t="inlineStr"/>
+      <c r="G176" s="3" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H176" s="3" t="inlineStr"/>
+      <c r="I176" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J176" s="3" t="inlineStr"/>
+      <c r="K176" s="3" t="inlineStr"/>
+      <c r="L176" s="3" t="inlineStr"/>
+      <c r="M176" s="3" t="inlineStr"/>
+      <c r="N176" s="3" t="inlineStr"/>
+      <c r="O176" s="3" t="inlineStr"/>
+      <c r="P176" s="3" t="inlineStr"/>
+      <c r="Q176" s="3" t="inlineStr"/>
+      <c r="R176" s="3" t="inlineStr"/>
+      <c r="S176" s="3" t="inlineStr"/>
+      <c r="T176" s="3" t="inlineStr"/>
+      <c r="U176" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V176" s="3" t="inlineStr"/>
+      <c r="W176" s="3" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="X176" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y176" s="3" t="inlineStr"/>
+      <c r="Z176" s="3" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr"/>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr"/>
+      <c r="F177" s="3" t="inlineStr"/>
+      <c r="G177" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H177" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I177" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J177" s="3" t="inlineStr"/>
+      <c r="K177" s="3" t="inlineStr"/>
+      <c r="L177" s="3" t="inlineStr"/>
+      <c r="M177" s="3" t="inlineStr"/>
+      <c r="N177" s="3" t="inlineStr"/>
+      <c r="O177" s="3" t="inlineStr"/>
+      <c r="P177" s="3" t="inlineStr"/>
+      <c r="Q177" s="3" t="inlineStr"/>
+      <c r="R177" s="3" t="inlineStr"/>
+      <c r="S177" s="3" t="inlineStr"/>
+      <c r="T177" s="3" t="inlineStr"/>
+      <c r="U177" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V177" s="3" t="inlineStr"/>
+      <c r="W177" s="3" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="X177" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y177" s="3" t="inlineStr"/>
+      <c r="Z177" s="3" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr"/>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr"/>
+      <c r="F178" s="3" t="inlineStr"/>
+      <c r="G178" s="3" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H178" s="3" t="inlineStr"/>
+      <c r="I178" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J178" s="3" t="inlineStr"/>
+      <c r="K178" s="3" t="inlineStr"/>
+      <c r="L178" s="3" t="inlineStr"/>
+      <c r="M178" s="3" t="inlineStr"/>
+      <c r="N178" s="3" t="inlineStr"/>
+      <c r="O178" s="3" t="inlineStr"/>
+      <c r="P178" s="3" t="inlineStr"/>
+      <c r="Q178" s="3" t="inlineStr"/>
+      <c r="R178" s="3" t="inlineStr"/>
+      <c r="S178" s="3" t="inlineStr"/>
+      <c r="T178" s="3" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U178" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V178" s="3" t="inlineStr"/>
+      <c r="W178" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X178" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y178" s="3" t="inlineStr"/>
+      <c r="Z178" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -634,7 +634,7 @@
       </c>
       <c r="X2" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y2" s="2" t="inlineStr"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y3" s="2" t="inlineStr"/>
@@ -762,7 +762,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y4" s="2" t="inlineStr"/>
@@ -826,7 +826,7 @@
       </c>
       <c r="X5" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y5" s="2" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y15" s="2" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y16" s="2" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="X33" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y33" s="2" t="inlineStr"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="X50" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y50" s="2" t="inlineStr"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="X51" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y51" s="2" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="X53" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y53" s="2" t="inlineStr"/>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="X59" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y59" s="2" t="inlineStr"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="X60" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y60" s="2" t="inlineStr"/>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="X61" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y61" s="2" t="inlineStr"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="X62" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y62" s="2" t="inlineStr"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="X80" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y80" s="2" t="inlineStr"/>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="X81" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y81" s="2" t="inlineStr"/>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="X82" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y82" s="2" t="inlineStr"/>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="X83" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y83" s="2" t="inlineStr"/>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="X91" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y91" s="2" t="inlineStr"/>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="X92" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y92" s="2" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="X93" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y93" s="2" t="inlineStr"/>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="X94" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y94" s="2" t="inlineStr"/>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="X124" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y124" s="2" t="inlineStr"/>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="X162" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y162" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -595,7 +601,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -647,7 +653,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A time point when a person stops abstaining from a behaviour.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -659,7 +665,7 @@
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
@@ -775,7 +781,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A time point when a person starts being abstinent from a behaviour.</t>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -787,7 +793,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
@@ -1399,7 +1405,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A time point when a behaviour ends.</t>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1411,7 +1417,7 @@
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
@@ -1463,7 +1469,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A time point when a behaviour starts.</t>
+          <t>A temporal region when a behaviour starts.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1475,7 +1481,7 @@
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
@@ -1663,68 +1669,68 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>BCIO:050455</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>behavioural duration</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Z19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -683,7 +683,11 @@
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
       <c r="T3" s="2" t="inlineStr"/>
       <c r="U3" s="2" t="inlineStr">
         <is>
@@ -811,7 +815,11 @@
       <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
       <c r="T5" s="2" t="inlineStr"/>
       <c r="U5" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1443,11 @@
       <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
       <c r="T15" s="2" t="inlineStr"/>
       <c r="U15" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1511,11 @@
       <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr"/>
       <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
       <c r="T16" s="2" t="inlineStr"/>
       <c r="U16" s="2" t="inlineStr">
         <is>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z178"/>
+  <dimension ref="A1:Z179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4532,95 +4538,87 @@
       <c r="Z62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr"/>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr"/>
-      <c r="Q63" s="2" t="inlineStr"/>
-      <c r="R63" s="2" t="inlineStr"/>
-      <c r="S63" s="2" t="inlineStr"/>
-      <c r="T63" s="2" t="inlineStr">
-        <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
-        </is>
-      </c>
-      <c r="U63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" s="2" t="inlineStr"/>
-      <c r="W63" s="2" t="inlineStr">
-        <is>
-          <t>OC; PS</t>
-        </is>
-      </c>
-      <c r="X63" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y63" s="2" t="inlineStr"/>
-      <c r="Z63" s="2" t="inlineStr"/>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr"/>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr"/>
+      <c r="F63" s="5" t="inlineStr"/>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr"/>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="inlineStr"/>
+      <c r="K63" s="5" t="inlineStr"/>
+      <c r="L63" s="5" t="inlineStr"/>
+      <c r="M63" s="5" t="inlineStr"/>
+      <c r="N63" s="5" t="inlineStr"/>
+      <c r="O63" s="5" t="inlineStr"/>
+      <c r="P63" s="5" t="inlineStr"/>
+      <c r="Q63" s="5" t="inlineStr"/>
+      <c r="R63" s="5" t="inlineStr"/>
+      <c r="S63" s="5" t="inlineStr"/>
+      <c r="T63" s="5" t="inlineStr"/>
+      <c r="U63" s="5" t="inlineStr"/>
+      <c r="V63" s="5" t="inlineStr"/>
+      <c r="W63" s="5" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X63" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y63" s="5" t="inlineStr"/>
+      <c r="Z63" s="5" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">function </t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -4638,15 +4636,10 @@
       <c r="P64" s="2" t="inlineStr"/>
       <c r="Q64" s="2" t="inlineStr"/>
       <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
+      <c r="S64" s="2" t="inlineStr"/>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
@@ -4657,7 +4650,7 @@
       <c r="V64" s="2" t="inlineStr"/>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X64" s="2" t="inlineStr">
@@ -4671,29 +4664,25 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">function </t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -4713,10 +4702,15 @@
       <c r="R65" s="2" t="inlineStr"/>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr"/>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr">
+        <is>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+        </is>
+      </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4725,7 +4719,7 @@
       <c r="V65" s="2" t="inlineStr"/>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X65" s="2" t="inlineStr">
@@ -4739,25 +4733,29 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr"/>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -4766,11 +4764,7 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr"/>
@@ -4781,11 +4775,7 @@
       <c r="R66" s="2" t="inlineStr"/>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
@@ -4797,7 +4787,7 @@
       <c r="V66" s="2" t="inlineStr"/>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X66" s="2" t="inlineStr">
@@ -4806,75 +4796,61 @@
         </is>
       </c>
       <c r="Y66" s="2" t="inlineStr"/>
-      <c r="Z66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
-o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
-</t>
-        </is>
-      </c>
+      <c r="Z66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
       <c r="M67" s="2" t="inlineStr"/>
       <c r="N67" s="2" t="inlineStr"/>
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr"/>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
+      <c r="Q67" s="2" t="inlineStr"/>
       <c r="R67" s="2" t="inlineStr"/>
       <c r="S67" s="2" t="inlineStr">
         <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr">
-        <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
-        </is>
-      </c>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr"/>
       <c r="U67" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4883,7 +4859,7 @@
       <c r="V67" s="2" t="inlineStr"/>
       <c r="W67" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X67" s="2" t="inlineStr">
@@ -4892,39 +4868,45 @@
         </is>
       </c>
       <c r="Y67" s="2" t="inlineStr"/>
-      <c r="Z67" s="2" t="inlineStr"/>
+      <c r="Z67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
+o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
+</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -4938,7 +4920,87 @@
       <c r="M68" s="2" t="inlineStr"/>
       <c r="N68" s="2" t="inlineStr"/>
       <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr">
+      <c r="P68" s="2" t="inlineStr"/>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr"/>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
+      <c r="U68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V68" s="2" t="inlineStr"/>
+      <c r="W68" s="2" t="inlineStr">
+        <is>
+          <t>RW; PS</t>
+        </is>
+      </c>
+      <c r="X68" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y68" s="2" t="inlineStr"/>
+      <c r="Z68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr">
         <is>
           <t>b is a behaviour pattern means:
 - b is instance_of uniform process aggregate; 
@@ -4950,94 +5012,18 @@
 - For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
-      <c r="Q68" s="2" t="inlineStr">
+      <c r="Q69" s="2" t="inlineStr">
         <is>
           <t>behaviour pattern</t>
         </is>
       </c>
-      <c r="R68" s="2" t="inlineStr"/>
-      <c r="S68" s="2" t="inlineStr">
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr">
         <is>
           <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
 This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
-      <c r="T68" s="2" t="inlineStr"/>
-      <c r="U68" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V68" s="2" t="inlineStr"/>
-      <c r="W68" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X68" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y68" s="2" t="inlineStr"/>
-      <c r="Z68" s="2" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050207</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr"/>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
-        </is>
-      </c>
-      <c r="Q69" s="2" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr"/>
       <c r="U69" s="2" t="inlineStr">
         <is>
@@ -5047,7 +5033,7 @@
       <c r="V69" s="2" t="inlineStr"/>
       <c r="W69" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X69" s="2" t="inlineStr">
@@ -5061,28 +5047,36 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5094,8 +5088,16 @@
       <c r="M70" s="2" t="inlineStr"/>
       <c r="N70" s="2" t="inlineStr"/>
       <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
       <c r="R70" s="2" t="inlineStr"/>
       <c r="S70" s="2" t="inlineStr"/>
       <c r="T70" s="2" t="inlineStr"/>
@@ -5107,7 +5109,7 @@
       <c r="V70" s="2" t="inlineStr"/>
       <c r="W70" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="X70" s="2" t="inlineStr">
@@ -5121,29 +5123,25 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -5161,11 +5159,7 @@
       <c r="P71" s="2" t="inlineStr"/>
       <c r="Q71" s="2" t="inlineStr"/>
       <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
+      <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr"/>
       <c r="U71" s="2" t="inlineStr">
         <is>
@@ -5189,32 +5183,32 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5229,7 +5223,11 @@
       <c r="P72" s="2" t="inlineStr"/>
       <c r="Q72" s="2" t="inlineStr"/>
       <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="T72" s="2" t="inlineStr"/>
       <c r="U72" s="2" t="inlineStr">
         <is>
@@ -5239,7 +5237,7 @@
       <c r="V72" s="2" t="inlineStr"/>
       <c r="W72" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X72" s="2" t="inlineStr">
@@ -5253,28 +5251,32 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5299,7 +5301,7 @@
       <c r="V73" s="2" t="inlineStr"/>
       <c r="W73" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X73" s="2" t="inlineStr">
@@ -5313,25 +5315,25 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -5359,7 +5361,7 @@
       <c r="V74" s="2" t="inlineStr"/>
       <c r="W74" s="2" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X74" s="2" t="inlineStr">
@@ -5373,30 +5375,25 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
-https://www.merriam-webster.com/dictionary/laugh</t>
-        </is>
-      </c>
+      <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -5424,7 +5421,7 @@
       <c r="V75" s="2" t="inlineStr"/>
       <c r="W75" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH</t>
         </is>
       </c>
       <c r="X75" s="2" t="inlineStr">
@@ -5438,32 +5435,33 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
+https://www.merriam-webster.com/dictionary/laugh</t>
+        </is>
+      </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5479,11 +5477,7 @@
       <c r="Q76" s="2" t="inlineStr"/>
       <c r="R76" s="2" t="inlineStr"/>
       <c r="S76" s="2" t="inlineStr"/>
-      <c r="T76" s="2" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="T76" s="2" t="inlineStr"/>
       <c r="U76" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5492,7 +5486,7 @@
       <c r="V76" s="2" t="inlineStr"/>
       <c r="W76" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X76" s="2" t="inlineStr">
@@ -5506,28 +5500,32 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H77" s="2" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5543,7 +5541,11 @@
       <c r="Q77" s="2" t="inlineStr"/>
       <c r="R77" s="2" t="inlineStr"/>
       <c r="S77" s="2" t="inlineStr"/>
-      <c r="T77" s="2" t="inlineStr"/>
+      <c r="T77" s="2" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="U77" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5552,7 +5554,7 @@
       <c r="V77" s="2" t="inlineStr"/>
       <c r="W77" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X77" s="2" t="inlineStr">
@@ -5566,25 +5568,25 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -5612,7 +5614,7 @@
       <c r="V78" s="2" t="inlineStr"/>
       <c r="W78" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X78" s="2" t="inlineStr">
@@ -5626,32 +5628,28 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5667,11 +5665,7 @@
       <c r="Q79" s="2" t="inlineStr"/>
       <c r="R79" s="2" t="inlineStr"/>
       <c r="S79" s="2" t="inlineStr"/>
-      <c r="T79" s="2" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="T79" s="2" t="inlineStr"/>
       <c r="U79" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5680,7 +5674,7 @@
       <c r="V79" s="2" t="inlineStr"/>
       <c r="W79" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X79" s="2" t="inlineStr">
@@ -5694,28 +5688,32 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>low cognitive exertion expended on a behaviour</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -5730,21 +5728,21 @@
       <c r="P80" s="2" t="inlineStr"/>
       <c r="Q80" s="2" t="inlineStr"/>
       <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="T80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr"/>
+      <c r="T80" s="2" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="U80" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V80" s="2" t="inlineStr"/>
       <c r="W80" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X80" s="2" t="inlineStr">
@@ -5758,25 +5756,25 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -5796,7 +5794,7 @@
       <c r="R81" s="2" t="inlineStr"/>
       <c r="S81" s="2" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="T81" s="2" t="inlineStr"/>
@@ -5822,25 +5820,25 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -5860,7 +5858,7 @@
       <c r="R82" s="2" t="inlineStr"/>
       <c r="S82" s="2" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="T82" s="2" t="inlineStr"/>
@@ -5886,25 +5884,25 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -5924,7 +5922,7 @@
       <c r="R83" s="2" t="inlineStr"/>
       <c r="S83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="T83" s="2" t="inlineStr"/>
@@ -5950,25 +5948,25 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -5986,17 +5984,21 @@
       <c r="P84" s="2" t="inlineStr"/>
       <c r="Q84" s="2" t="inlineStr"/>
       <c r="R84" s="2" t="inlineStr"/>
-      <c r="S84" s="2" t="inlineStr"/>
+      <c r="S84" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
       <c r="T84" s="2" t="inlineStr"/>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="V84" s="2" t="inlineStr"/>
       <c r="W84" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X84" s="2" t="inlineStr">
@@ -6010,25 +6012,25 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -6056,7 +6058,7 @@
       <c r="V85" s="2" t="inlineStr"/>
       <c r="W85" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X85" s="2" t="inlineStr">
@@ -6070,25 +6072,25 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -6107,11 +6109,7 @@
       <c r="Q86" s="2" t="inlineStr"/>
       <c r="R86" s="2" t="inlineStr"/>
       <c r="S86" s="2" t="inlineStr"/>
-      <c r="T86" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="T86" s="2" t="inlineStr"/>
       <c r="U86" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6120,7 +6118,7 @@
       <c r="V86" s="2" t="inlineStr"/>
       <c r="W86" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X86" s="2" t="inlineStr">
@@ -6134,25 +6132,25 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -6171,7 +6169,11 @@
       <c r="Q87" s="2" t="inlineStr"/>
       <c r="R87" s="2" t="inlineStr"/>
       <c r="S87" s="2" t="inlineStr"/>
-      <c r="T87" s="2" t="inlineStr"/>
+      <c r="T87" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="U87" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6180,7 +6182,7 @@
       <c r="V87" s="2" t="inlineStr"/>
       <c r="W87" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X87" s="2" t="inlineStr">
@@ -6194,25 +6196,25 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
@@ -6228,17 +6230,9 @@
       <c r="N88" s="2" t="inlineStr"/>
       <c r="O88" s="2" t="inlineStr"/>
       <c r="P88" s="2" t="inlineStr"/>
-      <c r="Q88" s="2" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="Q88" s="2" t="inlineStr"/>
       <c r="R88" s="2" t="inlineStr"/>
-      <c r="S88" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="S88" s="2" t="inlineStr"/>
       <c r="T88" s="2" t="inlineStr"/>
       <c r="U88" s="2" t="inlineStr">
         <is>
@@ -6248,7 +6242,7 @@
       <c r="V88" s="2" t="inlineStr"/>
       <c r="W88" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X88" s="2" t="inlineStr">
@@ -6262,29 +6256,25 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -6300,14 +6290,18 @@
       <c r="N89" s="2" t="inlineStr"/>
       <c r="O89" s="2" t="inlineStr"/>
       <c r="P89" s="2" t="inlineStr"/>
-      <c r="Q89" s="2" t="inlineStr"/>
+      <c r="Q89" s="2" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="R89" s="2" t="inlineStr"/>
-      <c r="S89" s="2" t="inlineStr"/>
-      <c r="T89" s="2" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="S89" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="T89" s="2" t="inlineStr"/>
       <c r="U89" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6316,7 +6310,7 @@
       <c r="V89" s="2" t="inlineStr"/>
       <c r="W89" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X89" s="2" t="inlineStr">
@@ -6330,25 +6324,29 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -6369,7 +6367,7 @@
       <c r="S90" s="2" t="inlineStr"/>
       <c r="T90" s="2" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="U90" s="2" t="inlineStr">
@@ -6380,7 +6378,7 @@
       <c r="V90" s="2" t="inlineStr"/>
       <c r="W90" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X90" s="2" t="inlineStr">
@@ -6394,25 +6392,25 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -6430,21 +6428,21 @@
       <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr"/>
       <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="T91" s="2" t="inlineStr"/>
+      <c r="S91" s="2" t="inlineStr"/>
+      <c r="T91" s="2" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="U91" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V91" s="2" t="inlineStr"/>
       <c r="W91" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X91" s="2" t="inlineStr">
@@ -6458,25 +6456,25 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -6496,7 +6494,7 @@
       <c r="R92" s="2" t="inlineStr"/>
       <c r="S92" s="2" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="T92" s="2" t="inlineStr"/>
@@ -6522,25 +6520,25 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr"/>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -6560,7 +6558,7 @@
       <c r="R93" s="2" t="inlineStr"/>
       <c r="S93" s="2" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="T93" s="2" t="inlineStr"/>
@@ -6586,25 +6584,25 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -6624,7 +6622,7 @@
       <c r="R94" s="2" t="inlineStr"/>
       <c r="S94" s="2" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="T94" s="2" t="inlineStr"/>
@@ -6650,25 +6648,25 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>moderate physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -6686,11 +6684,15 @@
       <c r="P95" s="2" t="inlineStr"/>
       <c r="Q95" s="2" t="inlineStr"/>
       <c r="R95" s="2" t="inlineStr"/>
-      <c r="S95" s="2" t="inlineStr"/>
+      <c r="S95" s="2" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="T95" s="2" t="inlineStr"/>
       <c r="U95" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="V95" s="2" t="inlineStr"/>
@@ -6710,25 +6712,25 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -6770,25 +6772,25 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -6816,7 +6818,7 @@
       <c r="V97" s="2" t="inlineStr"/>
       <c r="W97" s="2" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X97" s="2" t="inlineStr">
@@ -6830,18 +6832,18 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr"/>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
@@ -6876,7 +6878,7 @@
       <c r="V98" s="2" t="inlineStr"/>
       <c r="W98" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="X98" s="2" t="inlineStr">
@@ -6890,25 +6892,25 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -6926,16 +6928,8 @@
       <c r="P99" s="2" t="inlineStr"/>
       <c r="Q99" s="2" t="inlineStr"/>
       <c r="R99" s="2" t="inlineStr"/>
-      <c r="S99" s="2" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="T99" s="2" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="S99" s="2" t="inlineStr"/>
+      <c r="T99" s="2" t="inlineStr"/>
       <c r="U99" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6944,7 +6938,7 @@
       <c r="V99" s="2" t="inlineStr"/>
       <c r="W99" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X99" s="2" t="inlineStr">
@@ -6958,25 +6952,25 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr"/>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -6994,8 +6988,16 @@
       <c r="P100" s="2" t="inlineStr"/>
       <c r="Q100" s="2" t="inlineStr"/>
       <c r="R100" s="2" t="inlineStr"/>
-      <c r="S100" s="2" t="inlineStr"/>
-      <c r="T100" s="2" t="inlineStr"/>
+      <c r="S100" s="2" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="T100" s="2" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="U100" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7004,7 +7006,7 @@
       <c r="V100" s="2" t="inlineStr"/>
       <c r="W100" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="X100" s="2" t="inlineStr">
@@ -7018,29 +7020,25 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -7059,11 +7057,7 @@
       <c r="Q101" s="2" t="inlineStr"/>
       <c r="R101" s="2" t="inlineStr"/>
       <c r="S101" s="2" t="inlineStr"/>
-      <c r="T101" s="2" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
+      <c r="T101" s="2" t="inlineStr"/>
       <c r="U101" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7072,7 +7066,7 @@
       <c r="V101" s="2" t="inlineStr"/>
       <c r="W101" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X101" s="2" t="inlineStr">
@@ -7086,25 +7080,29 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -7122,15 +7120,10 @@
       <c r="P102" s="2" t="inlineStr"/>
       <c r="Q102" s="2" t="inlineStr"/>
       <c r="R102" s="2" t="inlineStr"/>
-      <c r="S102" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="S102" s="2" t="inlineStr"/>
       <c r="T102" s="2" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>harassment behaviour occurred three times</t>
         </is>
       </c>
       <c r="U102" s="2" t="inlineStr">
@@ -7141,7 +7134,7 @@
       <c r="V102" s="2" t="inlineStr"/>
       <c r="W102" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X102" s="2" t="inlineStr">
@@ -7155,25 +7148,25 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -7193,12 +7186,13 @@
       <c r="R103" s="2" t="inlineStr"/>
       <c r="S103" s="2" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="T103" s="2" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="U103" s="2" t="inlineStr">
@@ -7209,7 +7203,7 @@
       <c r="V103" s="2" t="inlineStr"/>
       <c r="W103" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X103" s="2" t="inlineStr">
@@ -7223,32 +7217,28 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr"/>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7265,12 +7255,12 @@
       <c r="R104" s="2" t="inlineStr"/>
       <c r="S104" s="2" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="T104" s="2" t="inlineStr">
         <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="U104" s="2" t="inlineStr">
@@ -7295,28 +7285,32 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr"/>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H105" s="2" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7331,8 +7325,16 @@
       <c r="P105" s="2" t="inlineStr"/>
       <c r="Q105" s="2" t="inlineStr"/>
       <c r="R105" s="2" t="inlineStr"/>
-      <c r="S105" s="2" t="inlineStr"/>
-      <c r="T105" s="2" t="inlineStr"/>
+      <c r="S105" s="2" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="T105" s="2" t="inlineStr">
+        <is>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+        </is>
+      </c>
       <c r="U105" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7341,7 +7343,7 @@
       <c r="V105" s="2" t="inlineStr"/>
       <c r="W105" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X105" s="2" t="inlineStr">
@@ -7355,25 +7357,25 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -7415,25 +7417,25 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -7452,11 +7454,7 @@
       <c r="Q107" s="2" t="inlineStr"/>
       <c r="R107" s="2" t="inlineStr"/>
       <c r="S107" s="2" t="inlineStr"/>
-      <c r="T107" s="2" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="T107" s="2" t="inlineStr"/>
       <c r="U107" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7479,25 +7477,25 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -7515,14 +7513,10 @@
       <c r="P108" s="2" t="inlineStr"/>
       <c r="Q108" s="2" t="inlineStr"/>
       <c r="R108" s="2" t="inlineStr"/>
-      <c r="S108" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="S108" s="2" t="inlineStr"/>
       <c r="T108" s="2" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="U108" s="2" t="inlineStr">
@@ -7547,18 +7541,18 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr"/>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -7583,10 +7577,14 @@
       <c r="P109" s="2" t="inlineStr"/>
       <c r="Q109" s="2" t="inlineStr"/>
       <c r="R109" s="2" t="inlineStr"/>
-      <c r="S109" s="2" t="inlineStr"/>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="T109" s="2" t="inlineStr">
         <is>
-          <t>Undergoing surgery</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="U109" s="2" t="inlineStr">
@@ -7611,25 +7609,25 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -7648,7 +7646,11 @@
       <c r="Q110" s="2" t="inlineStr"/>
       <c r="R110" s="2" t="inlineStr"/>
       <c r="S110" s="2" t="inlineStr"/>
-      <c r="T110" s="2" t="inlineStr"/>
+      <c r="T110" s="2" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="U110" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7671,18 +7673,18 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -7731,18 +7733,18 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7791,18 +7793,18 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
@@ -7851,32 +7853,28 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr"/>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7891,16 +7889,8 @@
       <c r="P114" s="2" t="inlineStr"/>
       <c r="Q114" s="2" t="inlineStr"/>
       <c r="R114" s="2" t="inlineStr"/>
-      <c r="S114" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="T114" s="2" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+      <c r="S114" s="2" t="inlineStr"/>
+      <c r="T114" s="2" t="inlineStr"/>
       <c r="U114" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7909,7 +7899,7 @@
       <c r="V114" s="2" t="inlineStr"/>
       <c r="W114" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X114" s="2" t="inlineStr">
@@ -7923,28 +7913,32 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr"/>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H115" s="2" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7961,12 +7955,12 @@
       <c r="R115" s="2" t="inlineStr"/>
       <c r="S115" s="2" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="T115" s="2" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="U115" s="2" t="inlineStr">
@@ -7977,7 +7971,7 @@
       <c r="V115" s="2" t="inlineStr"/>
       <c r="W115" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X115" s="2" t="inlineStr">
@@ -7991,25 +7985,25 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -8027,10 +8021,14 @@
       <c r="P116" s="2" t="inlineStr"/>
       <c r="Q116" s="2" t="inlineStr"/>
       <c r="R116" s="2" t="inlineStr"/>
-      <c r="S116" s="2" t="inlineStr"/>
+      <c r="S116" s="2" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="T116" s="2" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U116" s="2" t="inlineStr">
@@ -8041,7 +8039,7 @@
       <c r="V116" s="2" t="inlineStr"/>
       <c r="W116" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X116" s="2" t="inlineStr">
@@ -8055,29 +8053,25 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr"/>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -8098,7 +8092,7 @@
       <c r="S117" s="2" t="inlineStr"/>
       <c r="T117" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U117" s="2" t="inlineStr">
@@ -8109,7 +8103,7 @@
       <c r="V117" s="2" t="inlineStr"/>
       <c r="W117" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X117" s="2" t="inlineStr">
@@ -8123,32 +8117,32 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8166,20 +8160,18 @@
       <c r="S118" s="2" t="inlineStr"/>
       <c r="T118" s="2" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U118" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V118" s="2" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="U118" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V118" s="2" t="inlineStr"/>
       <c r="W118" s="2" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X118" s="2" t="inlineStr">
@@ -8193,28 +8185,32 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr"/>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H119" s="2" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8232,18 +8228,20 @@
       <c r="S119" s="2" t="inlineStr"/>
       <c r="T119" s="2" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="U119" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V119" s="2" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U119" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" s="2" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W119" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X119" s="2" t="inlineStr">
@@ -8257,32 +8255,28 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr"/>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr"/>
       <c r="I120" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8300,7 +8294,7 @@
       <c r="S120" s="2" t="inlineStr"/>
       <c r="T120" s="2" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="U120" s="2" t="inlineStr">
@@ -8311,7 +8305,7 @@
       <c r="V120" s="2" t="inlineStr"/>
       <c r="W120" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X120" s="2" t="inlineStr">
@@ -8325,28 +8319,32 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr"/>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H121" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8362,7 +8360,11 @@
       <c r="Q121" s="2" t="inlineStr"/>
       <c r="R121" s="2" t="inlineStr"/>
       <c r="S121" s="2" t="inlineStr"/>
-      <c r="T121" s="2" t="inlineStr"/>
+      <c r="T121" s="2" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U121" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8371,7 +8373,7 @@
       <c r="V121" s="2" t="inlineStr"/>
       <c r="W121" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X121" s="2" t="inlineStr">
@@ -8385,26 +8387,25 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -8446,25 +8447,26 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -8492,7 +8494,7 @@
       <c r="V123" s="2" t="inlineStr"/>
       <c r="W123" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X123" s="2" t="inlineStr">
@@ -8506,29 +8508,25 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A postural behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
-        </is>
-      </c>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>posture behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -8546,11 +8544,7 @@
       <c r="P124" s="2" t="inlineStr"/>
       <c r="Q124" s="2" t="inlineStr"/>
       <c r="R124" s="2" t="inlineStr"/>
-      <c r="S124" s="2" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
-        </is>
-      </c>
+      <c r="S124" s="2" t="inlineStr"/>
       <c r="T124" s="2" t="inlineStr"/>
       <c r="U124" s="2" t="inlineStr">
         <is>
@@ -8560,7 +8554,7 @@
       <c r="V124" s="2" t="inlineStr"/>
       <c r="W124" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X124" s="2" t="inlineStr">
@@ -8574,32 +8568,32 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr"/>
+          <t>A postural behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
+        </is>
+      </c>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="H125" s="2" t="inlineStr"/>
       <c r="I125" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8614,7 +8608,11 @@
       <c r="P125" s="2" t="inlineStr"/>
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr"/>
-      <c r="S125" s="2" t="inlineStr"/>
+      <c r="S125" s="2" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
       <c r="T125" s="2" t="inlineStr"/>
       <c r="U125" s="2" t="inlineStr">
         <is>
@@ -8624,7 +8622,7 @@
       <c r="V125" s="2" t="inlineStr"/>
       <c r="W125" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X125" s="2" t="inlineStr">
@@ -8638,28 +8636,32 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H126" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8684,7 +8686,7 @@
       <c r="V126" s="2" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X126" s="2" t="inlineStr">
@@ -8698,25 +8700,25 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -8758,18 +8760,18 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr"/>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
@@ -8794,12 +8796,7 @@
       <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr"/>
       <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="S128" s="2" t="inlineStr"/>
       <c r="T128" s="2" t="inlineStr"/>
       <c r="U128" s="2" t="inlineStr">
         <is>
@@ -8823,32 +8820,28 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr"/>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H129" s="2" t="inlineStr"/>
       <c r="I129" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8863,12 +8856,13 @@
       <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr"/>
-      <c r="S129" s="2" t="inlineStr"/>
-      <c r="T129" s="2" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="T129" s="2" t="inlineStr"/>
       <c r="U129" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8877,7 +8871,7 @@
       <c r="V129" s="2" t="inlineStr"/>
       <c r="W129" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X129" s="2" t="inlineStr">
@@ -8891,34 +8885,30 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr"/>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -8932,15 +8922,15 @@
       <c r="M130" s="2" t="inlineStr"/>
       <c r="N130" s="2" t="inlineStr"/>
       <c r="O130" s="2" t="inlineStr"/>
-      <c r="P130" s="2" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr"/>
       <c r="R130" s="2" t="inlineStr"/>
       <c r="S130" s="2" t="inlineStr"/>
-      <c r="T130" s="2" t="inlineStr"/>
+      <c r="T130" s="2" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U130" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8949,7 +8939,7 @@
       <c r="V130" s="2" t="inlineStr"/>
       <c r="W130" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X130" s="2" t="inlineStr">
@@ -8963,28 +8953,36 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H131" s="2" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8996,7 +8994,11 @@
       <c r="M131" s="2" t="inlineStr"/>
       <c r="N131" s="2" t="inlineStr"/>
       <c r="O131" s="2" t="inlineStr"/>
-      <c r="P131" s="2" t="inlineStr"/>
+      <c r="P131" s="2" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
       <c r="S131" s="2" t="inlineStr"/>
@@ -9009,7 +9011,7 @@
       <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X131" s="2" t="inlineStr">
@@ -9023,25 +9025,25 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -9083,25 +9085,25 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -9143,18 +9145,18 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
@@ -9203,18 +9205,18 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -9263,25 +9265,25 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -9323,25 +9325,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -9383,18 +9385,18 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -9443,18 +9445,18 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -9503,18 +9505,18 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -9563,25 +9565,25 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr"/>
@@ -9609,7 +9611,7 @@
       <c r="V141" s="2" t="inlineStr"/>
       <c r="W141" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X141" s="2" t="inlineStr">
@@ -9623,25 +9625,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr"/>
@@ -9683,29 +9685,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>reclining</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9723,11 +9721,7 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr">
         <is>
@@ -9737,7 +9731,7 @@
       <c r="V143" s="2" t="inlineStr"/>
       <c r="W143" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X143" s="2" t="inlineStr">
@@ -9751,25 +9745,29 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9789,14 +9787,10 @@
       <c r="R144" s="2" t="inlineStr"/>
       <c r="S144" s="2" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T144" s="2" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
+      <c r="T144" s="2" t="inlineStr"/>
       <c r="U144" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9805,7 +9799,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9819,25 +9813,25 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -9855,8 +9849,16 @@
       <c r="P145" s="2" t="inlineStr"/>
       <c r="Q145" s="2" t="inlineStr"/>
       <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
+      <c r="S145" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T145" s="2" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U145" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9865,7 +9867,7 @@
       <c r="V145" s="2" t="inlineStr"/>
       <c r="W145" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X145" s="2" t="inlineStr">
@@ -9879,25 +9881,25 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -9915,11 +9917,7 @@
       <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S146" s="2" t="inlineStr"/>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr">
         <is>
@@ -9943,25 +9941,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9981,14 +9979,10 @@
       <c r="R147" s="2" t="inlineStr"/>
       <c r="S147" s="2" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T147" s="2" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9997,7 +9991,7 @@
       <c r="V147" s="2" t="inlineStr"/>
       <c r="W147" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X147" s="2" t="inlineStr">
@@ -10011,25 +10005,25 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -10047,8 +10041,16 @@
       <c r="P148" s="2" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr"/>
       <c r="R148" s="2" t="inlineStr"/>
-      <c r="S148" s="2" t="inlineStr"/>
-      <c r="T148" s="2" t="inlineStr"/>
+      <c r="S148" s="2" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T148" s="2" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U148" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10057,7 +10059,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10071,32 +10073,28 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10111,16 +10109,8 @@
       <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T149" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S149" s="2" t="inlineStr"/>
+      <c r="T149" s="2" t="inlineStr"/>
       <c r="U149" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10129,7 +10119,7 @@
       <c r="V149" s="2" t="inlineStr"/>
       <c r="W149" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X149" s="2" t="inlineStr">
@@ -10143,28 +10133,32 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10179,8 +10173,16 @@
       <c r="P150" s="2" t="inlineStr"/>
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="inlineStr"/>
-      <c r="T150" s="2" t="inlineStr"/>
+      <c r="S150" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T150" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U150" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10189,7 +10191,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10203,25 +10205,25 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr"/>
@@ -10240,11 +10242,7 @@
       <c r="Q151" s="2" t="inlineStr"/>
       <c r="R151" s="2" t="inlineStr"/>
       <c r="S151" s="2" t="inlineStr"/>
-      <c r="T151" s="2" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T151" s="2" t="inlineStr"/>
       <c r="U151" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10253,7 +10251,7 @@
       <c r="V151" s="2" t="inlineStr"/>
       <c r="W151" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X151" s="2" t="inlineStr">
@@ -10267,25 +10265,25 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr"/>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr"/>
@@ -10304,7 +10302,11 @@
       <c r="Q152" s="2" t="inlineStr"/>
       <c r="R152" s="2" t="inlineStr"/>
       <c r="S152" s="2" t="inlineStr"/>
-      <c r="T152" s="2" t="inlineStr"/>
+      <c r="T152" s="2" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U152" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10313,7 +10315,7 @@
       <c r="V152" s="2" t="inlineStr"/>
       <c r="W152" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X152" s="2" t="inlineStr">
@@ -10327,32 +10329,28 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr"/>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr"/>
       <c r="I153" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10367,17 +10365,8 @@
       <c r="P153" s="2" t="inlineStr"/>
       <c r="Q153" s="2" t="inlineStr"/>
       <c r="R153" s="2" t="inlineStr"/>
-      <c r="S153" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T153" s="2" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S153" s="2" t="inlineStr"/>
+      <c r="T153" s="2" t="inlineStr"/>
       <c r="U153" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10386,7 +10375,7 @@
       <c r="V153" s="2" t="inlineStr"/>
       <c r="W153" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X153" s="2" t="inlineStr">
@@ -10400,28 +10389,32 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr"/>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H154" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10436,8 +10429,17 @@
       <c r="P154" s="2" t="inlineStr"/>
       <c r="Q154" s="2" t="inlineStr"/>
       <c r="R154" s="2" t="inlineStr"/>
-      <c r="S154" s="2" t="inlineStr"/>
-      <c r="T154" s="2" t="inlineStr"/>
+      <c r="S154" s="2" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T154" s="2" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U154" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10446,7 +10448,7 @@
       <c r="V154" s="2" t="inlineStr"/>
       <c r="W154" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X154" s="2" t="inlineStr">
@@ -10460,25 +10462,25 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr"/>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -10520,25 +10522,25 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr"/>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -10566,7 +10568,7 @@
       <c r="V156" s="2" t="inlineStr"/>
       <c r="W156" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X156" s="2" t="inlineStr">
@@ -10580,25 +10582,25 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr"/>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -10617,11 +10619,7 @@
       <c r="Q157" s="2" t="inlineStr"/>
       <c r="R157" s="2" t="inlineStr"/>
       <c r="S157" s="2" t="inlineStr"/>
-      <c r="T157" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T157" s="2" t="inlineStr"/>
       <c r="U157" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10630,7 +10628,7 @@
       <c r="V157" s="2" t="inlineStr"/>
       <c r="W157" s="2" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X157" s="2" t="inlineStr">
@@ -10644,25 +10642,25 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr"/>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -10681,7 +10679,11 @@
       <c r="Q158" s="2" t="inlineStr"/>
       <c r="R158" s="2" t="inlineStr"/>
       <c r="S158" s="2" t="inlineStr"/>
-      <c r="T158" s="2" t="inlineStr"/>
+      <c r="T158" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U158" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10690,7 +10692,7 @@
       <c r="V158" s="2" t="inlineStr"/>
       <c r="W158" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X158" s="2" t="inlineStr">
@@ -10704,32 +10706,28 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr"/>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10742,17 +10740,9 @@
       <c r="N159" s="2" t="inlineStr"/>
       <c r="O159" s="2" t="inlineStr"/>
       <c r="P159" s="2" t="inlineStr"/>
-      <c r="Q159" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q159" s="2" t="inlineStr"/>
       <c r="R159" s="2" t="inlineStr"/>
-      <c r="S159" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S159" s="2" t="inlineStr"/>
       <c r="T159" s="2" t="inlineStr"/>
       <c r="U159" s="2" t="inlineStr">
         <is>
@@ -10762,7 +10752,7 @@
       <c r="V159" s="2" t="inlineStr"/>
       <c r="W159" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X159" s="2" t="inlineStr">
@@ -10776,28 +10766,32 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr"/>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H160" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10810,9 +10804,17 @@
       <c r="N160" s="2" t="inlineStr"/>
       <c r="O160" s="2" t="inlineStr"/>
       <c r="P160" s="2" t="inlineStr"/>
-      <c r="Q160" s="2" t="inlineStr"/>
+      <c r="Q160" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R160" s="2" t="inlineStr"/>
-      <c r="S160" s="2" t="inlineStr"/>
+      <c r="S160" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T160" s="2" t="inlineStr"/>
       <c r="U160" s="2" t="inlineStr">
         <is>
@@ -10822,7 +10824,7 @@
       <c r="V160" s="2" t="inlineStr"/>
       <c r="W160" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X160" s="2" t="inlineStr">
@@ -10836,25 +10838,25 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr"/>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr"/>
@@ -10872,11 +10874,7 @@
       <c r="P161" s="2" t="inlineStr"/>
       <c r="Q161" s="2" t="inlineStr"/>
       <c r="R161" s="2" t="inlineStr"/>
-      <c r="S161" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S161" s="2" t="inlineStr"/>
       <c r="T161" s="2" t="inlineStr"/>
       <c r="U161" s="2" t="inlineStr">
         <is>
@@ -10886,7 +10884,7 @@
       <c r="V161" s="2" t="inlineStr"/>
       <c r="W161" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X161" s="2" t="inlineStr">
@@ -10900,25 +10898,25 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr"/>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr"/>
@@ -10938,7 +10936,7 @@
       <c r="R162" s="2" t="inlineStr"/>
       <c r="S162" s="2" t="inlineStr">
         <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
       <c r="T162" s="2" t="inlineStr"/>
@@ -10964,32 +10962,28 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>talking</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr"/>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr"/>
       <c r="I163" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11002,13 +10996,13 @@
       <c r="N163" s="2" t="inlineStr"/>
       <c r="O163" s="2" t="inlineStr"/>
       <c r="P163" s="2" t="inlineStr"/>
-      <c r="Q163" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q163" s="2" t="inlineStr"/>
       <c r="R163" s="2" t="inlineStr"/>
-      <c r="S163" s="2" t="inlineStr"/>
+      <c r="S163" s="2" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
       <c r="T163" s="2" t="inlineStr"/>
       <c r="U163" s="2" t="inlineStr">
         <is>
@@ -11018,7 +11012,7 @@
       <c r="V163" s="2" t="inlineStr"/>
       <c r="W163" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X163" s="2" t="inlineStr">
@@ -11032,25 +11026,25 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr"/>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -11070,7 +11064,11 @@
       <c r="N164" s="2" t="inlineStr"/>
       <c r="O164" s="2" t="inlineStr"/>
       <c r="P164" s="2" t="inlineStr"/>
-      <c r="Q164" s="2" t="inlineStr"/>
+      <c r="Q164" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R164" s="2" t="inlineStr"/>
       <c r="S164" s="2" t="inlineStr"/>
       <c r="T164" s="2" t="inlineStr"/>
@@ -11096,25 +11094,25 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr"/>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -11146,7 +11144,7 @@
       <c r="V165" s="2" t="inlineStr"/>
       <c r="W165" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X165" s="2" t="inlineStr">
@@ -11160,25 +11158,25 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr"/>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -11198,11 +11196,7 @@
       <c r="N166" s="2" t="inlineStr"/>
       <c r="O166" s="2" t="inlineStr"/>
       <c r="P166" s="2" t="inlineStr"/>
-      <c r="Q166" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q166" s="2" t="inlineStr"/>
       <c r="R166" s="2" t="inlineStr"/>
       <c r="S166" s="2" t="inlineStr"/>
       <c r="T166" s="2" t="inlineStr"/>
@@ -11214,7 +11208,7 @@
       <c r="V166" s="2" t="inlineStr"/>
       <c r="W166" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X166" s="2" t="inlineStr">
@@ -11228,25 +11222,25 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -11282,7 +11276,7 @@
       <c r="V167" s="2" t="inlineStr"/>
       <c r="W167" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X167" s="2" t="inlineStr">
@@ -11296,29 +11290,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11338,14 +11328,13 @@
       <c r="N168" s="2" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr"/>
       <c r="P168" s="2" t="inlineStr"/>
-      <c r="Q168" s="2" t="inlineStr"/>
+      <c r="Q168" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R168" s="2" t="inlineStr"/>
-      <c r="S168" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S168" s="2" t="inlineStr"/>
       <c r="T168" s="2" t="inlineStr"/>
       <c r="U168" s="2" t="inlineStr">
         <is>
@@ -11355,7 +11344,7 @@
       <c r="V168" s="2" t="inlineStr"/>
       <c r="W168" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X168" s="2" t="inlineStr">
@@ -11369,28 +11358,36 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H169" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11405,12 +11402,13 @@
       <c r="P169" s="2" t="inlineStr"/>
       <c r="Q169" s="2" t="inlineStr"/>
       <c r="R169" s="2" t="inlineStr"/>
-      <c r="S169" s="2" t="inlineStr"/>
-      <c r="T169" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S169" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T169" s="2" t="inlineStr"/>
       <c r="U169" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11419,7 +11417,7 @@
       <c r="V169" s="2" t="inlineStr"/>
       <c r="W169" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X169" s="2" t="inlineStr">
@@ -11433,25 +11431,25 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
@@ -11470,7 +11468,11 @@
       <c r="Q170" s="2" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr"/>
       <c r="S170" s="2" t="inlineStr"/>
-      <c r="T170" s="2" t="inlineStr"/>
+      <c r="T170" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U170" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11479,7 +11481,7 @@
       <c r="V170" s="2" t="inlineStr"/>
       <c r="W170" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X170" s="2" t="inlineStr">
@@ -11493,25 +11495,25 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr"/>
@@ -11529,12 +11531,7 @@
       <c r="P171" s="2" t="inlineStr"/>
       <c r="Q171" s="2" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr"/>
-      <c r="S171" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S171" s="2" t="inlineStr"/>
       <c r="T171" s="2" t="inlineStr"/>
       <c r="U171" s="2" t="inlineStr">
         <is>
@@ -11544,7 +11541,7 @@
       <c r="V171" s="2" t="inlineStr"/>
       <c r="W171" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X171" s="2" t="inlineStr">
@@ -11558,25 +11555,25 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -11596,7 +11593,8 @@
       <c r="R172" s="2" t="inlineStr"/>
       <c r="S172" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T172" s="2" t="inlineStr"/>
@@ -11608,7 +11606,7 @@
       <c r="V172" s="2" t="inlineStr"/>
       <c r="W172" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X172" s="2" t="inlineStr">
@@ -11622,36 +11620,28 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr"/>
       <c r="I173" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11663,7 +11653,79 @@
       <c r="M173" s="2" t="inlineStr"/>
       <c r="N173" s="2" t="inlineStr"/>
       <c r="O173" s="2" t="inlineStr"/>
-      <c r="P173" s="2" t="inlineStr">
+      <c r="P173" s="2" t="inlineStr"/>
+      <c r="Q173" s="2" t="inlineStr"/>
+      <c r="R173" s="2" t="inlineStr"/>
+      <c r="S173" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T173" s="2" t="inlineStr"/>
+      <c r="U173" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V173" s="2" t="inlineStr"/>
+      <c r="W173" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X173" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y173" s="2" t="inlineStr"/>
+      <c r="Z173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
+      <c r="L174" s="2" t="inlineStr"/>
+      <c r="M174" s="2" t="inlineStr"/>
+      <c r="N174" s="2" t="inlineStr"/>
+      <c r="O174" s="2" t="inlineStr"/>
+      <c r="P174" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -11673,73 +11735,9 @@
 </t>
         </is>
       </c>
-      <c r="Q173" s="2" t="inlineStr"/>
-      <c r="R173" s="2" t="inlineStr"/>
-      <c r="S173" s="2" t="inlineStr"/>
-      <c r="T173" s="2" t="inlineStr"/>
-      <c r="U173" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V173" s="2" t="inlineStr"/>
-      <c r="W173" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X173" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y173" s="2" t="inlineStr"/>
-      <c r="Z173" s="2" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr"/>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
-      <c r="L174" s="2" t="inlineStr"/>
-      <c r="M174" s="2" t="inlineStr"/>
-      <c r="N174" s="2" t="inlineStr"/>
-      <c r="O174" s="2" t="inlineStr"/>
-      <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
       <c r="R174" s="2" t="inlineStr"/>
-      <c r="S174" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S174" s="2" t="inlineStr"/>
       <c r="T174" s="2" t="inlineStr"/>
       <c r="U174" s="2" t="inlineStr">
         <is>
@@ -11749,7 +11747,7 @@
       <c r="V174" s="2" t="inlineStr"/>
       <c r="W174" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X174" s="2" t="inlineStr">
@@ -11763,25 +11761,25 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr"/>
@@ -11799,7 +11797,11 @@
       <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
       <c r="R175" s="2" t="inlineStr"/>
-      <c r="S175" s="2" t="inlineStr"/>
+      <c r="S175" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T175" s="2" t="inlineStr"/>
       <c r="U175" s="2" t="inlineStr">
         <is>
@@ -11809,7 +11811,7 @@
       <c r="V175" s="2" t="inlineStr"/>
       <c r="W175" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X175" s="2" t="inlineStr">
@@ -11823,25 +11825,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
@@ -11869,7 +11871,7 @@
       <c r="V176" s="2" t="inlineStr"/>
       <c r="W176" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X176" s="2" t="inlineStr">
@@ -11883,32 +11885,28 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr"/>
       <c r="I177" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11933,7 +11931,7 @@
       <c r="V177" s="2" t="inlineStr"/>
       <c r="W177" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X177" s="2" t="inlineStr">
@@ -11947,28 +11945,32 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H178" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11984,11 +11986,7 @@
       <c r="Q178" s="2" t="inlineStr"/>
       <c r="R178" s="2" t="inlineStr"/>
       <c r="S178" s="2" t="inlineStr"/>
-      <c r="T178" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T178" s="2" t="inlineStr"/>
       <c r="U178" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11997,7 +11995,7 @@
       <c r="V178" s="2" t="inlineStr"/>
       <c r="W178" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X178" s="2" t="inlineStr">
@@ -12007,6 +12005,70 @@
       </c>
       <c r="Y178" s="2" t="inlineStr"/>
       <c r="Z178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr"/>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
+      <c r="L179" s="2" t="inlineStr"/>
+      <c r="M179" s="2" t="inlineStr"/>
+      <c r="N179" s="2" t="inlineStr"/>
+      <c r="O179" s="2" t="inlineStr"/>
+      <c r="P179" s="2" t="inlineStr"/>
+      <c r="Q179" s="2" t="inlineStr"/>
+      <c r="R179" s="2" t="inlineStr"/>
+      <c r="S179" s="2" t="inlineStr"/>
+      <c r="T179" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U179" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V179" s="2" t="inlineStr"/>
+      <c r="W179" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X179" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y179" s="2" t="inlineStr"/>
+      <c r="Z179" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4538,60 +4532,60 @@
       <c r="Z62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr"/>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr"/>
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr"/>
-      <c r="F63" s="5" t="inlineStr"/>
-      <c r="G63" s="5" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H63" s="5" t="inlineStr"/>
-      <c r="I63" s="5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J63" s="5" t="inlineStr"/>
-      <c r="K63" s="5" t="inlineStr"/>
-      <c r="L63" s="5" t="inlineStr"/>
-      <c r="M63" s="5" t="inlineStr"/>
-      <c r="N63" s="5" t="inlineStr"/>
-      <c r="O63" s="5" t="inlineStr"/>
-      <c r="P63" s="5" t="inlineStr"/>
-      <c r="Q63" s="5" t="inlineStr"/>
-      <c r="R63" s="5" t="inlineStr"/>
-      <c r="S63" s="5" t="inlineStr"/>
-      <c r="T63" s="5" t="inlineStr"/>
-      <c r="U63" s="5" t="inlineStr"/>
-      <c r="V63" s="5" t="inlineStr"/>
-      <c r="W63" s="5" t="inlineStr">
+      <c r="H63" s="4" t="inlineStr"/>
+      <c r="I63" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J63" s="4" t="inlineStr"/>
+      <c r="K63" s="4" t="inlineStr"/>
+      <c r="L63" s="4" t="inlineStr"/>
+      <c r="M63" s="4" t="inlineStr"/>
+      <c r="N63" s="4" t="inlineStr"/>
+      <c r="O63" s="4" t="inlineStr"/>
+      <c r="P63" s="4" t="inlineStr"/>
+      <c r="Q63" s="4" t="inlineStr"/>
+      <c r="R63" s="4" t="inlineStr"/>
+      <c r="S63" s="4" t="inlineStr"/>
+      <c r="T63" s="4" t="inlineStr"/>
+      <c r="U63" s="4" t="inlineStr"/>
+      <c r="V63" s="4" t="inlineStr"/>
+      <c r="W63" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X63" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y63" s="5" t="inlineStr"/>
-      <c r="Z63" s="5" t="inlineStr"/>
+      <c r="X63" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y63" s="4" t="inlineStr"/>
+      <c r="Z63" s="4" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1685,68 +1679,68 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>BCIO:050455</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>behavioural duration</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr"/>
-      <c r="O19" s="4" t="inlineStr"/>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X19" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="inlineStr"/>
+      <c r="X19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -4532,60 +4526,62 @@
       <c r="Z62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>BCIO:042000</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr"/>
-      <c r="D63" s="4" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr"/>
-      <c r="F63" s="4" t="inlineStr"/>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H63" s="4" t="inlineStr"/>
-      <c r="I63" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J63" s="4" t="inlineStr"/>
-      <c r="K63" s="4" t="inlineStr"/>
-      <c r="L63" s="4" t="inlineStr"/>
-      <c r="M63" s="4" t="inlineStr"/>
-      <c r="N63" s="4" t="inlineStr"/>
-      <c r="O63" s="4" t="inlineStr"/>
-      <c r="P63" s="4" t="inlineStr"/>
-      <c r="Q63" s="4" t="inlineStr"/>
-      <c r="R63" s="4" t="inlineStr"/>
-      <c r="S63" s="4" t="inlineStr"/>
-      <c r="T63" s="4" t="inlineStr"/>
-      <c r="U63" s="4" t="inlineStr"/>
-      <c r="V63" s="4" t="inlineStr"/>
-      <c r="W63" s="4" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr"/>
+      <c r="Q63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr"/>
+      <c r="T63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="inlineStr"/>
+      <c r="W63" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="X63" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y63" s="4" t="inlineStr"/>
-      <c r="Z63" s="4" t="inlineStr"/>
+      <c r="X63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y63" s="2" t="inlineStr"/>
+      <c r="Z63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z179"/>
+  <dimension ref="A1:Z180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4566,8 +4572,10 @@
       <c r="R63" s="2" t="inlineStr"/>
       <c r="S63" s="2" t="inlineStr"/>
       <c r="T63" s="2" t="inlineStr"/>
-      <c r="U63" s="2" t="n">
-        <v>0</v>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V63" s="2" t="inlineStr"/>
       <c r="W63" s="2" t="inlineStr">
@@ -7901,102 +7909,90 @@
       <c r="Z114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036024</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr"/>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr"/>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J115" s="2" t="inlineStr"/>
-      <c r="K115" s="2" t="inlineStr"/>
-      <c r="L115" s="2" t="inlineStr"/>
-      <c r="M115" s="2" t="inlineStr"/>
-      <c r="N115" s="2" t="inlineStr"/>
-      <c r="O115" s="2" t="inlineStr"/>
-      <c r="P115" s="2" t="inlineStr"/>
-      <c r="Q115" s="2" t="inlineStr"/>
-      <c r="R115" s="2" t="inlineStr"/>
-      <c r="S115" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="T115" s="2" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
-      <c r="U115" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V115" s="2" t="inlineStr"/>
-      <c r="W115" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; JH</t>
-        </is>
-      </c>
-      <c r="X115" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y115" s="2" t="inlineStr"/>
-      <c r="Z115" s="2" t="inlineStr"/>
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr"/>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr"/>
+      <c r="H115" s="4" t="inlineStr"/>
+      <c r="I115" s="4" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr"/>
+      <c r="K115" s="4" t="inlineStr"/>
+      <c r="L115" s="4" t="inlineStr"/>
+      <c r="M115" s="4" t="inlineStr"/>
+      <c r="N115" s="4" t="inlineStr"/>
+      <c r="O115" s="4" t="inlineStr"/>
+      <c r="P115" s="4" t="inlineStr"/>
+      <c r="Q115" s="4" t="inlineStr"/>
+      <c r="R115" s="4" t="inlineStr"/>
+      <c r="S115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+      <c r="T115" s="4" t="inlineStr"/>
+      <c r="U115" s="4" t="inlineStr"/>
+      <c r="V115" s="4" t="inlineStr"/>
+      <c r="W115" s="4" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="X115" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y115" s="4" t="inlineStr"/>
+      <c r="Z115" s="4" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H116" s="2" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8013,12 +8009,12 @@
       <c r="R116" s="2" t="inlineStr"/>
       <c r="S116" s="2" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="T116" s="2" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="U116" s="2" t="inlineStr">
@@ -8029,7 +8025,7 @@
       <c r="V116" s="2" t="inlineStr"/>
       <c r="W116" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X116" s="2" t="inlineStr">
@@ -8043,25 +8039,25 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr"/>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -8079,10 +8075,14 @@
       <c r="P117" s="2" t="inlineStr"/>
       <c r="Q117" s="2" t="inlineStr"/>
       <c r="R117" s="2" t="inlineStr"/>
-      <c r="S117" s="2" t="inlineStr"/>
+      <c r="S117" s="2" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="T117" s="2" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="U117" s="2" t="inlineStr">
@@ -8093,7 +8093,7 @@
       <c r="V117" s="2" t="inlineStr"/>
       <c r="W117" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X117" s="2" t="inlineStr">
@@ -8107,29 +8107,25 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr"/>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -8150,7 +8146,7 @@
       <c r="S118" s="2" t="inlineStr"/>
       <c r="T118" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="U118" s="2" t="inlineStr">
@@ -8161,7 +8157,7 @@
       <c r="V118" s="2" t="inlineStr"/>
       <c r="W118" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X118" s="2" t="inlineStr">
@@ -8175,32 +8171,32 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8218,20 +8214,18 @@
       <c r="S119" s="2" t="inlineStr"/>
       <c r="T119" s="2" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="U119" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V119" s="2" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="U119" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V119" s="2" t="inlineStr"/>
       <c r="W119" s="2" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X119" s="2" t="inlineStr">
@@ -8245,28 +8239,32 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr"/>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H120" s="2" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8284,18 +8282,20 @@
       <c r="S120" s="2" t="inlineStr"/>
       <c r="T120" s="2" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="U120" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V120" s="2" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="U120" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V120" s="2" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="W120" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="X120" s="2" t="inlineStr">
@@ -8309,32 +8309,28 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr"/>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8352,7 +8348,7 @@
       <c r="S121" s="2" t="inlineStr"/>
       <c r="T121" s="2" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="U121" s="2" t="inlineStr">
@@ -8363,7 +8359,7 @@
       <c r="V121" s="2" t="inlineStr"/>
       <c r="W121" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X121" s="2" t="inlineStr">
@@ -8377,28 +8373,32 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H122" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8414,7 +8414,11 @@
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr"/>
       <c r="S122" s="2" t="inlineStr"/>
-      <c r="T122" s="2" t="inlineStr"/>
+      <c r="T122" s="2" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="U122" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8423,7 +8427,7 @@
       <c r="V122" s="2" t="inlineStr"/>
       <c r="W122" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X122" s="2" t="inlineStr">
@@ -8437,26 +8441,25 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -8498,25 +8501,26 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -8544,7 +8548,7 @@
       <c r="V124" s="2" t="inlineStr"/>
       <c r="W124" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X124" s="2" t="inlineStr">
@@ -8558,29 +8562,25 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A postural behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
-        </is>
-      </c>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>posture behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -8598,11 +8598,7 @@
       <c r="P125" s="2" t="inlineStr"/>
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr"/>
-      <c r="S125" s="2" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
-        </is>
-      </c>
+      <c r="S125" s="2" t="inlineStr"/>
       <c r="T125" s="2" t="inlineStr"/>
       <c r="U125" s="2" t="inlineStr">
         <is>
@@ -8612,7 +8608,7 @@
       <c r="V125" s="2" t="inlineStr"/>
       <c r="W125" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X125" s="2" t="inlineStr">
@@ -8626,32 +8622,32 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr"/>
+          <t>A postural behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
+        </is>
+      </c>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr"/>
       <c r="I126" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8666,7 +8662,11 @@
       <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr"/>
       <c r="R126" s="2" t="inlineStr"/>
-      <c r="S126" s="2" t="inlineStr"/>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
       <c r="T126" s="2" t="inlineStr"/>
       <c r="U126" s="2" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
       <c r="V126" s="2" t="inlineStr"/>
       <c r="W126" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X126" s="2" t="inlineStr">
@@ -8690,28 +8690,32 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H127" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8736,7 +8740,7 @@
       <c r="V127" s="2" t="inlineStr"/>
       <c r="W127" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X127" s="2" t="inlineStr">
@@ -8750,25 +8754,25 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr"/>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -8810,18 +8814,18 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr"/>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -8846,12 +8850,7 @@
       <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr"/>
-      <c r="S129" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="S129" s="2" t="inlineStr"/>
       <c r="T129" s="2" t="inlineStr"/>
       <c r="U129" s="2" t="inlineStr">
         <is>
@@ -8875,32 +8874,28 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr"/>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H130" s="2" t="inlineStr"/>
       <c r="I130" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8915,12 +8910,13 @@
       <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr"/>
       <c r="R130" s="2" t="inlineStr"/>
-      <c r="S130" s="2" t="inlineStr"/>
-      <c r="T130" s="2" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="T130" s="2" t="inlineStr"/>
       <c r="U130" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8929,7 +8925,7 @@
       <c r="V130" s="2" t="inlineStr"/>
       <c r="W130" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X130" s="2" t="inlineStr">
@@ -8943,34 +8939,30 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
@@ -8984,15 +8976,15 @@
       <c r="M131" s="2" t="inlineStr"/>
       <c r="N131" s="2" t="inlineStr"/>
       <c r="O131" s="2" t="inlineStr"/>
-      <c r="P131" s="2" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="P131" s="2" t="inlineStr"/>
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
       <c r="S131" s="2" t="inlineStr"/>
-      <c r="T131" s="2" t="inlineStr"/>
+      <c r="T131" s="2" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="U131" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9001,7 +8993,7 @@
       <c r="V131" s="2" t="inlineStr"/>
       <c r="W131" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="X131" s="2" t="inlineStr">
@@ -9015,28 +9007,36 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I132" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9048,7 +9048,11 @@
       <c r="M132" s="2" t="inlineStr"/>
       <c r="N132" s="2" t="inlineStr"/>
       <c r="O132" s="2" t="inlineStr"/>
-      <c r="P132" s="2" t="inlineStr"/>
+      <c r="P132" s="2" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr"/>
       <c r="S132" s="2" t="inlineStr"/>
@@ -9061,7 +9065,7 @@
       <c r="V132" s="2" t="inlineStr"/>
       <c r="W132" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X132" s="2" t="inlineStr">
@@ -9075,25 +9079,25 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -9135,25 +9139,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -9195,18 +9199,18 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -9255,18 +9259,18 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -9315,25 +9319,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -9375,25 +9379,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing in health screening</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -9435,18 +9439,18 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -9495,18 +9499,18 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -9555,18 +9559,18 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -9615,25 +9619,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr"/>
@@ -9661,7 +9665,7 @@
       <c r="V142" s="2" t="inlineStr"/>
       <c r="W142" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X142" s="2" t="inlineStr">
@@ -9675,25 +9679,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9735,29 +9739,25 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>reclining</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -9775,11 +9775,7 @@
       <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
-      <c r="S144" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="S144" s="2" t="inlineStr"/>
       <c r="T144" s="2" t="inlineStr"/>
       <c r="U144" s="2" t="inlineStr">
         <is>
@@ -9789,7 +9785,7 @@
       <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X144" s="2" t="inlineStr">
@@ -9803,25 +9799,29 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -9841,14 +9841,10 @@
       <c r="R145" s="2" t="inlineStr"/>
       <c r="S145" s="2" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T145" s="2" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
+      <c r="T145" s="2" t="inlineStr"/>
       <c r="U145" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9857,7 +9853,7 @@
       <c r="V145" s="2" t="inlineStr"/>
       <c r="W145" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X145" s="2" t="inlineStr">
@@ -9871,25 +9867,25 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -9907,8 +9903,16 @@
       <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="inlineStr"/>
-      <c r="T146" s="2" t="inlineStr"/>
+      <c r="S146" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T146" s="2" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="U146" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9917,7 +9921,7 @@
       <c r="V146" s="2" t="inlineStr"/>
       <c r="W146" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X146" s="2" t="inlineStr">
@@ -9931,25 +9935,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9967,11 +9971,7 @@
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
       <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="S147" s="2" t="inlineStr"/>
       <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr">
         <is>
@@ -9995,25 +9995,25 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -10033,14 +10033,10 @@
       <c r="R148" s="2" t="inlineStr"/>
       <c r="S148" s="2" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="T148" s="2" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="T148" s="2" t="inlineStr"/>
       <c r="U148" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10049,7 +10045,7 @@
       <c r="V148" s="2" t="inlineStr"/>
       <c r="W148" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X148" s="2" t="inlineStr">
@@ -10063,25 +10059,25 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr"/>
@@ -10099,8 +10095,16 @@
       <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="inlineStr"/>
-      <c r="T149" s="2" t="inlineStr"/>
+      <c r="S149" s="2" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="T149" s="2" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="U149" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10109,7 +10113,7 @@
       <c r="V149" s="2" t="inlineStr"/>
       <c r="W149" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="X149" s="2" t="inlineStr">
@@ -10123,32 +10127,28 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10163,16 +10163,8 @@
       <c r="P150" s="2" t="inlineStr"/>
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="T150" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="S150" s="2" t="inlineStr"/>
+      <c r="T150" s="2" t="inlineStr"/>
       <c r="U150" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10181,7 +10173,7 @@
       <c r="V150" s="2" t="inlineStr"/>
       <c r="W150" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X150" s="2" t="inlineStr">
@@ -10195,28 +10187,32 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10231,8 +10227,16 @@
       <c r="P151" s="2" t="inlineStr"/>
       <c r="Q151" s="2" t="inlineStr"/>
       <c r="R151" s="2" t="inlineStr"/>
-      <c r="S151" s="2" t="inlineStr"/>
-      <c r="T151" s="2" t="inlineStr"/>
+      <c r="S151" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="T151" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="U151" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10241,7 +10245,7 @@
       <c r="V151" s="2" t="inlineStr"/>
       <c r="W151" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X151" s="2" t="inlineStr">
@@ -10255,25 +10259,25 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr"/>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr"/>
@@ -10292,11 +10296,7 @@
       <c r="Q152" s="2" t="inlineStr"/>
       <c r="R152" s="2" t="inlineStr"/>
       <c r="S152" s="2" t="inlineStr"/>
-      <c r="T152" s="2" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="T152" s="2" t="inlineStr"/>
       <c r="U152" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10305,7 +10305,7 @@
       <c r="V152" s="2" t="inlineStr"/>
       <c r="W152" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X152" s="2" t="inlineStr">
@@ -10319,25 +10319,25 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr"/>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr"/>
@@ -10356,7 +10356,11 @@
       <c r="Q153" s="2" t="inlineStr"/>
       <c r="R153" s="2" t="inlineStr"/>
       <c r="S153" s="2" t="inlineStr"/>
-      <c r="T153" s="2" t="inlineStr"/>
+      <c r="T153" s="2" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="U153" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10365,7 +10369,7 @@
       <c r="V153" s="2" t="inlineStr"/>
       <c r="W153" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X153" s="2" t="inlineStr">
@@ -10379,32 +10383,28 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr"/>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr"/>
       <c r="I154" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10419,17 +10419,8 @@
       <c r="P154" s="2" t="inlineStr"/>
       <c r="Q154" s="2" t="inlineStr"/>
       <c r="R154" s="2" t="inlineStr"/>
-      <c r="S154" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="T154" s="2" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
+      <c r="S154" s="2" t="inlineStr"/>
+      <c r="T154" s="2" t="inlineStr"/>
       <c r="U154" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10438,7 +10429,7 @@
       <c r="V154" s="2" t="inlineStr"/>
       <c r="W154" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X154" s="2" t="inlineStr">
@@ -10452,28 +10443,32 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr"/>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H155" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10488,8 +10483,17 @@
       <c r="P155" s="2" t="inlineStr"/>
       <c r="Q155" s="2" t="inlineStr"/>
       <c r="R155" s="2" t="inlineStr"/>
-      <c r="S155" s="2" t="inlineStr"/>
-      <c r="T155" s="2" t="inlineStr"/>
+      <c r="S155" s="2" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="T155" s="2" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="U155" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10498,7 +10502,7 @@
       <c r="V155" s="2" t="inlineStr"/>
       <c r="W155" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="X155" s="2" t="inlineStr">
@@ -10512,25 +10516,25 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr"/>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -10572,25 +10576,25 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr"/>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr"/>
@@ -10618,7 +10622,7 @@
       <c r="V157" s="2" t="inlineStr"/>
       <c r="W157" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X157" s="2" t="inlineStr">
@@ -10632,25 +10636,25 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr"/>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
@@ -10669,11 +10673,7 @@
       <c r="Q158" s="2" t="inlineStr"/>
       <c r="R158" s="2" t="inlineStr"/>
       <c r="S158" s="2" t="inlineStr"/>
-      <c r="T158" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="T158" s="2" t="inlineStr"/>
       <c r="U158" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10682,7 +10682,7 @@
       <c r="V158" s="2" t="inlineStr"/>
       <c r="W158" s="2" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X158" s="2" t="inlineStr">
@@ -10696,25 +10696,25 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr"/>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr"/>
@@ -10733,7 +10733,11 @@
       <c r="Q159" s="2" t="inlineStr"/>
       <c r="R159" s="2" t="inlineStr"/>
       <c r="S159" s="2" t="inlineStr"/>
-      <c r="T159" s="2" t="inlineStr"/>
+      <c r="T159" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="U159" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10742,7 +10746,7 @@
       <c r="V159" s="2" t="inlineStr"/>
       <c r="W159" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="X159" s="2" t="inlineStr">
@@ -10756,32 +10760,28 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr"/>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10794,17 +10794,9 @@
       <c r="N160" s="2" t="inlineStr"/>
       <c r="O160" s="2" t="inlineStr"/>
       <c r="P160" s="2" t="inlineStr"/>
-      <c r="Q160" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="Q160" s="2" t="inlineStr"/>
       <c r="R160" s="2" t="inlineStr"/>
-      <c r="S160" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="S160" s="2" t="inlineStr"/>
       <c r="T160" s="2" t="inlineStr"/>
       <c r="U160" s="2" t="inlineStr">
         <is>
@@ -10814,7 +10806,7 @@
       <c r="V160" s="2" t="inlineStr"/>
       <c r="W160" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="X160" s="2" t="inlineStr">
@@ -10828,28 +10820,32 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr"/>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H161" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10862,9 +10858,17 @@
       <c r="N161" s="2" t="inlineStr"/>
       <c r="O161" s="2" t="inlineStr"/>
       <c r="P161" s="2" t="inlineStr"/>
-      <c r="Q161" s="2" t="inlineStr"/>
+      <c r="Q161" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="R161" s="2" t="inlineStr"/>
-      <c r="S161" s="2" t="inlineStr"/>
+      <c r="S161" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="T161" s="2" t="inlineStr"/>
       <c r="U161" s="2" t="inlineStr">
         <is>
@@ -10874,7 +10878,7 @@
       <c r="V161" s="2" t="inlineStr"/>
       <c r="W161" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X161" s="2" t="inlineStr">
@@ -10888,25 +10892,25 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr"/>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr"/>
@@ -10924,11 +10928,7 @@
       <c r="P162" s="2" t="inlineStr"/>
       <c r="Q162" s="2" t="inlineStr"/>
       <c r="R162" s="2" t="inlineStr"/>
-      <c r="S162" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="S162" s="2" t="inlineStr"/>
       <c r="T162" s="2" t="inlineStr"/>
       <c r="U162" s="2" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
       <c r="V162" s="2" t="inlineStr"/>
       <c r="W162" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X162" s="2" t="inlineStr">
@@ -10952,25 +10952,25 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr"/>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr"/>
@@ -10990,7 +10990,7 @@
       <c r="R163" s="2" t="inlineStr"/>
       <c r="S163" s="2" t="inlineStr">
         <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
       <c r="T163" s="2" t="inlineStr"/>
@@ -11016,32 +11016,28 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>talking</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr"/>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H164" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="inlineStr"/>
       <c r="I164" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11054,13 +11050,13 @@
       <c r="N164" s="2" t="inlineStr"/>
       <c r="O164" s="2" t="inlineStr"/>
       <c r="P164" s="2" t="inlineStr"/>
-      <c r="Q164" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="Q164" s="2" t="inlineStr"/>
       <c r="R164" s="2" t="inlineStr"/>
-      <c r="S164" s="2" t="inlineStr"/>
+      <c r="S164" s="2" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
       <c r="T164" s="2" t="inlineStr"/>
       <c r="U164" s="2" t="inlineStr">
         <is>
@@ -11070,7 +11066,7 @@
       <c r="V164" s="2" t="inlineStr"/>
       <c r="W164" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X164" s="2" t="inlineStr">
@@ -11084,25 +11080,25 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr"/>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -11122,7 +11118,11 @@
       <c r="N165" s="2" t="inlineStr"/>
       <c r="O165" s="2" t="inlineStr"/>
       <c r="P165" s="2" t="inlineStr"/>
-      <c r="Q165" s="2" t="inlineStr"/>
+      <c r="Q165" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="R165" s="2" t="inlineStr"/>
       <c r="S165" s="2" t="inlineStr"/>
       <c r="T165" s="2" t="inlineStr"/>
@@ -11148,25 +11148,25 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr"/>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -11198,7 +11198,7 @@
       <c r="V166" s="2" t="inlineStr"/>
       <c r="W166" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X166" s="2" t="inlineStr">
@@ -11212,25 +11212,25 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -11250,11 +11250,7 @@
       <c r="N167" s="2" t="inlineStr"/>
       <c r="O167" s="2" t="inlineStr"/>
       <c r="P167" s="2" t="inlineStr"/>
-      <c r="Q167" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="Q167" s="2" t="inlineStr"/>
       <c r="R167" s="2" t="inlineStr"/>
       <c r="S167" s="2" t="inlineStr"/>
       <c r="T167" s="2" t="inlineStr"/>
@@ -11266,7 +11262,7 @@
       <c r="V167" s="2" t="inlineStr"/>
       <c r="W167" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X167" s="2" t="inlineStr">
@@ -11280,25 +11276,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11334,7 +11330,7 @@
       <c r="V168" s="2" t="inlineStr"/>
       <c r="W168" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X168" s="2" t="inlineStr">
@@ -11348,29 +11344,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -11390,14 +11382,13 @@
       <c r="N169" s="2" t="inlineStr"/>
       <c r="O169" s="2" t="inlineStr"/>
       <c r="P169" s="2" t="inlineStr"/>
-      <c r="Q169" s="2" t="inlineStr"/>
+      <c r="Q169" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="R169" s="2" t="inlineStr"/>
-      <c r="S169" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="S169" s="2" t="inlineStr"/>
       <c r="T169" s="2" t="inlineStr"/>
       <c r="U169" s="2" t="inlineStr">
         <is>
@@ -11407,7 +11398,7 @@
       <c r="V169" s="2" t="inlineStr"/>
       <c r="W169" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X169" s="2" t="inlineStr">
@@ -11421,28 +11412,36 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H170" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I170" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11457,12 +11456,13 @@
       <c r="P170" s="2" t="inlineStr"/>
       <c r="Q170" s="2" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr"/>
-      <c r="S170" s="2" t="inlineStr"/>
-      <c r="T170" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S170" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="T170" s="2" t="inlineStr"/>
       <c r="U170" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11471,7 +11471,7 @@
       <c r="V170" s="2" t="inlineStr"/>
       <c r="W170" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X170" s="2" t="inlineStr">
@@ -11485,25 +11485,25 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr"/>
@@ -11522,7 +11522,11 @@
       <c r="Q171" s="2" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr"/>
       <c r="S171" s="2" t="inlineStr"/>
-      <c r="T171" s="2" t="inlineStr"/>
+      <c r="T171" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="U171" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11531,7 +11535,7 @@
       <c r="V171" s="2" t="inlineStr"/>
       <c r="W171" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X171" s="2" t="inlineStr">
@@ -11545,25 +11549,25 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -11581,12 +11585,7 @@
       <c r="P172" s="2" t="inlineStr"/>
       <c r="Q172" s="2" t="inlineStr"/>
       <c r="R172" s="2" t="inlineStr"/>
-      <c r="S172" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="S172" s="2" t="inlineStr"/>
       <c r="T172" s="2" t="inlineStr"/>
       <c r="U172" s="2" t="inlineStr">
         <is>
@@ -11596,7 +11595,7 @@
       <c r="V172" s="2" t="inlineStr"/>
       <c r="W172" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="X172" s="2" t="inlineStr">
@@ -11610,25 +11609,25 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -11648,7 +11647,8 @@
       <c r="R173" s="2" t="inlineStr"/>
       <c r="S173" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="T173" s="2" t="inlineStr"/>
@@ -11660,7 +11660,7 @@
       <c r="V173" s="2" t="inlineStr"/>
       <c r="W173" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="X173" s="2" t="inlineStr">
@@ -11674,36 +11674,28 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr"/>
       <c r="I174" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11715,7 +11707,79 @@
       <c r="M174" s="2" t="inlineStr"/>
       <c r="N174" s="2" t="inlineStr"/>
       <c r="O174" s="2" t="inlineStr"/>
-      <c r="P174" s="2" t="inlineStr">
+      <c r="P174" s="2" t="inlineStr"/>
+      <c r="Q174" s="2" t="inlineStr"/>
+      <c r="R174" s="2" t="inlineStr"/>
+      <c r="S174" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="T174" s="2" t="inlineStr"/>
+      <c r="U174" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V174" s="2" t="inlineStr"/>
+      <c r="W174" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X174" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y174" s="2" t="inlineStr"/>
+      <c r="Z174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr"/>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr"/>
+      <c r="K175" s="2" t="inlineStr"/>
+      <c r="L175" s="2" t="inlineStr"/>
+      <c r="M175" s="2" t="inlineStr"/>
+      <c r="N175" s="2" t="inlineStr"/>
+      <c r="O175" s="2" t="inlineStr"/>
+      <c r="P175" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -11725,73 +11789,9 @@
 </t>
         </is>
       </c>
-      <c r="Q174" s="2" t="inlineStr"/>
-      <c r="R174" s="2" t="inlineStr"/>
-      <c r="S174" s="2" t="inlineStr"/>
-      <c r="T174" s="2" t="inlineStr"/>
-      <c r="U174" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V174" s="2" t="inlineStr"/>
-      <c r="W174" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X174" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Y174" s="2" t="inlineStr"/>
-      <c r="Z174" s="2" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr"/>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr"/>
-      <c r="F175" s="2" t="inlineStr"/>
-      <c r="G175" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H175" s="2" t="inlineStr"/>
-      <c r="I175" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr"/>
-      <c r="K175" s="2" t="inlineStr"/>
-      <c r="L175" s="2" t="inlineStr"/>
-      <c r="M175" s="2" t="inlineStr"/>
-      <c r="N175" s="2" t="inlineStr"/>
-      <c r="O175" s="2" t="inlineStr"/>
-      <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
       <c r="R175" s="2" t="inlineStr"/>
-      <c r="S175" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="S175" s="2" t="inlineStr"/>
       <c r="T175" s="2" t="inlineStr"/>
       <c r="U175" s="2" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
       <c r="V175" s="2" t="inlineStr"/>
       <c r="W175" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X175" s="2" t="inlineStr">
@@ -11815,25 +11815,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
@@ -11851,7 +11851,11 @@
       <c r="P176" s="2" t="inlineStr"/>
       <c r="Q176" s="2" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr"/>
-      <c r="S176" s="2" t="inlineStr"/>
+      <c r="S176" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="T176" s="2" t="inlineStr"/>
       <c r="U176" s="2" t="inlineStr">
         <is>
@@ -11861,7 +11865,7 @@
       <c r="V176" s="2" t="inlineStr"/>
       <c r="W176" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X176" s="2" t="inlineStr">
@@ -11875,25 +11879,25 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr"/>
@@ -11921,7 +11925,7 @@
       <c r="V177" s="2" t="inlineStr"/>
       <c r="W177" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="X177" s="2" t="inlineStr">
@@ -11935,32 +11939,28 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr"/>
       <c r="I178" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11985,7 +11985,7 @@
       <c r="V178" s="2" t="inlineStr"/>
       <c r="W178" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X178" s="2" t="inlineStr">
@@ -11999,28 +11999,32 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H179" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12036,11 +12040,7 @@
       <c r="Q179" s="2" t="inlineStr"/>
       <c r="R179" s="2" t="inlineStr"/>
       <c r="S179" s="2" t="inlineStr"/>
-      <c r="T179" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="T179" s="2" t="inlineStr"/>
       <c r="U179" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12049,7 +12049,7 @@
       <c r="V179" s="2" t="inlineStr"/>
       <c r="W179" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="X179" s="2" t="inlineStr">
@@ -12059,6 +12059,70 @@
       </c>
       <c r="Y179" s="2" t="inlineStr"/>
       <c r="Z179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr"/>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
+      <c r="L180" s="2" t="inlineStr"/>
+      <c r="M180" s="2" t="inlineStr"/>
+      <c r="N180" s="2" t="inlineStr"/>
+      <c r="O180" s="2" t="inlineStr"/>
+      <c r="P180" s="2" t="inlineStr"/>
+      <c r="Q180" s="2" t="inlineStr"/>
+      <c r="R180" s="2" t="inlineStr"/>
+      <c r="S180" s="2" t="inlineStr"/>
+      <c r="T180" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="U180" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V180" s="2" t="inlineStr"/>
+      <c r="W180" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="X180" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y180" s="2" t="inlineStr"/>
+      <c r="Z180" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -7927,7 +7927,11 @@
       </c>
       <c r="E115" s="4" t="inlineStr"/>
       <c r="F115" s="4" t="inlineStr"/>
-      <c r="G115" s="4" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
       <c r="H115" s="4" t="inlineStr"/>
       <c r="I115" s="4" t="inlineStr">
         <is>
@@ -7958,7 +7962,7 @@
       </c>
       <c r="X115" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Y115" s="4" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7909,64 +7903,66 @@
       <c r="Z114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>BCIO:050300</t>
         </is>
       </c>
-      <c r="B115" s="4" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="C115" s="4" t="inlineStr"/>
-      <c r="D115" s="4" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr"/>
+      <c r="D115" s="2" t="inlineStr">
         <is>
           <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr"/>
-      <c r="F115" s="4" t="inlineStr"/>
-      <c r="G115" s="4" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="H115" s="4" t="inlineStr"/>
-      <c r="I115" s="4" t="inlineStr">
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
-      <c r="J115" s="4" t="inlineStr"/>
-      <c r="K115" s="4" t="inlineStr"/>
-      <c r="L115" s="4" t="inlineStr"/>
-      <c r="M115" s="4" t="inlineStr"/>
-      <c r="N115" s="4" t="inlineStr"/>
-      <c r="O115" s="4" t="inlineStr"/>
-      <c r="P115" s="4" t="inlineStr"/>
-      <c r="Q115" s="4" t="inlineStr"/>
-      <c r="R115" s="4" t="inlineStr"/>
-      <c r="S115" s="4" t="inlineStr">
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
+      <c r="L115" s="2" t="inlineStr"/>
+      <c r="M115" s="2" t="inlineStr"/>
+      <c r="N115" s="2" t="inlineStr"/>
+      <c r="O115" s="2" t="inlineStr"/>
+      <c r="P115" s="2" t="inlineStr"/>
+      <c r="Q115" s="2" t="inlineStr"/>
+      <c r="R115" s="2" t="inlineStr"/>
+      <c r="S115" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
-      <c r="T115" s="4" t="inlineStr"/>
-      <c r="U115" s="4" t="inlineStr"/>
-      <c r="V115" s="4" t="inlineStr"/>
-      <c r="W115" s="4" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
-      <c r="X115" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y115" s="4" t="inlineStr"/>
-      <c r="Z115" s="4" t="inlineStr"/>
+      <c r="T115" s="2" t="inlineStr"/>
+      <c r="U115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" s="2" t="inlineStr"/>
+      <c r="W115" s="2" t="inlineStr">
+        <is>
+          <t>AW; PS</t>
+        </is>
+      </c>
+      <c r="X115" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Y115" s="2" t="inlineStr"/>
+      <c r="Z115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -7929,7 +7929,7 @@
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J115" s="2" t="inlineStr"/>
@@ -7947,8 +7947,10 @@
         </is>
       </c>
       <c r="T115" s="2" t="inlineStr"/>
-      <c r="U115" s="2" t="n">
-        <v>0</v>
+      <c r="U115" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V115" s="2" t="inlineStr"/>
       <c r="W115" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -7929,7 +7929,7 @@
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
         </is>
       </c>
       <c r="J115" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>high emotional management  exertion expended on a behaviour</t>
+          <t>high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
+          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -8635,12 +8635,12 @@
       <c r="C126" s="2" t="inlineStr"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A postural behaviour that is expressive.</t>
+          <t>A posture behaviour that is expressive.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>‘postural behaviour’ AND ‘expressive behaviour’</t>
+          <t>"posture behaviour" AND "expressive behaviour"</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5401,7 +5401,11 @@
       <c r="N75" s="2" t="inlineStr"/>
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr"/>
-      <c r="Q75" s="2" t="inlineStr"/>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+        </is>
+      </c>
       <c r="R75" s="2" t="inlineStr"/>
       <c r="S75" s="2" t="inlineStr"/>
       <c r="T75" s="2" t="inlineStr"/>
@@ -5413,7 +5417,7 @@
       <c r="V75" s="2" t="inlineStr"/>
       <c r="W75" s="2" t="inlineStr">
         <is>
-          <t>PS; JH</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="X75" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -7984,7 +7984,7 @@
       <c r="C116" s="2" t="inlineStr"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends one’s own hygiene, comfort or appearance.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -595,10 +595,14 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -623,7 +627,7 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>PS; BG; RW</t>
         </is>
       </c>
       <c r="X2" s="2" t="inlineStr">
@@ -647,12 +651,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>A time point that is the end of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>A temporal region when a person stops abstaining from a behaviour.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
@@ -691,7 +695,7 @@
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X3" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -9149,25 +9149,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing health screening</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -9195,7 +9195,7 @@
       <c r="V134" s="2" t="inlineStr"/>
       <c r="W134" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="X134" s="2" t="inlineStr">
@@ -9209,25 +9209,25 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -9269,18 +9269,18 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -9329,18 +9329,18 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -9389,25 +9389,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>providing in health screening</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/ontologies/Behaviour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_45F5E5BEDD0A5433ADAE3C33565ED87656C95860" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2127AE-F81B-4746-B616-C074B5DEF37B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A95DB-EFE6-B94E-B9BF-D79104D47173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="165" windowWidth="23925" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2347,8 +2347,7 @@
     <t>REL 'has behavioural attribute'</t>
   </si>
   <si>
-    <t>REL 'has abstinence
-period'</t>
+    <t>REL 'has abstinence period'</t>
   </si>
 </sst>
 </file>
@@ -2400,12 +2399,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2711,12 +2709,12 @@
   <dimension ref="A1:Y180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2754,7 @@
       <c r="M1" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>765</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -2793,7 +2791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2837,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2885,7 +2883,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -2932,7 +2930,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -2978,7 +2976,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -3022,7 +3020,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -3066,7 +3064,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -3108,7 +3106,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
@@ -3150,7 +3148,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3194,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3240,7 +3238,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -3282,7 +3280,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3322,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
@@ -3366,7 +3364,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3412,7 +3410,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
@@ -3458,7 +3456,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
@@ -3506,7 +3504,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>108</v>
       </c>
@@ -3556,7 +3554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
@@ -3600,7 +3598,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>121</v>
       </c>
@@ -3646,7 +3644,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -3692,7 +3690,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
@@ -3736,7 +3734,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
@@ -3780,7 +3778,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>143</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>151</v>
       </c>
@@ -3872,7 +3870,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>156</v>
       </c>
@@ -3916,7 +3914,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>161</v>
       </c>
@@ -3960,7 +3958,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>165</v>
       </c>
@@ -4004,7 +4002,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -4050,7 +4048,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>176</v>
       </c>
@@ -4094,7 +4092,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>180</v>
       </c>
@@ -4138,7 +4136,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
@@ -4186,7 +4184,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>190</v>
       </c>
@@ -4230,7 +4228,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -4274,7 +4272,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>198</v>
       </c>
@@ -4318,7 +4316,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>202</v>
       </c>
@@ -4360,7 +4358,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>205</v>
       </c>
@@ -4404,7 +4402,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>209</v>
       </c>
@@ -4446,7 +4444,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>212</v>
       </c>
@@ -4488,7 +4486,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>216</v>
       </c>
@@ -4532,7 +4530,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>221</v>
       </c>
@@ -4574,7 +4572,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>224</v>
       </c>
@@ -4622,7 +4620,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>230</v>
       </c>
@@ -4664,7 +4662,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>233</v>
       </c>
@@ -4710,7 +4708,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>238</v>
       </c>
@@ -4756,7 +4754,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>244</v>
       </c>
@@ -4800,7 +4798,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>248</v>
       </c>
@@ -4850,7 +4848,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>254</v>
       </c>
@@ -4894,7 +4892,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>258</v>
       </c>
@@ -4936,7 +4934,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>261</v>
       </c>
@@ -4978,7 +4976,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>263</v>
       </c>
@@ -5024,7 +5022,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -5053,7 +5051,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>271</v>
       </c>
@@ -5097,7 +5095,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>275</v>
       </c>
@@ -5139,7 +5137,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>278</v>
       </c>
@@ -5183,7 +5181,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -5227,7 +5225,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>287</v>
       </c>
@@ -5273,7 +5271,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>292</v>
       </c>
@@ -5315,7 +5313,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>295</v>
       </c>
@@ -5359,7 +5357,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>300</v>
       </c>
@@ -5403,7 +5401,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>304</v>
       </c>
@@ -5447,7 +5445,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>308</v>
       </c>
@@ -5491,7 +5489,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>313</v>
       </c>
@@ -5533,7 +5531,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>316</v>
       </c>
@@ -5579,7 +5577,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>321</v>
       </c>
@@ -5625,7 +5623,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>327</v>
       </c>
@@ -5671,7 +5669,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>332</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>338</v>
       </c>
@@ -5772,7 +5770,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -5824,7 +5822,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>354</v>
       </c>
@@ -5874,7 +5872,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>360</v>
       </c>
@@ -5916,7 +5914,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>363</v>
       </c>
@@ -5962,7 +5960,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>368</v>
       </c>
@@ -6006,7 +6004,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>371</v>
       </c>
@@ -6048,7 +6046,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
@@ -6092,7 +6090,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>380</v>
       </c>
@@ -6136,7 +6134,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>384</v>
       </c>
@@ -6182,7 +6180,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>387</v>
       </c>
@@ -6224,7 +6222,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>389</v>
       </c>
@@ -6266,7 +6264,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>392</v>
       </c>
@@ -6312,7 +6310,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>397</v>
       </c>
@@ -6356,7 +6354,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>401</v>
       </c>
@@ -6400,7 +6398,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>405</v>
       </c>
@@ -6444,7 +6442,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>409</v>
       </c>
@@ -6488,7 +6486,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>413</v>
       </c>
@@ -6530,7 +6528,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>418</v>
       </c>
@@ -6572,7 +6570,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>421</v>
       </c>
@@ -6616,7 +6614,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>425</v>
       </c>
@@ -6658,7 +6656,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>427</v>
       </c>
@@ -6704,7 +6702,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>432</v>
       </c>
@@ -6750,7 +6748,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>436</v>
       </c>
@@ -6794,7 +6792,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>440</v>
       </c>
@@ -6838,7 +6836,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>444</v>
       </c>
@@ -6882,7 +6880,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>448</v>
       </c>
@@ -6926,7 +6924,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>452</v>
       </c>
@@ -6970,7 +6968,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>456</v>
       </c>
@@ -7012,7 +7010,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>459</v>
       </c>
@@ -7054,7 +7052,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>462</v>
       </c>
@@ -7096,7 +7094,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>466</v>
       </c>
@@ -7138,7 +7136,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>469</v>
       </c>
@@ -7184,7 +7182,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>476</v>
       </c>
@@ -7226,7 +7224,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>479</v>
       </c>
@@ -7272,7 +7270,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>484</v>
       </c>
@@ -7318,7 +7316,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>489</v>
       </c>
@@ -7364,7 +7362,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>494</v>
       </c>
@@ -7412,7 +7410,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>499</v>
       </c>
@@ -7454,7 +7452,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>501</v>
       </c>
@@ -7496,7 +7494,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>505</v>
       </c>
@@ -7540,7 +7538,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>510</v>
       </c>
@@ -7586,7 +7584,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>514</v>
       </c>
@@ -7630,7 +7628,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>518</v>
       </c>
@@ -7672,7 +7670,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>521</v>
       </c>
@@ -7714,7 +7712,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>524</v>
       </c>
@@ -7756,7 +7754,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>526</v>
       </c>
@@ -7798,7 +7796,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>529</v>
       </c>
@@ -7842,7 +7840,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>535</v>
       </c>
@@ -7890,7 +7888,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>539</v>
       </c>
@@ -7936,7 +7934,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>544</v>
       </c>
@@ -7980,7 +7978,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>548</v>
       </c>
@@ -8026,7 +8024,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>552</v>
       </c>
@@ -8074,7 +8072,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>557</v>
       </c>
@@ -8118,7 +8116,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>561</v>
       </c>
@@ -8164,7 +8162,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>565</v>
       </c>
@@ -8206,7 +8204,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>569</v>
       </c>
@@ -8248,7 +8246,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>572</v>
       </c>
@@ -8290,7 +8288,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>574</v>
       </c>
@@ -8336,7 +8334,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>580</v>
       </c>
@@ -8380,7 +8378,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>582</v>
       </c>
@@ -8422,7 +8420,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>585</v>
       </c>
@@ -8464,7 +8462,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>588</v>
       </c>
@@ -8508,7 +8506,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>592</v>
       </c>
@@ -8554,7 +8552,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>596</v>
       </c>
@@ -8602,7 +8600,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>600</v>
       </c>
@@ -8644,7 +8642,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>604</v>
       </c>
@@ -8686,7 +8684,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>608</v>
       </c>
@@ -8728,7 +8726,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>610</v>
       </c>
@@ -8770,7 +8768,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>613</v>
       </c>
@@ -8812,7 +8810,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>615</v>
       </c>
@@ -8854,7 +8852,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>618</v>
       </c>
@@ -8896,7 +8894,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>621</v>
       </c>
@@ -8938,7 +8936,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>624</v>
       </c>
@@ -8980,7 +8978,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>626</v>
       </c>
@@ -9022,7 +9020,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>629</v>
       </c>
@@ -9064,7 +9062,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>632</v>
       </c>
@@ -9106,7 +9104,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>635</v>
       </c>
@@ -9152,7 +9150,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>640</v>
       </c>
@@ -9198,7 +9196,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>645</v>
       </c>
@@ -9240,7 +9238,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>648</v>
       </c>
@@ -9284,7 +9282,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>651</v>
       </c>
@@ -9330,7 +9328,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>656</v>
       </c>
@@ -9372,7 +9370,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>659</v>
       </c>
@@ -9420,7 +9418,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>663</v>
       </c>
@@ -9462,7 +9460,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>666</v>
       </c>
@@ -9506,7 +9504,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>670</v>
       </c>
@@ -9548,7 +9546,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>673</v>
       </c>
@@ -9596,7 +9594,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>677</v>
       </c>
@@ -9638,7 +9636,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>680</v>
       </c>
@@ -9680,7 +9678,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>682</v>
       </c>
@@ -9722,7 +9720,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>684</v>
       </c>
@@ -9766,7 +9764,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>689</v>
       </c>
@@ -9808,7 +9806,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>692</v>
       </c>
@@ -9856,7 +9854,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>697</v>
       </c>
@@ -9898,7 +9896,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>700</v>
       </c>
@@ -9942,7 +9940,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>704</v>
       </c>
@@ -9986,7 +9984,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>709</v>
       </c>
@@ -10032,7 +10030,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>713</v>
       </c>
@@ -10076,7 +10074,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>716</v>
       </c>
@@ -10120,7 +10118,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>719</v>
       </c>
@@ -10166,7 +10164,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>722</v>
       </c>
@@ -10212,7 +10210,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>724</v>
       </c>
@@ -10260,7 +10258,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>728</v>
       </c>
@@ -10304,7 +10302,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>732</v>
       </c>
@@ -10346,7 +10344,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>737</v>
       </c>
@@ -10390,7 +10388,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>742</v>
       </c>
@@ -10434,7 +10432,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>746</v>
       </c>
@@ -10482,7 +10480,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>750</v>
       </c>
@@ -10526,7 +10524,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>753</v>
       </c>
@@ -10568,7 +10566,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>755</v>
       </c>
@@ -10610,7 +10608,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>757</v>
       </c>
@@ -10654,7 +10652,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>760</v>
       </c>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5190,7 +5190,7 @@
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves an interaction between two or more people.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -1202,7 +1202,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>impact on behaviour on environment</t>
+          <t>impact of behaviour on environment</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
@@ -6018,7 +6018,11 @@
         </is>
       </c>
       <c r="U89" s="2" t="inlineStr"/>
-      <c r="V89" s="2" t="inlineStr"/>
+      <c r="V89" s="2" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
       <c r="W89" s="2" t="inlineStr">
         <is>
           <t>Published</t>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y223"/>
+  <dimension ref="A1:Y226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1709,7 +1709,9 @@
       <c r="Q20" s="4" t="inlineStr"/>
       <c r="R20" s="4" t="inlineStr"/>
       <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr"/>
+      <c r="T20" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U20" s="4" t="inlineStr"/>
       <c r="V20" s="4" t="inlineStr">
         <is>
@@ -4804,212 +4806,200 @@
       <c r="Y69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050899</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>family behavioural consequence</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr"/>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>A social behavioural consequence of some family member.</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="4" t="inlineStr"/>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="inlineStr"/>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr"/>
+      <c r="K70" s="4" t="inlineStr"/>
+      <c r="L70" s="4" t="inlineStr"/>
+      <c r="M70" s="4" t="inlineStr"/>
+      <c r="N70" s="4" t="inlineStr"/>
+      <c r="O70" s="4" t="inlineStr"/>
+      <c r="P70" s="4" t="inlineStr"/>
+      <c r="Q70" s="4" t="inlineStr"/>
+      <c r="R70" s="4" t="inlineStr"/>
+      <c r="S70" s="4" t="inlineStr"/>
+      <c r="T70" s="4" t="inlineStr"/>
+      <c r="U70" s="4" t="inlineStr"/>
+      <c r="V70" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W70" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X70" s="4" t="inlineStr"/>
+      <c r="Y70" s="4" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>BCIO:050817</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>frequency of past behaviour</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>behavioural frequency</t>
         </is>
       </c>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr"/>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr"/>
-      <c r="T70" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
-      <c r="W70" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X70" s="2" t="inlineStr"/>
-      <c r="Y70" s="2" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
+      <c r="Q71" s="2" t="inlineStr"/>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr"/>
+      <c r="T71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr"/>
+      <c r="W71" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X71" s="2" t="inlineStr"/>
+      <c r="Y71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>BFO:0000034</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
         <is>
           <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050459</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr"/>
-      <c r="Q72" s="2" t="inlineStr"/>
-      <c r="R72" s="2" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
-        </is>
-      </c>
-      <c r="S72" s="2" t="inlineStr"/>
-      <c r="T72" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W72" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X72" s="2" t="inlineStr"/>
-      <c r="Y72" s="2" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>goal-directed behaviour</t>
+          <t>gesticulatory expressive behaviour</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>‘individual human behaviour’ has behavioural goal some 'entity'</t>
-        </is>
-      </c>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -5026,7 +5016,11 @@
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr"/>
       <c r="Q73" s="2" t="inlineStr"/>
-      <c r="R73" s="2" t="inlineStr"/>
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+        </is>
+      </c>
       <c r="S73" s="2" t="inlineStr"/>
       <c r="T73" s="2" t="inlineStr">
         <is>
@@ -5034,7 +5028,11 @@
         </is>
       </c>
       <c r="U73" s="2" t="inlineStr"/>
-      <c r="V73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W73" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5046,25 +5044,29 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>goal-directed behaviour</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
+          <t>An individual human behaviour that has a behavioural goal.</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>‘individual human behaviour’ has behavioural goal some 'entity'</t>
+        </is>
+      </c>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -5089,11 +5091,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="inlineStr"/>
-      <c r="V74" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V74" s="2" t="inlineStr"/>
       <c r="W74" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5105,25 +5103,25 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>handwashing</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -5141,11 +5139,7 @@
       <c r="P75" s="2" t="inlineStr"/>
       <c r="Q75" s="2" t="inlineStr"/>
       <c r="R75" s="2" t="inlineStr"/>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
-        </is>
-      </c>
+      <c r="S75" s="2" t="inlineStr"/>
       <c r="T75" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5154,7 +5148,7 @@
       <c r="U75" s="2" t="inlineStr"/>
       <c r="V75" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W75" s="2" t="inlineStr">
@@ -5168,29 +5162,25 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>harm preventing behaviour</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that has an outcome to prevent harm.</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">‘Individual human behaviour’ has behavioural outcome ‘harm prevention’. </t>
-        </is>
-      </c>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -5208,14 +5198,22 @@
       <c r="P76" s="2" t="inlineStr"/>
       <c r="Q76" s="2" t="inlineStr"/>
       <c r="R76" s="2" t="inlineStr"/>
-      <c r="S76" s="2" t="inlineStr"/>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
+        </is>
+      </c>
       <c r="T76" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U76" s="2" t="inlineStr"/>
-      <c r="V76" s="2" t="inlineStr"/>
+      <c r="V76" s="2" t="inlineStr">
+        <is>
+          <t>OC; PS</t>
+        </is>
+      </c>
       <c r="W76" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5227,25 +5225,29 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>harm prevention</t>
+          <t>harm preventing behaviour</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural consequence&gt; in which harm is prevented.</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr"/>
+          <t>An &lt;individual human behaviour&gt; that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘Individual human behaviour’ has behavioural outcome ‘harm prevention’. </t>
+        </is>
+      </c>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -5282,25 +5284,25 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>harm prevention</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -5318,11 +5320,7 @@
       <c r="P78" s="2" t="inlineStr"/>
       <c r="Q78" s="2" t="inlineStr"/>
       <c r="R78" s="2" t="inlineStr"/>
-      <c r="S78" s="2" t="inlineStr">
-        <is>
-          <t>Vandalism, Sabotaging, Polluting</t>
-        </is>
-      </c>
+      <c r="S78" s="2" t="inlineStr"/>
       <c r="T78" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5331,7 +5329,7 @@
       <c r="U78" s="2" t="inlineStr"/>
       <c r="V78" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W78" s="2" t="inlineStr">
@@ -5345,25 +5343,25 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -5380,15 +5378,10 @@
       <c r="O79" s="2" t="inlineStr"/>
       <c r="P79" s="2" t="inlineStr"/>
       <c r="Q79" s="2" t="inlineStr"/>
-      <c r="R79" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
-        </is>
-      </c>
+      <c r="R79" s="2" t="inlineStr"/>
       <c r="S79" s="2" t="inlineStr">
         <is>
-          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
+          <t>Vandalism, Sabotaging, Polluting</t>
         </is>
       </c>
       <c r="T79" s="2" t="inlineStr">
@@ -5399,7 +5392,7 @@
       <c r="U79" s="2" t="inlineStr"/>
       <c r="V79" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="W79" s="2" t="inlineStr">
@@ -5413,25 +5406,25 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>health-promoting behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A &lt;health-related behaviour&gt; that improves the person’s health.</t>
+          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -5450,12 +5443,13 @@
       <c r="Q80" s="2" t="inlineStr"/>
       <c r="R80" s="2" t="inlineStr">
         <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
       <c r="S80" s="2" t="inlineStr">
         <is>
-          <t>Engaging in physical activity, eating a diet that limits salt, sugar and fat intake, eating a healthy diet, attending health screening</t>
+          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
         </is>
       </c>
       <c r="T80" s="2" t="inlineStr">
@@ -5464,7 +5458,11 @@
         </is>
       </c>
       <c r="U80" s="2" t="inlineStr"/>
-      <c r="V80" s="2" t="inlineStr"/>
+      <c r="V80" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W80" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5476,25 +5474,25 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>health-promoting behaviour</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
+          <t>A &lt;health-related behaviour&gt; that improves the person’s health.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr"/>
@@ -5511,19 +5509,23 @@
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr"/>
       <c r="Q81" s="2" t="inlineStr"/>
-      <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr"/>
+      <c r="R81" s="2" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+        </is>
+      </c>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>Engaging in physical activity, eating a diet that limits salt, sugar and fat intake, eating a healthy diet, attending health screening</t>
+        </is>
+      </c>
       <c r="T81" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U81" s="2" t="inlineStr"/>
-      <c r="V81" s="2" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
+      <c r="V81" s="2" t="inlineStr"/>
       <c r="W81" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5535,25 +5537,25 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>high cognitive exertion expended on a behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>An individual human behaviour that relates to health.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr"/>
@@ -5570,21 +5572,17 @@
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr"/>
       <c r="Q82" s="2" t="inlineStr"/>
-      <c r="R82" s="2" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="R82" s="2" t="inlineStr"/>
       <c r="S82" s="2" t="inlineStr"/>
       <c r="T82" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U82" s="2" t="inlineStr"/>
       <c r="V82" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W82" s="2" t="inlineStr">
@@ -5598,25 +5596,25 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>high emotional management exertion expended on a behaviour</t>
+          <t>high cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -5635,7 +5633,7 @@
       <c r="Q83" s="2" t="inlineStr"/>
       <c r="R83" s="2" t="inlineStr">
         <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S83" s="2" t="inlineStr"/>
@@ -5661,25 +5659,25 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>high mental exertion expended on a behaviour</t>
+          <t>high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -5698,7 +5696,7 @@
       <c r="Q84" s="2" t="inlineStr"/>
       <c r="R84" s="2" t="inlineStr">
         <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S84" s="2" t="inlineStr"/>
@@ -5724,25 +5722,25 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>high physical exertion expended on behaviour</t>
+          <t>high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -5761,7 +5759,7 @@
       <c r="Q85" s="2" t="inlineStr"/>
       <c r="R85" s="2" t="inlineStr">
         <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S85" s="2" t="inlineStr"/>
@@ -5787,25 +5785,25 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -5822,11 +5820,15 @@
       <c r="O86" s="2" t="inlineStr"/>
       <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr"/>
-      <c r="R86" s="2" t="inlineStr"/>
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="S86" s="2" t="inlineStr"/>
       <c r="T86" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="U86" s="2" t="inlineStr"/>
@@ -5846,29 +5848,25 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -5886,11 +5884,7 @@
       <c r="P87" s="2" t="inlineStr"/>
       <c r="Q87" s="2" t="inlineStr"/>
       <c r="R87" s="2" t="inlineStr"/>
-      <c r="S87" s="2" t="inlineStr">
-        <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
-        </is>
-      </c>
+      <c r="S87" s="2" t="inlineStr"/>
       <c r="T87" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5899,7 +5893,7 @@
       <c r="U87" s="2" t="inlineStr"/>
       <c r="V87" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W87" s="2" t="inlineStr">
@@ -5913,25 +5907,29 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr"/>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
+        </is>
+      </c>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">function </t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
@@ -5948,15 +5946,10 @@
       <c r="O88" s="2" t="inlineStr"/>
       <c r="P88" s="2" t="inlineStr"/>
       <c r="Q88" s="2" t="inlineStr"/>
-      <c r="R88" s="2" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
+      <c r="R88" s="2" t="inlineStr"/>
       <c r="S88" s="2" t="inlineStr">
         <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
         </is>
       </c>
       <c r="T88" s="2" t="inlineStr">
@@ -5967,7 +5960,7 @@
       <c r="U88" s="2" t="inlineStr"/>
       <c r="V88" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="W88" s="2" t="inlineStr">
@@ -5981,25 +5974,25 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>identity congruence</t>
+          <t>human life function</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">function </t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -6016,15 +6009,28 @@
       <c r="O89" s="2" t="inlineStr"/>
       <c r="P89" s="2" t="inlineStr"/>
       <c r="Q89" s="2" t="inlineStr"/>
-      <c r="R89" s="2" t="inlineStr"/>
-      <c r="S89" s="2" t="inlineStr"/>
+      <c r="R89" s="2" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="S89" s="2" t="inlineStr">
+        <is>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+        </is>
+      </c>
       <c r="T89" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U89" s="2" t="inlineStr"/>
-      <c r="V89" s="2" t="inlineStr"/>
+      <c r="V89" s="2" t="inlineStr">
+        <is>
+          <t>RW; OC; PS</t>
+        </is>
+      </c>
       <c r="W89" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -6036,25 +6042,25 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>impact of behaviour on environment</t>
+          <t>identity congruence</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural consequence&gt; that involves an outcome relating to the environment system.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -6079,11 +6085,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="inlineStr"/>
-      <c r="V90" s="2" t="inlineStr">
-        <is>
-          <t>LZ</t>
-        </is>
-      </c>
+      <c r="V90" s="2" t="inlineStr"/>
       <c r="W90" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -6095,29 +6097,25 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A &lt;behavioural consequence&gt; that involves an outcome relating to the environment system.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -6134,11 +6132,7 @@
       <c r="O91" s="2" t="inlineStr"/>
       <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr"/>
-      <c r="R91" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
+      <c r="R91" s="2" t="inlineStr"/>
       <c r="S91" s="2" t="inlineStr"/>
       <c r="T91" s="2" t="inlineStr">
         <is>
@@ -6148,7 +6142,7 @@
       <c r="U91" s="2" t="inlineStr"/>
       <c r="V91" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>LZ</t>
         </is>
       </c>
       <c r="W91" s="2" t="inlineStr">
@@ -6162,25 +6156,29 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr"/>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -6189,24 +6187,87 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr"/>
-      <c r="M92" s="2" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+      <c r="M92" s="2" t="inlineStr"/>
       <c r="N92" s="2" t="inlineStr"/>
       <c r="O92" s="2" t="inlineStr"/>
       <c r="P92" s="2" t="inlineStr"/>
       <c r="Q92" s="2" t="inlineStr"/>
       <c r="R92" s="2" t="inlineStr">
         <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="S92" s="2" t="inlineStr"/>
+      <c r="T92" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U92" s="2" t="inlineStr"/>
+      <c r="V92" s="2" t="inlineStr">
+        <is>
+          <t>OC; PS; RW</t>
+        </is>
+      </c>
+      <c r="W92" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X92" s="2" t="inlineStr"/>
+      <c r="Y92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr"/>
+      <c r="L93" s="2" t="inlineStr"/>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="N93" s="2" t="inlineStr"/>
+      <c r="O93" s="2" t="inlineStr"/>
+      <c r="P93" s="2" t="inlineStr"/>
+      <c r="Q93" s="2" t="inlineStr"/>
+      <c r="R93" s="2" t="inlineStr">
+        <is>
           <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
 Behaviours are usually in response to an internal or external stimuli.
 Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
@@ -6214,25 +6275,25 @@
 'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
-      <c r="S92" s="2" t="inlineStr"/>
-      <c r="T92" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U92" s="2" t="inlineStr"/>
-      <c r="V92" s="2" t="inlineStr">
+      <c r="S93" s="2" t="inlineStr"/>
+      <c r="T93" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U93" s="2" t="inlineStr"/>
+      <c r="V93" s="2" t="inlineStr">
         <is>
           <t>RW; OC; JH</t>
         </is>
       </c>
-      <c r="W92" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X92" s="2" t="inlineStr"/>
-      <c r="Y92" s="2" t="inlineStr">
+      <c r="W93" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X93" s="2" t="inlineStr"/>
+      <c r="Y93" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
 o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
@@ -6240,116 +6301,37 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr"/>
-      <c r="L93" s="2" t="inlineStr"/>
-      <c r="M93" s="2" t="inlineStr"/>
-      <c r="N93" s="2" t="inlineStr"/>
-      <c r="O93" s="2" t="inlineStr"/>
-      <c r="P93" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="Q93" s="2" t="inlineStr"/>
-      <c r="R93" s="2" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="S93" s="2" t="inlineStr">
-        <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
-        </is>
-      </c>
-      <c r="T93" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U93" s="2" t="inlineStr"/>
-      <c r="V93" s="2" t="inlineStr">
-        <is>
-          <t>RW; PS</t>
-        </is>
-      </c>
-      <c r="W93" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X93" s="2" t="inlineStr"/>
-      <c r="Y93" s="2" t="inlineStr"/>
-    </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
@@ -6362,7 +6344,86 @@
       <c r="L94" s="2" t="inlineStr"/>
       <c r="M94" s="2" t="inlineStr"/>
       <c r="N94" s="2" t="inlineStr"/>
-      <c r="O94" s="2" t="inlineStr">
+      <c r="O94" s="2" t="inlineStr"/>
+      <c r="P94" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="Q94" s="2" t="inlineStr"/>
+      <c r="R94" s="2" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="S94" s="2" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
+      <c r="T94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U94" s="2" t="inlineStr"/>
+      <c r="V94" s="2" t="inlineStr">
+        <is>
+          <t>RW; PS</t>
+        </is>
+      </c>
+      <c r="W94" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X94" s="2" t="inlineStr"/>
+      <c r="Y94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
+      <c r="L95" s="2" t="inlineStr"/>
+      <c r="M95" s="2" t="inlineStr"/>
+      <c r="N95" s="2" t="inlineStr"/>
+      <c r="O95" s="2" t="inlineStr">
         <is>
           <t>b is a behaviour pattern means:
 - b is instance_of uniform process aggregate; 
@@ -6374,93 +6435,18 @@
 - For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
-      <c r="P94" s="2" t="inlineStr">
+      <c r="P95" s="2" t="inlineStr">
         <is>
           <t>behaviour pattern</t>
         </is>
       </c>
-      <c r="Q94" s="2" t="inlineStr"/>
-      <c r="R94" s="2" t="inlineStr">
+      <c r="Q95" s="2" t="inlineStr"/>
+      <c r="R95" s="2" t="inlineStr">
         <is>
           <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
 This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
-      <c r="S94" s="2" t="inlineStr"/>
-      <c r="T94" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U94" s="2" t="inlineStr"/>
-      <c r="V94" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W94" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X94" s="2" t="inlineStr"/>
-      <c r="Y94" s="2" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050207</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr"/>
-      <c r="L95" s="2" t="inlineStr"/>
-      <c r="M95" s="2" t="inlineStr"/>
-      <c r="N95" s="2" t="inlineStr"/>
-      <c r="O95" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
-        </is>
-      </c>
-      <c r="P95" s="2" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="Q95" s="2" t="inlineStr"/>
-      <c r="R95" s="2" t="inlineStr"/>
       <c r="S95" s="2" t="inlineStr"/>
       <c r="T95" s="2" t="inlineStr">
         <is>
@@ -6470,7 +6456,7 @@
       <c r="U95" s="2" t="inlineStr"/>
       <c r="V95" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W95" s="2" t="inlineStr">
@@ -6484,28 +6470,36 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6516,8 +6510,16 @@
       <c r="L96" s="2" t="inlineStr"/>
       <c r="M96" s="2" t="inlineStr"/>
       <c r="N96" s="2" t="inlineStr"/>
-      <c r="O96" s="2" t="inlineStr"/>
-      <c r="P96" s="2" t="inlineStr"/>
+      <c r="O96" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="P96" s="2" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
       <c r="Q96" s="2" t="inlineStr"/>
       <c r="R96" s="2" t="inlineStr"/>
       <c r="S96" s="2" t="inlineStr"/>
@@ -6529,7 +6531,7 @@
       <c r="U96" s="2" t="inlineStr"/>
       <c r="V96" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W96" s="2" t="inlineStr">
@@ -6543,29 +6545,25 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr"/>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -6582,11 +6580,7 @@
       <c r="O97" s="2" t="inlineStr"/>
       <c r="P97" s="2" t="inlineStr"/>
       <c r="Q97" s="2" t="inlineStr"/>
-      <c r="R97" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
+      <c r="R97" s="2" t="inlineStr"/>
       <c r="S97" s="2" t="inlineStr"/>
       <c r="T97" s="2" t="inlineStr">
         <is>
@@ -6610,32 +6604,32 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6649,7 +6643,11 @@
       <c r="O98" s="2" t="inlineStr"/>
       <c r="P98" s="2" t="inlineStr"/>
       <c r="Q98" s="2" t="inlineStr"/>
-      <c r="R98" s="2" t="inlineStr"/>
+      <c r="R98" s="2" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="S98" s="2" t="inlineStr"/>
       <c r="T98" s="2" t="inlineStr">
         <is>
@@ -6659,7 +6657,7 @@
       <c r="U98" s="2" t="inlineStr"/>
       <c r="V98" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W98" s="2" t="inlineStr">
@@ -6673,28 +6671,32 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6718,7 +6720,7 @@
       <c r="U99" s="2" t="inlineStr"/>
       <c r="V99" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W99" s="2" t="inlineStr">
@@ -6732,25 +6734,25 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr"/>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>A &lt;knowledge development behaviour&gt; where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -6775,7 +6777,11 @@
         </is>
       </c>
       <c r="U100" s="2" t="inlineStr"/>
-      <c r="V100" s="2" t="inlineStr"/>
+      <c r="V100" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W100" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -6787,25 +6793,25 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A &lt;knowledge development behaviour&gt; where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -6820,11 +6826,7 @@
       <c r="M101" s="2" t="inlineStr"/>
       <c r="N101" s="2" t="inlineStr"/>
       <c r="O101" s="2" t="inlineStr"/>
-      <c r="P101" s="2" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
-        </is>
-      </c>
+      <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr"/>
       <c r="R101" s="2" t="inlineStr"/>
       <c r="S101" s="2" t="inlineStr"/>
@@ -6834,11 +6836,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="inlineStr"/>
-      <c r="V101" s="2" t="inlineStr">
-        <is>
-          <t>PS; JH; RW</t>
-        </is>
-      </c>
+      <c r="V101" s="2" t="inlineStr"/>
       <c r="W101" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -6850,30 +6848,25 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
-https://www.merriam-webster.com/dictionary/laugh</t>
-        </is>
-      </c>
+      <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -6888,7 +6881,11 @@
       <c r="M102" s="2" t="inlineStr"/>
       <c r="N102" s="2" t="inlineStr"/>
       <c r="O102" s="2" t="inlineStr"/>
-      <c r="P102" s="2" t="inlineStr"/>
+      <c r="P102" s="2" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+        </is>
+      </c>
       <c r="Q102" s="2" t="inlineStr"/>
       <c r="R102" s="2" t="inlineStr"/>
       <c r="S102" s="2" t="inlineStr"/>
@@ -6900,7 +6897,7 @@
       <c r="U102" s="2" t="inlineStr"/>
       <c r="V102" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="W102" s="2" t="inlineStr">
@@ -6914,32 +6911,33 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
+https://www.merriam-webster.com/dictionary/laugh</t>
+        </is>
+      </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -6954,11 +6952,7 @@
       <c r="P103" s="2" t="inlineStr"/>
       <c r="Q103" s="2" t="inlineStr"/>
       <c r="R103" s="2" t="inlineStr"/>
-      <c r="S103" s="2" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="S103" s="2" t="inlineStr"/>
       <c r="T103" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6967,7 +6961,7 @@
       <c r="U103" s="2" t="inlineStr"/>
       <c r="V103" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W103" s="2" t="inlineStr">
@@ -6981,28 +6975,32 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr"/>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7017,7 +7015,11 @@
       <c r="P104" s="2" t="inlineStr"/>
       <c r="Q104" s="2" t="inlineStr"/>
       <c r="R104" s="2" t="inlineStr"/>
-      <c r="S104" s="2" t="inlineStr"/>
+      <c r="S104" s="2" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="T104" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7026,7 +7028,7 @@
       <c r="U104" s="2" t="inlineStr"/>
       <c r="V104" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W104" s="2" t="inlineStr">
@@ -7040,25 +7042,25 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr"/>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -7085,7 +7087,7 @@
       <c r="U105" s="2" t="inlineStr"/>
       <c r="V105" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W105" s="2" t="inlineStr">
@@ -7099,32 +7101,28 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7139,11 +7137,7 @@
       <c r="P106" s="2" t="inlineStr"/>
       <c r="Q106" s="2" t="inlineStr"/>
       <c r="R106" s="2" t="inlineStr"/>
-      <c r="S106" s="2" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="S106" s="2" t="inlineStr"/>
       <c r="T106" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7152,7 +7146,7 @@
       <c r="U106" s="2" t="inlineStr"/>
       <c r="V106" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W106" s="2" t="inlineStr">
@@ -7166,28 +7160,32 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>low cognitive exertion expended on a behaviour</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H107" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -7201,21 +7199,21 @@
       <c r="O107" s="2" t="inlineStr"/>
       <c r="P107" s="2" t="inlineStr"/>
       <c r="Q107" s="2" t="inlineStr"/>
-      <c r="R107" s="2" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="S107" s="2" t="inlineStr"/>
+      <c r="R107" s="2" t="inlineStr"/>
+      <c r="S107" s="2" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="T107" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U107" s="2" t="inlineStr"/>
       <c r="V107" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W107" s="2" t="inlineStr">
@@ -7229,25 +7227,25 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -7266,7 +7264,7 @@
       <c r="Q108" s="2" t="inlineStr"/>
       <c r="R108" s="2" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S108" s="2" t="inlineStr"/>
@@ -7292,25 +7290,25 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr"/>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -7329,7 +7327,7 @@
       <c r="Q109" s="2" t="inlineStr"/>
       <c r="R109" s="2" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S109" s="2" t="inlineStr"/>
@@ -7355,25 +7353,25 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -7392,7 +7390,7 @@
       <c r="Q110" s="2" t="inlineStr"/>
       <c r="R110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S110" s="2" t="inlineStr"/>
@@ -7418,25 +7416,25 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -7453,17 +7451,21 @@
       <c r="O111" s="2" t="inlineStr"/>
       <c r="P111" s="2" t="inlineStr"/>
       <c r="Q111" s="2" t="inlineStr"/>
-      <c r="R111" s="2" t="inlineStr"/>
+      <c r="R111" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
       <c r="S111" s="2" t="inlineStr"/>
       <c r="T111" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="U111" s="2" t="inlineStr"/>
       <c r="V111" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W111" s="2" t="inlineStr">
@@ -7477,25 +7479,25 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -7522,7 +7524,7 @@
       <c r="U112" s="2" t="inlineStr"/>
       <c r="V112" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="W112" s="2" t="inlineStr">
@@ -7536,25 +7538,25 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr"/>
@@ -7572,11 +7574,7 @@
       <c r="P113" s="2" t="inlineStr"/>
       <c r="Q113" s="2" t="inlineStr"/>
       <c r="R113" s="2" t="inlineStr"/>
-      <c r="S113" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="S113" s="2" t="inlineStr"/>
       <c r="T113" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7585,7 +7583,7 @@
       <c r="U113" s="2" t="inlineStr"/>
       <c r="V113" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W113" s="2" t="inlineStr">
@@ -7599,25 +7597,25 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr"/>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr"/>
@@ -7635,7 +7633,11 @@
       <c r="P114" s="2" t="inlineStr"/>
       <c r="Q114" s="2" t="inlineStr"/>
       <c r="R114" s="2" t="inlineStr"/>
-      <c r="S114" s="2" t="inlineStr"/>
+      <c r="S114" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="T114" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7644,7 +7646,7 @@
       <c r="U114" s="2" t="inlineStr"/>
       <c r="V114" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="W114" s="2" t="inlineStr">
@@ -7658,25 +7660,25 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr"/>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr"/>
@@ -7691,17 +7693,9 @@
       <c r="M115" s="2" t="inlineStr"/>
       <c r="N115" s="2" t="inlineStr"/>
       <c r="O115" s="2" t="inlineStr"/>
-      <c r="P115" s="2" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="P115" s="2" t="inlineStr"/>
       <c r="Q115" s="2" t="inlineStr"/>
-      <c r="R115" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="R115" s="2" t="inlineStr"/>
       <c r="S115" s="2" t="inlineStr"/>
       <c r="T115" s="2" t="inlineStr">
         <is>
@@ -7711,7 +7705,7 @@
       <c r="U115" s="2" t="inlineStr"/>
       <c r="V115" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W115" s="2" t="inlineStr">
@@ -7725,29 +7719,25 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -7762,14 +7752,18 @@
       <c r="M116" s="2" t="inlineStr"/>
       <c r="N116" s="2" t="inlineStr"/>
       <c r="O116" s="2" t="inlineStr"/>
-      <c r="P116" s="2" t="inlineStr"/>
+      <c r="P116" s="2" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="Q116" s="2" t="inlineStr"/>
-      <c r="R116" s="2" t="inlineStr"/>
-      <c r="S116" s="2" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="R116" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="S116" s="2" t="inlineStr"/>
       <c r="T116" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7778,7 +7772,7 @@
       <c r="U116" s="2" t="inlineStr"/>
       <c r="V116" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W116" s="2" t="inlineStr">
@@ -7792,25 +7786,29 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -7830,7 +7828,7 @@
       <c r="R117" s="2" t="inlineStr"/>
       <c r="S117" s="2" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="T117" s="2" t="inlineStr">
@@ -7841,7 +7839,7 @@
       <c r="U117" s="2" t="inlineStr"/>
       <c r="V117" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W117" s="2" t="inlineStr">
@@ -7855,25 +7853,25 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr"/>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -7890,21 +7888,21 @@
       <c r="O118" s="2" t="inlineStr"/>
       <c r="P118" s="2" t="inlineStr"/>
       <c r="Q118" s="2" t="inlineStr"/>
-      <c r="R118" s="2" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="S118" s="2" t="inlineStr"/>
+      <c r="R118" s="2" t="inlineStr"/>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="T118" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U118" s="2" t="inlineStr"/>
       <c r="V118" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="W118" s="2" t="inlineStr">
@@ -7918,25 +7916,25 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr"/>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -7955,7 +7953,7 @@
       <c r="Q119" s="2" t="inlineStr"/>
       <c r="R119" s="2" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S119" s="2" t="inlineStr"/>
@@ -7981,25 +7979,25 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr"/>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -8018,7 +8016,7 @@
       <c r="Q120" s="2" t="inlineStr"/>
       <c r="R120" s="2" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S120" s="2" t="inlineStr"/>
@@ -8044,25 +8042,25 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr"/>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -8081,7 +8079,7 @@
       <c r="Q121" s="2" t="inlineStr"/>
       <c r="R121" s="2" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S121" s="2" t="inlineStr"/>
@@ -8107,25 +8105,25 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>monitoring behaviour</t>
+          <t>moderate physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A &lt;knowledge development behaviour&gt; that involves gathering information over a period of time.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -8144,17 +8142,21 @@
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr">
         <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="S122" s="2" t="inlineStr"/>
       <c r="T122" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="U122" s="2" t="inlineStr"/>
-      <c r="V122" s="2" t="inlineStr"/>
+      <c r="V122" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W122" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8166,25 +8168,25 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>monitoring behaviour</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A &lt;knowledge development behaviour&gt; that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -8201,7 +8203,11 @@
       <c r="O123" s="2" t="inlineStr"/>
       <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr"/>
-      <c r="R123" s="2" t="inlineStr"/>
+      <c r="R123" s="2" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+        </is>
+      </c>
       <c r="S123" s="2" t="inlineStr"/>
       <c r="T123" s="2" t="inlineStr">
         <is>
@@ -8209,11 +8215,7 @@
         </is>
       </c>
       <c r="U123" s="2" t="inlineStr"/>
-      <c r="V123" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V123" s="2" t="inlineStr"/>
       <c r="W123" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8225,25 +8227,25 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -8284,25 +8286,25 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -8329,7 +8331,7 @@
       <c r="U125" s="2" t="inlineStr"/>
       <c r="V125" s="2" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W125" s="2" t="inlineStr">
@@ -8343,18 +8345,18 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
@@ -8388,7 +8390,7 @@
       <c r="U126" s="2" t="inlineStr"/>
       <c r="V126" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="W126" s="2" t="inlineStr">
@@ -8402,25 +8404,25 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -8437,16 +8439,8 @@
       <c r="O127" s="2" t="inlineStr"/>
       <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr"/>
-      <c r="R127" s="2" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="S127" s="2" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="R127" s="2" t="inlineStr"/>
+      <c r="S127" s="2" t="inlineStr"/>
       <c r="T127" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8455,7 +8449,7 @@
       <c r="U127" s="2" t="inlineStr"/>
       <c r="V127" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W127" s="2" t="inlineStr">
@@ -8469,25 +8463,25 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr"/>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -8504,8 +8498,16 @@
       <c r="O128" s="2" t="inlineStr"/>
       <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr"/>
-      <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr"/>
+      <c r="R128" s="2" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="T128" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8514,7 +8516,7 @@
       <c r="U128" s="2" t="inlineStr"/>
       <c r="V128" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="W128" s="2" t="inlineStr">
@@ -8528,29 +8530,25 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr"/>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -8568,11 +8566,7 @@
       <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr"/>
-      <c r="S129" s="2" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
+      <c r="S129" s="2" t="inlineStr"/>
       <c r="T129" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8581,7 +8575,7 @@
       <c r="U129" s="2" t="inlineStr"/>
       <c r="V129" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W129" s="2" t="inlineStr">
@@ -8595,25 +8589,29 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -8630,15 +8628,10 @@
       <c r="O130" s="2" t="inlineStr"/>
       <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr"/>
-      <c r="R130" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="R130" s="2" t="inlineStr"/>
       <c r="S130" s="2" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>harassment behaviour occurred three times</t>
         </is>
       </c>
       <c r="T130" s="2" t="inlineStr">
@@ -8649,7 +8642,7 @@
       <c r="U130" s="2" t="inlineStr"/>
       <c r="V130" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W130" s="2" t="inlineStr">
@@ -8663,25 +8656,25 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -8700,12 +8693,13 @@
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="S131" s="2" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="T131" s="2" t="inlineStr">
@@ -8716,7 +8710,7 @@
       <c r="U131" s="2" t="inlineStr"/>
       <c r="V131" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="W131" s="2" t="inlineStr">
@@ -8730,32 +8724,28 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8771,12 +8761,12 @@
       <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="S132" s="2" t="inlineStr">
         <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="T132" s="2" t="inlineStr">
@@ -8801,28 +8791,32 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H133" s="2" t="inlineStr"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8836,8 +8830,16 @@
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
       <c r="Q133" s="2" t="inlineStr"/>
-      <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="inlineStr"/>
+      <c r="R133" s="2" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="S133" s="2" t="inlineStr">
+        <is>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+        </is>
+      </c>
       <c r="T133" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8846,7 +8848,7 @@
       <c r="U133" s="2" t="inlineStr"/>
       <c r="V133" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W133" s="2" t="inlineStr">
@@ -8860,25 +8862,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>parenting behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>&lt;Nurture behaviour&gt; that is provided to a young person by someone in a parent role.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>nurture behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -8903,7 +8905,11 @@
         </is>
       </c>
       <c r="U134" s="2" t="inlineStr"/>
-      <c r="V134" s="2" t="inlineStr"/>
+      <c r="V134" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W134" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8915,25 +8921,25 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t>parenting behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>&lt;Nurture behaviour&gt; that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>nurture behaviour</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -8958,11 +8964,7 @@
         </is>
       </c>
       <c r="U135" s="2" t="inlineStr"/>
-      <c r="V135" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V135" s="2" t="inlineStr"/>
       <c r="W135" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8974,25 +8976,25 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -9010,11 +9012,7 @@
       <c r="P136" s="2" t="inlineStr"/>
       <c r="Q136" s="2" t="inlineStr"/>
       <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9037,25 +9035,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -9072,14 +9070,10 @@
       <c r="O137" s="2" t="inlineStr"/>
       <c r="P137" s="2" t="inlineStr"/>
       <c r="Q137" s="2" t="inlineStr"/>
-      <c r="R137" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="R137" s="2" t="inlineStr"/>
       <c r="S137" s="2" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="T137" s="2" t="inlineStr">
@@ -9104,18 +9098,18 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -9139,10 +9133,14 @@
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
       <c r="Q138" s="2" t="inlineStr"/>
-      <c r="R138" s="2" t="inlineStr"/>
+      <c r="R138" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="S138" s="2" t="inlineStr">
         <is>
-          <t>Undergoing surgery</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="T138" s="2" t="inlineStr">
@@ -9167,25 +9165,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -9203,7 +9201,11 @@
       <c r="P139" s="2" t="inlineStr"/>
       <c r="Q139" s="2" t="inlineStr"/>
       <c r="R139" s="2" t="inlineStr"/>
-      <c r="S139" s="2" t="inlineStr"/>
+      <c r="S139" s="2" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="T139" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9226,18 +9228,18 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -9285,18 +9287,18 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -9344,18 +9346,18 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -9403,25 +9405,25 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050827</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>past occurrence of a target behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that is the target of an intervention and has been previously enacted.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr"/>
@@ -9438,11 +9440,7 @@
       <c r="O143" s="2" t="inlineStr"/>
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
-      <c r="R143" s="2" t="inlineStr">
-        <is>
-          <t>This is a relational class (relates one behaviour to another).</t>
-        </is>
-      </c>
+      <c r="R143" s="2" t="inlineStr"/>
       <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr">
         <is>
@@ -9450,7 +9448,11 @@
         </is>
       </c>
       <c r="U143" s="2" t="inlineStr"/>
-      <c r="V143" s="2" t="inlineStr"/>
+      <c r="V143" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W143" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -9462,31 +9464,31 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050827</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>past occurrence of a target behaviour</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>An &lt;individual human behaviour&gt; that is the target of an intervention and has been previously enacted.</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J144" s="2" t="inlineStr"/>
@@ -9499,7 +9501,7 @@
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>This is a relational class (relates one behaviour to another).</t>
         </is>
       </c>
       <c r="S144" s="2" t="inlineStr"/>
@@ -9509,11 +9511,7 @@
         </is>
       </c>
       <c r="U144" s="2" t="inlineStr"/>
-      <c r="V144" s="2" t="inlineStr">
-        <is>
-          <t>AW; PS</t>
-        </is>
-      </c>
+      <c r="V144" s="2" t="inlineStr"/>
       <c r="W144" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -9525,35 +9523,31 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050300</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
         </is>
       </c>
       <c r="J145" s="2" t="inlineStr"/>
@@ -9566,14 +9560,10 @@
       <c r="Q145" s="2" t="inlineStr"/>
       <c r="R145" s="2" t="inlineStr">
         <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="S145" s="2" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+      <c r="S145" s="2" t="inlineStr"/>
       <c r="T145" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9582,7 +9572,7 @@
       <c r="U145" s="2" t="inlineStr"/>
       <c r="V145" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>AW; PS</t>
         </is>
       </c>
       <c r="W145" s="2" t="inlineStr">
@@ -9596,28 +9586,32 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H146" s="2" t="inlineStr"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I146" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9633,12 +9627,12 @@
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="S146" s="2" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="T146" s="2" t="inlineStr">
@@ -9649,7 +9643,7 @@
       <c r="U146" s="2" t="inlineStr"/>
       <c r="V146" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W146" s="2" t="inlineStr">
@@ -9663,25 +9657,25 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -9698,10 +9692,14 @@
       <c r="O147" s="2" t="inlineStr"/>
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
-      <c r="R147" s="2" t="inlineStr"/>
+      <c r="R147" s="2" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="S147" s="2" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="T147" s="2" t="inlineStr">
@@ -9712,7 +9710,7 @@
       <c r="U147" s="2" t="inlineStr"/>
       <c r="V147" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="W147" s="2" t="inlineStr">
@@ -9726,29 +9724,25 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -9768,7 +9762,7 @@
       <c r="R148" s="2" t="inlineStr"/>
       <c r="S148" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="T148" s="2" t="inlineStr">
@@ -9779,7 +9773,7 @@
       <c r="U148" s="2" t="inlineStr"/>
       <c r="V148" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W148" s="2" t="inlineStr">
@@ -9793,32 +9787,32 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9835,20 +9829,18 @@
       <c r="R149" s="2" t="inlineStr"/>
       <c r="S149" s="2" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="T149" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U149" s="2" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="T149" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U149" s="2" t="inlineStr"/>
       <c r="V149" s="2" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W149" s="2" t="inlineStr">
@@ -9862,28 +9854,32 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9900,18 +9896,20 @@
       <c r="R150" s="2" t="inlineStr"/>
       <c r="S150" s="2" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="T150" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U150" s="2" t="inlineStr"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="T150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U150" s="2" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="V150" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="W150" s="2" t="inlineStr">
@@ -9925,32 +9923,28 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr"/>
       <c r="I151" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -9967,7 +9961,7 @@
       <c r="R151" s="2" t="inlineStr"/>
       <c r="S151" s="2" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="T151" s="2" t="inlineStr">
@@ -9978,7 +9972,7 @@
       <c r="U151" s="2" t="inlineStr"/>
       <c r="V151" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="W151" s="2" t="inlineStr">
@@ -9992,28 +9986,32 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr"/>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10028,7 +10026,11 @@
       <c r="P152" s="2" t="inlineStr"/>
       <c r="Q152" s="2" t="inlineStr"/>
       <c r="R152" s="2" t="inlineStr"/>
-      <c r="S152" s="2" t="inlineStr"/>
+      <c r="S152" s="2" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="T152" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10037,7 +10039,7 @@
       <c r="U152" s="2" t="inlineStr"/>
       <c r="V152" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="W152" s="2" t="inlineStr">
@@ -10051,26 +10053,25 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr"/>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr"/>
@@ -10111,25 +10112,26 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr"/>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -10156,7 +10158,7 @@
       <c r="U154" s="2" t="inlineStr"/>
       <c r="V154" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W154" s="2" t="inlineStr">
@@ -10170,25 +10172,25 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural consequence</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr"/>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural consequence&gt; that is positively evaluated by an individual or a population.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -10213,7 +10215,11 @@
         </is>
       </c>
       <c r="U155" s="2" t="inlineStr"/>
-      <c r="V155" s="2" t="inlineStr"/>
+      <c r="V155" s="2" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
       <c r="W155" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -10225,29 +10231,25 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>positive behavioural consequence</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr"/>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>"posture behaviour" AND "expressive behaviour"</t>
-        </is>
-      </c>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>posture behaviour</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -10264,11 +10266,7 @@
       <c r="O156" s="2" t="inlineStr"/>
       <c r="P156" s="2" t="inlineStr"/>
       <c r="Q156" s="2" t="inlineStr"/>
-      <c r="R156" s="2" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
-        </is>
-      </c>
+      <c r="R156" s="2" t="inlineStr"/>
       <c r="S156" s="2" t="inlineStr"/>
       <c r="T156" s="2" t="inlineStr">
         <is>
@@ -10292,32 +10290,32 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr"/>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr"/>
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>"posture behaviour" AND "expressive behaviour"</t>
+        </is>
+      </c>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="H157" s="2" t="inlineStr"/>
       <c r="I157" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10331,7 +10329,11 @@
       <c r="O157" s="2" t="inlineStr"/>
       <c r="P157" s="2" t="inlineStr"/>
       <c r="Q157" s="2" t="inlineStr"/>
-      <c r="R157" s="2" t="inlineStr"/>
+      <c r="R157" s="2" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
       <c r="S157" s="2" t="inlineStr"/>
       <c r="T157" s="2" t="inlineStr">
         <is>
@@ -10341,7 +10343,7 @@
       <c r="U157" s="2" t="inlineStr"/>
       <c r="V157" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W157" s="2" t="inlineStr">
@@ -10355,28 +10357,32 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr"/>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H158" s="2" t="inlineStr"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10400,7 +10406,7 @@
       <c r="U158" s="2" t="inlineStr"/>
       <c r="V158" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W158" s="2" t="inlineStr">
@@ -10414,25 +10420,25 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr"/>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr"/>
@@ -10473,18 +10479,18 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr"/>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -10508,12 +10514,7 @@
       <c r="O160" s="2" t="inlineStr"/>
       <c r="P160" s="2" t="inlineStr"/>
       <c r="Q160" s="2" t="inlineStr"/>
-      <c r="R160" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="R160" s="2" t="inlineStr"/>
       <c r="S160" s="2" t="inlineStr"/>
       <c r="T160" s="2" t="inlineStr">
         <is>
@@ -10537,32 +10538,28 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr"/>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H161" s="2" t="inlineStr"/>
       <c r="I161" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10576,12 +10573,13 @@
       <c r="O161" s="2" t="inlineStr"/>
       <c r="P161" s="2" t="inlineStr"/>
       <c r="Q161" s="2" t="inlineStr"/>
-      <c r="R161" s="2" t="inlineStr"/>
-      <c r="S161" s="2" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="R161" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="S161" s="2" t="inlineStr"/>
       <c r="T161" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10590,7 +10588,7 @@
       <c r="U161" s="2" t="inlineStr"/>
       <c r="V161" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W161" s="2" t="inlineStr">
@@ -10604,34 +10602,30 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr"/>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -10644,15 +10638,15 @@
       <c r="L162" s="2" t="inlineStr"/>
       <c r="M162" s="2" t="inlineStr"/>
       <c r="N162" s="2" t="inlineStr"/>
-      <c r="O162" s="2" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="O162" s="2" t="inlineStr"/>
       <c r="P162" s="2" t="inlineStr"/>
       <c r="Q162" s="2" t="inlineStr"/>
       <c r="R162" s="2" t="inlineStr"/>
-      <c r="S162" s="2" t="inlineStr"/>
+      <c r="S162" s="2" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="T162" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10661,7 +10655,7 @@
       <c r="U162" s="2" t="inlineStr"/>
       <c r="V162" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="W162" s="2" t="inlineStr">
@@ -10675,28 +10669,36 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H163" s="2" t="inlineStr"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10707,7 +10709,11 @@
       <c r="L163" s="2" t="inlineStr"/>
       <c r="M163" s="2" t="inlineStr"/>
       <c r="N163" s="2" t="inlineStr"/>
-      <c r="O163" s="2" t="inlineStr"/>
+      <c r="O163" s="2" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="P163" s="2" t="inlineStr"/>
       <c r="Q163" s="2" t="inlineStr"/>
       <c r="R163" s="2" t="inlineStr"/>
@@ -10720,7 +10726,7 @@
       <c r="U163" s="2" t="inlineStr"/>
       <c r="V163" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W163" s="2" t="inlineStr">
@@ -10734,25 +10740,25 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>providing health screening</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr"/>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr"/>
@@ -10779,7 +10785,7 @@
       <c r="U164" s="2" t="inlineStr"/>
       <c r="V164" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W164" s="2" t="inlineStr">
@@ -10793,25 +10799,25 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing health screening</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr"/>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr"/>
@@ -10838,7 +10844,7 @@
       <c r="U165" s="2" t="inlineStr"/>
       <c r="V165" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W165" s="2" t="inlineStr">
@@ -10852,25 +10858,25 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr"/>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr"/>
@@ -10911,18 +10917,18 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -10970,18 +10976,18 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -11029,25 +11035,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -11088,18 +11094,18 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
@@ -11147,18 +11153,18 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -11206,18 +11212,18 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -11265,25 +11271,25 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>purchasing behaviour</t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -11308,7 +11314,11 @@
         </is>
       </c>
       <c r="U173" s="2" t="inlineStr"/>
-      <c r="V173" s="2" t="inlineStr"/>
+      <c r="V173" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W173" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11320,25 +11330,25 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>purchasing behaviour</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -11363,11 +11373,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="inlineStr"/>
-      <c r="V174" s="2" t="inlineStr">
-        <is>
-          <t>OC</t>
-        </is>
-      </c>
+      <c r="V174" s="2" t="inlineStr"/>
       <c r="W174" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11379,25 +11385,25 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr"/>
@@ -11438,25 +11444,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>reducing discomfort</t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which physical or mental uneasiness or distress is reduced.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
@@ -11472,11 +11478,7 @@
       <c r="N176" s="2" t="inlineStr"/>
       <c r="O176" s="2" t="inlineStr"/>
       <c r="P176" s="2" t="inlineStr"/>
-      <c r="Q176" s="2" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
+      <c r="Q176" s="2" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr"/>
       <c r="S176" s="2" t="inlineStr"/>
       <c r="T176" s="2" t="inlineStr">
@@ -11485,7 +11487,11 @@
         </is>
       </c>
       <c r="U176" s="2" t="inlineStr"/>
-      <c r="V176" s="2" t="inlineStr"/>
+      <c r="V176" s="2" t="inlineStr">
+        <is>
+          <t>OC</t>
+        </is>
+      </c>
       <c r="W176" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11497,18 +11503,18 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
+          <t>BCIO:050830</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>reducing harm</t>
+          <t>reducing discomfort</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which damage or injury is reduced.</t>
+          <t>A &lt;process&gt; in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
@@ -11533,7 +11539,7 @@
       <c r="P177" s="2" t="inlineStr"/>
       <c r="Q177" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="R177" s="2" t="inlineStr"/>
@@ -11556,29 +11562,25 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050831</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>reflective behaviour</t>
+          <t>reducing harm</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that is reflectively driven.</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour' AND has behavioural attribute 'reflectively  driven'.</t>
-        </is>
-      </c>
+          <t>A &lt;process&gt; in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr"/>
@@ -11590,15 +11592,15 @@
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr"/>
-      <c r="M178" s="2" t="inlineStr">
-        <is>
-          <t>reflectively driven</t>
-        </is>
-      </c>
+      <c r="M178" s="2" t="inlineStr"/>
       <c r="N178" s="2" t="inlineStr"/>
       <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
-      <c r="Q178" s="2" t="inlineStr"/>
+      <c r="Q178" s="2" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
       <c r="R178" s="2" t="inlineStr"/>
       <c r="S178" s="2" t="inlineStr"/>
       <c r="T178" s="2" t="inlineStr">
@@ -11619,25 +11621,29 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>reflectively driven</t>
+          <t>reflective behaviour</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural attribute&gt; in which the behaviour is caused by a reflective mental process.</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
+          <t>An &lt;individual human behaviour&gt; that is reflectively driven.</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour' AND has behavioural attribute 'reflectively  driven'.</t>
+        </is>
+      </c>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -11649,7 +11655,11 @@
       <c r="J179" s="2" t="inlineStr"/>
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr"/>
-      <c r="M179" s="2" t="inlineStr"/>
+      <c r="M179" s="2" t="inlineStr">
+        <is>
+          <t>reflectively driven</t>
+        </is>
+      </c>
       <c r="N179" s="2" t="inlineStr"/>
       <c r="O179" s="2" t="inlineStr"/>
       <c r="P179" s="2" t="inlineStr"/>
@@ -11674,22 +11684,18 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>reflectively driven</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A &lt;behavioural attribute&gt; in which the behaviour is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -11713,11 +11719,7 @@
       <c r="O180" s="2" t="inlineStr"/>
       <c r="P180" s="2" t="inlineStr"/>
       <c r="Q180" s="2" t="inlineStr"/>
-      <c r="R180" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="R180" s="2" t="inlineStr"/>
       <c r="S180" s="2" t="inlineStr"/>
       <c r="T180" s="2" t="inlineStr">
         <is>
@@ -11725,11 +11727,7 @@
         </is>
       </c>
       <c r="U180" s="2" t="inlineStr"/>
-      <c r="V180" s="2" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
+      <c r="V180" s="2" t="inlineStr"/>
       <c r="W180" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11741,25 +11739,29 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr"/>
@@ -11778,7 +11780,7 @@
       <c r="Q181" s="2" t="inlineStr"/>
       <c r="R181" s="2" t="inlineStr">
         <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
       <c r="S181" s="2" t="inlineStr"/>
@@ -11788,7 +11790,11 @@
         </is>
       </c>
       <c r="U181" s="2" t="inlineStr"/>
-      <c r="V181" s="2" t="inlineStr"/>
+      <c r="V181" s="2" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
       <c r="W181" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11800,25 +11806,25 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>regulatory behaviour</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr"/>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>An &lt;individual human behaviour&gt; that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr"/>
@@ -11837,25 +11843,17 @@
       <c r="Q182" s="2" t="inlineStr"/>
       <c r="R182" s="2" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="S182" s="2" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+        </is>
+      </c>
+      <c r="S182" s="2" t="inlineStr"/>
       <c r="T182" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U182" s="2" t="inlineStr"/>
-      <c r="V182" s="2" t="inlineStr">
-        <is>
-          <t>OC; PS</t>
-        </is>
-      </c>
+      <c r="V182" s="2" t="inlineStr"/>
       <c r="W182" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11867,25 +11865,25 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>response cost</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr"/>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr"/>
@@ -11902,15 +11900,27 @@
       <c r="O183" s="2" t="inlineStr"/>
       <c r="P183" s="2" t="inlineStr"/>
       <c r="Q183" s="2" t="inlineStr"/>
-      <c r="R183" s="2" t="inlineStr"/>
-      <c r="S183" s="2" t="inlineStr"/>
+      <c r="R183" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="S183" s="2" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="T183" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U183" s="2" t="inlineStr"/>
-      <c r="V183" s="2" t="inlineStr"/>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>OC; PS</t>
+        </is>
+      </c>
       <c r="W183" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11922,25 +11932,25 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>response cost</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr"/>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr"/>
@@ -11965,11 +11975,7 @@
         </is>
       </c>
       <c r="U184" s="2" t="inlineStr"/>
-      <c r="V184" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V184" s="2" t="inlineStr"/>
       <c r="W184" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11981,25 +11987,25 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>rewarding behaviour</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr"/>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social influence behaviour&gt; in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr"/>
@@ -12024,7 +12030,11 @@
         </is>
       </c>
       <c r="U185" s="2" t="inlineStr"/>
-      <c r="V185" s="2" t="inlineStr"/>
+      <c r="V185" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W185" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12036,25 +12046,25 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>rewarding behaviour</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr"/>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A &lt;social influence behaviour&gt; in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr"/>
@@ -12071,11 +12081,7 @@
       <c r="O186" s="2" t="inlineStr"/>
       <c r="P186" s="2" t="inlineStr"/>
       <c r="Q186" s="2" t="inlineStr"/>
-      <c r="R186" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="R186" s="2" t="inlineStr"/>
       <c r="S186" s="2" t="inlineStr"/>
       <c r="T186" s="2" t="inlineStr">
         <is>
@@ -12083,11 +12089,7 @@
         </is>
       </c>
       <c r="U186" s="2" t="inlineStr"/>
-      <c r="V186" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V186" s="2" t="inlineStr"/>
       <c r="W186" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12099,25 +12101,25 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr"/>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr"/>
@@ -12136,14 +12138,10 @@
       <c r="Q187" s="2" t="inlineStr"/>
       <c r="R187" s="2" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="S187" s="2" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="S187" s="2" t="inlineStr"/>
       <c r="T187" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12152,7 +12150,7 @@
       <c r="U187" s="2" t="inlineStr"/>
       <c r="V187" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W187" s="2" t="inlineStr">
@@ -12166,25 +12164,25 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr"/>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr"/>
@@ -12201,8 +12199,16 @@
       <c r="O188" s="2" t="inlineStr"/>
       <c r="P188" s="2" t="inlineStr"/>
       <c r="Q188" s="2" t="inlineStr"/>
-      <c r="R188" s="2" t="inlineStr"/>
-      <c r="S188" s="2" t="inlineStr"/>
+      <c r="R188" s="2" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="S188" s="2" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="T188" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12211,7 +12217,7 @@
       <c r="U188" s="2" t="inlineStr"/>
       <c r="V188" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="W188" s="2" t="inlineStr">
@@ -12225,25 +12231,25 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>selling behaviour</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr"/>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr"/>
@@ -12268,7 +12274,11 @@
         </is>
       </c>
       <c r="U189" s="2" t="inlineStr"/>
-      <c r="V189" s="2" t="inlineStr"/>
+      <c r="V189" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W189" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12280,32 +12290,28 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>selling behaviour</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr"/>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">economic behaviour </t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr"/>
       <c r="I190" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12319,27 +12325,15 @@
       <c r="O190" s="2" t="inlineStr"/>
       <c r="P190" s="2" t="inlineStr"/>
       <c r="Q190" s="2" t="inlineStr"/>
-      <c r="R190" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="S190" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="R190" s="2" t="inlineStr"/>
+      <c r="S190" s="2" t="inlineStr"/>
       <c r="T190" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U190" s="2" t="inlineStr"/>
-      <c r="V190" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
+      <c r="V190" s="2" t="inlineStr"/>
       <c r="W190" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12351,28 +12345,32 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr"/>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H191" s="2" t="inlineStr"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I191" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12386,8 +12384,16 @@
       <c r="O191" s="2" t="inlineStr"/>
       <c r="P191" s="2" t="inlineStr"/>
       <c r="Q191" s="2" t="inlineStr"/>
-      <c r="R191" s="2" t="inlineStr"/>
-      <c r="S191" s="2" t="inlineStr"/>
+      <c r="R191" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="S191" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="T191" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12396,7 +12402,7 @@
       <c r="U191" s="2" t="inlineStr"/>
       <c r="V191" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W191" s="2" t="inlineStr">
@@ -12410,25 +12416,25 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr"/>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -12446,11 +12452,7 @@
       <c r="P192" s="2" t="inlineStr"/>
       <c r="Q192" s="2" t="inlineStr"/>
       <c r="R192" s="2" t="inlineStr"/>
-      <c r="S192" s="2" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="S192" s="2" t="inlineStr"/>
       <c r="T192" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12459,7 +12461,7 @@
       <c r="U192" s="2" t="inlineStr"/>
       <c r="V192" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="W192" s="2" t="inlineStr">
@@ -12473,25 +12475,25 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr"/>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr"/>
@@ -12509,7 +12511,11 @@
       <c r="P193" s="2" t="inlineStr"/>
       <c r="Q193" s="2" t="inlineStr"/>
       <c r="R193" s="2" t="inlineStr"/>
-      <c r="S193" s="2" t="inlineStr"/>
+      <c r="S193" s="2" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="T193" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12518,7 +12524,7 @@
       <c r="U193" s="2" t="inlineStr"/>
       <c r="V193" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W193" s="2" t="inlineStr">
@@ -12532,25 +12538,25 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr"/>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr"/>
@@ -12568,18 +12574,18 @@
       <c r="P194" s="2" t="inlineStr"/>
       <c r="Q194" s="2" t="inlineStr"/>
       <c r="R194" s="2" t="inlineStr"/>
-      <c r="S194" s="2" t="inlineStr">
-        <is>
-          <t>Social support from social network.</t>
-        </is>
-      </c>
+      <c r="S194" s="2" t="inlineStr"/>
       <c r="T194" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U194" s="2" t="inlineStr"/>
-      <c r="V194" s="2" t="inlineStr"/>
+      <c r="V194" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W194" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12589,99 +12595,82 @@
       <c r="Y194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036011</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr"/>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr"/>
-      <c r="F195" s="2" t="inlineStr"/>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J195" s="2" t="inlineStr"/>
-      <c r="K195" s="2" t="inlineStr"/>
-      <c r="L195" s="2" t="inlineStr"/>
-      <c r="M195" s="2" t="inlineStr"/>
-      <c r="N195" s="2" t="inlineStr"/>
-      <c r="O195" s="2" t="inlineStr"/>
-      <c r="P195" s="2" t="inlineStr"/>
-      <c r="Q195" s="2" t="inlineStr"/>
-      <c r="R195" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="S195" s="2" t="inlineStr">
-        <is>
-          <t>Collaborating, coordinating gatherings</t>
-        </is>
-      </c>
-      <c r="T195" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U195" s="2" t="inlineStr"/>
-      <c r="V195" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
-      <c r="W195" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X195" s="2" t="inlineStr"/>
-      <c r="Y195" s="2" t="inlineStr"/>
+      <c r="A195" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050900</t>
+        </is>
+      </c>
+      <c r="B195" s="4" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
+      <c r="C195" s="4" t="inlineStr"/>
+      <c r="D195" s="4" t="inlineStr">
+        <is>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+        </is>
+      </c>
+      <c r="E195" s="4" t="inlineStr"/>
+      <c r="F195" s="4" t="inlineStr"/>
+      <c r="G195" s="4" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
+      <c r="H195" s="4" t="inlineStr"/>
+      <c r="I195" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J195" s="4" t="inlineStr"/>
+      <c r="K195" s="4" t="inlineStr"/>
+      <c r="L195" s="4" t="inlineStr"/>
+      <c r="M195" s="4" t="inlineStr"/>
+      <c r="N195" s="4" t="inlineStr"/>
+      <c r="O195" s="4" t="inlineStr"/>
+      <c r="P195" s="4" t="inlineStr"/>
+      <c r="Q195" s="4" t="inlineStr"/>
+      <c r="R195" s="4" t="inlineStr"/>
+      <c r="S195" s="4" t="inlineStr"/>
+      <c r="T195" s="4" t="inlineStr"/>
+      <c r="U195" s="4" t="inlineStr"/>
+      <c r="V195" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W195" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X195" s="4" t="inlineStr"/>
+      <c r="Y195" s="4" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr"/>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr"/>
@@ -12699,18 +12688,18 @@
       <c r="P196" s="2" t="inlineStr"/>
       <c r="Q196" s="2" t="inlineStr"/>
       <c r="R196" s="2" t="inlineStr"/>
-      <c r="S196" s="2" t="inlineStr"/>
+      <c r="S196" s="2" t="inlineStr">
+        <is>
+          <t>Social support from social network.</t>
+        </is>
+      </c>
       <c r="T196" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="U196" s="2" t="inlineStr"/>
-      <c r="V196" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V196" s="2" t="inlineStr"/>
       <c r="W196" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12722,28 +12711,32 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr"/>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H197" s="2" t="inlineStr"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I197" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12757,8 +12750,17 @@
       <c r="O197" s="2" t="inlineStr"/>
       <c r="P197" s="2" t="inlineStr"/>
       <c r="Q197" s="2" t="inlineStr"/>
-      <c r="R197" s="2" t="inlineStr"/>
-      <c r="S197" s="2" t="inlineStr"/>
+      <c r="R197" s="2" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="S197" s="2" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="T197" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12767,7 +12769,7 @@
       <c r="U197" s="2" t="inlineStr"/>
       <c r="V197" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="W197" s="2" t="inlineStr">
@@ -12781,25 +12783,25 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr"/>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr"/>
@@ -12826,7 +12828,7 @@
       <c r="U198" s="2" t="inlineStr"/>
       <c r="V198" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W198" s="2" t="inlineStr">
@@ -12840,25 +12842,25 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr"/>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr"/>
@@ -12876,11 +12878,7 @@
       <c r="P199" s="2" t="inlineStr"/>
       <c r="Q199" s="2" t="inlineStr"/>
       <c r="R199" s="2" t="inlineStr"/>
-      <c r="S199" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="S199" s="2" t="inlineStr"/>
       <c r="T199" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12889,7 +12887,7 @@
       <c r="U199" s="2" t="inlineStr"/>
       <c r="V199" s="2" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W199" s="2" t="inlineStr">
@@ -12903,18 +12901,18 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050838</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">spontaneous recovery behaviour </t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr"/>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that occurs after the behaviour has been subject to extinction in operant learning.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -12946,7 +12944,11 @@
         </is>
       </c>
       <c r="U200" s="2" t="inlineStr"/>
-      <c r="V200" s="2" t="inlineStr"/>
+      <c r="V200" s="2" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
       <c r="W200" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12958,25 +12960,25 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr"/>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr"/>
@@ -12994,7 +12996,11 @@
       <c r="P201" s="2" t="inlineStr"/>
       <c r="Q201" s="2" t="inlineStr"/>
       <c r="R201" s="2" t="inlineStr"/>
-      <c r="S201" s="2" t="inlineStr"/>
+      <c r="S201" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="T201" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13003,7 +13009,7 @@
       <c r="U201" s="2" t="inlineStr"/>
       <c r="V201" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="W201" s="2" t="inlineStr">
@@ -13017,32 +13023,28 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050838</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t xml:space="preserve">spontaneous recovery behaviour </t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr"/>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>An &lt;individual human behaviour&gt; that occurs after the behaviour has been subject to extinction in operant learning.</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr"/>
       <c r="I202" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13054,17 +13056,9 @@
       <c r="M202" s="2" t="inlineStr"/>
       <c r="N202" s="2" t="inlineStr"/>
       <c r="O202" s="2" t="inlineStr"/>
-      <c r="P202" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="P202" s="2" t="inlineStr"/>
       <c r="Q202" s="2" t="inlineStr"/>
-      <c r="R202" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="R202" s="2" t="inlineStr"/>
       <c r="S202" s="2" t="inlineStr"/>
       <c r="T202" s="2" t="inlineStr">
         <is>
@@ -13072,11 +13066,7 @@
         </is>
       </c>
       <c r="U202" s="2" t="inlineStr"/>
-      <c r="V202" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; JH</t>
-        </is>
-      </c>
+      <c r="V202" s="2" t="inlineStr"/>
       <c r="W202" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13088,25 +13078,25 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr"/>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr"/>
@@ -13133,7 +13123,7 @@
       <c r="U203" s="2" t="inlineStr"/>
       <c r="V203" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="W203" s="2" t="inlineStr">
@@ -13147,28 +13137,32 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr"/>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
-      <c r="H204" s="2" t="inlineStr"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I204" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13180,11 +13174,15 @@
       <c r="M204" s="2" t="inlineStr"/>
       <c r="N204" s="2" t="inlineStr"/>
       <c r="O204" s="2" t="inlineStr"/>
-      <c r="P204" s="2" t="inlineStr"/>
+      <c r="P204" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="Q204" s="2" t="inlineStr"/>
       <c r="R204" s="2" t="inlineStr">
         <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
       <c r="S204" s="2" t="inlineStr"/>
@@ -13196,7 +13194,7 @@
       <c r="U204" s="2" t="inlineStr"/>
       <c r="V204" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W204" s="2" t="inlineStr">
@@ -13210,25 +13208,25 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr"/>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr"/>
@@ -13245,11 +13243,7 @@
       <c r="O205" s="2" t="inlineStr"/>
       <c r="P205" s="2" t="inlineStr"/>
       <c r="Q205" s="2" t="inlineStr"/>
-      <c r="R205" s="2" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
-        </is>
-      </c>
+      <c r="R205" s="2" t="inlineStr"/>
       <c r="S205" s="2" t="inlineStr"/>
       <c r="T205" s="2" t="inlineStr">
         <is>
@@ -13259,7 +13253,7 @@
       <c r="U205" s="2" t="inlineStr"/>
       <c r="V205" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W205" s="2" t="inlineStr">
@@ -13273,25 +13267,25 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>task complexity</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr"/>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr"/>
@@ -13308,7 +13302,11 @@
       <c r="O206" s="2" t="inlineStr"/>
       <c r="P206" s="2" t="inlineStr"/>
       <c r="Q206" s="2" t="inlineStr"/>
-      <c r="R206" s="2" t="inlineStr"/>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
       <c r="S206" s="2" t="inlineStr"/>
       <c r="T206" s="2" t="inlineStr">
         <is>
@@ -13316,7 +13314,11 @@
         </is>
       </c>
       <c r="U206" s="2" t="inlineStr"/>
-      <c r="V206" s="2" t="inlineStr"/>
+      <c r="V206" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W206" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13328,25 +13330,25 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>threat-reducing behaviour</t>
+          <t>talking</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr"/>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>goal-directed behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr"/>
@@ -13365,7 +13367,7 @@
       <c r="Q207" s="2" t="inlineStr"/>
       <c r="R207" s="2" t="inlineStr">
         <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
       <c r="S207" s="2" t="inlineStr"/>
@@ -13375,7 +13377,11 @@
         </is>
       </c>
       <c r="U207" s="2" t="inlineStr"/>
-      <c r="V207" s="2" t="inlineStr"/>
+      <c r="V207" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W207" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13387,32 +13393,28 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050839</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>task complexity</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr"/>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13424,11 +13426,7 @@
       <c r="M208" s="2" t="inlineStr"/>
       <c r="N208" s="2" t="inlineStr"/>
       <c r="O208" s="2" t="inlineStr"/>
-      <c r="P208" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="P208" s="2" t="inlineStr"/>
       <c r="Q208" s="2" t="inlineStr"/>
       <c r="R208" s="2" t="inlineStr"/>
       <c r="S208" s="2" t="inlineStr"/>
@@ -13438,11 +13436,7 @@
         </is>
       </c>
       <c r="U208" s="2" t="inlineStr"/>
-      <c r="V208" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
+      <c r="V208" s="2" t="inlineStr"/>
       <c r="W208" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13454,32 +13448,28 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>threat-reducing behaviour</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr"/>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13493,7 +13483,11 @@
       <c r="O209" s="2" t="inlineStr"/>
       <c r="P209" s="2" t="inlineStr"/>
       <c r="Q209" s="2" t="inlineStr"/>
-      <c r="R209" s="2" t="inlineStr"/>
+      <c r="R209" s="2" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+        </is>
+      </c>
       <c r="S209" s="2" t="inlineStr"/>
       <c r="T209" s="2" t="inlineStr">
         <is>
@@ -13501,11 +13495,7 @@
         </is>
       </c>
       <c r="U209" s="2" t="inlineStr"/>
-      <c r="V209" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
+      <c r="V209" s="2" t="inlineStr"/>
       <c r="W209" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13517,25 +13507,25 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr"/>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -13554,7 +13544,11 @@
       <c r="M210" s="2" t="inlineStr"/>
       <c r="N210" s="2" t="inlineStr"/>
       <c r="O210" s="2" t="inlineStr"/>
-      <c r="P210" s="2" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="Q210" s="2" t="inlineStr"/>
       <c r="R210" s="2" t="inlineStr"/>
       <c r="S210" s="2" t="inlineStr"/>
@@ -13566,7 +13560,7 @@
       <c r="U210" s="2" t="inlineStr"/>
       <c r="V210" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W210" s="2" t="inlineStr">
@@ -13580,25 +13574,25 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr"/>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -13617,11 +13611,7 @@
       <c r="M211" s="2" t="inlineStr"/>
       <c r="N211" s="2" t="inlineStr"/>
       <c r="O211" s="2" t="inlineStr"/>
-      <c r="P211" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P211" s="2" t="inlineStr"/>
       <c r="Q211" s="2" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr"/>
       <c r="S211" s="2" t="inlineStr"/>
@@ -13633,7 +13623,7 @@
       <c r="U211" s="2" t="inlineStr"/>
       <c r="V211" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W211" s="2" t="inlineStr">
@@ -13647,25 +13637,25 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr"/>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -13684,11 +13674,7 @@
       <c r="M212" s="2" t="inlineStr"/>
       <c r="N212" s="2" t="inlineStr"/>
       <c r="O212" s="2" t="inlineStr"/>
-      <c r="P212" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P212" s="2" t="inlineStr"/>
       <c r="Q212" s="2" t="inlineStr"/>
       <c r="R212" s="2" t="inlineStr"/>
       <c r="S212" s="2" t="inlineStr"/>
@@ -13700,7 +13686,7 @@
       <c r="U212" s="2" t="inlineStr"/>
       <c r="V212" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W212" s="2" t="inlineStr">
@@ -13714,29 +13700,25 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr"/>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
       <c r="F213" s="2" t="inlineStr"/>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
@@ -13755,14 +13737,13 @@
       <c r="M213" s="2" t="inlineStr"/>
       <c r="N213" s="2" t="inlineStr"/>
       <c r="O213" s="2" t="inlineStr"/>
-      <c r="P213" s="2" t="inlineStr"/>
+      <c r="P213" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q213" s="2" t="inlineStr"/>
-      <c r="R213" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="R213" s="2" t="inlineStr"/>
       <c r="S213" s="2" t="inlineStr"/>
       <c r="T213" s="2" t="inlineStr">
         <is>
@@ -13772,7 +13753,7 @@
       <c r="U213" s="2" t="inlineStr"/>
       <c r="V213" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W213" s="2" t="inlineStr">
@@ -13786,28 +13767,32 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr"/>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H214" s="2" t="inlineStr"/>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13819,14 +13804,14 @@
       <c r="M214" s="2" t="inlineStr"/>
       <c r="N214" s="2" t="inlineStr"/>
       <c r="O214" s="2" t="inlineStr"/>
-      <c r="P214" s="2" t="inlineStr"/>
+      <c r="P214" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q214" s="2" t="inlineStr"/>
       <c r="R214" s="2" t="inlineStr"/>
-      <c r="S214" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="S214" s="2" t="inlineStr"/>
       <c r="T214" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13835,7 +13820,7 @@
       <c r="U214" s="2" t="inlineStr"/>
       <c r="V214" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W214" s="2" t="inlineStr">
@@ -13849,28 +13834,36 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
       <c r="F215" s="2" t="inlineStr"/>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
-      <c r="H215" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I215" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13884,7 +13877,12 @@
       <c r="O215" s="2" t="inlineStr"/>
       <c r="P215" s="2" t="inlineStr"/>
       <c r="Q215" s="2" t="inlineStr"/>
-      <c r="R215" s="2" t="inlineStr"/>
+      <c r="R215" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
       <c r="S215" s="2" t="inlineStr"/>
       <c r="T215" s="2" t="inlineStr">
         <is>
@@ -13894,7 +13892,7 @@
       <c r="U215" s="2" t="inlineStr"/>
       <c r="V215" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W215" s="2" t="inlineStr">
@@ -13908,25 +13906,25 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr"/>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
       <c r="F216" s="2" t="inlineStr"/>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr"/>
@@ -13943,13 +13941,12 @@
       <c r="O216" s="2" t="inlineStr"/>
       <c r="P216" s="2" t="inlineStr"/>
       <c r="Q216" s="2" t="inlineStr"/>
-      <c r="R216" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
-      <c r="S216" s="2" t="inlineStr"/>
+      <c r="R216" s="2" t="inlineStr"/>
+      <c r="S216" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T216" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13958,7 +13955,7 @@
       <c r="U216" s="2" t="inlineStr"/>
       <c r="V216" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W216" s="2" t="inlineStr">
@@ -13972,25 +13969,25 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr"/>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
       <c r="F217" s="2" t="inlineStr"/>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr"/>
@@ -14007,11 +14004,7 @@
       <c r="O217" s="2" t="inlineStr"/>
       <c r="P217" s="2" t="inlineStr"/>
       <c r="Q217" s="2" t="inlineStr"/>
-      <c r="R217" s="2" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
+      <c r="R217" s="2" t="inlineStr"/>
       <c r="S217" s="2" t="inlineStr"/>
       <c r="T217" s="2" t="inlineStr">
         <is>
@@ -14021,7 +14014,7 @@
       <c r="U217" s="2" t="inlineStr"/>
       <c r="V217" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="W217" s="2" t="inlineStr">
@@ -14035,36 +14028,28 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">travel behaviour </t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr"/>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
       <c r="F218" s="2" t="inlineStr"/>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H218" s="2" t="inlineStr"/>
       <c r="I218" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -14075,19 +14060,15 @@
       <c r="L218" s="2" t="inlineStr"/>
       <c r="M218" s="2" t="inlineStr"/>
       <c r="N218" s="2" t="inlineStr"/>
-      <c r="O218" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">u is a uniform process aggregate means:
-•	u instance_of process aggregate
-•	P is the set {p1,…pn} of process aggregate member parts of u
-•	X is some descendant of process
-•	Each of {p1,…pn} in P is instance_of X
-</t>
-        </is>
-      </c>
+      <c r="O218" s="2" t="inlineStr"/>
       <c r="P218" s="2" t="inlineStr"/>
       <c r="Q218" s="2" t="inlineStr"/>
-      <c r="R218" s="2" t="inlineStr"/>
+      <c r="R218" s="2" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
       <c r="S218" s="2" t="inlineStr"/>
       <c r="T218" s="2" t="inlineStr">
         <is>
@@ -14097,7 +14078,7 @@
       <c r="U218" s="2" t="inlineStr"/>
       <c r="V218" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="W218" s="2" t="inlineStr">
@@ -14111,25 +14092,25 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr"/>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
       <c r="F219" s="2" t="inlineStr"/>
       <c r="G219" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H219" s="2" t="inlineStr"/>
@@ -14148,7 +14129,7 @@
       <c r="Q219" s="2" t="inlineStr"/>
       <c r="R219" s="2" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="S219" s="2" t="inlineStr"/>
@@ -14160,7 +14141,7 @@
       <c r="U219" s="2" t="inlineStr"/>
       <c r="V219" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W219" s="2" t="inlineStr">
@@ -14174,28 +14155,36 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr"/>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr"/>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="H220" s="2" t="inlineStr"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I220" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -14206,7 +14195,16 @@
       <c r="L220" s="2" t="inlineStr"/>
       <c r="M220" s="2" t="inlineStr"/>
       <c r="N220" s="2" t="inlineStr"/>
-      <c r="O220" s="2" t="inlineStr"/>
+      <c r="O220" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">u is a uniform process aggregate means:
+•	u instance_of process aggregate
+•	P is the set {p1,…pn} of process aggregate member parts of u
+•	X is some descendant of process
+•	Each of {p1,…pn} in P is instance_of X
+</t>
+        </is>
+      </c>
       <c r="P220" s="2" t="inlineStr"/>
       <c r="Q220" s="2" t="inlineStr"/>
       <c r="R220" s="2" t="inlineStr"/>
@@ -14219,7 +14217,7 @@
       <c r="U220" s="2" t="inlineStr"/>
       <c r="V220" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W220" s="2" t="inlineStr">
@@ -14233,25 +14231,25 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr"/>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
       <c r="F221" s="2" t="inlineStr"/>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr"/>
@@ -14268,7 +14266,11 @@
       <c r="O221" s="2" t="inlineStr"/>
       <c r="P221" s="2" t="inlineStr"/>
       <c r="Q221" s="2" t="inlineStr"/>
-      <c r="R221" s="2" t="inlineStr"/>
+      <c r="R221" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="S221" s="2" t="inlineStr"/>
       <c r="T221" s="2" t="inlineStr">
         <is>
@@ -14292,32 +14294,28 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr"/>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
       <c r="F222" s="2" t="inlineStr"/>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="H222" s="2" t="inlineStr"/>
       <c r="I222" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -14341,7 +14339,7 @@
       <c r="U222" s="2" t="inlineStr"/>
       <c r="V222" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W222" s="2" t="inlineStr">
@@ -14355,25 +14353,25 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr"/>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
       <c r="F223" s="2" t="inlineStr"/>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr"/>
@@ -14391,11 +14389,7 @@
       <c r="P223" s="2" t="inlineStr"/>
       <c r="Q223" s="2" t="inlineStr"/>
       <c r="R223" s="2" t="inlineStr"/>
-      <c r="S223" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S223" s="2" t="inlineStr"/>
       <c r="T223" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14404,7 +14398,7 @@
       <c r="U223" s="2" t="inlineStr"/>
       <c r="V223" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W223" s="2" t="inlineStr">
@@ -14414,6 +14408,187 @@
       </c>
       <c r="X223" s="2" t="inlineStr"/>
       <c r="Y223" s="2" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr"/>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="inlineStr"/>
+      <c r="F224" s="2" t="inlineStr"/>
+      <c r="G224" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J224" s="2" t="inlineStr"/>
+      <c r="K224" s="2" t="inlineStr"/>
+      <c r="L224" s="2" t="inlineStr"/>
+      <c r="M224" s="2" t="inlineStr"/>
+      <c r="N224" s="2" t="inlineStr"/>
+      <c r="O224" s="2" t="inlineStr"/>
+      <c r="P224" s="2" t="inlineStr"/>
+      <c r="Q224" s="2" t="inlineStr"/>
+      <c r="R224" s="2" t="inlineStr"/>
+      <c r="S224" s="2" t="inlineStr"/>
+      <c r="T224" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U224" s="2" t="inlineStr"/>
+      <c r="V224" s="2" t="inlineStr">
+        <is>
+          <t>RW; OC; JH</t>
+        </is>
+      </c>
+      <c r="W224" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X224" s="2" t="inlineStr"/>
+      <c r="Y224" s="2" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr"/>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H225" s="2" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J225" s="2" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr"/>
+      <c r="L225" s="2" t="inlineStr"/>
+      <c r="M225" s="2" t="inlineStr"/>
+      <c r="N225" s="2" t="inlineStr"/>
+      <c r="O225" s="2" t="inlineStr"/>
+      <c r="P225" s="2" t="inlineStr"/>
+      <c r="Q225" s="2" t="inlineStr"/>
+      <c r="R225" s="2" t="inlineStr"/>
+      <c r="S225" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="T225" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U225" s="2" t="inlineStr"/>
+      <c r="V225" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W225" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X225" s="2" t="inlineStr"/>
+      <c r="Y225" s="2" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050901</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
+      <c r="C226" s="4" t="inlineStr"/>
+      <c r="D226" s="4" t="inlineStr">
+        <is>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
+        </is>
+      </c>
+      <c r="E226" s="4" t="inlineStr"/>
+      <c r="F226" s="4" t="inlineStr"/>
+      <c r="G226" s="4" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
+      <c r="H226" s="4" t="inlineStr"/>
+      <c r="I226" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J226" s="4" t="inlineStr"/>
+      <c r="K226" s="4" t="inlineStr"/>
+      <c r="L226" s="4" t="inlineStr"/>
+      <c r="M226" s="4" t="inlineStr"/>
+      <c r="N226" s="4" t="inlineStr"/>
+      <c r="O226" s="4" t="inlineStr"/>
+      <c r="P226" s="4" t="inlineStr"/>
+      <c r="Q226" s="4" t="inlineStr"/>
+      <c r="R226" s="4" t="inlineStr"/>
+      <c r="S226" s="4" t="inlineStr"/>
+      <c r="T226" s="4" t="inlineStr"/>
+      <c r="U226" s="4" t="inlineStr"/>
+      <c r="V226" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W226" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X226" s="4" t="inlineStr"/>
+      <c r="Y226" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1709,8 +1715,10 @@
       <c r="Q20" s="4" t="inlineStr"/>
       <c r="R20" s="4" t="inlineStr"/>
       <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="n">
-        <v>0</v>
+      <c r="T20" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U20" s="4" t="inlineStr"/>
       <c r="V20" s="4" t="inlineStr">
@@ -4806,59 +4814,61 @@
       <c r="Y69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>BCIO:050899</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>family behavioural consequence</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr"/>
-      <c r="D70" s="4" t="inlineStr">
+      <c r="C70" s="5" t="inlineStr"/>
+      <c r="D70" s="5" t="inlineStr">
         <is>
           <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr"/>
-      <c r="F70" s="4" t="inlineStr"/>
-      <c r="G70" s="4" t="inlineStr">
+      <c r="E70" s="5" t="inlineStr"/>
+      <c r="F70" s="5" t="inlineStr"/>
+      <c r="G70" s="5" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="H70" s="4" t="inlineStr"/>
-      <c r="I70" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J70" s="4" t="inlineStr"/>
-      <c r="K70" s="4" t="inlineStr"/>
-      <c r="L70" s="4" t="inlineStr"/>
-      <c r="M70" s="4" t="inlineStr"/>
-      <c r="N70" s="4" t="inlineStr"/>
-      <c r="O70" s="4" t="inlineStr"/>
-      <c r="P70" s="4" t="inlineStr"/>
-      <c r="Q70" s="4" t="inlineStr"/>
-      <c r="R70" s="4" t="inlineStr"/>
-      <c r="S70" s="4" t="inlineStr"/>
-      <c r="T70" s="4" t="inlineStr"/>
-      <c r="U70" s="4" t="inlineStr"/>
-      <c r="V70" s="4" t="inlineStr">
+      <c r="H70" s="5" t="inlineStr"/>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J70" s="5" t="inlineStr"/>
+      <c r="K70" s="5" t="inlineStr"/>
+      <c r="L70" s="5" t="inlineStr"/>
+      <c r="M70" s="5" t="inlineStr"/>
+      <c r="N70" s="5" t="inlineStr"/>
+      <c r="O70" s="5" t="inlineStr"/>
+      <c r="P70" s="5" t="inlineStr"/>
+      <c r="Q70" s="5" t="inlineStr"/>
+      <c r="R70" s="5" t="inlineStr"/>
+      <c r="S70" s="5" t="inlineStr"/>
+      <c r="T70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="5" t="inlineStr"/>
+      <c r="V70" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W70" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="X70" s="4" t="inlineStr"/>
-      <c r="Y70" s="4" t="inlineStr"/>
+      <c r="W70" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="X70" s="5" t="inlineStr"/>
+      <c r="Y70" s="5" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -12595,59 +12605,61 @@
       <c r="Y194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="4" t="inlineStr">
+      <c r="A195" s="5" t="inlineStr">
         <is>
           <t>BCIO:050900</t>
         </is>
       </c>
-      <c r="B195" s="4" t="inlineStr">
+      <c r="B195" s="5" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="C195" s="4" t="inlineStr"/>
-      <c r="D195" s="4" t="inlineStr">
+      <c r="C195" s="5" t="inlineStr"/>
+      <c r="D195" s="5" t="inlineStr">
         <is>
           <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
-      <c r="E195" s="4" t="inlineStr"/>
-      <c r="F195" s="4" t="inlineStr"/>
-      <c r="G195" s="4" t="inlineStr">
+      <c r="E195" s="5" t="inlineStr"/>
+      <c r="F195" s="5" t="inlineStr"/>
+      <c r="G195" s="5" t="inlineStr">
         <is>
           <t>behavioural consequence</t>
         </is>
       </c>
-      <c r="H195" s="4" t="inlineStr"/>
-      <c r="I195" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J195" s="4" t="inlineStr"/>
-      <c r="K195" s="4" t="inlineStr"/>
-      <c r="L195" s="4" t="inlineStr"/>
-      <c r="M195" s="4" t="inlineStr"/>
-      <c r="N195" s="4" t="inlineStr"/>
-      <c r="O195" s="4" t="inlineStr"/>
-      <c r="P195" s="4" t="inlineStr"/>
-      <c r="Q195" s="4" t="inlineStr"/>
-      <c r="R195" s="4" t="inlineStr"/>
-      <c r="S195" s="4" t="inlineStr"/>
-      <c r="T195" s="4" t="inlineStr"/>
-      <c r="U195" s="4" t="inlineStr"/>
-      <c r="V195" s="4" t="inlineStr">
+      <c r="H195" s="5" t="inlineStr"/>
+      <c r="I195" s="5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J195" s="5" t="inlineStr"/>
+      <c r="K195" s="5" t="inlineStr"/>
+      <c r="L195" s="5" t="inlineStr"/>
+      <c r="M195" s="5" t="inlineStr"/>
+      <c r="N195" s="5" t="inlineStr"/>
+      <c r="O195" s="5" t="inlineStr"/>
+      <c r="P195" s="5" t="inlineStr"/>
+      <c r="Q195" s="5" t="inlineStr"/>
+      <c r="R195" s="5" t="inlineStr"/>
+      <c r="S195" s="5" t="inlineStr"/>
+      <c r="T195" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U195" s="5" t="inlineStr"/>
+      <c r="V195" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W195" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="X195" s="4" t="inlineStr"/>
-      <c r="Y195" s="4" t="inlineStr"/>
+      <c r="W195" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="X195" s="5" t="inlineStr"/>
+      <c r="Y195" s="5" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
@@ -14536,59 +14548,61 @@
       <c r="Y225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="inlineStr">
+      <c r="A226" s="5" t="inlineStr">
         <is>
           <t>BCIO:050901</t>
         </is>
       </c>
-      <c r="B226" s="4" t="inlineStr">
+      <c r="B226" s="5" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C226" s="4" t="inlineStr"/>
-      <c r="D226" s="4" t="inlineStr">
+      <c r="C226" s="5" t="inlineStr"/>
+      <c r="D226" s="5" t="inlineStr">
         <is>
           <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E226" s="4" t="inlineStr"/>
-      <c r="F226" s="4" t="inlineStr"/>
-      <c r="G226" s="4" t="inlineStr">
+      <c r="E226" s="5" t="inlineStr"/>
+      <c r="F226" s="5" t="inlineStr"/>
+      <c r="G226" s="5" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="H226" s="4" t="inlineStr"/>
-      <c r="I226" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J226" s="4" t="inlineStr"/>
-      <c r="K226" s="4" t="inlineStr"/>
-      <c r="L226" s="4" t="inlineStr"/>
-      <c r="M226" s="4" t="inlineStr"/>
-      <c r="N226" s="4" t="inlineStr"/>
-      <c r="O226" s="4" t="inlineStr"/>
-      <c r="P226" s="4" t="inlineStr"/>
-      <c r="Q226" s="4" t="inlineStr"/>
-      <c r="R226" s="4" t="inlineStr"/>
-      <c r="S226" s="4" t="inlineStr"/>
-      <c r="T226" s="4" t="inlineStr"/>
-      <c r="U226" s="4" t="inlineStr"/>
-      <c r="V226" s="4" t="inlineStr">
+      <c r="H226" s="5" t="inlineStr"/>
+      <c r="I226" s="5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J226" s="5" t="inlineStr"/>
+      <c r="K226" s="5" t="inlineStr"/>
+      <c r="L226" s="5" t="inlineStr"/>
+      <c r="M226" s="5" t="inlineStr"/>
+      <c r="N226" s="5" t="inlineStr"/>
+      <c r="O226" s="5" t="inlineStr"/>
+      <c r="P226" s="5" t="inlineStr"/>
+      <c r="Q226" s="5" t="inlineStr"/>
+      <c r="R226" s="5" t="inlineStr"/>
+      <c r="S226" s="5" t="inlineStr"/>
+      <c r="T226" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" s="5" t="inlineStr"/>
+      <c r="V226" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W226" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="X226" s="4" t="inlineStr"/>
-      <c r="Y226" s="4" t="inlineStr"/>
+      <c r="W226" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="X226" s="5" t="inlineStr"/>
+      <c r="Y226" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4814,61 +4808,63 @@
       <c r="Y69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>BCIO:050899</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>family behavioural consequence</t>
         </is>
       </c>
-      <c r="C70" s="5" t="inlineStr"/>
-      <c r="D70" s="5" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
-      <c r="E70" s="5" t="inlineStr"/>
-      <c r="F70" s="5" t="inlineStr"/>
-      <c r="G70" s="5" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="H70" s="5" t="inlineStr"/>
-      <c r="I70" s="5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J70" s="5" t="inlineStr"/>
-      <c r="K70" s="5" t="inlineStr"/>
-      <c r="L70" s="5" t="inlineStr"/>
-      <c r="M70" s="5" t="inlineStr"/>
-      <c r="N70" s="5" t="inlineStr"/>
-      <c r="O70" s="5" t="inlineStr"/>
-      <c r="P70" s="5" t="inlineStr"/>
-      <c r="Q70" s="5" t="inlineStr"/>
-      <c r="R70" s="5" t="inlineStr"/>
-      <c r="S70" s="5" t="inlineStr"/>
-      <c r="T70" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" s="5" t="inlineStr"/>
-      <c r="V70" s="5" t="inlineStr">
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr"/>
+      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr"/>
+      <c r="T70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W70" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="X70" s="5" t="inlineStr"/>
-      <c r="Y70" s="5" t="inlineStr"/>
+      <c r="W70" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X70" s="2" t="inlineStr"/>
+      <c r="Y70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -12605,61 +12601,63 @@
       <c r="Y194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>BCIO:050900</t>
         </is>
       </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr"/>
-      <c r="D195" s="5" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr"/>
+      <c r="D195" s="2" t="inlineStr">
         <is>
           <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
-      <c r="E195" s="5" t="inlineStr"/>
-      <c r="F195" s="5" t="inlineStr"/>
-      <c r="G195" s="5" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr"/>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr">
         <is>
           <t>behavioural consequence</t>
         </is>
       </c>
-      <c r="H195" s="5" t="inlineStr"/>
-      <c r="I195" s="5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J195" s="5" t="inlineStr"/>
-      <c r="K195" s="5" t="inlineStr"/>
-      <c r="L195" s="5" t="inlineStr"/>
-      <c r="M195" s="5" t="inlineStr"/>
-      <c r="N195" s="5" t="inlineStr"/>
-      <c r="O195" s="5" t="inlineStr"/>
-      <c r="P195" s="5" t="inlineStr"/>
-      <c r="Q195" s="5" t="inlineStr"/>
-      <c r="R195" s="5" t="inlineStr"/>
-      <c r="S195" s="5" t="inlineStr"/>
-      <c r="T195" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U195" s="5" t="inlineStr"/>
-      <c r="V195" s="5" t="inlineStr">
+      <c r="H195" s="2" t="inlineStr"/>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J195" s="2" t="inlineStr"/>
+      <c r="K195" s="2" t="inlineStr"/>
+      <c r="L195" s="2" t="inlineStr"/>
+      <c r="M195" s="2" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr"/>
+      <c r="O195" s="2" t="inlineStr"/>
+      <c r="P195" s="2" t="inlineStr"/>
+      <c r="Q195" s="2" t="inlineStr"/>
+      <c r="R195" s="2" t="inlineStr"/>
+      <c r="S195" s="2" t="inlineStr"/>
+      <c r="T195" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U195" s="2" t="inlineStr"/>
+      <c r="V195" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W195" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="X195" s="5" t="inlineStr"/>
-      <c r="Y195" s="5" t="inlineStr"/>
+      <c r="W195" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X195" s="2" t="inlineStr"/>
+      <c r="Y195" s="2" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
@@ -14548,61 +14546,63 @@
       <c r="Y225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="inlineStr">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>BCIO:050901</t>
         </is>
       </c>
-      <c r="B226" s="5" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C226" s="5" t="inlineStr"/>
-      <c r="D226" s="5" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr">
         <is>
           <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E226" s="5" t="inlineStr"/>
-      <c r="F226" s="5" t="inlineStr"/>
-      <c r="G226" s="5" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr"/>
+      <c r="F226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="H226" s="5" t="inlineStr"/>
-      <c r="I226" s="5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J226" s="5" t="inlineStr"/>
-      <c r="K226" s="5" t="inlineStr"/>
-      <c r="L226" s="5" t="inlineStr"/>
-      <c r="M226" s="5" t="inlineStr"/>
-      <c r="N226" s="5" t="inlineStr"/>
-      <c r="O226" s="5" t="inlineStr"/>
-      <c r="P226" s="5" t="inlineStr"/>
-      <c r="Q226" s="5" t="inlineStr"/>
-      <c r="R226" s="5" t="inlineStr"/>
-      <c r="S226" s="5" t="inlineStr"/>
-      <c r="T226" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U226" s="5" t="inlineStr"/>
-      <c r="V226" s="5" t="inlineStr">
+      <c r="H226" s="2" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J226" s="2" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr"/>
+      <c r="L226" s="2" t="inlineStr"/>
+      <c r="M226" s="2" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr"/>
+      <c r="O226" s="2" t="inlineStr"/>
+      <c r="P226" s="2" t="inlineStr"/>
+      <c r="Q226" s="2" t="inlineStr"/>
+      <c r="R226" s="2" t="inlineStr"/>
+      <c r="S226" s="2" t="inlineStr"/>
+      <c r="T226" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U226" s="2" t="inlineStr"/>
+      <c r="V226" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W226" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="X226" s="5" t="inlineStr"/>
-      <c r="Y226" s="5" t="inlineStr"/>
+      <c r="W226" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X226" s="2" t="inlineStr"/>
+      <c r="Y226" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -853,7 +853,7 @@
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>&lt;Participating in healthcare treatment&gt; in accordance with treatment instructions.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
@@ -885,7 +885,11 @@
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -1274,7 +1278,7 @@
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal-directed behaviour&gt; whose goal is to obtain the approval of another person.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1306,7 +1310,11 @@
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -1451,7 +1459,7 @@
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>An &lt;association behaviour&gt; that involves increasing a sense of being part of a pro-social group.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -1483,7 +1491,11 @@
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -1624,7 +1636,7 @@
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>A &lt;process aggregate&gt; whose members are behaviours causally linked to each other in a sequence.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1660,7 +1672,11 @@
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -2231,7 +2247,9 @@
       <c r="Q28" s="4" t="inlineStr"/>
       <c r="R28" s="4" t="inlineStr"/>
       <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
+      <c r="T28" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U28" s="4" t="inlineStr"/>
       <c r="V28" s="4" t="inlineStr">
         <is>
@@ -2654,7 +2672,7 @@
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>A &lt;monitoring behaviour&gt; in which a carer gathers information about the activities of some child in their care.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -2690,7 +2708,11 @@
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3403,7 +3425,7 @@
       <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A &lt;regulatory behaviour&gt; in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -3435,7 +3457,11 @@
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -4329,7 +4355,7 @@
       <c r="C62" s="2" t="inlineStr"/>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that conveys some emotion.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -4361,7 +4387,11 @@
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5317,7 +5347,7 @@
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that has an outcome to prevent harm.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -5353,7 +5383,11 @@
         </is>
       </c>
       <c r="U78" s="2" t="inlineStr"/>
-      <c r="V78" s="2" t="inlineStr"/>
+      <c r="V78" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W78" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -6889,7 +6923,7 @@
       <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A &lt;knowledge development behaviour&gt; where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -6921,7 +6955,11 @@
         </is>
       </c>
       <c r="U102" s="2" t="inlineStr"/>
-      <c r="V102" s="2" t="inlineStr"/>
+      <c r="V102" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W102" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8264,7 +8302,7 @@
       <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A &lt;knowledge development behaviour&gt; that involves gathering information over a period of time.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -8300,7 +8338,11 @@
         </is>
       </c>
       <c r="U124" s="2" t="inlineStr"/>
-      <c r="V124" s="2" t="inlineStr"/>
+      <c r="V124" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W124" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -9017,7 +9059,7 @@
       <c r="C136" s="2" t="inlineStr"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>&lt;Nurture behaviour&gt; that is provided to a young person by someone in a parent role.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -9049,7 +9091,11 @@
         </is>
       </c>
       <c r="U136" s="2" t="inlineStr"/>
-      <c r="V136" s="2" t="inlineStr"/>
+      <c r="V136" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W136" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -9560,7 +9606,7 @@
       <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that is the target of an intervention and has been previously enacted.</t>
+          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr"/>
@@ -9596,7 +9642,11 @@
         </is>
       </c>
       <c r="U145" s="2" t="inlineStr"/>
-      <c r="V145" s="2" t="inlineStr"/>
+      <c r="V145" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W145" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -11918,7 +11968,7 @@
       <c r="C183" s="2" t="inlineStr"/>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -11954,7 +12004,11 @@
         </is>
       </c>
       <c r="U183" s="2" t="inlineStr"/>
-      <c r="V183" s="2" t="inlineStr"/>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W183" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -12158,7 +12212,7 @@
       <c r="C187" s="2" t="inlineStr"/>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social influence behaviour&gt; in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -12190,7 +12244,11 @@
         </is>
       </c>
       <c r="U187" s="2" t="inlineStr"/>
-      <c r="V187" s="2" t="inlineStr"/>
+      <c r="V187" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W187" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13139,7 +13197,7 @@
       <c r="C203" s="2" t="inlineStr"/>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that occurs after the behaviour has been subject to extinction in operant learning.</t>
+          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -13171,7 +13229,11 @@
         </is>
       </c>
       <c r="U203" s="2" t="inlineStr"/>
-      <c r="V203" s="2" t="inlineStr"/>
+      <c r="V203" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W203" s="2" t="inlineStr">
         <is>
           <t>Published</t>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1733,12 +1733,12 @@
       <c r="U20" s="4" t="inlineStr"/>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="X20" s="4" t="inlineStr"/>
@@ -2247,18 +2247,20 @@
       <c r="Q28" s="4" t="inlineStr"/>
       <c r="R28" s="4" t="inlineStr"/>
       <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="n">
-        <v>0</v>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U28" s="4" t="inlineStr"/>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="X28" s="4" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1686,63 +1680,63 @@
       <c r="Y19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>BCIO:050575</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>behaviour change through group norm</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour change</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U20" s="4" t="inlineStr"/>
-      <c r="V20" s="4" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS; LZ</t>
         </is>
       </c>
-      <c r="W20" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="X20" s="4" t="inlineStr"/>
-      <c r="Y20" s="4" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -2208,63 +2202,63 @@
       <c r="Y27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>BCIO:050902</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>behavioural ease</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>behavioural attribute</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS; LZ</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="X28" s="4" t="inlineStr"/>
-      <c r="Y28" s="4" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X28" s="2" t="inlineStr"/>
+      <c r="Y28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -3909,7 +3909,7 @@
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -3947,7 +3947,7 @@
       <c r="U55" s="2" t="inlineStr"/>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>entity' is behavioural outcome of 'individual human behaviour'</t>
+          <t>'entity' AND 'is behavioural outcome of' some 'individual human behaviour'</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
@@ -2054,7 +2054,11 @@
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3178,7 +3182,7 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND has behavioural goal 'reducing harm' OR 'reducing discomfort'.</t>
+          <t>'individual human behaviour' AND 'has behavioural goal' some ('reducing harm' OR 'reducing discomfort')</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -3209,7 +3213,11 @@
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND occurs in 'residential facility'.</t>
+          <t>'individual human behaviour' AND 'occurs in' some 'residential facility'</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3766,7 +3774,7 @@
       <c r="U52" s="2" t="inlineStr"/>
       <c r="V52" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W52" s="2" t="inlineStr">
@@ -4297,7 +4305,7 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND has behavioural attribute 'emotionally driven'.</t>
+          <t>'individual human behaviour' AND 'has behavioural attribute' some 'emotionally driven'</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -4328,7 +4336,11 @@
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5167,7 +5179,7 @@
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>‘individual human behaviour’ has behavioural goal some 'entity'</t>
+          <t>‘individual human behaviour’ and 'has behavioural goal' some 'entity'</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -5198,7 +5210,11 @@
         </is>
       </c>
       <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W75" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5348,7 +5364,7 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘Individual human behaviour’ has behavioural outcome ‘harm prevention’. </t>
+          <t>‘Individual human behaviour’  and 'has behavioural outcome' some ‘harm prevention’</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -5381,7 +5397,7 @@
       <c r="U78" s="2" t="inlineStr"/>
       <c r="V78" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W78" s="2" t="inlineStr">
@@ -10437,7 +10453,7 @@
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>"posture behaviour" AND "expressive behaviour"</t>
+          <t>'posture behaviour' AND 'expressive behaviour'</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -10474,7 +10490,7 @@
       <c r="U158" s="2" t="inlineStr"/>
       <c r="V158" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W158" s="2" t="inlineStr">
@@ -11776,7 +11792,7 @@
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND has behavioural attribute 'reflectively  driven'.</t>
+          <t>'individual human behaviour' AND 'has behavioural attribute' some 'reflectively  driven'</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr"/>
@@ -11813,7 +11829,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5179,7 +5179,7 @@
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>‘individual human behaviour’ and 'has behavioural goal' some 'entity'</t>
+          <t>'individual human behaviour' and 'has behavioural goal' some 'entity'</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>‘Individual human behaviour’  and 'has behavioural outcome' some ‘harm prevention’</t>
+          <t>'Individual human behaviour'  and 'has behavioural outcome' some ‘harm prevention’</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>'Individual human behaviour'  and 'has behavioural outcome' some ‘harm prevention’</t>
+          <t>'individual human behaviour'  and 'has behavioural outcome' some ‘harm prevention’</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>'individual human behaviour'  and 'has behavioural outcome' some ‘harm prevention’</t>
+          <t>'individual human behaviour'  and 'has behavioural outcome' some 'harm prevention'</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -11792,7 +11792,7 @@
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>'individual human behaviour' AND 'has behavioural attribute' some 'reflectively  driven'</t>
+          <t>'individual human behaviour' AND 'has behavioural attribute' some 'reflectively driven'</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>entity' is behavioural outcome of 'individual human behaviour'</t>
+          <t>'entity' AND 'is behavioural outcome of' some 'individual human behaviour'</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
@@ -2054,7 +2054,11 @@
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3178,7 +3182,7 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND has behavioural goal 'reducing harm' OR 'reducing discomfort'.</t>
+          <t>'individual human behaviour' AND 'has behavioural goal' some ('reducing harm' OR 'reducing discomfort')</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -3209,7 +3213,11 @@
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND occurs in 'residential facility'.</t>
+          <t>'individual human behaviour' AND 'occurs in' some 'residential facility'</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3766,7 +3774,7 @@
       <c r="U52" s="2" t="inlineStr"/>
       <c r="V52" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W52" s="2" t="inlineStr">
@@ -4297,7 +4305,7 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND has behavioural attribute 'emotionally driven'.</t>
+          <t>'individual human behaviour' AND 'has behavioural attribute' some 'emotionally driven'</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -4328,7 +4336,11 @@
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5167,7 +5179,7 @@
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>‘individual human behaviour’ has behavioural goal some 'entity'</t>
+          <t>'individual human behaviour' and 'has behavioural goal' some 'entity'</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -5198,7 +5210,11 @@
         </is>
       </c>
       <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W75" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5348,7 +5364,7 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘Individual human behaviour’ has behavioural outcome ‘harm prevention’. </t>
+          <t>'individual human behaviour'  and 'has behavioural outcome' some 'harm prevention'</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -5381,7 +5397,7 @@
       <c r="U78" s="2" t="inlineStr"/>
       <c r="V78" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W78" s="2" t="inlineStr">
@@ -10437,7 +10453,7 @@
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>"posture behaviour" AND "expressive behaviour"</t>
+          <t>'posture behaviour' AND 'expressive behaviour'</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -10474,7 +10490,7 @@
       <c r="U158" s="2" t="inlineStr"/>
       <c r="V158" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W158" s="2" t="inlineStr">
@@ -11776,7 +11792,7 @@
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour' AND has behavioural attribute 'reflectively  driven'.</t>
+          <t>'individual human behaviour' AND 'has behavioural attribute' some 'reflectively driven'</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr"/>
@@ -11813,7 +11829,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\OneDrive - University College London\Documents\GitHub\ontologies\Behaviour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0712258A-A779-461C-AADF-37E766D98960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443024E-B86D-48F4-8A53-A4491A012D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36375" yWindow="285" windowWidth="26085" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="946">
   <si>
     <t>ID</t>
   </si>
@@ -2885,6 +2885,9 @@
   </si>
   <si>
     <t>animal</t>
+  </si>
+  <si>
+    <t>REL 'inheres in'</t>
   </si>
 </sst>
 </file>
@@ -3243,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ227"/>
+  <dimension ref="A1:AK227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="Y95" sqref="Y95"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3255,7 +3258,7 @@
     <col min="11" max="11" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3331,41 +3334,44 @@
       <c r="Y1" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3410,20 +3416,21 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2" t="s">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -3464,24 +3471,25 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2" t="s">
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="2"/>
+      <c r="AI3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ3" s="2"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3526,20 +3534,21 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ4" s="2"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3580,24 +3589,25 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2" t="s">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI5" s="2"/>
+      <c r="AI5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ5" s="2"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -3638,20 +3648,21 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2" t="s">
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI6" s="2"/>
+      <c r="AI6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK6" s="2"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -3690,24 +3701,25 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2" t="s">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI7" s="2"/>
+      <c r="AI7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK7" s="2"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -3748,20 +3760,21 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2" t="s">
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI8" s="2"/>
+      <c r="AI8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -3802,20 +3815,21 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3" t="s">
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -3857,23 +3871,24 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI10" s="2"/>
+      <c r="AI10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3913,23 +3928,24 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI11" s="2"/>
+      <c r="AI11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -3970,18 +3986,19 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ12" s="2"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -4022,20 +4039,21 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2" t="s">
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI13" s="2"/>
+      <c r="AI13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ13" s="2"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
@@ -4076,20 +4094,21 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2" t="s">
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -4129,23 +4148,24 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="2" t="s">
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI15" s="2"/>
+      <c r="AI15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -4186,20 +4206,21 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2" t="s">
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI16" s="2"/>
+      <c r="AI16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ16" s="2"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
@@ -4240,20 +4261,21 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2" t="s">
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI17" s="2"/>
+      <c r="AI17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ17" s="2"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>105</v>
       </c>
@@ -4294,20 +4316,21 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2" t="s">
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI18" s="2"/>
+      <c r="AI18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ18" s="2"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK18" s="2"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>108</v>
       </c>
@@ -4346,24 +4369,25 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2" t="s">
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2" t="s">
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI19" s="2"/>
+      <c r="AI19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ19" s="2"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK19" s="2"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
@@ -4404,20 +4428,21 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2" t="s">
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ20" s="2"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
@@ -4458,24 +4483,25 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="2" t="s">
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2" t="s">
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI21" s="2"/>
+      <c r="AI21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ21" s="2"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK21" s="2"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>122</v>
       </c>
@@ -4514,24 +4540,25 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="2" t="s">
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2">
         <v>1</v>
       </c>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2" t="s">
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI22" s="2"/>
+      <c r="AI22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ22" s="2"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK22" s="2"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>127</v>
       </c>
@@ -4572,24 +4599,25 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="2" t="s">
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2" t="s">
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ23" s="2"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK23" s="2"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -4633,23 +4661,24 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="2" t="s">
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AE24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2" t="s">
+      <c r="AF24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI24" s="2"/>
+      <c r="AI24" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ24" s="2"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK24" s="2"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>138</v>
       </c>
@@ -4692,20 +4721,21 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2" t="s">
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AH25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI25" s="2"/>
+      <c r="AI25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ25" s="2"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK25" s="2"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>144</v>
       </c>
@@ -4749,25 +4779,26 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2" t="s">
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2" t="s">
+      <c r="AF26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2" t="s">
+      <c r="AI26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
@@ -4810,20 +4841,21 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2" t="s">
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI27" s="2"/>
+      <c r="AI27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ27" s="2"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK27" s="2"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>156</v>
       </c>
@@ -4864,20 +4896,21 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2" t="s">
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AH28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI28" s="2"/>
+      <c r="AI28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ28" s="2"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK28" s="2"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
@@ -4919,23 +4952,24 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2" t="s">
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AE29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2" t="s">
+      <c r="AF29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI29" s="2"/>
+      <c r="AI29" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ29" s="2"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK29" s="2"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>164</v>
       </c>
@@ -4977,23 +5011,24 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="2" t="s">
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AE30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2" t="s">
+      <c r="AF30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AH30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI30" s="2"/>
+      <c r="AI30" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ30" s="2"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK30" s="2"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>171</v>
       </c>
@@ -5033,23 +5068,24 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2" t="s">
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AE31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI31" s="2"/>
+      <c r="AI31" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ31" s="2"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -5089,23 +5125,24 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="2" t="s">
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AE32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2" t="s">
+      <c r="AF32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI32" s="2"/>
+      <c r="AI32" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ32" s="2"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>181</v>
       </c>
@@ -5144,28 +5181,29 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="2" t="s">
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AD33" s="2" t="s">
+      <c r="AE33" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AE33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2" t="s">
+      <c r="AF33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AH33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2" t="s">
+      <c r="AI33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>189</v>
       </c>
@@ -5205,23 +5243,24 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2" t="s">
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AE34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2" t="s">
+      <c r="AF34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AH34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI34" s="2"/>
+      <c r="AI34" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ34" s="2"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>194</v>
       </c>
@@ -5261,23 +5300,24 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="2" t="s">
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AE35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2" t="s">
+      <c r="AF35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI35" s="2"/>
+      <c r="AI35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ35" s="2"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>199</v>
       </c>
@@ -5320,20 +5360,21 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2" t="s">
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI36" s="2"/>
+      <c r="AI36" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ36" s="2"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>204</v>
       </c>
@@ -5376,20 +5417,21 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-      <c r="AE37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2" t="s">
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI37" s="2"/>
+      <c r="AI37" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ37" s="2"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK37" s="2"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>208</v>
       </c>
@@ -5432,20 +5474,21 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-      <c r="AE38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2" t="s">
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AH38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI38" s="2"/>
+      <c r="AI38" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ38" s="2"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK38" s="2"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
@@ -5487,23 +5530,24 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2" t="s">
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AE39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI39" s="2"/>
+      <c r="AI39" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ39" s="2"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK39" s="2"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>219</v>
       </c>
@@ -5544,20 +5588,21 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2" t="s">
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI40" s="2"/>
+      <c r="AI40" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ40" s="2"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK40" s="2"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>223</v>
       </c>
@@ -5600,20 +5645,21 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2" t="s">
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI41" s="2"/>
+      <c r="AI41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ41" s="2"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK41" s="2"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>227</v>
       </c>
@@ -5656,20 +5702,21 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2" t="s">
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AH42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI42" s="2"/>
+      <c r="AI42" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ42" s="2"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK42" s="2"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>230</v>
       </c>
@@ -5712,20 +5759,21 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2" t="s">
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AH43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI43" s="2"/>
+      <c r="AI43" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ43" s="2"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK43" s="2"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>235</v>
       </c>
@@ -5766,26 +5814,27 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-      <c r="AC44" s="2" t="s">
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AE44" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AE44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2" t="s">
+      <c r="AF44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI44" s="2"/>
+      <c r="AI44" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ44" s="2"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK44" s="2"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -5826,18 +5875,19 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ45" s="2"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK45" s="2"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>245</v>
       </c>
@@ -5875,25 +5925,26 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
-      <c r="AB46" s="2" t="s">
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="2" t="s">
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI46" s="2"/>
+      <c r="AI46" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ46" s="2"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK46" s="2"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>249</v>
       </c>
@@ -5934,20 +5985,21 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2" t="s">
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI47" s="2"/>
+      <c r="AI47" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ47" s="2"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK47" s="2"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>253</v>
       </c>
@@ -5987,23 +6039,24 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2" t="s">
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AE48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2" t="s">
+      <c r="AF48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI48" s="2"/>
+      <c r="AI48" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ48" s="2"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK48" s="2"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>257</v>
       </c>
@@ -6042,24 +6095,25 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="2" t="s">
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2" t="s">
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI49" s="2"/>
+      <c r="AI49" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ49" s="2"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK49" s="2"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>261</v>
       </c>
@@ -6100,20 +6154,21 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2" t="s">
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI50" s="2"/>
+      <c r="AI50" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ50" s="2"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK50" s="2"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>264</v>
       </c>
@@ -6150,26 +6205,27 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2" t="s">
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2" t="s">
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI51" s="2"/>
+      <c r="AI51" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ51" s="2"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK51" s="2"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>268</v>
       </c>
@@ -6212,20 +6268,21 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2" t="s">
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AH52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI52" s="2"/>
+      <c r="AI52" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ52" s="2"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK52" s="2"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>273</v>
       </c>
@@ -6266,20 +6323,21 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2" t="s">
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI53" s="2"/>
+      <c r="AI53" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ53" s="2"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK53" s="2"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>276</v>
       </c>
@@ -6320,20 +6378,21 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AE54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2" t="s">
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI54" s="2"/>
+      <c r="AI54" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ54" s="2"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK54" s="2"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>280</v>
       </c>
@@ -6372,24 +6431,25 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
-      <c r="AC55" s="2" t="s">
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2" t="s">
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI55" s="2"/>
+      <c r="AI55" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ55" s="2"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK55" s="2"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>285</v>
       </c>
@@ -6430,20 +6490,21 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2" t="s">
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI56" s="2"/>
+      <c r="AI56" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ56" s="2"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK56" s="2"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>288</v>
       </c>
@@ -6484,26 +6545,27 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
-      <c r="AC57" s="2" t="s">
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AD57" s="2" t="s">
+      <c r="AE57" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AE57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2" t="s">
+      <c r="AF57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AH57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI57" s="2"/>
+      <c r="AI57" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ57" s="2"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK57" s="2"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>294</v>
       </c>
@@ -6544,20 +6606,21 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2" t="s">
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI58" s="2"/>
+      <c r="AI58" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ58" s="2"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK58" s="2"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>297</v>
       </c>
@@ -6600,20 +6663,21 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF59" s="2"/>
-      <c r="AG59" s="2" t="s">
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI59" s="2"/>
+      <c r="AI59" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ59" s="2"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK59" s="2"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>301</v>
       </c>
@@ -6655,23 +6719,24 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="2" t="s">
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AE60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2" t="s">
+      <c r="AF60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI60" s="2"/>
+      <c r="AI60" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ60" s="2"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK60" s="2"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>306</v>
       </c>
@@ -6714,20 +6779,21 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
-      <c r="AE61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2" t="s">
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AH61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI61" s="2"/>
+      <c r="AI61" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ61" s="2"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK61" s="2"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>309</v>
       </c>
@@ -6768,20 +6834,21 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
-      <c r="AE62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="2" t="s">
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI62" s="2"/>
+      <c r="AI62" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ62" s="2"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK62" s="2"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>312</v>
       </c>
@@ -6820,26 +6887,27 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
-      <c r="AC63" s="2" t="s">
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AD63" s="2" t="s">
+      <c r="AE63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AE63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="2" t="s">
+      <c r="AF63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AH63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI63" s="2"/>
+      <c r="AI63" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ63" s="2"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK63" s="2"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>318</v>
       </c>
@@ -6879,23 +6947,24 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="2" t="s">
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AE64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="2" t="s">
+      <c r="AF64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI64" s="2"/>
+      <c r="AI64" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ64" s="2"/>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK64" s="2"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>322</v>
       </c>
@@ -6936,20 +7005,21 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
-      <c r="AE65" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="2" t="s">
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI65" s="2"/>
+      <c r="AI65" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ65" s="2"/>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK65" s="2"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>326</v>
       </c>
@@ -6992,26 +7062,27 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
-      <c r="AC66" s="2" t="s">
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AD66" s="2" t="s">
+      <c r="AE66" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AE66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2" t="s">
+      <c r="AF66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI66" s="2"/>
+      <c r="AI66" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ66" s="2"/>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK66" s="2"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -7051,23 +7122,24 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="2" t="s">
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AE67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2" t="s">
+      <c r="AF67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI67" s="2"/>
+      <c r="AI67" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ67" s="2"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK67" s="2"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>335</v>
       </c>
@@ -7108,20 +7180,21 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
-      <c r="AE68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="2" t="s">
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI68" s="2"/>
+      <c r="AI68" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ68" s="2"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK68" s="2"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>337</v>
       </c>
@@ -7162,20 +7235,21 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2" t="s">
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI69" s="2"/>
+      <c r="AI69" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ69" s="2"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK69" s="2"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>339</v>
       </c>
@@ -7213,27 +7287,28 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
-      <c r="AB70" s="2" t="s">
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AC70" s="2" t="s">
+      <c r="AD70" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2" t="s">
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI70" s="2"/>
+      <c r="AI70" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ70" s="2"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK70" s="2"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>344</v>
       </c>
@@ -7274,20 +7349,21 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
-      <c r="AE71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF71" s="2"/>
-      <c r="AG71" s="2" t="s">
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI71" s="2"/>
+      <c r="AI71" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ71" s="2"/>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK71" s="2"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>348</v>
       </c>
@@ -7328,18 +7404,19 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
-      <c r="AE72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG72" s="2"/>
-      <c r="AH72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ72" s="2"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK72" s="2"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>351</v>
       </c>
@@ -7358,17 +7435,17 @@
       <c r="I73" t="s">
         <v>30</v>
       </c>
-      <c r="AE73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG73" t="s">
+      <c r="AF73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH73" t="s">
         <v>212</v>
       </c>
-      <c r="AH73" t="s">
+      <c r="AI73" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>354</v>
       </c>
@@ -7407,24 +7484,25 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
-      <c r="AC74" s="2" t="s">
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF74" s="2"/>
-      <c r="AG74" s="2" t="s">
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI74" s="2"/>
+      <c r="AI74" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ74" s="2"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK74" s="2"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>358</v>
       </c>
@@ -7467,20 +7545,21 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
-      <c r="AE75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2" t="s">
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AH75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI75" s="2"/>
+      <c r="AI75" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ75" s="2"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK75" s="2"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>361</v>
       </c>
@@ -7521,20 +7600,21 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
-      <c r="AE76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2" t="s">
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI76" s="2"/>
+      <c r="AI76" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ76" s="2"/>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK76" s="2"/>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>364</v>
       </c>
@@ -7574,23 +7654,24 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="2" t="s">
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="AE77" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2" t="s">
+      <c r="AF77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI77" s="2"/>
+      <c r="AI77" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ77" s="2"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK77" s="2"/>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>369</v>
       </c>
@@ -7633,20 +7714,21 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
-      <c r="AE78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2" t="s">
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AH78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI78" s="2"/>
+      <c r="AI78" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ78" s="2"/>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK78" s="2"/>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>373</v>
       </c>
@@ -7687,20 +7769,21 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
-      <c r="AE79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2" t="s">
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI79" s="2"/>
+      <c r="AI79" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ79" s="2"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK79" s="2"/>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>376</v>
       </c>
@@ -7740,23 +7823,24 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
-      <c r="AD80" s="2" t="s">
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="AE80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="2" t="s">
+      <c r="AF80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI80" s="2"/>
+      <c r="AI80" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ80" s="2"/>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK80" s="2"/>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>380</v>
       </c>
@@ -7795,26 +7879,27 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
-      <c r="AC81" s="2" t="s">
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AD81" s="2" t="s">
+      <c r="AE81" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="AE81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF81" s="2"/>
-      <c r="AG81" s="2" t="s">
+      <c r="AF81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI81" s="2"/>
+      <c r="AI81" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ81" s="2"/>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK81" s="2"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>385</v>
       </c>
@@ -7853,26 +7938,27 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
-      <c r="AC82" s="2" t="s">
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AD82" s="2" t="s">
+      <c r="AE82" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AE82" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2" t="s">
+      <c r="AF82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI82" s="2"/>
+      <c r="AI82" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ82" s="2"/>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK82" s="2"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>391</v>
       </c>
@@ -7913,20 +7999,21 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
-      <c r="AE83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF83" s="2"/>
-      <c r="AG83" s="2" t="s">
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI83" s="2"/>
+      <c r="AI83" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ83" s="2"/>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK83" s="2"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>393</v>
       </c>
@@ -7965,24 +8052,25 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
-      <c r="AC84" s="2" t="s">
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2" t="s">
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF84" s="2"/>
-      <c r="AG84" s="2" t="s">
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI84" s="2"/>
+      <c r="AI84" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ84" s="2"/>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK84" s="2"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>398</v>
       </c>
@@ -8021,24 +8109,25 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
-      <c r="AC85" s="2" t="s">
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="2" t="s">
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF85" s="2"/>
-      <c r="AG85" s="2" t="s">
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI85" s="2"/>
+      <c r="AI85" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ85" s="2"/>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK85" s="2"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>402</v>
       </c>
@@ -8077,24 +8166,25 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
-      <c r="AC86" s="2" t="s">
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2" t="s">
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF86" s="2"/>
-      <c r="AG86" s="2" t="s">
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI86" s="2"/>
+      <c r="AI86" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ86" s="2"/>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK86" s="2"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>406</v>
       </c>
@@ -8133,24 +8223,25 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
-      <c r="AC87" s="2" t="s">
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="2" t="s">
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF87" s="2"/>
-      <c r="AG87" s="2" t="s">
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI87" s="2"/>
+      <c r="AI87" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ87" s="2"/>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK87" s="2"/>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>411</v>
       </c>
@@ -8191,20 +8282,21 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
-      <c r="AE88" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF88" s="2"/>
-      <c r="AG88" s="2" t="s">
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH88" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI88" s="2"/>
+      <c r="AI88" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ88" s="2"/>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK88" s="2"/>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>414</v>
       </c>
@@ -8246,23 +8338,24 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="2" t="s">
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AE89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF89" s="2"/>
-      <c r="AG89" s="2" t="s">
+      <c r="AF89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI89" s="2"/>
+      <c r="AI89" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ89" s="2"/>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK89" s="2"/>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>419</v>
       </c>
@@ -8298,29 +8391,32 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
+      <c r="Z90" s="2" t="s">
+        <v>940</v>
+      </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
-      <c r="AC90" s="2" t="s">
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AD90" s="2" t="s">
+      <c r="AE90" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AE90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF90" s="2"/>
-      <c r="AG90" s="2" t="s">
+      <c r="AF90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI90" s="2"/>
+      <c r="AI90" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ90" s="2"/>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK90" s="2"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>425</v>
       </c>
@@ -8361,18 +8457,19 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
-      <c r="AE91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG91" s="2"/>
-      <c r="AH91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI91" s="2"/>
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ91" s="2"/>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK91" s="2"/>
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>428</v>
       </c>
@@ -8413,20 +8510,21 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
-      <c r="AE92" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF92" s="2"/>
-      <c r="AG92" s="2" t="s">
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG92" s="2"/>
+      <c r="AH92" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AH92" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI92" s="2"/>
+      <c r="AI92" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ92" s="2"/>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK92" s="2"/>
+    </row>
+    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>432</v>
       </c>
@@ -8467,24 +8565,25 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
-      <c r="AC93" s="2" t="s">
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF93" s="2"/>
-      <c r="AG93" s="2" t="s">
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG93" s="2"/>
+      <c r="AH93" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AH93" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI93" s="2"/>
+      <c r="AI93" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ93" s="2"/>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK93" s="2"/>
+    </row>
+    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>437</v>
       </c>
@@ -8549,26 +8648,27 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
-      <c r="AC94" s="2" t="s">
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF94" s="2"/>
-      <c r="AG94" s="2" t="s">
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG94" s="2"/>
+      <c r="AH94" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AH94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI94" s="2"/>
-      <c r="AJ94" s="2" t="s">
+      <c r="AI94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ94" s="2"/>
+      <c r="AK94" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>443</v>
       </c>
@@ -8609,30 +8709,31 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-      <c r="AA95" s="2" t="s">
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AB95" s="2"/>
-      <c r="AC95" s="2" t="s">
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AD95" s="2" t="s">
+      <c r="AE95" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AE95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF95" s="2"/>
-      <c r="AG95" s="2" t="s">
+      <c r="AF95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG95" s="2"/>
+      <c r="AH95" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AH95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI95" s="2"/>
+      <c r="AI95" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ95" s="2"/>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK95" s="2"/>
+    </row>
+    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>450</v>
       </c>
@@ -8672,31 +8773,32 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
-      <c r="Z96" s="2" t="s">
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AA96" s="2" t="s">
+      <c r="AB96" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AB96" s="2"/>
-      <c r="AC96" s="2" t="s">
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF96" s="2"/>
-      <c r="AG96" s="2" t="s">
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG96" s="2"/>
+      <c r="AH96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI96" s="2"/>
+      <c r="AI96" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ96" s="2"/>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK96" s="2"/>
+    </row>
+    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>458</v>
       </c>
@@ -8736,29 +8838,30 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
-      <c r="Z97" s="2" t="s">
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AA97" s="2" t="s">
+      <c r="AB97" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
-      <c r="AE97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF97" s="2"/>
-      <c r="AG97" s="2" t="s">
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AH97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI97" s="2"/>
+      <c r="AI97" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ97" s="2"/>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK97" s="2"/>
+    </row>
+    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>464</v>
       </c>
@@ -8799,20 +8902,21 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
-      <c r="AE98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF98" s="2"/>
-      <c r="AG98" s="2" t="s">
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG98" s="2"/>
+      <c r="AH98" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI98" s="2"/>
+      <c r="AI98" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ98" s="2"/>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK98" s="2"/>
+    </row>
+    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>467</v>
       </c>
@@ -8853,24 +8957,25 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
-      <c r="AC99" s="2" t="s">
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF99" s="2"/>
-      <c r="AG99" s="2" t="s">
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG99" s="2"/>
+      <c r="AH99" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI99" s="2"/>
+      <c r="AI99" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ99" s="2"/>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK99" s="2"/>
+    </row>
+    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>472</v>
       </c>
@@ -8913,20 +9018,21 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
-      <c r="AE100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF100" s="2"/>
-      <c r="AG100" s="2" t="s">
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG100" s="2"/>
+      <c r="AH100" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI100" s="2"/>
+      <c r="AI100" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ100" s="2"/>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK100" s="2"/>
+    </row>
+    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>475</v>
       </c>
@@ -8967,20 +9073,21 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
-      <c r="AE101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF101" s="2"/>
-      <c r="AG101" s="2" t="s">
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG101" s="2"/>
+      <c r="AH101" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI101" s="2"/>
+      <c r="AI101" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ101" s="2"/>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK101" s="2"/>
+    </row>
+    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>479</v>
       </c>
@@ -9021,20 +9128,21 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
-      <c r="AE102" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF102" s="2"/>
-      <c r="AG102" s="2" t="s">
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG102" s="2"/>
+      <c r="AH102" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH102" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI102" s="2"/>
+      <c r="AI102" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ102" s="2"/>
-    </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK102" s="2"/>
+    </row>
+    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>483</v>
       </c>
@@ -9071,26 +9179,27 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-      <c r="AA103" s="2" t="s">
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
-      <c r="AE103" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF103" s="2"/>
-      <c r="AG103" s="2" t="s">
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AH103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI103" s="2"/>
+      <c r="AI103" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ103" s="2"/>
-    </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK103" s="2"/>
+    </row>
+    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>487</v>
       </c>
@@ -9133,20 +9242,21 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
-      <c r="AE104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF104" s="2"/>
-      <c r="AG104" s="2" t="s">
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG104" s="2"/>
+      <c r="AH104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI104" s="2"/>
+      <c r="AI104" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ104" s="2"/>
-    </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK104" s="2"/>
+    </row>
+    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>491</v>
       </c>
@@ -9188,23 +9298,24 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
-      <c r="AD105" s="2" t="s">
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="AE105" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF105" s="2"/>
-      <c r="AG105" s="2" t="s">
+      <c r="AF105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG105" s="2"/>
+      <c r="AH105" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI105" s="2"/>
+      <c r="AI105" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ105" s="2"/>
-    </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK105" s="2"/>
+    </row>
+    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>494</v>
       </c>
@@ -9245,20 +9356,21 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
-      <c r="AE106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF106" s="2"/>
-      <c r="AG106" s="2" t="s">
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI106" s="2"/>
+      <c r="AI106" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ106" s="2"/>
-    </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK106" s="2"/>
+    </row>
+    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>496</v>
       </c>
@@ -9299,20 +9411,21 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
-      <c r="AE107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF107" s="2"/>
-      <c r="AG107" s="2" t="s">
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI107" s="2"/>
+      <c r="AI107" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ107" s="2"/>
-    </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK107" s="2"/>
+    </row>
+    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>499</v>
       </c>
@@ -9354,23 +9467,24 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="2" t="s">
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AE108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF108" s="2"/>
-      <c r="AG108" s="2" t="s">
+      <c r="AF108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI108" s="2"/>
+      <c r="AI108" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ108" s="2"/>
-    </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK108" s="2"/>
+    </row>
+    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>504</v>
       </c>
@@ -9409,24 +9523,25 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
-      <c r="AC109" s="2" t="s">
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="2" t="s">
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF109" s="2"/>
-      <c r="AG109" s="2" t="s">
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI109" s="2"/>
+      <c r="AI109" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ109" s="2"/>
-    </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK109" s="2"/>
+    </row>
+    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>508</v>
       </c>
@@ -9465,24 +9580,25 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
-      <c r="AC110" s="2" t="s">
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="2" t="s">
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF110" s="2"/>
-      <c r="AG110" s="2" t="s">
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH110" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI110" s="2"/>
+      <c r="AI110" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ110" s="2"/>
-    </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK110" s="2"/>
+    </row>
+    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>512</v>
       </c>
@@ -9521,24 +9637,25 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
-      <c r="AC111" s="2" t="s">
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="2" t="s">
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF111" s="2"/>
-      <c r="AG111" s="2" t="s">
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI111" s="2"/>
+      <c r="AI111" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ111" s="2"/>
-    </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK111" s="2"/>
+    </row>
+    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>516</v>
       </c>
@@ -9577,24 +9694,25 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
-      <c r="AC112" s="2" t="s">
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2" t="s">
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF112" s="2"/>
-      <c r="AG112" s="2" t="s">
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI112" s="2"/>
+      <c r="AI112" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ112" s="2"/>
-    </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK112" s="2"/>
+    </row>
+    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>520</v>
       </c>
@@ -9635,20 +9753,21 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
-      <c r="AE113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF113" s="2"/>
-      <c r="AG113" s="2" t="s">
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI113" s="2"/>
+      <c r="AI113" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ113" s="2"/>
-    </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK113" s="2"/>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>525</v>
       </c>
@@ -9689,20 +9808,21 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
-      <c r="AE114" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF114" s="2"/>
-      <c r="AG114" s="2" t="s">
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH114" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI114" s="2"/>
+      <c r="AI114" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ114" s="2"/>
-    </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK114" s="2"/>
+    </row>
+    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>528</v>
       </c>
@@ -9742,23 +9862,24 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="2" t="s">
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AE115" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF115" s="2"/>
-      <c r="AG115" s="2" t="s">
+      <c r="AF115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI115" s="2"/>
+      <c r="AI115" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ115" s="2"/>
-    </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK115" s="2"/>
+    </row>
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>532</v>
       </c>
@@ -9799,20 +9920,21 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
-      <c r="AE116" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF116" s="2"/>
-      <c r="AG116" s="2" t="s">
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG116" s="2"/>
+      <c r="AH116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI116" s="2"/>
+      <c r="AI116" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ116" s="2"/>
-    </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK116" s="2"/>
+    </row>
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>534</v>
       </c>
@@ -9849,28 +9971,29 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-      <c r="AA117" s="2" t="s">
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="AB117" s="2"/>
-      <c r="AC117" s="2" t="s">
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF117" s="2"/>
-      <c r="AG117" s="2" t="s">
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG117" s="2"/>
+      <c r="AH117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH117" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI117" s="2"/>
+      <c r="AI117" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ117" s="2"/>
-    </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK117" s="2"/>
+    </row>
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>539</v>
       </c>
@@ -9912,23 +10035,24 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="2" t="s">
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="AE118" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF118" s="2"/>
-      <c r="AG118" s="2" t="s">
+      <c r="AF118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG118" s="2"/>
+      <c r="AH118" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI118" s="2"/>
+      <c r="AI118" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ118" s="2"/>
-    </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK118" s="2"/>
+    </row>
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>543</v>
       </c>
@@ -9968,23 +10092,24 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="2" t="s">
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="AE119" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF119" s="2"/>
-      <c r="AG119" s="2" t="s">
+      <c r="AF119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG119" s="2"/>
+      <c r="AH119" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH119" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI119" s="2"/>
+      <c r="AI119" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ119" s="2"/>
-    </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK119" s="2"/>
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>547</v>
       </c>
@@ -10023,24 +10148,25 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
-      <c r="AC120" s="2" t="s">
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AD120" s="2"/>
-      <c r="AE120" s="2" t="s">
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF120" s="2"/>
-      <c r="AG120" s="2" t="s">
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH120" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI120" s="2"/>
+      <c r="AI120" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ120" s="2"/>
-    </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK120" s="2"/>
+    </row>
+    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>551</v>
       </c>
@@ -10079,24 +10205,25 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
-      <c r="AC121" s="2" t="s">
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="2" t="s">
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF121" s="2"/>
-      <c r="AG121" s="2" t="s">
+      <c r="AG121" s="2"/>
+      <c r="AH121" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH121" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI121" s="2"/>
+      <c r="AI121" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ121" s="2"/>
-    </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK121" s="2"/>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>555</v>
       </c>
@@ -10135,24 +10262,25 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
-      <c r="AC122" s="2" t="s">
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="AD122" s="2"/>
-      <c r="AE122" s="2" t="s">
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF122" s="2"/>
-      <c r="AG122" s="2" t="s">
+      <c r="AG122" s="2"/>
+      <c r="AH122" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH122" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI122" s="2"/>
+      <c r="AI122" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ122" s="2"/>
-    </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK122" s="2"/>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>559</v>
       </c>
@@ -10191,24 +10319,25 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
-      <c r="AC123" s="2" t="s">
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="AD123" s="2"/>
-      <c r="AE123" s="2" t="s">
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AF123" s="2"/>
-      <c r="AG123" s="2" t="s">
+      <c r="AG123" s="2"/>
+      <c r="AH123" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI123" s="2"/>
+      <c r="AI123" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ123" s="2"/>
-    </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK123" s="2"/>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>563</v>
       </c>
@@ -10247,24 +10376,25 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
-      <c r="AC124" s="2" t="s">
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF124" s="2"/>
-      <c r="AG124" s="2" t="s">
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG124" s="2"/>
+      <c r="AH124" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH124" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI124" s="2"/>
+      <c r="AI124" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ124" s="2"/>
-    </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK124" s="2"/>
+    </row>
+    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>566</v>
       </c>
@@ -10305,20 +10435,21 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
-      <c r="AE125" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF125" s="2"/>
-      <c r="AG125" s="2" t="s">
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG125" s="2"/>
+      <c r="AH125" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH125" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI125" s="2"/>
+      <c r="AI125" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ125" s="2"/>
-    </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK125" s="2"/>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>569</v>
       </c>
@@ -10359,20 +10490,21 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
-      <c r="AE126" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF126" s="2"/>
-      <c r="AG126" s="2" t="s">
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH126" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI126" s="2"/>
+      <c r="AI126" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ126" s="2"/>
-    </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK126" s="2"/>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>572</v>
       </c>
@@ -10413,20 +10545,21 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
-      <c r="AE127" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF127" s="2"/>
-      <c r="AG127" s="2" t="s">
+      <c r="AE127" s="2"/>
+      <c r="AF127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG127" s="2"/>
+      <c r="AH127" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="AH127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI127" s="2"/>
+      <c r="AI127" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ127" s="2"/>
-    </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK127" s="2"/>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>576</v>
       </c>
@@ -10467,20 +10600,21 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
-      <c r="AE128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF128" s="2"/>
-      <c r="AG128" s="2" t="s">
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH128" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI128" s="2"/>
+      <c r="AI128" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ128" s="2"/>
-    </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK128" s="2"/>
+    </row>
+    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
@@ -10519,26 +10653,27 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
-      <c r="AC129" s="2" t="s">
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="AD129" s="2" t="s">
+      <c r="AE129" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="AE129" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF129" s="2"/>
-      <c r="AG129" s="2" t="s">
+      <c r="AF129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG129" s="2"/>
+      <c r="AH129" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="AH129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI129" s="2"/>
+      <c r="AI129" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ129" s="2"/>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK129" s="2"/>
+    </row>
+    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>586</v>
       </c>
@@ -10579,20 +10714,21 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
-      <c r="AE130" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF130" s="2"/>
-      <c r="AG130" s="2" t="s">
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH130" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI130" s="2"/>
+      <c r="AI130" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ130" s="2"/>
-    </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK130" s="2"/>
+    </row>
+    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>589</v>
       </c>
@@ -10634,23 +10770,24 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="2" t="s">
+      <c r="AD131" s="2"/>
+      <c r="AE131" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="AE131" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF131" s="2"/>
-      <c r="AG131" s="2" t="s">
+      <c r="AF131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG131" s="2"/>
+      <c r="AH131" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI131" s="2"/>
+      <c r="AI131" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ131" s="2"/>
-    </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK131" s="2"/>
+    </row>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>594</v>
       </c>
@@ -10689,26 +10826,27 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
-      <c r="AC132" s="2" t="s">
+      <c r="AC132" s="2"/>
+      <c r="AD132" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="AD132" s="2" t="s">
+      <c r="AE132" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="AE132" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF132" s="2"/>
-      <c r="AG132" s="2" t="s">
+      <c r="AF132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG132" s="2"/>
+      <c r="AH132" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH132" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI132" s="2"/>
+      <c r="AI132" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ132" s="2"/>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK132" s="2"/>
+    </row>
+    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>599</v>
       </c>
@@ -10747,26 +10885,27 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
-      <c r="AC133" s="2" t="s">
+      <c r="AC133" s="2"/>
+      <c r="AD133" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="AD133" s="2" t="s">
+      <c r="AE133" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="AE133" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF133" s="2"/>
-      <c r="AG133" s="2" t="s">
+      <c r="AF133" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG133" s="2"/>
+      <c r="AH133" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH133" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI133" s="2"/>
+      <c r="AI133" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ133" s="2"/>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK133" s="2"/>
+    </row>
+    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>604</v>
       </c>
@@ -10807,26 +10946,27 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
-      <c r="AC134" s="2" t="s">
+      <c r="AC134" s="2"/>
+      <c r="AD134" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="AD134" s="2" t="s">
+      <c r="AE134" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="AE134" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF134" s="2"/>
-      <c r="AG134" s="2" t="s">
+      <c r="AF134" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG134" s="2"/>
+      <c r="AH134" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH134" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI134" s="2"/>
+      <c r="AI134" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ134" s="2"/>
-    </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK134" s="2"/>
+    </row>
+    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>609</v>
       </c>
@@ -10867,20 +11007,21 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
-      <c r="AE135" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF135" s="2"/>
-      <c r="AG135" s="2" t="s">
+      <c r="AE135" s="2"/>
+      <c r="AF135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG135" s="2"/>
+      <c r="AH135" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI135" s="2"/>
+      <c r="AI135" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ135" s="2"/>
-    </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK135" s="2"/>
+    </row>
+    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>611</v>
       </c>
@@ -10921,20 +11062,21 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
-      <c r="AE136" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF136" s="2"/>
-      <c r="AG136" s="2" t="s">
+      <c r="AE136" s="2"/>
+      <c r="AF136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG136" s="2"/>
+      <c r="AH136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI136" s="2"/>
+      <c r="AI136" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ136" s="2"/>
-    </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK136" s="2"/>
+    </row>
+    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>615</v>
       </c>
@@ -10975,20 +11117,21 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
-      <c r="AE137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF137" s="2"/>
-      <c r="AG137" s="2" t="s">
+      <c r="AE137" s="2"/>
+      <c r="AF137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG137" s="2"/>
+      <c r="AH137" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH137" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI137" s="2"/>
+      <c r="AI137" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ137" s="2"/>
-    </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK137" s="2"/>
+    </row>
+    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>619</v>
       </c>
@@ -11028,23 +11171,24 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
-      <c r="AD138" s="2" t="s">
+      <c r="AD138" s="2"/>
+      <c r="AE138" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="AE138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF138" s="2"/>
-      <c r="AG138" s="2" t="s">
+      <c r="AF138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG138" s="2"/>
+      <c r="AH138" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH138" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI138" s="2"/>
+      <c r="AI138" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ138" s="2"/>
-    </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK138" s="2"/>
+    </row>
+    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>624</v>
       </c>
@@ -11083,26 +11227,27 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
-      <c r="AC139" s="2" t="s">
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="AD139" s="2" t="s">
+      <c r="AE139" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="AE139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF139" s="2"/>
-      <c r="AG139" s="2" t="s">
+      <c r="AF139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH139" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI139" s="2"/>
+      <c r="AI139" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ139" s="2"/>
-    </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK139" s="2"/>
+    </row>
+    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>628</v>
       </c>
@@ -11142,23 +11287,24 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
-      <c r="AD140" s="2" t="s">
+      <c r="AD140" s="2"/>
+      <c r="AE140" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="AE140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF140" s="2"/>
-      <c r="AG140" s="2" t="s">
+      <c r="AF140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG140" s="2"/>
+      <c r="AH140" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH140" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI140" s="2"/>
+      <c r="AI140" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ140" s="2"/>
-    </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK140" s="2"/>
+    </row>
+    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>631</v>
       </c>
@@ -11199,20 +11345,21 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
-      <c r="AE141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF141" s="2"/>
-      <c r="AG141" s="2" t="s">
+      <c r="AE141" s="2"/>
+      <c r="AF141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG141" s="2"/>
+      <c r="AH141" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH141" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI141" s="2"/>
+      <c r="AI141" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ141" s="2"/>
-    </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK141" s="2"/>
+    </row>
+    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>634</v>
       </c>
@@ -11253,20 +11400,21 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
       <c r="AD142" s="2"/>
-      <c r="AE142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF142" s="2"/>
-      <c r="AG142" s="2" t="s">
+      <c r="AE142" s="2"/>
+      <c r="AF142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG142" s="2"/>
+      <c r="AH142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH142" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI142" s="2"/>
+      <c r="AI142" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ142" s="2"/>
-    </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK142" s="2"/>
+    </row>
+    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>637</v>
       </c>
@@ -11307,20 +11455,21 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
       <c r="AD143" s="2"/>
-      <c r="AE143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF143" s="2"/>
-      <c r="AG143" s="2" t="s">
+      <c r="AE143" s="2"/>
+      <c r="AF143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG143" s="2"/>
+      <c r="AH143" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH143" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI143" s="2"/>
+      <c r="AI143" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ143" s="2"/>
-    </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK143" s="2"/>
+    </row>
+    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>639</v>
       </c>
@@ -11361,20 +11510,21 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
-      <c r="AE144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF144" s="2"/>
-      <c r="AG144" s="2" t="s">
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG144" s="2"/>
+      <c r="AH144" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH144" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI144" s="2"/>
+      <c r="AI144" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ144" s="2"/>
-    </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK144" s="2"/>
+    </row>
+    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>642</v>
       </c>
@@ -11413,24 +11563,25 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
-      <c r="AC145" s="2" t="s">
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="AD145" s="2"/>
-      <c r="AE145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF145" s="2"/>
-      <c r="AG145" s="2" t="s">
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG145" s="2"/>
+      <c r="AH145" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH145" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI145" s="2"/>
+      <c r="AI145" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ145" s="2"/>
-    </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK145" s="2"/>
+    </row>
+    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>646</v>
       </c>
@@ -11469,24 +11620,25 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
-      <c r="AC146" s="2" t="s">
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AD146" s="2"/>
-      <c r="AE146" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF146" s="2"/>
-      <c r="AG146" s="2" t="s">
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG146" s="2"/>
+      <c r="AH146" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="AH146" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI146" s="2"/>
+      <c r="AI146" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ146" s="2"/>
-    </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK146" s="2"/>
+    </row>
+    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>652</v>
       </c>
@@ -11527,26 +11679,27 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
-      <c r="AC147" s="2" t="s">
+      <c r="AC147" s="2"/>
+      <c r="AD147" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="AD147" s="2" t="s">
+      <c r="AE147" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="AE147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF147" s="2"/>
-      <c r="AG147" s="2" t="s">
+      <c r="AF147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG147" s="2"/>
+      <c r="AH147" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AH147" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI147" s="2"/>
+      <c r="AI147" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ147" s="2"/>
-    </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK147" s="2"/>
+    </row>
+    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>656</v>
       </c>
@@ -11585,26 +11738,27 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
-      <c r="AC148" s="2" t="s">
+      <c r="AC148" s="2"/>
+      <c r="AD148" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="AD148" s="2" t="s">
+      <c r="AE148" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AE148" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF148" s="2"/>
-      <c r="AG148" s="2" t="s">
+      <c r="AF148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG148" s="2"/>
+      <c r="AH148" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH148" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI148" s="2"/>
+      <c r="AI148" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ148" s="2"/>
-    </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK148" s="2"/>
+    </row>
+    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>661</v>
       </c>
@@ -11644,23 +11798,24 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
-      <c r="AD149" s="2" t="s">
+      <c r="AD149" s="2"/>
+      <c r="AE149" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AE149" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF149" s="2"/>
-      <c r="AG149" s="2" t="s">
+      <c r="AF149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG149" s="2"/>
+      <c r="AH149" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH149" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI149" s="2"/>
+      <c r="AI149" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ149" s="2"/>
-    </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK149" s="2"/>
+    </row>
+    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>665</v>
       </c>
@@ -11702,23 +11857,24 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
-      <c r="AD150" s="2" t="s">
+      <c r="AD150" s="2"/>
+      <c r="AE150" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="AE150" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF150" s="2"/>
-      <c r="AG150" s="2" t="s">
+      <c r="AF150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG150" s="2"/>
+      <c r="AH150" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH150" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI150" s="2"/>
+      <c r="AI150" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ150" s="2"/>
-    </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK150" s="2"/>
+    </row>
+    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>669</v>
       </c>
@@ -11760,25 +11916,26 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
-      <c r="AD151" s="2" t="s">
+      <c r="AD151" s="2"/>
+      <c r="AE151" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="AE151" s="2">
+      <c r="AF151" s="2">
         <v>1</v>
       </c>
-      <c r="AF151" s="2" t="s">
+      <c r="AG151" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="AG151" s="2" t="s">
+      <c r="AH151" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AH151" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI151" s="2"/>
+      <c r="AI151" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ151" s="2"/>
-    </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK151" s="2"/>
+    </row>
+    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>674</v>
       </c>
@@ -11818,23 +11975,24 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
-      <c r="AD152" s="2" t="s">
+      <c r="AD152" s="2"/>
+      <c r="AE152" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="AE152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF152" s="2"/>
-      <c r="AG152" s="2" t="s">
+      <c r="AF152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG152" s="2"/>
+      <c r="AH152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH152" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI152" s="2"/>
+      <c r="AI152" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ152" s="2"/>
-    </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK152" s="2"/>
+    </row>
+    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>678</v>
       </c>
@@ -11876,23 +12034,24 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
-      <c r="AD153" s="2" t="s">
+      <c r="AD153" s="2"/>
+      <c r="AE153" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AE153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF153" s="2"/>
-      <c r="AG153" s="2" t="s">
+      <c r="AF153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG153" s="2"/>
+      <c r="AH153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AH153" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI153" s="2"/>
+      <c r="AI153" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ153" s="2"/>
-    </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK153" s="2"/>
+    </row>
+    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>682</v>
       </c>
@@ -11933,20 +12092,21 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
       <c r="AD154" s="2"/>
-      <c r="AE154" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF154" s="2"/>
-      <c r="AG154" s="2" t="s">
+      <c r="AE154" s="2"/>
+      <c r="AF154" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG154" s="2"/>
+      <c r="AH154" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH154" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI154" s="2"/>
+      <c r="AI154" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ154" s="2"/>
-    </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK154" s="2"/>
+    </row>
+    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>684</v>
       </c>
@@ -11987,20 +12147,21 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
       <c r="AD155" s="2"/>
-      <c r="AE155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF155" s="2"/>
-      <c r="AG155" s="2" t="s">
+      <c r="AE155" s="2"/>
+      <c r="AF155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG155" s="2"/>
+      <c r="AH155" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH155" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI155" s="2"/>
+      <c r="AI155" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ155" s="2"/>
-    </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK155" s="2"/>
+    </row>
+    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>687</v>
       </c>
@@ -12041,20 +12202,21 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
       <c r="AD156" s="2"/>
-      <c r="AE156" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF156" s="2"/>
-      <c r="AG156" s="2" t="s">
+      <c r="AE156" s="2"/>
+      <c r="AF156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG156" s="2"/>
+      <c r="AH156" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH156" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI156" s="2"/>
+      <c r="AI156" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ156" s="2"/>
-    </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK156" s="2"/>
+    </row>
+    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>689</v>
       </c>
@@ -12095,20 +12257,21 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
       <c r="AD157" s="2"/>
-      <c r="AE157" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF157" s="2"/>
-      <c r="AG157" s="2" t="s">
+      <c r="AE157" s="2"/>
+      <c r="AF157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG157" s="2"/>
+      <c r="AH157" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH157" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI157" s="2"/>
+      <c r="AI157" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ157" s="2"/>
-    </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK157" s="2"/>
+    </row>
+    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>692</v>
       </c>
@@ -12149,24 +12312,25 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
-      <c r="AC158" s="2" t="s">
+      <c r="AC158" s="2"/>
+      <c r="AD158" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="AD158" s="2"/>
-      <c r="AE158" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF158" s="2"/>
-      <c r="AG158" s="2" t="s">
+      <c r="AE158" s="2"/>
+      <c r="AF158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG158" s="2"/>
+      <c r="AH158" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AH158" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI158" s="2"/>
+      <c r="AI158" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ158" s="2"/>
-    </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK158" s="2"/>
+    </row>
+    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>698</v>
       </c>
@@ -12209,20 +12373,21 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
-      <c r="AE159" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF159" s="2"/>
-      <c r="AG159" s="2" t="s">
+      <c r="AE159" s="2"/>
+      <c r="AF159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG159" s="2"/>
+      <c r="AH159" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH159" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI159" s="2"/>
+      <c r="AI159" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ159" s="2"/>
-    </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK159" s="2"/>
+    </row>
+    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>700</v>
       </c>
@@ -12263,20 +12428,21 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
       <c r="AD160" s="2"/>
-      <c r="AE160" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF160" s="2"/>
-      <c r="AG160" s="2" t="s">
+      <c r="AE160" s="2"/>
+      <c r="AF160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG160" s="2"/>
+      <c r="AH160" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH160" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI160" s="2"/>
+      <c r="AI160" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ160" s="2"/>
-    </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK160" s="2"/>
+    </row>
+    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>703</v>
       </c>
@@ -12317,20 +12483,21 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
       <c r="AD161" s="2"/>
-      <c r="AE161" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF161" s="2"/>
-      <c r="AG161" s="2" t="s">
+      <c r="AE161" s="2"/>
+      <c r="AF161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG161" s="2"/>
+      <c r="AH161" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH161" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI161" s="2"/>
+      <c r="AI161" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ161" s="2"/>
-    </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK161" s="2"/>
+    </row>
+    <row r="162" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>706</v>
       </c>
@@ -12369,24 +12536,25 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
-      <c r="AC162" s="2" t="s">
+      <c r="AC162" s="2"/>
+      <c r="AD162" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="AD162" s="2"/>
-      <c r="AE162" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF162" s="2"/>
-      <c r="AG162" s="2" t="s">
+      <c r="AE162" s="2"/>
+      <c r="AF162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG162" s="2"/>
+      <c r="AH162" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH162" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI162" s="2"/>
+      <c r="AI162" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ162" s="2"/>
-    </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK162" s="2"/>
+    </row>
+    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>710</v>
       </c>
@@ -12428,23 +12596,24 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
-      <c r="AD163" s="2" t="s">
+      <c r="AD163" s="2"/>
+      <c r="AE163" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="AE163" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF163" s="2"/>
-      <c r="AG163" s="2" t="s">
+      <c r="AF163" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG163" s="2"/>
+      <c r="AH163" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AH163" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI163" s="2"/>
+      <c r="AI163" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ163" s="2"/>
-    </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK163" s="2"/>
+    </row>
+    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>714</v>
       </c>
@@ -12484,27 +12653,28 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
-      <c r="Z164" s="2" t="s">
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
-      <c r="AE164" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF164" s="2"/>
-      <c r="AG164" s="2" t="s">
+      <c r="AE164" s="2"/>
+      <c r="AF164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG164" s="2"/>
+      <c r="AH164" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH164" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI164" s="2"/>
+      <c r="AI164" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ164" s="2"/>
-    </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK164" s="2"/>
+    </row>
+    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>718</v>
       </c>
@@ -12545,20 +12715,21 @@
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
       <c r="AD165" s="2"/>
-      <c r="AE165" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF165" s="2"/>
-      <c r="AG165" s="2" t="s">
+      <c r="AE165" s="2"/>
+      <c r="AF165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG165" s="2"/>
+      <c r="AH165" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH165" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI165" s="2"/>
+      <c r="AI165" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ165" s="2"/>
-    </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK165" s="2"/>
+    </row>
+    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>722</v>
       </c>
@@ -12599,20 +12770,21 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
       <c r="AD166" s="2"/>
-      <c r="AE166" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF166" s="2"/>
-      <c r="AG166" s="2" t="s">
+      <c r="AE166" s="2"/>
+      <c r="AF166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG166" s="2"/>
+      <c r="AH166" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH166" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI166" s="2"/>
+      <c r="AI166" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ166" s="2"/>
-    </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK166" s="2"/>
+    </row>
+    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>726</v>
       </c>
@@ -12653,20 +12825,21 @@
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
       <c r="AD167" s="2"/>
-      <c r="AE167" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF167" s="2"/>
-      <c r="AG167" s="2" t="s">
+      <c r="AE167" s="2"/>
+      <c r="AF167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG167" s="2"/>
+      <c r="AH167" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH167" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI167" s="2"/>
+      <c r="AI167" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ167" s="2"/>
-    </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK167" s="2"/>
+    </row>
+    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>728</v>
       </c>
@@ -12707,20 +12880,21 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
       <c r="AD168" s="2"/>
-      <c r="AE168" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF168" s="2"/>
-      <c r="AG168" s="2" t="s">
+      <c r="AE168" s="2"/>
+      <c r="AF168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG168" s="2"/>
+      <c r="AH168" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH168" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI168" s="2"/>
+      <c r="AI168" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ168" s="2"/>
-    </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK168" s="2"/>
+    </row>
+    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>731</v>
       </c>
@@ -12761,20 +12935,21 @@
       <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
-      <c r="AE169" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF169" s="2"/>
-      <c r="AG169" s="2" t="s">
+      <c r="AE169" s="2"/>
+      <c r="AF169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG169" s="2"/>
+      <c r="AH169" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH169" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI169" s="2"/>
+      <c r="AI169" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ169" s="2"/>
-    </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK169" s="2"/>
+    </row>
+    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>733</v>
       </c>
@@ -12815,20 +12990,21 @@
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
       <c r="AD170" s="2"/>
-      <c r="AE170" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF170" s="2"/>
-      <c r="AG170" s="2" t="s">
+      <c r="AE170" s="2"/>
+      <c r="AF170" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG170" s="2"/>
+      <c r="AH170" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI170" s="2"/>
+      <c r="AI170" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ170" s="2"/>
-    </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK170" s="2"/>
+    </row>
+    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>736</v>
       </c>
@@ -12869,20 +13045,21 @@
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
-      <c r="AE171" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF171" s="2"/>
-      <c r="AG171" s="2" t="s">
+      <c r="AE171" s="2"/>
+      <c r="AF171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG171" s="2"/>
+      <c r="AH171" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH171" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI171" s="2"/>
+      <c r="AI171" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ171" s="2"/>
-    </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK171" s="2"/>
+    </row>
+    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>739</v>
       </c>
@@ -12923,20 +13100,21 @@
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
-      <c r="AE172" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2" t="s">
+      <c r="AE172" s="2"/>
+      <c r="AF172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG172" s="2"/>
+      <c r="AH172" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH172" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI172" s="2"/>
+      <c r="AI172" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ172" s="2"/>
-    </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK172" s="2"/>
+    </row>
+    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>742</v>
       </c>
@@ -12977,20 +13155,21 @@
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
-      <c r="AE173" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF173" s="2"/>
-      <c r="AG173" s="2" t="s">
+      <c r="AE173" s="2"/>
+      <c r="AF173" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG173" s="2"/>
+      <c r="AH173" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH173" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI173" s="2"/>
+      <c r="AI173" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ173" s="2"/>
-    </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK173" s="2"/>
+    </row>
+    <row r="174" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>744</v>
       </c>
@@ -13031,20 +13210,21 @@
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
       <c r="AD174" s="2"/>
-      <c r="AE174" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF174" s="2"/>
-      <c r="AG174" s="2" t="s">
+      <c r="AE174" s="2"/>
+      <c r="AF174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG174" s="2"/>
+      <c r="AH174" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH174" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI174" s="2"/>
+      <c r="AI174" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ174" s="2"/>
-    </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK174" s="2"/>
+    </row>
+    <row r="175" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>747</v>
       </c>
@@ -13085,18 +13265,19 @@
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
       <c r="AD175" s="2"/>
-      <c r="AE175" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF175" s="2"/>
+      <c r="AE175" s="2"/>
+      <c r="AF175" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG175" s="2"/>
-      <c r="AH175" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI175" s="2"/>
+      <c r="AH175" s="2"/>
+      <c r="AI175" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ175" s="2"/>
-    </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK175" s="2"/>
+    </row>
+    <row r="176" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>750</v>
       </c>
@@ -13137,20 +13318,21 @@
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
-      <c r="AE176" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF176" s="2"/>
-      <c r="AG176" s="2" t="s">
+      <c r="AE176" s="2"/>
+      <c r="AF176" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG176" s="2"/>
+      <c r="AH176" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH176" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI176" s="2"/>
+      <c r="AI176" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ176" s="2"/>
-    </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK176" s="2"/>
+    </row>
+    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>753</v>
       </c>
@@ -13191,20 +13373,21 @@
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
-      <c r="AE177" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF177" s="2"/>
-      <c r="AG177" s="2" t="s">
+      <c r="AE177" s="2"/>
+      <c r="AF177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG177" s="2"/>
+      <c r="AH177" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH177" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI177" s="2"/>
+      <c r="AI177" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ177" s="2"/>
-    </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK177" s="2"/>
+    </row>
+    <row r="178" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>756</v>
       </c>
@@ -13242,25 +13425,26 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
-      <c r="AB178" s="2" t="s">
+      <c r="AB178" s="2"/>
+      <c r="AC178" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AC178" s="2"/>
       <c r="AD178" s="2"/>
-      <c r="AE178" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF178" s="2"/>
-      <c r="AG178" s="2" t="s">
+      <c r="AE178" s="2"/>
+      <c r="AF178" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG178" s="2"/>
+      <c r="AH178" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH178" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI178" s="2"/>
+      <c r="AI178" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ178" s="2"/>
-    </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK178" s="2"/>
+    </row>
+    <row r="179" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>759</v>
       </c>
@@ -13298,25 +13482,26 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
-      <c r="AB179" s="2" t="s">
+      <c r="AB179" s="2"/>
+      <c r="AC179" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AC179" s="2"/>
       <c r="AD179" s="2"/>
-      <c r="AE179" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF179" s="2"/>
-      <c r="AG179" s="2" t="s">
+      <c r="AE179" s="2"/>
+      <c r="AF179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG179" s="2"/>
+      <c r="AH179" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH179" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI179" s="2"/>
+      <c r="AI179" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ179" s="2"/>
-    </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK179" s="2"/>
+    </row>
+    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>762</v>
       </c>
@@ -13361,20 +13546,21 @@
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
       <c r="AD180" s="2"/>
-      <c r="AE180" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF180" s="2"/>
-      <c r="AG180" s="2" t="s">
+      <c r="AE180" s="2"/>
+      <c r="AF180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG180" s="2"/>
+      <c r="AH180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AH180" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI180" s="2"/>
+      <c r="AI180" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ180" s="2"/>
-    </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK180" s="2"/>
+    </row>
+    <row r="181" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>767</v>
       </c>
@@ -13415,20 +13601,21 @@
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
       <c r="AD181" s="2"/>
-      <c r="AE181" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF181" s="2"/>
-      <c r="AG181" s="2" t="s">
+      <c r="AE181" s="2"/>
+      <c r="AF181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG181" s="2"/>
+      <c r="AH181" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH181" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI181" s="2"/>
+      <c r="AI181" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ181" s="2"/>
-    </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK181" s="2"/>
+    </row>
+    <row r="182" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>769</v>
       </c>
@@ -13469,24 +13656,25 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
-      <c r="AC182" s="2" t="s">
+      <c r="AC182" s="2"/>
+      <c r="AD182" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="AD182" s="2"/>
-      <c r="AE182" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF182" s="2"/>
-      <c r="AG182" s="2" t="s">
+      <c r="AE182" s="2"/>
+      <c r="AF182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG182" s="2"/>
+      <c r="AH182" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH182" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI182" s="2"/>
+      <c r="AI182" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ182" s="2"/>
-    </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK182" s="2"/>
+    </row>
+    <row r="183" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>774</v>
       </c>
@@ -13525,24 +13713,25 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
-      <c r="AC183" s="2" t="s">
+      <c r="AC183" s="2"/>
+      <c r="AD183" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="AD183" s="2"/>
-      <c r="AE183" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF183" s="2"/>
-      <c r="AG183" s="2" t="s">
+      <c r="AE183" s="2"/>
+      <c r="AF183" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG183" s="2"/>
+      <c r="AH183" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH183" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI183" s="2"/>
+      <c r="AI183" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ183" s="2"/>
-    </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK183" s="2"/>
+    </row>
+    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>777</v>
       </c>
@@ -13581,26 +13770,27 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
-      <c r="AC184" s="2" t="s">
+      <c r="AC184" s="2"/>
+      <c r="AD184" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="AD184" s="2" t="s">
+      <c r="AE184" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="AE184" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF184" s="2"/>
-      <c r="AG184" s="2" t="s">
+      <c r="AF184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG184" s="2"/>
+      <c r="AH184" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH184" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI184" s="2"/>
+      <c r="AI184" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ184" s="2"/>
-    </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK184" s="2"/>
+    </row>
+    <row r="185" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>782</v>
       </c>
@@ -13641,18 +13831,19 @@
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
       <c r="AD185" s="2"/>
-      <c r="AE185" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF185" s="2"/>
+      <c r="AE185" s="2"/>
+      <c r="AF185" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG185" s="2"/>
-      <c r="AH185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI185" s="2"/>
+      <c r="AH185" s="2"/>
+      <c r="AI185" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ185" s="2"/>
-    </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK185" s="2"/>
+    </row>
+    <row r="186" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>785</v>
       </c>
@@ -13693,20 +13884,21 @@
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
       <c r="AD186" s="2"/>
-      <c r="AE186" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF186" s="2"/>
-      <c r="AG186" s="2" t="s">
+      <c r="AE186" s="2"/>
+      <c r="AF186" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG186" s="2"/>
+      <c r="AH186" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI186" s="2"/>
+      <c r="AI186" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ186" s="2"/>
-    </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK186" s="2"/>
+    </row>
+    <row r="187" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>788</v>
       </c>
@@ -13747,20 +13939,21 @@
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
       <c r="AD187" s="2"/>
-      <c r="AE187" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF187" s="2"/>
-      <c r="AG187" s="2" t="s">
+      <c r="AE187" s="2"/>
+      <c r="AF187" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG187" s="2"/>
+      <c r="AH187" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI187" s="2"/>
+      <c r="AI187" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ187" s="2"/>
-    </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK187" s="2"/>
+    </row>
+    <row r="188" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>792</v>
       </c>
@@ -13799,24 +13992,25 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
-      <c r="AC188" s="2" t="s">
+      <c r="AC188" s="2"/>
+      <c r="AD188" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="AD188" s="2"/>
-      <c r="AE188" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF188" s="2"/>
-      <c r="AG188" s="2" t="s">
+      <c r="AE188" s="2"/>
+      <c r="AF188" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG188" s="2"/>
+      <c r="AH188" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH188" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI188" s="2"/>
+      <c r="AI188" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ188" s="2"/>
-    </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK188" s="2"/>
+    </row>
+    <row r="189" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>795</v>
       </c>
@@ -13855,26 +14049,27 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
-      <c r="AC189" s="2" t="s">
+      <c r="AC189" s="2"/>
+      <c r="AD189" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="AD189" s="2" t="s">
+      <c r="AE189" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="AE189" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF189" s="2"/>
-      <c r="AG189" s="2" t="s">
+      <c r="AF189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG189" s="2"/>
+      <c r="AH189" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AH189" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI189" s="2"/>
+      <c r="AI189" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ189" s="2"/>
-    </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK189" s="2"/>
+    </row>
+    <row r="190" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>800</v>
       </c>
@@ -13915,20 +14110,21 @@
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
-      <c r="AE190" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF190" s="2"/>
-      <c r="AG190" s="2" t="s">
+      <c r="AE190" s="2"/>
+      <c r="AF190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG190" s="2"/>
+      <c r="AH190" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH190" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI190" s="2"/>
+      <c r="AI190" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ190" s="2"/>
-    </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK190" s="2"/>
+    </row>
+    <row r="191" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>803</v>
       </c>
@@ -13969,18 +14165,19 @@
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
       <c r="AD191" s="2"/>
-      <c r="AE191" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF191" s="2"/>
+      <c r="AE191" s="2"/>
+      <c r="AF191" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG191" s="2"/>
-      <c r="AH191" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI191" s="2"/>
+      <c r="AH191" s="2"/>
+      <c r="AI191" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ191" s="2"/>
-    </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK191" s="2"/>
+    </row>
+    <row r="192" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>806</v>
       </c>
@@ -14021,26 +14218,27 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
-      <c r="AC192" s="2" t="s">
+      <c r="AC192" s="2"/>
+      <c r="AD192" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="AD192" s="2" t="s">
+      <c r="AE192" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="AE192" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF192" s="2"/>
-      <c r="AG192" s="2" t="s">
+      <c r="AF192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG192" s="2"/>
+      <c r="AH192" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH192" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI192" s="2"/>
+      <c r="AI192" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ192" s="2"/>
-    </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK192" s="2"/>
+    </row>
+    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>810</v>
       </c>
@@ -14081,20 +14279,21 @@
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
-      <c r="AE193" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF193" s="2"/>
-      <c r="AG193" s="2" t="s">
+      <c r="AE193" s="2"/>
+      <c r="AF193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG193" s="2"/>
+      <c r="AH193" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH193" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI193" s="2"/>
+      <c r="AI193" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ193" s="2"/>
-    </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK193" s="2"/>
+    </row>
+    <row r="194" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>813</v>
       </c>
@@ -14134,23 +14333,24 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
-      <c r="AD194" s="2" t="s">
+      <c r="AD194" s="2"/>
+      <c r="AE194" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="AE194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF194" s="2"/>
-      <c r="AG194" s="2" t="s">
+      <c r="AF194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG194" s="2"/>
+      <c r="AH194" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH194" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI194" s="2"/>
+      <c r="AI194" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ194" s="2"/>
-    </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK194" s="2"/>
+    </row>
+    <row r="195" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>817</v>
       </c>
@@ -14191,20 +14391,21 @@
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
       <c r="AD195" s="2"/>
-      <c r="AE195" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF195" s="2"/>
-      <c r="AG195" s="2" t="s">
+      <c r="AE195" s="2"/>
+      <c r="AF195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG195" s="2"/>
+      <c r="AH195" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH195" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI195" s="2"/>
+      <c r="AI195" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ195" s="2"/>
-    </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK195" s="2"/>
+    </row>
+    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>820</v>
       </c>
@@ -14245,20 +14446,21 @@
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
       <c r="AD196" s="2"/>
-      <c r="AE196" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF196" s="2"/>
-      <c r="AG196" s="2" t="s">
+      <c r="AE196" s="2"/>
+      <c r="AF196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG196" s="2"/>
+      <c r="AH196" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH196" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI196" s="2"/>
+      <c r="AI196" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ196" s="2"/>
-    </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK196" s="2"/>
+    </row>
+    <row r="197" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>822</v>
       </c>
@@ -14298,21 +14500,22 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
-      <c r="AD197" s="2" t="s">
+      <c r="AD197" s="2"/>
+      <c r="AE197" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="AE197" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF197" s="2"/>
+      <c r="AF197" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG197" s="2"/>
-      <c r="AH197" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI197" s="2"/>
+      <c r="AH197" s="2"/>
+      <c r="AI197" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ197" s="2"/>
-    </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK197" s="2"/>
+    </row>
+    <row r="198" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>825</v>
       </c>
@@ -14353,26 +14556,27 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
-      <c r="AC198" s="2" t="s">
+      <c r="AC198" s="2"/>
+      <c r="AD198" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="AD198" s="2" t="s">
+      <c r="AE198" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="AE198" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF198" s="2"/>
-      <c r="AG198" s="2" t="s">
+      <c r="AF198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG198" s="2"/>
+      <c r="AH198" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH198" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI198" s="2"/>
+      <c r="AI198" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ198" s="2"/>
-    </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK198" s="2"/>
+    </row>
+    <row r="199" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>829</v>
       </c>
@@ -14413,20 +14617,21 @@
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
       <c r="AD199" s="2"/>
-      <c r="AE199" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF199" s="2"/>
-      <c r="AG199" s="2" t="s">
+      <c r="AE199" s="2"/>
+      <c r="AF199" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG199" s="2"/>
+      <c r="AH199" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH199" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI199" s="2"/>
+      <c r="AI199" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ199" s="2"/>
-    </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK199" s="2"/>
+    </row>
+    <row r="200" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>832</v>
       </c>
@@ -14467,20 +14672,21 @@
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
       <c r="AD200" s="2"/>
-      <c r="AE200" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF200" s="2"/>
-      <c r="AG200" s="2" t="s">
+      <c r="AE200" s="2"/>
+      <c r="AF200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG200" s="2"/>
+      <c r="AH200" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH200" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI200" s="2"/>
+      <c r="AI200" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ200" s="2"/>
-    </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK200" s="2"/>
+    </row>
+    <row r="201" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>834</v>
       </c>
@@ -14521,20 +14727,21 @@
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
       <c r="AD201" s="2"/>
-      <c r="AE201" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF201" s="2"/>
-      <c r="AG201" s="2" t="s">
+      <c r="AE201" s="2"/>
+      <c r="AF201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG201" s="2"/>
+      <c r="AH201" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI201" s="2"/>
+      <c r="AI201" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ201" s="2"/>
-    </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK201" s="2"/>
+    </row>
+    <row r="202" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>836</v>
       </c>
@@ -14574,23 +14781,24 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
-      <c r="AD202" s="2" t="s">
+      <c r="AD202" s="2"/>
+      <c r="AE202" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="AE202" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF202" s="2"/>
-      <c r="AG202" s="2" t="s">
+      <c r="AF202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG202" s="2"/>
+      <c r="AH202" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="AH202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI202" s="2"/>
+      <c r="AI202" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ202" s="2"/>
-    </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK202" s="2"/>
+    </row>
+    <row r="203" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>841</v>
       </c>
@@ -14631,20 +14839,21 @@
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
       <c r="AD203" s="2"/>
-      <c r="AE203" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF203" s="2"/>
-      <c r="AG203" s="2" t="s">
+      <c r="AE203" s="2"/>
+      <c r="AF203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG203" s="2"/>
+      <c r="AH203" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI203" s="2"/>
+      <c r="AI203" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ203" s="2"/>
-    </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK203" s="2"/>
+    </row>
+    <row r="204" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>844</v>
       </c>
@@ -14685,20 +14894,21 @@
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
       <c r="AD204" s="2"/>
-      <c r="AE204" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF204" s="2"/>
-      <c r="AG204" s="2" t="s">
+      <c r="AE204" s="2"/>
+      <c r="AF204" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG204" s="2"/>
+      <c r="AH204" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AH204" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI204" s="2"/>
+      <c r="AI204" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ204" s="2"/>
-    </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK204" s="2"/>
+    </row>
+    <row r="205" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>847</v>
       </c>
@@ -14737,28 +14947,29 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
-      <c r="AA205" s="2" t="s">
+      <c r="AA205" s="2"/>
+      <c r="AB205" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="AB205" s="2"/>
-      <c r="AC205" s="2" t="s">
+      <c r="AC205" s="2"/>
+      <c r="AD205" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="AD205" s="2"/>
-      <c r="AE205" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF205" s="2"/>
-      <c r="AG205" s="2" t="s">
+      <c r="AE205" s="2"/>
+      <c r="AF205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG205" s="2"/>
+      <c r="AH205" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AH205" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI205" s="2"/>
+      <c r="AI205" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ205" s="2"/>
-    </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK205" s="2"/>
+    </row>
+    <row r="206" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>852</v>
       </c>
@@ -14799,20 +15010,21 @@
       <c r="AB206" s="2"/>
       <c r="AC206" s="2"/>
       <c r="AD206" s="2"/>
-      <c r="AE206" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF206" s="2"/>
-      <c r="AG206" s="2" t="s">
+      <c r="AE206" s="2"/>
+      <c r="AF206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG206" s="2"/>
+      <c r="AH206" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AH206" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI206" s="2"/>
+      <c r="AI206" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ206" s="2"/>
-    </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK206" s="2"/>
+    </row>
+    <row r="207" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>855</v>
       </c>
@@ -14851,24 +15063,25 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
-      <c r="AC207" s="2" t="s">
+      <c r="AC207" s="2"/>
+      <c r="AD207" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="AD207" s="2"/>
-      <c r="AE207" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF207" s="2"/>
-      <c r="AG207" s="2" t="s">
+      <c r="AE207" s="2"/>
+      <c r="AF207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG207" s="2"/>
+      <c r="AH207" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH207" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI207" s="2"/>
+      <c r="AI207" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ207" s="2"/>
-    </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK207" s="2"/>
+    </row>
+    <row r="208" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>859</v>
       </c>
@@ -14907,24 +15120,25 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
-      <c r="AC208" s="2" t="s">
+      <c r="AC208" s="2"/>
+      <c r="AD208" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="AD208" s="2"/>
-      <c r="AE208" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF208" s="2"/>
-      <c r="AG208" s="2" t="s">
+      <c r="AE208" s="2"/>
+      <c r="AF208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG208" s="2"/>
+      <c r="AH208" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH208" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI208" s="2"/>
+      <c r="AI208" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ208" s="2"/>
-    </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK208" s="2"/>
+    </row>
+    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>864</v>
       </c>
@@ -14965,18 +15179,19 @@
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
       <c r="AD209" s="2"/>
-      <c r="AE209" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF209" s="2"/>
+      <c r="AE209" s="2"/>
+      <c r="AF209" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG209" s="2"/>
-      <c r="AH209" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI209" s="2"/>
+      <c r="AH209" s="2"/>
+      <c r="AI209" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ209" s="2"/>
-    </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK209" s="2"/>
+    </row>
+    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>867</v>
       </c>
@@ -15015,22 +15230,23 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
-      <c r="AC210" s="2" t="s">
+      <c r="AC210" s="2"/>
+      <c r="AD210" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="AD210" s="2"/>
-      <c r="AE210" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF210" s="2"/>
+      <c r="AE210" s="2"/>
+      <c r="AF210" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AG210" s="2"/>
-      <c r="AH210" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI210" s="2"/>
+      <c r="AH210" s="2"/>
+      <c r="AI210" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ210" s="2"/>
-    </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK210" s="2"/>
+    </row>
+    <row r="211" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>871</v>
       </c>
@@ -15069,26 +15285,27 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
-      <c r="AA211" s="2" t="s">
+      <c r="AA211" s="2"/>
+      <c r="AB211" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
       <c r="AD211" s="2"/>
-      <c r="AE211" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF211" s="2"/>
-      <c r="AG211" s="2" t="s">
+      <c r="AE211" s="2"/>
+      <c r="AF211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG211" s="2"/>
+      <c r="AH211" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH211" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI211" s="2"/>
+      <c r="AI211" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ211" s="2"/>
-    </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK211" s="2"/>
+    </row>
+    <row r="212" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>875</v>
       </c>
@@ -15131,20 +15348,21 @@
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
       <c r="AD212" s="2"/>
-      <c r="AE212" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF212" s="2"/>
-      <c r="AG212" s="2" t="s">
+      <c r="AE212" s="2"/>
+      <c r="AF212" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG212" s="2"/>
+      <c r="AH212" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH212" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI212" s="2"/>
+      <c r="AI212" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ212" s="2"/>
-    </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK212" s="2"/>
+    </row>
+    <row r="213" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>878</v>
       </c>
@@ -15187,20 +15405,21 @@
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
       <c r="AD213" s="2"/>
-      <c r="AE213" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF213" s="2"/>
-      <c r="AG213" s="2" t="s">
+      <c r="AE213" s="2"/>
+      <c r="AF213" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG213" s="2"/>
+      <c r="AH213" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AH213" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI213" s="2"/>
+      <c r="AI213" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ213" s="2"/>
-    </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK213" s="2"/>
+    </row>
+    <row r="214" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>881</v>
       </c>
@@ -15239,26 +15458,27 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
-      <c r="AA214" s="2" t="s">
+      <c r="AA214" s="2"/>
+      <c r="AB214" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="AB214" s="2"/>
       <c r="AC214" s="2"/>
       <c r="AD214" s="2"/>
-      <c r="AE214" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF214" s="2"/>
-      <c r="AG214" s="2" t="s">
+      <c r="AE214" s="2"/>
+      <c r="AF214" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG214" s="2"/>
+      <c r="AH214" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AH214" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI214" s="2"/>
+      <c r="AI214" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ214" s="2"/>
-    </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK214" s="2"/>
+    </row>
+    <row r="215" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>884</v>
       </c>
@@ -15297,26 +15517,27 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
-      <c r="AA215" s="2" t="s">
+      <c r="AA215" s="2"/>
+      <c r="AB215" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="AB215" s="2"/>
       <c r="AC215" s="2"/>
       <c r="AD215" s="2"/>
-      <c r="AE215" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF215" s="2"/>
-      <c r="AG215" s="2" t="s">
+      <c r="AE215" s="2"/>
+      <c r="AF215" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG215" s="2"/>
+      <c r="AH215" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH215" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI215" s="2"/>
+      <c r="AI215" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ215" s="2"/>
-    </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK215" s="2"/>
+    </row>
+    <row r="216" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>886</v>
       </c>
@@ -15359,24 +15580,25 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
-      <c r="AC216" s="2" t="s">
+      <c r="AC216" s="2"/>
+      <c r="AD216" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="AD216" s="2"/>
-      <c r="AE216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF216" s="2"/>
-      <c r="AG216" s="2" t="s">
+      <c r="AE216" s="2"/>
+      <c r="AF216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG216" s="2"/>
+      <c r="AH216" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AH216" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI216" s="2"/>
+      <c r="AI216" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ216" s="2"/>
-    </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK216" s="2"/>
+    </row>
+    <row r="217" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>890</v>
       </c>
@@ -15416,23 +15638,24 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
-      <c r="AD217" s="2" t="s">
+      <c r="AD217" s="2"/>
+      <c r="AE217" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="AE217" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF217" s="2"/>
-      <c r="AG217" s="2" t="s">
+      <c r="AF217" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG217" s="2"/>
+      <c r="AH217" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH217" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI217" s="2"/>
+      <c r="AI217" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ217" s="2"/>
-    </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK217" s="2"/>
+    </row>
+    <row r="218" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>894</v>
       </c>
@@ -15473,20 +15696,21 @@
       <c r="AB218" s="2"/>
       <c r="AC218" s="2"/>
       <c r="AD218" s="2"/>
-      <c r="AE218" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF218" s="2"/>
-      <c r="AG218" s="2" t="s">
+      <c r="AE218" s="2"/>
+      <c r="AF218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG218" s="2"/>
+      <c r="AH218" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="AH218" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI218" s="2"/>
+      <c r="AI218" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ218" s="2"/>
-    </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK218" s="2"/>
+    </row>
+    <row r="219" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>899</v>
       </c>
@@ -15525,24 +15749,25 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
-      <c r="AC219" s="2" t="s">
+      <c r="AC219" s="2"/>
+      <c r="AD219" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="AD219" s="2"/>
-      <c r="AE219" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF219" s="2"/>
-      <c r="AG219" s="2" t="s">
+      <c r="AE219" s="2"/>
+      <c r="AF219" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG219" s="2"/>
+      <c r="AH219" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="AH219" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI219" s="2"/>
+      <c r="AI219" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ219" s="2"/>
-    </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK219" s="2"/>
+    </row>
+    <row r="220" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>904</v>
       </c>
@@ -15581,24 +15806,25 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
-      <c r="AC220" s="2" t="s">
+      <c r="AC220" s="2"/>
+      <c r="AD220" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="AD220" s="2"/>
-      <c r="AE220" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF220" s="2"/>
-      <c r="AG220" s="2" t="s">
+      <c r="AE220" s="2"/>
+      <c r="AF220" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG220" s="2"/>
+      <c r="AH220" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH220" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI220" s="2"/>
+      <c r="AI220" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ220" s="2"/>
-    </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK220" s="2"/>
+    </row>
+    <row r="221" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>908</v>
       </c>
@@ -15638,27 +15864,28 @@
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
-      <c r="Z221" s="2" t="s">
+      <c r="Z221" s="2"/>
+      <c r="AA221" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
       <c r="AD221" s="2"/>
-      <c r="AE221" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF221" s="2"/>
-      <c r="AG221" s="2" t="s">
+      <c r="AE221" s="2"/>
+      <c r="AF221" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG221" s="2"/>
+      <c r="AH221" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AH221" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI221" s="2"/>
+      <c r="AI221" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ221" s="2"/>
-    </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK221" s="2"/>
+    </row>
+    <row r="222" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>912</v>
       </c>
@@ -15697,24 +15924,25 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
-      <c r="AC222" s="2" t="s">
+      <c r="AC222" s="2"/>
+      <c r="AD222" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="AD222" s="2"/>
-      <c r="AE222" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF222" s="2"/>
-      <c r="AG222" s="2" t="s">
+      <c r="AE222" s="2"/>
+      <c r="AF222" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG222" s="2"/>
+      <c r="AH222" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH222" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI222" s="2"/>
+      <c r="AI222" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ222" s="2"/>
-    </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK222" s="2"/>
+    </row>
+    <row r="223" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>915</v>
       </c>
@@ -15755,20 +15983,21 @@
       <c r="AB223" s="2"/>
       <c r="AC223" s="2"/>
       <c r="AD223" s="2"/>
-      <c r="AE223" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF223" s="2"/>
-      <c r="AG223" s="2" t="s">
+      <c r="AE223" s="2"/>
+      <c r="AF223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG223" s="2"/>
+      <c r="AH223" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH223" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI223" s="2"/>
+      <c r="AI223" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ223" s="2"/>
-    </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK223" s="2"/>
+    </row>
+    <row r="224" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>917</v>
       </c>
@@ -15809,20 +16038,21 @@
       <c r="AB224" s="2"/>
       <c r="AC224" s="2"/>
       <c r="AD224" s="2"/>
-      <c r="AE224" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF224" s="2"/>
-      <c r="AG224" s="2" t="s">
+      <c r="AE224" s="2"/>
+      <c r="AF224" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG224" s="2"/>
+      <c r="AH224" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH224" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI224" s="2"/>
+      <c r="AI224" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ224" s="2"/>
-    </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK224" s="2"/>
+    </row>
+    <row r="225" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>919</v>
       </c>
@@ -15865,20 +16095,21 @@
       <c r="AB225" s="2"/>
       <c r="AC225" s="2"/>
       <c r="AD225" s="2"/>
-      <c r="AE225" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF225" s="2"/>
-      <c r="AG225" s="2" t="s">
+      <c r="AE225" s="2"/>
+      <c r="AF225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG225" s="2"/>
+      <c r="AH225" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AH225" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI225" s="2"/>
+      <c r="AI225" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ225" s="2"/>
-    </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK225" s="2"/>
+    </row>
+    <row r="226" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>922</v>
       </c>
@@ -15918,23 +16149,24 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
       <c r="AC226" s="2"/>
-      <c r="AD226" s="2" t="s">
+      <c r="AD226" s="2"/>
+      <c r="AE226" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="AE226" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF226" s="2"/>
-      <c r="AG226" s="2" t="s">
+      <c r="AF226" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG226" s="2"/>
+      <c r="AH226" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH226" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI226" s="2"/>
+      <c r="AI226" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ226" s="2"/>
-    </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK226" s="2"/>
+    </row>
+    <row r="227" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>926</v>
       </c>
@@ -15975,18 +16207,19 @@
       <c r="AB227" s="2"/>
       <c r="AC227" s="2"/>
       <c r="AD227" s="2"/>
-      <c r="AE227" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF227" s="2"/>
-      <c r="AG227" s="2" t="s">
+      <c r="AE227" s="2"/>
+      <c r="AF227" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG227" s="2"/>
+      <c r="AH227" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH227" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI227" s="2"/>
+      <c r="AI227" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AJ227" s="2"/>
+      <c r="AK227" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\OneDrive - University College London\Documents\GitHub\ontologies\Behaviour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443024E-B86D-48F4-8A53-A4491A012D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF9A8A-CCAA-406F-9B5F-EC9540096B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36375" yWindow="285" windowWidth="26085" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2887,7 +2887,7 @@
     <t>animal</t>
   </si>
   <si>
-    <t>REL 'inheres in'</t>
+    <t>REL 'is attribute of'</t>
   </si>
 </sst>
 </file>
@@ -3248,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\OneDrive - University College London\Documents\GitHub\ontologies\Behaviour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/ontologies/Behaviour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF9A8A-CCAA-406F-9B5F-EC9540096B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{95BF9A8A-CCAA-406F-9B5F-EC9540096B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820920F2-0E01-42AC-A663-7746416AB959}"/>
   <bookViews>
-    <workbookView xWindow="36375" yWindow="285" windowWidth="26085" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="735" windowWidth="20145" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="947">
   <si>
     <t>ID</t>
   </si>
@@ -2888,6 +2888,9 @@
   </si>
   <si>
     <t>REL 'is attribute of'</t>
+  </si>
+  <si>
+    <t>REL 'has behavioural target'</t>
   </si>
 </sst>
 </file>
@@ -3246,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK227"/>
+  <dimension ref="A1:AL227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3258,7 +3261,7 @@
     <col min="11" max="11" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3337,41 +3340,44 @@
       <c r="Z1" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3417,20 +3423,21 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="2"/>
+      <c r="AJ2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -3472,24 +3479,25 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2" t="s">
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ3" s="2"/>
+      <c r="AJ3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK3" s="2"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3535,20 +3543,21 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2" t="s">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ4" s="2"/>
+      <c r="AJ4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK4" s="2"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL4" s="2"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3590,24 +3599,25 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2" t="s">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK5" s="2"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL5" s="2"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -3649,20 +3659,21 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2" t="s">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ6" s="2"/>
+      <c r="AJ6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK6" s="2"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL6" s="2"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -3702,24 +3713,25 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2" t="s">
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK7" s="2"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL7" s="2"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -3761,20 +3773,21 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2" t="s">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK8" s="2"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -3816,20 +3829,21 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3" t="s">
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -3872,23 +3886,24 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ10" s="2"/>
+      <c r="AJ10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK10" s="2"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL10" s="2"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3929,23 +3944,24 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2" t="s">
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ11" s="2"/>
+      <c r="AJ11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK11" s="2"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL11" s="2"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -3987,18 +4003,19 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK12" s="2"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL12" s="2"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -4040,20 +4057,21 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2" t="s">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK13" s="2"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL13" s="2"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
@@ -4095,20 +4113,21 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2" t="s">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ14" s="2"/>
+      <c r="AJ14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK14" s="2"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL14" s="2"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -4149,23 +4168,24 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2" t="s">
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AF15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK15" s="2"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -4207,20 +4227,21 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2" t="s">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ16" s="2"/>
+      <c r="AJ16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK16" s="2"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL16" s="2"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
@@ -4262,20 +4283,21 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2" t="s">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ17" s="2"/>
+      <c r="AJ17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK17" s="2"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL17" s="2"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>105</v>
       </c>
@@ -4317,20 +4339,21 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2" t="s">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ18" s="2"/>
+      <c r="AJ18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK18" s="2"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL18" s="2"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>108</v>
       </c>
@@ -4370,24 +4393,25 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2" t="s">
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK19" s="2"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL19" s="2"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
@@ -4429,20 +4453,21 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2" t="s">
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AI20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ20" s="2"/>
+      <c r="AJ20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK20" s="2"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL20" s="2"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
@@ -4484,24 +4509,25 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2" t="s">
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2" t="s">
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ21" s="2"/>
+      <c r="AJ21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK21" s="2"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL21" s="2"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>122</v>
       </c>
@@ -4541,24 +4567,25 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2" t="s">
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2">
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
         <v>1</v>
       </c>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2" t="s">
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ22" s="2"/>
+      <c r="AJ22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK22" s="2"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL22" s="2"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>127</v>
       </c>
@@ -4600,24 +4627,25 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2" t="s">
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2" t="s">
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ23" s="2"/>
+      <c r="AJ23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK23" s="2"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL23" s="2"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -4662,23 +4690,24 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2" t="s">
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AF24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ24" s="2"/>
+      <c r="AJ24" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK24" s="2"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL24" s="2"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>138</v>
       </c>
@@ -4722,20 +4751,21 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2" t="s">
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AI25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ25" s="2"/>
+      <c r="AJ25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK25" s="2"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL25" s="2"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>144</v>
       </c>
@@ -4780,25 +4810,26 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="2" t="s">
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AF26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AI26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2" t="s">
+      <c r="AJ26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
@@ -4842,20 +4873,21 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2" t="s">
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ27" s="2"/>
+      <c r="AJ27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK27" s="2"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL27" s="2"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>156</v>
       </c>
@@ -4897,20 +4929,21 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2" t="s">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AI28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ28" s="2"/>
+      <c r="AJ28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK28" s="2"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL28" s="2"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
@@ -4953,23 +4986,24 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="2" t="s">
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AF29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ29" s="2"/>
+      <c r="AJ29" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK29" s="2"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL29" s="2"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>164</v>
       </c>
@@ -5012,23 +5046,24 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="2" t="s">
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AF30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AI30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ30" s="2"/>
+      <c r="AJ30" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK30" s="2"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL30" s="2"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>171</v>
       </c>
@@ -5069,23 +5104,24 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="2" t="s">
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AF31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ31" s="2"/>
+      <c r="AJ31" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK31" s="2"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL31" s="2"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -5126,23 +5162,24 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="2" t="s">
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AF32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2" t="s">
+      <c r="AG32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ32" s="2"/>
+      <c r="AJ32" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK32" s="2"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL32" s="2"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>181</v>
       </c>
@@ -5182,28 +5219,29 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="2" t="s">
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AF33" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AF33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2" t="s">
+      <c r="AG33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AI33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2" t="s">
+      <c r="AJ33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>189</v>
       </c>
@@ -5244,23 +5282,24 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="2" t="s">
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AF34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2" t="s">
+      <c r="AG34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AI34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ34" s="2"/>
+      <c r="AJ34" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK34" s="2"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL34" s="2"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>194</v>
       </c>
@@ -5301,23 +5340,24 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2" t="s">
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AF35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2" t="s">
+      <c r="AG35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ35" s="2"/>
+      <c r="AJ35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK35" s="2"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>199</v>
       </c>
@@ -5361,20 +5401,21 @@
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2" t="s">
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ36" s="2"/>
+      <c r="AJ36" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK36" s="2"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL36" s="2"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>204</v>
       </c>
@@ -5418,20 +5459,21 @@
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2" t="s">
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ37" s="2"/>
+      <c r="AJ37" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK37" s="2"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL37" s="2"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>208</v>
       </c>
@@ -5475,20 +5517,21 @@
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
-      <c r="AF38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2" t="s">
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ38" s="2"/>
+      <c r="AJ38" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK38" s="2"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL38" s="2"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
@@ -5531,23 +5574,24 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="2" t="s">
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AF39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ39" s="2"/>
+      <c r="AJ39" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK39" s="2"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL39" s="2"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>219</v>
       </c>
@@ -5589,20 +5633,21 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2" t="s">
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ40" s="2"/>
+      <c r="AJ40" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK40" s="2"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL40" s="2"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>223</v>
       </c>
@@ -5646,20 +5691,21 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
-      <c r="AF41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2" t="s">
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ41" s="2"/>
+      <c r="AJ41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK41" s="2"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL41" s="2"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>227</v>
       </c>
@@ -5703,20 +5749,21 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
-      <c r="AF42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2" t="s">
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ42" s="2"/>
+      <c r="AJ42" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK42" s="2"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL42" s="2"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>230</v>
       </c>
@@ -5760,20 +5807,21 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
-      <c r="AF43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2" t="s">
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AI43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ43" s="2"/>
+      <c r="AJ43" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK43" s="2"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL43" s="2"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>235</v>
       </c>
@@ -5815,26 +5863,27 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="2" t="s">
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AE44" s="2" t="s">
+      <c r="AF44" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AF44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ44" s="2"/>
+      <c r="AJ44" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK44" s="2"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL44" s="2"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -5876,18 +5925,19 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
-      <c r="AF45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK45" s="2"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL45" s="2"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>245</v>
       </c>
@@ -5926,25 +5976,26 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="2" t="s">
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
-      <c r="AF46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2" t="s">
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ46" s="2"/>
+      <c r="AJ46" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK46" s="2"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL46" s="2"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>249</v>
       </c>
@@ -5986,20 +6037,21 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
-      <c r="AF47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2" t="s">
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ47" s="2"/>
+      <c r="AJ47" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK47" s="2"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL47" s="2"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>253</v>
       </c>
@@ -6040,23 +6092,24 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="2" t="s">
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AF48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2" t="s">
+      <c r="AG48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ48" s="2"/>
+      <c r="AJ48" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK48" s="2"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL48" s="2"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>257</v>
       </c>
@@ -6096,24 +6149,25 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2" t="s">
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2" t="s">
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ49" s="2"/>
+      <c r="AJ49" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK49" s="2"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL49" s="2"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>261</v>
       </c>
@@ -6155,20 +6209,21 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
-      <c r="AF50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2" t="s">
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ50" s="2"/>
+      <c r="AJ50" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK50" s="2"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL50" s="2"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>264</v>
       </c>
@@ -6206,26 +6261,27 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
-      <c r="AB51" s="2" t="s">
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
-      <c r="AF51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2" t="s">
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ51" s="2"/>
+      <c r="AJ51" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK51" s="2"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL51" s="2"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>268</v>
       </c>
@@ -6269,20 +6325,21 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
-      <c r="AF52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2" t="s">
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AI52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ52" s="2"/>
+      <c r="AJ52" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK52" s="2"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL52" s="2"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>273</v>
       </c>
@@ -6324,20 +6381,21 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
-      <c r="AF53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2" t="s">
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ53" s="2"/>
+      <c r="AJ53" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK53" s="2"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL53" s="2"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>276</v>
       </c>
@@ -6379,20 +6437,21 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
-      <c r="AF54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2" t="s">
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ54" s="2"/>
+      <c r="AJ54" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK54" s="2"/>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL54" s="2"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>280</v>
       </c>
@@ -6432,24 +6491,25 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2" t="s">
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="2" t="s">
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ55" s="2"/>
+      <c r="AJ55" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK55" s="2"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL55" s="2"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>285</v>
       </c>
@@ -6491,20 +6551,21 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
-      <c r="AF56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2" t="s">
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ56" s="2"/>
+      <c r="AJ56" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK56" s="2"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL56" s="2"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>288</v>
       </c>
@@ -6546,26 +6607,27 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="2" t="s">
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AE57" s="2" t="s">
+      <c r="AF57" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AF57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="2" t="s">
+      <c r="AG57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AI57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ57" s="2"/>
+      <c r="AJ57" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK57" s="2"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL57" s="2"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>294</v>
       </c>
@@ -6607,20 +6669,21 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
-      <c r="AF58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="2" t="s">
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ58" s="2"/>
+      <c r="AJ58" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK58" s="2"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL58" s="2"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>297</v>
       </c>
@@ -6664,20 +6727,21 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
-      <c r="AF59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="2" t="s">
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ59" s="2"/>
+      <c r="AJ59" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK59" s="2"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL59" s="2"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>301</v>
       </c>
@@ -6720,23 +6784,24 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
-      <c r="AE60" s="2" t="s">
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AF60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2" t="s">
+      <c r="AG60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ60" s="2"/>
+      <c r="AJ60" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK60" s="2"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL60" s="2"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>306</v>
       </c>
@@ -6780,20 +6845,21 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
-      <c r="AF61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2" t="s">
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AI61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ61" s="2"/>
+      <c r="AJ61" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK61" s="2"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL61" s="2"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>309</v>
       </c>
@@ -6835,20 +6901,21 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
-      <c r="AF62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="2" t="s">
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ62" s="2"/>
+      <c r="AJ62" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK62" s="2"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL62" s="2"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>312</v>
       </c>
@@ -6888,26 +6955,27 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="2" t="s">
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AE63" s="2" t="s">
+      <c r="AF63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AF63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="2" t="s">
+      <c r="AG63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AI63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ63" s="2"/>
+      <c r="AJ63" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK63" s="2"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL63" s="2"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>318</v>
       </c>
@@ -6948,23 +7016,24 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
-      <c r="AE64" s="2" t="s">
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AF64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="2" t="s">
+      <c r="AG64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ64" s="2"/>
+      <c r="AJ64" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK64" s="2"/>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL64" s="2"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>322</v>
       </c>
@@ -7006,20 +7075,21 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
-      <c r="AF65" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="2" t="s">
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ65" s="2"/>
+      <c r="AJ65" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK65" s="2"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL65" s="2"/>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>326</v>
       </c>
@@ -7063,26 +7133,27 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
-      <c r="AD66" s="2" t="s">
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AF66" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AF66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2" t="s">
+      <c r="AG66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ66" s="2"/>
+      <c r="AJ66" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK66" s="2"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL66" s="2"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
@@ -7123,23 +7194,24 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
-      <c r="AE67" s="2" t="s">
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AF67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2" t="s">
+      <c r="AG67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ67" s="2"/>
+      <c r="AJ67" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK67" s="2"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL67" s="2"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>335</v>
       </c>
@@ -7181,20 +7253,21 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
-      <c r="AF68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="2" t="s">
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ68" s="2"/>
+      <c r="AJ68" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK68" s="2"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL68" s="2"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>337</v>
       </c>
@@ -7236,20 +7309,21 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
-      <c r="AF69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2" t="s">
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ69" s="2"/>
+      <c r="AJ69" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK69" s="2"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL69" s="2"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>339</v>
       </c>
@@ -7288,27 +7362,28 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
-      <c r="AC70" s="2" t="s">
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AD70" s="2" t="s">
+      <c r="AE70" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2" t="s">
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ70" s="2"/>
+      <c r="AJ70" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK70" s="2"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL70" s="2"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>344</v>
       </c>
@@ -7350,20 +7425,21 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
-      <c r="AF71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" s="2" t="s">
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ71" s="2"/>
+      <c r="AJ71" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK71" s="2"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL71" s="2"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>348</v>
       </c>
@@ -7405,18 +7481,19 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
-      <c r="AF72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH72" s="2"/>
-      <c r="AI72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK72" s="2"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL72" s="2"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>351</v>
       </c>
@@ -7435,17 +7512,17 @@
       <c r="I73" t="s">
         <v>30</v>
       </c>
-      <c r="AF73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH73" t="s">
+      <c r="AG73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI73" t="s">
         <v>212</v>
       </c>
-      <c r="AI73" t="s">
+      <c r="AJ73" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>354</v>
       </c>
@@ -7485,24 +7562,25 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="2" t="s">
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" s="2" t="s">
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ74" s="2"/>
+      <c r="AJ74" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK74" s="2"/>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL74" s="2"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>358</v>
       </c>
@@ -7546,20 +7624,21 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
-      <c r="AF75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="2" t="s">
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AI75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ75" s="2"/>
+      <c r="AJ75" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK75" s="2"/>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL75" s="2"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>361</v>
       </c>
@@ -7601,20 +7680,21 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
-      <c r="AF76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="2" t="s">
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ76" s="2"/>
+      <c r="AJ76" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK76" s="2"/>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL76" s="2"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>364</v>
       </c>
@@ -7655,23 +7735,24 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
-      <c r="AE77" s="2" t="s">
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="AF77" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2" t="s">
+      <c r="AG77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ77" s="2"/>
+      <c r="AJ77" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK77" s="2"/>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL77" s="2"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>369</v>
       </c>
@@ -7715,20 +7796,21 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
-      <c r="AF78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2" t="s">
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AI78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ78" s="2"/>
+      <c r="AJ78" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK78" s="2"/>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL78" s="2"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>373</v>
       </c>
@@ -7770,20 +7852,21 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
-      <c r="AF79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG79" s="2"/>
-      <c r="AH79" s="2" t="s">
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ79" s="2"/>
+      <c r="AJ79" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK79" s="2"/>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL79" s="2"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>376</v>
       </c>
@@ -7824,23 +7907,24 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
-      <c r="AE80" s="2" t="s">
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="AF80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="2" t="s">
+      <c r="AG80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ80" s="2"/>
+      <c r="AJ80" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK80" s="2"/>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL80" s="2"/>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>380</v>
       </c>
@@ -7880,26 +7964,27 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="2" t="s">
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AE81" s="2" t="s">
+      <c r="AF81" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="AF81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG81" s="2"/>
-      <c r="AH81" s="2" t="s">
+      <c r="AG81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ81" s="2"/>
+      <c r="AJ81" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK81" s="2"/>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL81" s="2"/>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>385</v>
       </c>
@@ -7939,26 +8024,27 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
-      <c r="AD82" s="2" t="s">
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AE82" s="2" t="s">
+      <c r="AF82" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AF82" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2" t="s">
+      <c r="AG82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ82" s="2"/>
+      <c r="AJ82" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK82" s="2"/>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL82" s="2"/>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>391</v>
       </c>
@@ -8000,20 +8086,21 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
-      <c r="AF83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG83" s="2"/>
-      <c r="AH83" s="2" t="s">
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ83" s="2"/>
+      <c r="AJ83" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK83" s="2"/>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL83" s="2"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>393</v>
       </c>
@@ -8053,24 +8140,25 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="2" t="s">
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2" t="s">
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG84" s="2"/>
-      <c r="AH84" s="2" t="s">
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ84" s="2"/>
+      <c r="AJ84" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK84" s="2"/>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL84" s="2"/>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>398</v>
       </c>
@@ -8110,24 +8198,25 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="2" t="s">
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="2" t="s">
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG85" s="2"/>
-      <c r="AH85" s="2" t="s">
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ85" s="2"/>
+      <c r="AJ85" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK85" s="2"/>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL85" s="2"/>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>402</v>
       </c>
@@ -8167,24 +8256,25 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="2" t="s">
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="2" t="s">
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG86" s="2"/>
-      <c r="AH86" s="2" t="s">
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ86" s="2"/>
+      <c r="AJ86" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK86" s="2"/>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL86" s="2"/>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>406</v>
       </c>
@@ -8224,24 +8314,25 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="2" t="s">
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AE87" s="2"/>
-      <c r="AF87" s="2" t="s">
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG87" s="2"/>
-      <c r="AH87" s="2" t="s">
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ87" s="2"/>
+      <c r="AJ87" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK87" s="2"/>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL87" s="2"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>411</v>
       </c>
@@ -8283,20 +8374,21 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
-      <c r="AF88" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG88" s="2"/>
-      <c r="AH88" s="2" t="s">
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI88" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ88" s="2"/>
+      <c r="AJ88" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK88" s="2"/>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL88" s="2"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>414</v>
       </c>
@@ -8339,23 +8431,24 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
-      <c r="AE89" s="2" t="s">
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AF89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG89" s="2"/>
-      <c r="AH89" s="2" t="s">
+      <c r="AG89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ89" s="2"/>
+      <c r="AJ89" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK89" s="2"/>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL89" s="2"/>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>419</v>
       </c>
@@ -8397,26 +8490,27 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="2" t="s">
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AE90" s="2" t="s">
+      <c r="AF90" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AF90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG90" s="2"/>
-      <c r="AH90" s="2" t="s">
+      <c r="AG90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ90" s="2"/>
+      <c r="AJ90" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK90" s="2"/>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL90" s="2"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>425</v>
       </c>
@@ -8458,18 +8552,19 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
-      <c r="AF91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH91" s="2"/>
-      <c r="AI91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ91" s="2"/>
+      <c r="AI91" s="2"/>
+      <c r="AJ91" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK91" s="2"/>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL91" s="2"/>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>428</v>
       </c>
@@ -8511,20 +8606,21 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
-      <c r="AF92" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG92" s="2"/>
-      <c r="AH92" s="2" t="s">
+      <c r="AF92" s="2"/>
+      <c r="AG92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH92" s="2"/>
+      <c r="AI92" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AI92" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ92" s="2"/>
+      <c r="AJ92" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK92" s="2"/>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL92" s="2"/>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>432</v>
       </c>
@@ -8566,24 +8662,25 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="2" t="s">
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AE93" s="2"/>
-      <c r="AF93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG93" s="2"/>
-      <c r="AH93" s="2" t="s">
+      <c r="AF93" s="2"/>
+      <c r="AG93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AI93" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ93" s="2"/>
+      <c r="AJ93" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK93" s="2"/>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL93" s="2"/>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>437</v>
       </c>
@@ -8646,29 +8743,32 @@
         <v>940</v>
       </c>
       <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
+      <c r="AA94" s="2" t="s">
+        <v>940</v>
+      </c>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
-      <c r="AD94" s="2" t="s">
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AE94" s="2"/>
-      <c r="AF94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG94" s="2"/>
-      <c r="AH94" s="2" t="s">
+      <c r="AF94" s="2"/>
+      <c r="AG94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AI94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ94" s="2"/>
-      <c r="AK94" s="2" t="s">
+      <c r="AJ94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK94" s="2"/>
+      <c r="AL94" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>443</v>
       </c>
@@ -8710,30 +8810,31 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
-      <c r="AB95" s="2" t="s">
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2" t="s">
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AE95" s="2" t="s">
+      <c r="AF95" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AF95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG95" s="2"/>
-      <c r="AH95" s="2" t="s">
+      <c r="AG95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH95" s="2"/>
+      <c r="AI95" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AI95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ95" s="2"/>
+      <c r="AJ95" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK95" s="2"/>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL95" s="2"/>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>450</v>
       </c>
@@ -8774,31 +8875,32 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-      <c r="AA96" s="2" t="s">
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AB96" s="2" t="s">
+      <c r="AC96" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2" t="s">
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AE96" s="2"/>
-      <c r="AF96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG96" s="2"/>
-      <c r="AH96" s="2" t="s">
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ96" s="2"/>
+      <c r="AJ96" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK96" s="2"/>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL96" s="2"/>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>458</v>
       </c>
@@ -8839,29 +8941,30 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-      <c r="AA97" s="2" t="s">
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AB97" s="2" t="s">
+      <c r="AC97" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
-      <c r="AF97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG97" s="2"/>
-      <c r="AH97" s="2" t="s">
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AI97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ97" s="2"/>
+      <c r="AJ97" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK97" s="2"/>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL97" s="2"/>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>464</v>
       </c>
@@ -8903,20 +9006,21 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
-      <c r="AF98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG98" s="2"/>
-      <c r="AH98" s="2" t="s">
+      <c r="AF98" s="2"/>
+      <c r="AG98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH98" s="2"/>
+      <c r="AI98" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ98" s="2"/>
+      <c r="AJ98" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK98" s="2"/>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL98" s="2"/>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>467</v>
       </c>
@@ -8958,24 +9062,25 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
-      <c r="AD99" s="2" t="s">
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG99" s="2"/>
-      <c r="AH99" s="2" t="s">
+      <c r="AF99" s="2"/>
+      <c r="AG99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH99" s="2"/>
+      <c r="AI99" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ99" s="2"/>
+      <c r="AJ99" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK99" s="2"/>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL99" s="2"/>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>472</v>
       </c>
@@ -9019,20 +9124,21 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
-      <c r="AF100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG100" s="2"/>
-      <c r="AH100" s="2" t="s">
+      <c r="AF100" s="2"/>
+      <c r="AG100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH100" s="2"/>
+      <c r="AI100" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ100" s="2"/>
+      <c r="AJ100" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK100" s="2"/>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL100" s="2"/>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>475</v>
       </c>
@@ -9074,20 +9180,21 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
-      <c r="AF101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG101" s="2"/>
-      <c r="AH101" s="2" t="s">
+      <c r="AF101" s="2"/>
+      <c r="AG101" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH101" s="2"/>
+      <c r="AI101" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ101" s="2"/>
+      <c r="AJ101" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK101" s="2"/>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL101" s="2"/>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>479</v>
       </c>
@@ -9129,20 +9236,21 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
-      <c r="AF102" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG102" s="2"/>
-      <c r="AH102" s="2" t="s">
+      <c r="AF102" s="2"/>
+      <c r="AG102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH102" s="2"/>
+      <c r="AI102" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI102" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ102" s="2"/>
+      <c r="AJ102" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK102" s="2"/>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL102" s="2"/>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>483</v>
       </c>
@@ -9180,26 +9288,27 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
-      <c r="AB103" s="2" t="s">
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
-      <c r="AF103" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG103" s="2"/>
-      <c r="AH103" s="2" t="s">
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AI103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ103" s="2"/>
+      <c r="AJ103" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK103" s="2"/>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL103" s="2"/>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>487</v>
       </c>
@@ -9243,20 +9352,21 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
-      <c r="AF104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG104" s="2"/>
-      <c r="AH104" s="2" t="s">
+      <c r="AF104" s="2"/>
+      <c r="AG104" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH104" s="2"/>
+      <c r="AI104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ104" s="2"/>
+      <c r="AJ104" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK104" s="2"/>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL104" s="2"/>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>491</v>
       </c>
@@ -9299,23 +9409,24 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
-      <c r="AE105" s="2" t="s">
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="AF105" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG105" s="2"/>
-      <c r="AH105" s="2" t="s">
+      <c r="AG105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH105" s="2"/>
+      <c r="AI105" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ105" s="2"/>
+      <c r="AJ105" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK105" s="2"/>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL105" s="2"/>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>494</v>
       </c>
@@ -9357,20 +9468,21 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
-      <c r="AF106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG106" s="2"/>
-      <c r="AH106" s="2" t="s">
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ106" s="2"/>
+      <c r="AJ106" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK106" s="2"/>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL106" s="2"/>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>496</v>
       </c>
@@ -9412,20 +9524,21 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
-      <c r="AF107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG107" s="2"/>
-      <c r="AH107" s="2" t="s">
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ107" s="2"/>
+      <c r="AJ107" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK107" s="2"/>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL107" s="2"/>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>499</v>
       </c>
@@ -9468,23 +9581,24 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
-      <c r="AE108" s="2" t="s">
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AF108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG108" s="2"/>
-      <c r="AH108" s="2" t="s">
+      <c r="AG108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ108" s="2"/>
+      <c r="AJ108" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK108" s="2"/>
-    </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL108" s="2"/>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>504</v>
       </c>
@@ -9524,24 +9638,25 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
-      <c r="AD109" s="2" t="s">
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AE109" s="2"/>
-      <c r="AF109" s="2" t="s">
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG109" s="2"/>
-      <c r="AH109" s="2" t="s">
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ109" s="2"/>
+      <c r="AJ109" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK109" s="2"/>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL109" s="2"/>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>508</v>
       </c>
@@ -9581,24 +9696,25 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
-      <c r="AD110" s="2" t="s">
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AE110" s="2"/>
-      <c r="AF110" s="2" t="s">
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG110" s="2"/>
-      <c r="AH110" s="2" t="s">
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI110" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ110" s="2"/>
+      <c r="AJ110" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK110" s="2"/>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL110" s="2"/>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>512</v>
       </c>
@@ -9638,24 +9754,25 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="2" t="s">
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AE111" s="2"/>
-      <c r="AF111" s="2" t="s">
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG111" s="2"/>
-      <c r="AH111" s="2" t="s">
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ111" s="2"/>
+      <c r="AJ111" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK111" s="2"/>
-    </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL111" s="2"/>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>516</v>
       </c>
@@ -9695,24 +9812,25 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
-      <c r="AD112" s="2" t="s">
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="2" t="s">
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG112" s="2"/>
-      <c r="AH112" s="2" t="s">
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ112" s="2"/>
+      <c r="AJ112" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK112" s="2"/>
-    </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL112" s="2"/>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>520</v>
       </c>
@@ -9754,20 +9872,21 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
-      <c r="AF113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG113" s="2"/>
-      <c r="AH113" s="2" t="s">
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ113" s="2"/>
+      <c r="AJ113" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK113" s="2"/>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL113" s="2"/>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>525</v>
       </c>
@@ -9809,20 +9928,21 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
-      <c r="AF114" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG114" s="2"/>
-      <c r="AH114" s="2" t="s">
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI114" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ114" s="2"/>
+      <c r="AJ114" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK114" s="2"/>
-    </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL114" s="2"/>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>528</v>
       </c>
@@ -9863,23 +9983,24 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
-      <c r="AE115" s="2" t="s">
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AF115" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG115" s="2"/>
-      <c r="AH115" s="2" t="s">
+      <c r="AG115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ115" s="2"/>
+      <c r="AJ115" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK115" s="2"/>
-    </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL115" s="2"/>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>532</v>
       </c>
@@ -9921,20 +10042,21 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
-      <c r="AF116" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG116" s="2"/>
-      <c r="AH116" s="2" t="s">
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ116" s="2"/>
+      <c r="AJ116" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK116" s="2"/>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL116" s="2"/>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>534</v>
       </c>
@@ -9972,28 +10094,29 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
-      <c r="AB117" s="2" t="s">
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="AC117" s="2"/>
-      <c r="AD117" s="2" t="s">
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="AE117" s="2"/>
-      <c r="AF117" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG117" s="2"/>
-      <c r="AH117" s="2" t="s">
+      <c r="AF117" s="2"/>
+      <c r="AG117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH117" s="2"/>
+      <c r="AI117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI117" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ117" s="2"/>
+      <c r="AJ117" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK117" s="2"/>
-    </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL117" s="2"/>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>539</v>
       </c>
@@ -10036,23 +10159,24 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
-      <c r="AE118" s="2" t="s">
+      <c r="AE118" s="2"/>
+      <c r="AF118" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="AF118" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG118" s="2"/>
-      <c r="AH118" s="2" t="s">
+      <c r="AG118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH118" s="2"/>
+      <c r="AI118" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ118" s="2"/>
+      <c r="AJ118" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK118" s="2"/>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL118" s="2"/>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>543</v>
       </c>
@@ -10093,23 +10217,24 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
-      <c r="AE119" s="2" t="s">
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="AF119" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG119" s="2"/>
-      <c r="AH119" s="2" t="s">
+      <c r="AG119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH119" s="2"/>
+      <c r="AI119" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI119" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ119" s="2"/>
+      <c r="AJ119" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK119" s="2"/>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL119" s="2"/>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>547</v>
       </c>
@@ -10149,24 +10274,25 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="2" t="s">
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AE120" s="2"/>
-      <c r="AF120" s="2" t="s">
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG120" s="2"/>
-      <c r="AH120" s="2" t="s">
+      <c r="AH120" s="2"/>
+      <c r="AI120" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI120" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ120" s="2"/>
+      <c r="AJ120" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK120" s="2"/>
-    </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL120" s="2"/>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>551</v>
       </c>
@@ -10206,24 +10332,25 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
-      <c r="AD121" s="2" t="s">
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="AE121" s="2"/>
-      <c r="AF121" s="2" t="s">
+      <c r="AF121" s="2"/>
+      <c r="AG121" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG121" s="2"/>
-      <c r="AH121" s="2" t="s">
+      <c r="AH121" s="2"/>
+      <c r="AI121" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI121" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ121" s="2"/>
+      <c r="AJ121" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK121" s="2"/>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL121" s="2"/>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>555</v>
       </c>
@@ -10263,24 +10390,25 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="2" t="s">
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="AE122" s="2"/>
-      <c r="AF122" s="2" t="s">
+      <c r="AF122" s="2"/>
+      <c r="AG122" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG122" s="2"/>
-      <c r="AH122" s="2" t="s">
+      <c r="AH122" s="2"/>
+      <c r="AI122" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI122" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ122" s="2"/>
+      <c r="AJ122" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK122" s="2"/>
-    </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL122" s="2"/>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>559</v>
       </c>
@@ -10320,24 +10448,25 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="2" t="s">
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="AE123" s="2"/>
-      <c r="AF123" s="2" t="s">
+      <c r="AF123" s="2"/>
+      <c r="AG123" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AG123" s="2"/>
-      <c r="AH123" s="2" t="s">
+      <c r="AH123" s="2"/>
+      <c r="AI123" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ123" s="2"/>
+      <c r="AJ123" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK123" s="2"/>
-    </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL123" s="2"/>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>563</v>
       </c>
@@ -10377,24 +10506,25 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="2" t="s">
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="AE124" s="2"/>
-      <c r="AF124" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG124" s="2"/>
-      <c r="AH124" s="2" t="s">
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH124" s="2"/>
+      <c r="AI124" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI124" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ124" s="2"/>
+      <c r="AJ124" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK124" s="2"/>
-    </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL124" s="2"/>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>566</v>
       </c>
@@ -10436,20 +10566,21 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
-      <c r="AF125" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG125" s="2"/>
-      <c r="AH125" s="2" t="s">
+      <c r="AF125" s="2"/>
+      <c r="AG125" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH125" s="2"/>
+      <c r="AI125" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI125" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ125" s="2"/>
+      <c r="AJ125" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK125" s="2"/>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL125" s="2"/>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>569</v>
       </c>
@@ -10491,20 +10622,21 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
-      <c r="AF126" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG126" s="2"/>
-      <c r="AH126" s="2" t="s">
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI126" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ126" s="2"/>
+      <c r="AJ126" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK126" s="2"/>
-    </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL126" s="2"/>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>572</v>
       </c>
@@ -10546,20 +10678,21 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
-      <c r="AF127" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG127" s="2"/>
-      <c r="AH127" s="2" t="s">
+      <c r="AF127" s="2"/>
+      <c r="AG127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH127" s="2"/>
+      <c r="AI127" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="AI127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ127" s="2"/>
+      <c r="AJ127" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK127" s="2"/>
-    </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL127" s="2"/>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>576</v>
       </c>
@@ -10601,20 +10734,21 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
-      <c r="AF128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG128" s="2"/>
-      <c r="AH128" s="2" t="s">
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI128" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ128" s="2"/>
+      <c r="AJ128" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK128" s="2"/>
-    </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL128" s="2"/>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
@@ -10654,26 +10788,27 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="2" t="s">
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="AE129" s="2" t="s">
+      <c r="AF129" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="AF129" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG129" s="2"/>
-      <c r="AH129" s="2" t="s">
+      <c r="AG129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH129" s="2"/>
+      <c r="AI129" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="AI129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ129" s="2"/>
+      <c r="AJ129" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK129" s="2"/>
-    </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL129" s="2"/>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>586</v>
       </c>
@@ -10715,20 +10850,21 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
-      <c r="AF130" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG130" s="2"/>
-      <c r="AH130" s="2" t="s">
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH130" s="2"/>
+      <c r="AI130" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI130" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ130" s="2"/>
+      <c r="AJ130" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK130" s="2"/>
-    </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL130" s="2"/>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>589</v>
       </c>
@@ -10771,23 +10907,24 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
-      <c r="AE131" s="2" t="s">
+      <c r="AE131" s="2"/>
+      <c r="AF131" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="AF131" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG131" s="2"/>
-      <c r="AH131" s="2" t="s">
+      <c r="AG131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH131" s="2"/>
+      <c r="AI131" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI131" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ131" s="2"/>
+      <c r="AJ131" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK131" s="2"/>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL131" s="2"/>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>594</v>
       </c>
@@ -10827,26 +10964,27 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
-      <c r="AD132" s="2" t="s">
+      <c r="AD132" s="2"/>
+      <c r="AE132" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="AE132" s="2" t="s">
+      <c r="AF132" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="AF132" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG132" s="2"/>
-      <c r="AH132" s="2" t="s">
+      <c r="AG132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH132" s="2"/>
+      <c r="AI132" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI132" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ132" s="2"/>
+      <c r="AJ132" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK132" s="2"/>
-    </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL132" s="2"/>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>599</v>
       </c>
@@ -10886,26 +11024,27 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
-      <c r="AD133" s="2" t="s">
+      <c r="AD133" s="2"/>
+      <c r="AE133" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="AE133" s="2" t="s">
+      <c r="AF133" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="AF133" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG133" s="2"/>
-      <c r="AH133" s="2" t="s">
+      <c r="AG133" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH133" s="2"/>
+      <c r="AI133" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI133" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ133" s="2"/>
+      <c r="AJ133" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK133" s="2"/>
-    </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL133" s="2"/>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>604</v>
       </c>
@@ -10947,26 +11086,27 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
-      <c r="AD134" s="2" t="s">
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="AE134" s="2" t="s">
+      <c r="AF134" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="AF134" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG134" s="2"/>
-      <c r="AH134" s="2" t="s">
+      <c r="AG134" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH134" s="2"/>
+      <c r="AI134" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI134" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ134" s="2"/>
+      <c r="AJ134" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK134" s="2"/>
-    </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL134" s="2"/>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>609</v>
       </c>
@@ -11008,20 +11148,21 @@
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
-      <c r="AF135" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG135" s="2"/>
-      <c r="AH135" s="2" t="s">
+      <c r="AF135" s="2"/>
+      <c r="AG135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH135" s="2"/>
+      <c r="AI135" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ135" s="2"/>
+      <c r="AJ135" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK135" s="2"/>
-    </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL135" s="2"/>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>611</v>
       </c>
@@ -11063,20 +11204,21 @@
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
       <c r="AE136" s="2"/>
-      <c r="AF136" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG136" s="2"/>
-      <c r="AH136" s="2" t="s">
+      <c r="AF136" s="2"/>
+      <c r="AG136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH136" s="2"/>
+      <c r="AI136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ136" s="2"/>
+      <c r="AJ136" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK136" s="2"/>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL136" s="2"/>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>615</v>
       </c>
@@ -11118,20 +11260,21 @@
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
       <c r="AE137" s="2"/>
-      <c r="AF137" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG137" s="2"/>
-      <c r="AH137" s="2" t="s">
+      <c r="AF137" s="2"/>
+      <c r="AG137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH137" s="2"/>
+      <c r="AI137" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI137" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ137" s="2"/>
+      <c r="AJ137" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK137" s="2"/>
-    </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL137" s="2"/>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>619</v>
       </c>
@@ -11172,23 +11315,24 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
-      <c r="AE138" s="2" t="s">
+      <c r="AE138" s="2"/>
+      <c r="AF138" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="AF138" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG138" s="2"/>
-      <c r="AH138" s="2" t="s">
+      <c r="AG138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH138" s="2"/>
+      <c r="AI138" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI138" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ138" s="2"/>
+      <c r="AJ138" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK138" s="2"/>
-    </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL138" s="2"/>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>624</v>
       </c>
@@ -11228,26 +11372,27 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
-      <c r="AD139" s="2" t="s">
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="AE139" s="2" t="s">
+      <c r="AF139" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="AF139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG139" s="2"/>
-      <c r="AH139" s="2" t="s">
+      <c r="AG139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI139" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ139" s="2"/>
+      <c r="AJ139" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK139" s="2"/>
-    </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL139" s="2"/>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>628</v>
       </c>
@@ -11288,23 +11433,24 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
-      <c r="AE140" s="2" t="s">
+      <c r="AE140" s="2"/>
+      <c r="AF140" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="AF140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG140" s="2"/>
-      <c r="AH140" s="2" t="s">
+      <c r="AG140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH140" s="2"/>
+      <c r="AI140" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI140" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ140" s="2"/>
+      <c r="AJ140" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK140" s="2"/>
-    </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL140" s="2"/>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>631</v>
       </c>
@@ -11346,20 +11492,21 @@
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
       <c r="AE141" s="2"/>
-      <c r="AF141" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG141" s="2"/>
-      <c r="AH141" s="2" t="s">
+      <c r="AF141" s="2"/>
+      <c r="AG141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH141" s="2"/>
+      <c r="AI141" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI141" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ141" s="2"/>
+      <c r="AJ141" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK141" s="2"/>
-    </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL141" s="2"/>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>634</v>
       </c>
@@ -11401,20 +11548,21 @@
       <c r="AC142" s="2"/>
       <c r="AD142" s="2"/>
       <c r="AE142" s="2"/>
-      <c r="AF142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG142" s="2"/>
-      <c r="AH142" s="2" t="s">
+      <c r="AF142" s="2"/>
+      <c r="AG142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH142" s="2"/>
+      <c r="AI142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI142" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ142" s="2"/>
+      <c r="AJ142" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK142" s="2"/>
-    </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL142" s="2"/>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>637</v>
       </c>
@@ -11456,20 +11604,21 @@
       <c r="AC143" s="2"/>
       <c r="AD143" s="2"/>
       <c r="AE143" s="2"/>
-      <c r="AF143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG143" s="2"/>
-      <c r="AH143" s="2" t="s">
+      <c r="AF143" s="2"/>
+      <c r="AG143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH143" s="2"/>
+      <c r="AI143" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI143" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ143" s="2"/>
+      <c r="AJ143" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK143" s="2"/>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL143" s="2"/>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>639</v>
       </c>
@@ -11511,20 +11660,21 @@
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
       <c r="AE144" s="2"/>
-      <c r="AF144" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG144" s="2"/>
-      <c r="AH144" s="2" t="s">
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH144" s="2"/>
+      <c r="AI144" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI144" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ144" s="2"/>
+      <c r="AJ144" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK144" s="2"/>
-    </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL144" s="2"/>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>642</v>
       </c>
@@ -11564,24 +11714,25 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
-      <c r="AD145" s="2" t="s">
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="AE145" s="2"/>
-      <c r="AF145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG145" s="2"/>
-      <c r="AH145" s="2" t="s">
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI145" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ145" s="2"/>
+      <c r="AJ145" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK145" s="2"/>
-    </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL145" s="2"/>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>646</v>
       </c>
@@ -11621,24 +11772,25 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
-      <c r="AD146" s="2" t="s">
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AE146" s="2"/>
-      <c r="AF146" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG146" s="2"/>
-      <c r="AH146" s="2" t="s">
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH146" s="2"/>
+      <c r="AI146" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="AI146" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ146" s="2"/>
+      <c r="AJ146" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK146" s="2"/>
-    </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL146" s="2"/>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>652</v>
       </c>
@@ -11680,26 +11832,27 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
-      <c r="AD147" s="2" t="s">
+      <c r="AD147" s="2"/>
+      <c r="AE147" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="AE147" s="2" t="s">
+      <c r="AF147" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="AF147" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG147" s="2"/>
-      <c r="AH147" s="2" t="s">
+      <c r="AG147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH147" s="2"/>
+      <c r="AI147" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AI147" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ147" s="2"/>
+      <c r="AJ147" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK147" s="2"/>
-    </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL147" s="2"/>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>656</v>
       </c>
@@ -11739,26 +11892,27 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
-      <c r="AD148" s="2" t="s">
+      <c r="AD148" s="2"/>
+      <c r="AE148" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="AE148" s="2" t="s">
+      <c r="AF148" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AF148" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG148" s="2"/>
-      <c r="AH148" s="2" t="s">
+      <c r="AG148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH148" s="2"/>
+      <c r="AI148" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI148" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ148" s="2"/>
+      <c r="AJ148" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK148" s="2"/>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL148" s="2"/>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>661</v>
       </c>
@@ -11799,23 +11953,24 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
       <c r="AD149" s="2"/>
-      <c r="AE149" s="2" t="s">
+      <c r="AE149" s="2"/>
+      <c r="AF149" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AF149" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG149" s="2"/>
-      <c r="AH149" s="2" t="s">
+      <c r="AG149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH149" s="2"/>
+      <c r="AI149" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI149" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ149" s="2"/>
+      <c r="AJ149" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK149" s="2"/>
-    </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL149" s="2"/>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>665</v>
       </c>
@@ -11858,23 +12013,24 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
       <c r="AD150" s="2"/>
-      <c r="AE150" s="2" t="s">
+      <c r="AE150" s="2"/>
+      <c r="AF150" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="AF150" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG150" s="2"/>
-      <c r="AH150" s="2" t="s">
+      <c r="AG150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH150" s="2"/>
+      <c r="AI150" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI150" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ150" s="2"/>
+      <c r="AJ150" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK150" s="2"/>
-    </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL150" s="2"/>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>669</v>
       </c>
@@ -11917,25 +12073,26 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
       <c r="AD151" s="2"/>
-      <c r="AE151" s="2" t="s">
+      <c r="AE151" s="2"/>
+      <c r="AF151" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="AF151" s="2">
+      <c r="AG151" s="2">
         <v>1</v>
       </c>
-      <c r="AG151" s="2" t="s">
+      <c r="AH151" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="AH151" s="2" t="s">
+      <c r="AI151" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AI151" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ151" s="2"/>
+      <c r="AJ151" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK151" s="2"/>
-    </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL151" s="2"/>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>674</v>
       </c>
@@ -11976,23 +12133,24 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
       <c r="AD152" s="2"/>
-      <c r="AE152" s="2" t="s">
+      <c r="AE152" s="2"/>
+      <c r="AF152" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="AF152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG152" s="2"/>
-      <c r="AH152" s="2" t="s">
+      <c r="AG152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH152" s="2"/>
+      <c r="AI152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI152" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ152" s="2"/>
+      <c r="AJ152" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK152" s="2"/>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL152" s="2"/>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>678</v>
       </c>
@@ -12035,23 +12193,24 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
       <c r="AD153" s="2"/>
-      <c r="AE153" s="2" t="s">
+      <c r="AE153" s="2"/>
+      <c r="AF153" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AF153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG153" s="2"/>
-      <c r="AH153" s="2" t="s">
+      <c r="AG153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH153" s="2"/>
+      <c r="AI153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AI153" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ153" s="2"/>
+      <c r="AJ153" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK153" s="2"/>
-    </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL153" s="2"/>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>682</v>
       </c>
@@ -12093,20 +12252,21 @@
       <c r="AC154" s="2"/>
       <c r="AD154" s="2"/>
       <c r="AE154" s="2"/>
-      <c r="AF154" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG154" s="2"/>
-      <c r="AH154" s="2" t="s">
+      <c r="AF154" s="2"/>
+      <c r="AG154" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH154" s="2"/>
+      <c r="AI154" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI154" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ154" s="2"/>
+      <c r="AJ154" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK154" s="2"/>
-    </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL154" s="2"/>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>684</v>
       </c>
@@ -12148,20 +12308,21 @@
       <c r="AC155" s="2"/>
       <c r="AD155" s="2"/>
       <c r="AE155" s="2"/>
-      <c r="AF155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG155" s="2"/>
-      <c r="AH155" s="2" t="s">
+      <c r="AF155" s="2"/>
+      <c r="AG155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH155" s="2"/>
+      <c r="AI155" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI155" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ155" s="2"/>
+      <c r="AJ155" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK155" s="2"/>
-    </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL155" s="2"/>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>687</v>
       </c>
@@ -12203,20 +12364,21 @@
       <c r="AC156" s="2"/>
       <c r="AD156" s="2"/>
       <c r="AE156" s="2"/>
-      <c r="AF156" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG156" s="2"/>
-      <c r="AH156" s="2" t="s">
+      <c r="AF156" s="2"/>
+      <c r="AG156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH156" s="2"/>
+      <c r="AI156" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI156" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ156" s="2"/>
+      <c r="AJ156" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK156" s="2"/>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL156" s="2"/>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>689</v>
       </c>
@@ -12258,20 +12420,21 @@
       <c r="AC157" s="2"/>
       <c r="AD157" s="2"/>
       <c r="AE157" s="2"/>
-      <c r="AF157" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG157" s="2"/>
-      <c r="AH157" s="2" t="s">
+      <c r="AF157" s="2"/>
+      <c r="AG157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH157" s="2"/>
+      <c r="AI157" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI157" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ157" s="2"/>
+      <c r="AJ157" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK157" s="2"/>
-    </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL157" s="2"/>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>692</v>
       </c>
@@ -12313,24 +12476,25 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
-      <c r="AD158" s="2" t="s">
+      <c r="AD158" s="2"/>
+      <c r="AE158" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="AE158" s="2"/>
-      <c r="AF158" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG158" s="2"/>
-      <c r="AH158" s="2" t="s">
+      <c r="AF158" s="2"/>
+      <c r="AG158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH158" s="2"/>
+      <c r="AI158" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AI158" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ158" s="2"/>
+      <c r="AJ158" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK158" s="2"/>
-    </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL158" s="2"/>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>698</v>
       </c>
@@ -12374,20 +12538,21 @@
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
       <c r="AE159" s="2"/>
-      <c r="AF159" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG159" s="2"/>
-      <c r="AH159" s="2" t="s">
+      <c r="AF159" s="2"/>
+      <c r="AG159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH159" s="2"/>
+      <c r="AI159" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI159" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ159" s="2"/>
+      <c r="AJ159" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK159" s="2"/>
-    </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL159" s="2"/>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>700</v>
       </c>
@@ -12429,20 +12594,21 @@
       <c r="AC160" s="2"/>
       <c r="AD160" s="2"/>
       <c r="AE160" s="2"/>
-      <c r="AF160" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG160" s="2"/>
-      <c r="AH160" s="2" t="s">
+      <c r="AF160" s="2"/>
+      <c r="AG160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH160" s="2"/>
+      <c r="AI160" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI160" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ160" s="2"/>
+      <c r="AJ160" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK160" s="2"/>
-    </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL160" s="2"/>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>703</v>
       </c>
@@ -12484,20 +12650,21 @@
       <c r="AC161" s="2"/>
       <c r="AD161" s="2"/>
       <c r="AE161" s="2"/>
-      <c r="AF161" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG161" s="2"/>
-      <c r="AH161" s="2" t="s">
+      <c r="AF161" s="2"/>
+      <c r="AG161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH161" s="2"/>
+      <c r="AI161" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI161" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ161" s="2"/>
+      <c r="AJ161" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK161" s="2"/>
-    </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL161" s="2"/>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>706</v>
       </c>
@@ -12537,24 +12704,25 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
-      <c r="AD162" s="2" t="s">
+      <c r="AD162" s="2"/>
+      <c r="AE162" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="AE162" s="2"/>
-      <c r="AF162" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG162" s="2"/>
-      <c r="AH162" s="2" t="s">
+      <c r="AF162" s="2"/>
+      <c r="AG162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH162" s="2"/>
+      <c r="AI162" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI162" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ162" s="2"/>
+      <c r="AJ162" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK162" s="2"/>
-    </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL162" s="2"/>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>710</v>
       </c>
@@ -12597,23 +12765,24 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
       <c r="AD163" s="2"/>
-      <c r="AE163" s="2" t="s">
+      <c r="AE163" s="2"/>
+      <c r="AF163" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="AF163" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG163" s="2"/>
-      <c r="AH163" s="2" t="s">
+      <c r="AG163" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH163" s="2"/>
+      <c r="AI163" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AI163" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ163" s="2"/>
+      <c r="AJ163" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK163" s="2"/>
-    </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL163" s="2"/>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>714</v>
       </c>
@@ -12654,27 +12823,28 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-      <c r="AA164" s="2" t="s">
+      <c r="AA164" s="2"/>
+      <c r="AB164" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
       <c r="AE164" s="2"/>
-      <c r="AF164" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG164" s="2"/>
-      <c r="AH164" s="2" t="s">
+      <c r="AF164" s="2"/>
+      <c r="AG164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH164" s="2"/>
+      <c r="AI164" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI164" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ164" s="2"/>
+      <c r="AJ164" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK164" s="2"/>
-    </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL164" s="2"/>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>718</v>
       </c>
@@ -12716,20 +12886,21 @@
       <c r="AC165" s="2"/>
       <c r="AD165" s="2"/>
       <c r="AE165" s="2"/>
-      <c r="AF165" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG165" s="2"/>
-      <c r="AH165" s="2" t="s">
+      <c r="AF165" s="2"/>
+      <c r="AG165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH165" s="2"/>
+      <c r="AI165" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI165" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ165" s="2"/>
+      <c r="AJ165" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK165" s="2"/>
-    </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL165" s="2"/>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>722</v>
       </c>
@@ -12771,20 +12942,21 @@
       <c r="AC166" s="2"/>
       <c r="AD166" s="2"/>
       <c r="AE166" s="2"/>
-      <c r="AF166" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG166" s="2"/>
-      <c r="AH166" s="2" t="s">
+      <c r="AF166" s="2"/>
+      <c r="AG166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH166" s="2"/>
+      <c r="AI166" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI166" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ166" s="2"/>
+      <c r="AJ166" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK166" s="2"/>
-    </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL166" s="2"/>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>726</v>
       </c>
@@ -12826,20 +12998,21 @@
       <c r="AC167" s="2"/>
       <c r="AD167" s="2"/>
       <c r="AE167" s="2"/>
-      <c r="AF167" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG167" s="2"/>
-      <c r="AH167" s="2" t="s">
+      <c r="AF167" s="2"/>
+      <c r="AG167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH167" s="2"/>
+      <c r="AI167" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI167" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ167" s="2"/>
+      <c r="AJ167" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK167" s="2"/>
-    </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL167" s="2"/>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>728</v>
       </c>
@@ -12881,20 +13054,21 @@
       <c r="AC168" s="2"/>
       <c r="AD168" s="2"/>
       <c r="AE168" s="2"/>
-      <c r="AF168" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG168" s="2"/>
-      <c r="AH168" s="2" t="s">
+      <c r="AF168" s="2"/>
+      <c r="AG168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH168" s="2"/>
+      <c r="AI168" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI168" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ168" s="2"/>
+      <c r="AJ168" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK168" s="2"/>
-    </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL168" s="2"/>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>731</v>
       </c>
@@ -12936,20 +13110,21 @@
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
       <c r="AE169" s="2"/>
-      <c r="AF169" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG169" s="2"/>
-      <c r="AH169" s="2" t="s">
+      <c r="AF169" s="2"/>
+      <c r="AG169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI169" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ169" s="2"/>
+      <c r="AJ169" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK169" s="2"/>
-    </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL169" s="2"/>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>733</v>
       </c>
@@ -12991,20 +13166,21 @@
       <c r="AC170" s="2"/>
       <c r="AD170" s="2"/>
       <c r="AE170" s="2"/>
-      <c r="AF170" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG170" s="2"/>
-      <c r="AH170" s="2" t="s">
+      <c r="AF170" s="2"/>
+      <c r="AG170" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH170" s="2"/>
+      <c r="AI170" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ170" s="2"/>
+      <c r="AJ170" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK170" s="2"/>
-    </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL170" s="2"/>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>736</v>
       </c>
@@ -13046,20 +13222,21 @@
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
       <c r="AE171" s="2"/>
-      <c r="AF171" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG171" s="2"/>
-      <c r="AH171" s="2" t="s">
+      <c r="AF171" s="2"/>
+      <c r="AG171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH171" s="2"/>
+      <c r="AI171" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI171" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ171" s="2"/>
+      <c r="AJ171" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK171" s="2"/>
-    </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL171" s="2"/>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>739</v>
       </c>
@@ -13101,20 +13278,21 @@
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
       <c r="AE172" s="2"/>
-      <c r="AF172" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2" t="s">
+      <c r="AF172" s="2"/>
+      <c r="AG172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH172" s="2"/>
+      <c r="AI172" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI172" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ172" s="2"/>
+      <c r="AJ172" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK172" s="2"/>
-    </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL172" s="2"/>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>742</v>
       </c>
@@ -13156,20 +13334,21 @@
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
       <c r="AE173" s="2"/>
-      <c r="AF173" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG173" s="2"/>
-      <c r="AH173" s="2" t="s">
+      <c r="AF173" s="2"/>
+      <c r="AG173" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH173" s="2"/>
+      <c r="AI173" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI173" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ173" s="2"/>
+      <c r="AJ173" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK173" s="2"/>
-    </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL173" s="2"/>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>744</v>
       </c>
@@ -13211,20 +13390,21 @@
       <c r="AC174" s="2"/>
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
-      <c r="AF174" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG174" s="2"/>
-      <c r="AH174" s="2" t="s">
+      <c r="AF174" s="2"/>
+      <c r="AG174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH174" s="2"/>
+      <c r="AI174" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI174" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ174" s="2"/>
+      <c r="AJ174" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK174" s="2"/>
-    </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL174" s="2"/>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>747</v>
       </c>
@@ -13266,18 +13446,19 @@
       <c r="AC175" s="2"/>
       <c r="AD175" s="2"/>
       <c r="AE175" s="2"/>
-      <c r="AF175" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG175" s="2"/>
+      <c r="AF175" s="2"/>
+      <c r="AG175" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH175" s="2"/>
-      <c r="AI175" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ175" s="2"/>
+      <c r="AI175" s="2"/>
+      <c r="AJ175" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK175" s="2"/>
-    </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL175" s="2"/>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>750</v>
       </c>
@@ -13319,20 +13500,21 @@
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
       <c r="AE176" s="2"/>
-      <c r="AF176" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG176" s="2"/>
-      <c r="AH176" s="2" t="s">
+      <c r="AF176" s="2"/>
+      <c r="AG176" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH176" s="2"/>
+      <c r="AI176" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI176" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ176" s="2"/>
+      <c r="AJ176" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK176" s="2"/>
-    </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL176" s="2"/>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>753</v>
       </c>
@@ -13374,20 +13556,21 @@
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
       <c r="AE177" s="2"/>
-      <c r="AF177" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG177" s="2"/>
-      <c r="AH177" s="2" t="s">
+      <c r="AF177" s="2"/>
+      <c r="AG177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH177" s="2"/>
+      <c r="AI177" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI177" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ177" s="2"/>
+      <c r="AJ177" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK177" s="2"/>
-    </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL177" s="2"/>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>756</v>
       </c>
@@ -13426,25 +13609,26 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
-      <c r="AC178" s="2" t="s">
+      <c r="AC178" s="2"/>
+      <c r="AD178" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AD178" s="2"/>
       <c r="AE178" s="2"/>
-      <c r="AF178" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG178" s="2"/>
-      <c r="AH178" s="2" t="s">
+      <c r="AF178" s="2"/>
+      <c r="AG178" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH178" s="2"/>
+      <c r="AI178" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI178" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ178" s="2"/>
+      <c r="AJ178" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK178" s="2"/>
-    </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL178" s="2"/>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>759</v>
       </c>
@@ -13483,25 +13667,26 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
-      <c r="AC179" s="2" t="s">
+      <c r="AC179" s="2"/>
+      <c r="AD179" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AD179" s="2"/>
       <c r="AE179" s="2"/>
-      <c r="AF179" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG179" s="2"/>
-      <c r="AH179" s="2" t="s">
+      <c r="AF179" s="2"/>
+      <c r="AG179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH179" s="2"/>
+      <c r="AI179" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI179" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ179" s="2"/>
+      <c r="AJ179" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK179" s="2"/>
-    </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL179" s="2"/>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>762</v>
       </c>
@@ -13547,20 +13732,21 @@
       <c r="AC180" s="2"/>
       <c r="AD180" s="2"/>
       <c r="AE180" s="2"/>
-      <c r="AF180" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG180" s="2"/>
-      <c r="AH180" s="2" t="s">
+      <c r="AF180" s="2"/>
+      <c r="AG180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH180" s="2"/>
+      <c r="AI180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AI180" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ180" s="2"/>
+      <c r="AJ180" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK180" s="2"/>
-    </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL180" s="2"/>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>767</v>
       </c>
@@ -13602,20 +13788,21 @@
       <c r="AC181" s="2"/>
       <c r="AD181" s="2"/>
       <c r="AE181" s="2"/>
-      <c r="AF181" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG181" s="2"/>
-      <c r="AH181" s="2" t="s">
+      <c r="AF181" s="2"/>
+      <c r="AG181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH181" s="2"/>
+      <c r="AI181" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI181" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ181" s="2"/>
+      <c r="AJ181" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK181" s="2"/>
-    </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL181" s="2"/>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>769</v>
       </c>
@@ -13657,24 +13844,25 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
-      <c r="AD182" s="2" t="s">
+      <c r="AD182" s="2"/>
+      <c r="AE182" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="AE182" s="2"/>
-      <c r="AF182" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG182" s="2"/>
-      <c r="AH182" s="2" t="s">
+      <c r="AF182" s="2"/>
+      <c r="AG182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH182" s="2"/>
+      <c r="AI182" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI182" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ182" s="2"/>
+      <c r="AJ182" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK182" s="2"/>
-    </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL182" s="2"/>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>774</v>
       </c>
@@ -13714,24 +13902,25 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
-      <c r="AD183" s="2" t="s">
+      <c r="AD183" s="2"/>
+      <c r="AE183" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="AE183" s="2"/>
-      <c r="AF183" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG183" s="2"/>
-      <c r="AH183" s="2" t="s">
+      <c r="AF183" s="2"/>
+      <c r="AG183" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH183" s="2"/>
+      <c r="AI183" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI183" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ183" s="2"/>
+      <c r="AJ183" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK183" s="2"/>
-    </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL183" s="2"/>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>777</v>
       </c>
@@ -13771,26 +13960,27 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
-      <c r="AD184" s="2" t="s">
+      <c r="AD184" s="2"/>
+      <c r="AE184" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="AE184" s="2" t="s">
+      <c r="AF184" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="AF184" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG184" s="2"/>
-      <c r="AH184" s="2" t="s">
+      <c r="AG184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH184" s="2"/>
+      <c r="AI184" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI184" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ184" s="2"/>
+      <c r="AJ184" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK184" s="2"/>
-    </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL184" s="2"/>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>782</v>
       </c>
@@ -13832,18 +14022,19 @@
       <c r="AC185" s="2"/>
       <c r="AD185" s="2"/>
       <c r="AE185" s="2"/>
-      <c r="AF185" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG185" s="2"/>
+      <c r="AF185" s="2"/>
+      <c r="AG185" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH185" s="2"/>
-      <c r="AI185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ185" s="2"/>
+      <c r="AI185" s="2"/>
+      <c r="AJ185" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK185" s="2"/>
-    </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL185" s="2"/>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>785</v>
       </c>
@@ -13885,20 +14076,21 @@
       <c r="AC186" s="2"/>
       <c r="AD186" s="2"/>
       <c r="AE186" s="2"/>
-      <c r="AF186" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG186" s="2"/>
-      <c r="AH186" s="2" t="s">
+      <c r="AF186" s="2"/>
+      <c r="AG186" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH186" s="2"/>
+      <c r="AI186" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ186" s="2"/>
+      <c r="AJ186" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK186" s="2"/>
-    </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL186" s="2"/>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>788</v>
       </c>
@@ -13940,20 +14132,21 @@
       <c r="AC187" s="2"/>
       <c r="AD187" s="2"/>
       <c r="AE187" s="2"/>
-      <c r="AF187" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG187" s="2"/>
-      <c r="AH187" s="2" t="s">
+      <c r="AF187" s="2"/>
+      <c r="AG187" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH187" s="2"/>
+      <c r="AI187" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ187" s="2"/>
+      <c r="AJ187" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK187" s="2"/>
-    </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL187" s="2"/>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>792</v>
       </c>
@@ -13993,24 +14186,25 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
-      <c r="AD188" s="2" t="s">
+      <c r="AD188" s="2"/>
+      <c r="AE188" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="AE188" s="2"/>
-      <c r="AF188" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG188" s="2"/>
-      <c r="AH188" s="2" t="s">
+      <c r="AF188" s="2"/>
+      <c r="AG188" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH188" s="2"/>
+      <c r="AI188" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI188" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ188" s="2"/>
+      <c r="AJ188" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK188" s="2"/>
-    </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL188" s="2"/>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>795</v>
       </c>
@@ -14050,26 +14244,27 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
-      <c r="AD189" s="2" t="s">
+      <c r="AD189" s="2"/>
+      <c r="AE189" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="AE189" s="2" t="s">
+      <c r="AF189" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="AF189" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG189" s="2"/>
-      <c r="AH189" s="2" t="s">
+      <c r="AG189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH189" s="2"/>
+      <c r="AI189" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AI189" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ189" s="2"/>
+      <c r="AJ189" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK189" s="2"/>
-    </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL189" s="2"/>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>800</v>
       </c>
@@ -14111,20 +14306,21 @@
       <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
       <c r="AE190" s="2"/>
-      <c r="AF190" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG190" s="2"/>
-      <c r="AH190" s="2" t="s">
+      <c r="AF190" s="2"/>
+      <c r="AG190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH190" s="2"/>
+      <c r="AI190" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI190" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ190" s="2"/>
+      <c r="AJ190" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK190" s="2"/>
-    </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL190" s="2"/>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>803</v>
       </c>
@@ -14166,18 +14362,19 @@
       <c r="AC191" s="2"/>
       <c r="AD191" s="2"/>
       <c r="AE191" s="2"/>
-      <c r="AF191" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG191" s="2"/>
+      <c r="AF191" s="2"/>
+      <c r="AG191" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH191" s="2"/>
-      <c r="AI191" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ191" s="2"/>
+      <c r="AI191" s="2"/>
+      <c r="AJ191" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK191" s="2"/>
-    </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL191" s="2"/>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>806</v>
       </c>
@@ -14219,26 +14416,27 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
-      <c r="AD192" s="2" t="s">
+      <c r="AD192" s="2"/>
+      <c r="AE192" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="AE192" s="2" t="s">
+      <c r="AF192" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="AF192" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG192" s="2"/>
-      <c r="AH192" s="2" t="s">
+      <c r="AG192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH192" s="2"/>
+      <c r="AI192" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI192" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ192" s="2"/>
+      <c r="AJ192" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK192" s="2"/>
-    </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL192" s="2"/>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>810</v>
       </c>
@@ -14280,20 +14478,21 @@
       <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
       <c r="AE193" s="2"/>
-      <c r="AF193" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG193" s="2"/>
-      <c r="AH193" s="2" t="s">
+      <c r="AF193" s="2"/>
+      <c r="AG193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH193" s="2"/>
+      <c r="AI193" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI193" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ193" s="2"/>
+      <c r="AJ193" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK193" s="2"/>
-    </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL193" s="2"/>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>813</v>
       </c>
@@ -14334,23 +14533,24 @@
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
       <c r="AD194" s="2"/>
-      <c r="AE194" s="2" t="s">
+      <c r="AE194" s="2"/>
+      <c r="AF194" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="AF194" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG194" s="2"/>
-      <c r="AH194" s="2" t="s">
+      <c r="AG194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH194" s="2"/>
+      <c r="AI194" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI194" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ194" s="2"/>
+      <c r="AJ194" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK194" s="2"/>
-    </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL194" s="2"/>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>817</v>
       </c>
@@ -14392,20 +14592,21 @@
       <c r="AC195" s="2"/>
       <c r="AD195" s="2"/>
       <c r="AE195" s="2"/>
-      <c r="AF195" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG195" s="2"/>
-      <c r="AH195" s="2" t="s">
+      <c r="AF195" s="2"/>
+      <c r="AG195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH195" s="2"/>
+      <c r="AI195" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI195" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ195" s="2"/>
+      <c r="AJ195" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK195" s="2"/>
-    </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL195" s="2"/>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>820</v>
       </c>
@@ -14447,20 +14648,21 @@
       <c r="AC196" s="2"/>
       <c r="AD196" s="2"/>
       <c r="AE196" s="2"/>
-      <c r="AF196" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG196" s="2"/>
-      <c r="AH196" s="2" t="s">
+      <c r="AF196" s="2"/>
+      <c r="AG196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH196" s="2"/>
+      <c r="AI196" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI196" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ196" s="2"/>
+      <c r="AJ196" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK196" s="2"/>
-    </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL196" s="2"/>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>822</v>
       </c>
@@ -14501,21 +14703,22 @@
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
       <c r="AD197" s="2"/>
-      <c r="AE197" s="2" t="s">
+      <c r="AE197" s="2"/>
+      <c r="AF197" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="AF197" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG197" s="2"/>
+      <c r="AG197" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH197" s="2"/>
-      <c r="AI197" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ197" s="2"/>
+      <c r="AI197" s="2"/>
+      <c r="AJ197" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK197" s="2"/>
-    </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL197" s="2"/>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>825</v>
       </c>
@@ -14557,26 +14760,27 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
-      <c r="AD198" s="2" t="s">
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="AE198" s="2" t="s">
+      <c r="AF198" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="AF198" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG198" s="2"/>
-      <c r="AH198" s="2" t="s">
+      <c r="AG198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH198" s="2"/>
+      <c r="AI198" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AI198" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ198" s="2"/>
+      <c r="AJ198" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK198" s="2"/>
-    </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL198" s="2"/>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>829</v>
       </c>
@@ -14618,20 +14822,21 @@
       <c r="AC199" s="2"/>
       <c r="AD199" s="2"/>
       <c r="AE199" s="2"/>
-      <c r="AF199" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG199" s="2"/>
-      <c r="AH199" s="2" t="s">
+      <c r="AF199" s="2"/>
+      <c r="AG199" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH199" s="2"/>
+      <c r="AI199" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI199" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ199" s="2"/>
+      <c r="AJ199" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK199" s="2"/>
-    </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL199" s="2"/>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>832</v>
       </c>
@@ -14673,20 +14878,21 @@
       <c r="AC200" s="2"/>
       <c r="AD200" s="2"/>
       <c r="AE200" s="2"/>
-      <c r="AF200" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG200" s="2"/>
-      <c r="AH200" s="2" t="s">
+      <c r="AF200" s="2"/>
+      <c r="AG200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH200" s="2"/>
+      <c r="AI200" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI200" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ200" s="2"/>
+      <c r="AJ200" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK200" s="2"/>
-    </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL200" s="2"/>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>834</v>
       </c>
@@ -14728,20 +14934,21 @@
       <c r="AC201" s="2"/>
       <c r="AD201" s="2"/>
       <c r="AE201" s="2"/>
-      <c r="AF201" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG201" s="2"/>
-      <c r="AH201" s="2" t="s">
+      <c r="AF201" s="2"/>
+      <c r="AG201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH201" s="2"/>
+      <c r="AI201" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI201" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ201" s="2"/>
+      <c r="AJ201" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK201" s="2"/>
-    </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL201" s="2"/>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>836</v>
       </c>
@@ -14782,23 +14989,24 @@
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
       <c r="AD202" s="2"/>
-      <c r="AE202" s="2" t="s">
+      <c r="AE202" s="2"/>
+      <c r="AF202" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="AF202" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG202" s="2"/>
-      <c r="AH202" s="2" t="s">
+      <c r="AG202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH202" s="2"/>
+      <c r="AI202" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="AI202" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ202" s="2"/>
+      <c r="AJ202" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK202" s="2"/>
-    </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL202" s="2"/>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>841</v>
       </c>
@@ -14840,20 +15048,21 @@
       <c r="AC203" s="2"/>
       <c r="AD203" s="2"/>
       <c r="AE203" s="2"/>
-      <c r="AF203" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG203" s="2"/>
-      <c r="AH203" s="2" t="s">
+      <c r="AF203" s="2"/>
+      <c r="AG203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH203" s="2"/>
+      <c r="AI203" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI203" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ203" s="2"/>
+      <c r="AJ203" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK203" s="2"/>
-    </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL203" s="2"/>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>844</v>
       </c>
@@ -14895,20 +15104,21 @@
       <c r="AC204" s="2"/>
       <c r="AD204" s="2"/>
       <c r="AE204" s="2"/>
-      <c r="AF204" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG204" s="2"/>
-      <c r="AH204" s="2" t="s">
+      <c r="AF204" s="2"/>
+      <c r="AG204" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH204" s="2"/>
+      <c r="AI204" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AI204" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ204" s="2"/>
+      <c r="AJ204" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK204" s="2"/>
-    </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL204" s="2"/>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>847</v>
       </c>
@@ -14948,28 +15158,29 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
-      <c r="AB205" s="2" t="s">
+      <c r="AB205" s="2"/>
+      <c r="AC205" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="AC205" s="2"/>
-      <c r="AD205" s="2" t="s">
+      <c r="AD205" s="2"/>
+      <c r="AE205" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="AE205" s="2"/>
-      <c r="AF205" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG205" s="2"/>
-      <c r="AH205" s="2" t="s">
+      <c r="AF205" s="2"/>
+      <c r="AG205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH205" s="2"/>
+      <c r="AI205" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AI205" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ205" s="2"/>
+      <c r="AJ205" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK205" s="2"/>
-    </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL205" s="2"/>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>852</v>
       </c>
@@ -15011,20 +15222,21 @@
       <c r="AC206" s="2"/>
       <c r="AD206" s="2"/>
       <c r="AE206" s="2"/>
-      <c r="AF206" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG206" s="2"/>
-      <c r="AH206" s="2" t="s">
+      <c r="AF206" s="2"/>
+      <c r="AG206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH206" s="2"/>
+      <c r="AI206" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI206" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ206" s="2"/>
+      <c r="AJ206" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK206" s="2"/>
-    </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL206" s="2"/>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>855</v>
       </c>
@@ -15064,24 +15276,25 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
-      <c r="AD207" s="2" t="s">
+      <c r="AD207" s="2"/>
+      <c r="AE207" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="AE207" s="2"/>
-      <c r="AF207" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG207" s="2"/>
-      <c r="AH207" s="2" t="s">
+      <c r="AF207" s="2"/>
+      <c r="AG207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH207" s="2"/>
+      <c r="AI207" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI207" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ207" s="2"/>
+      <c r="AJ207" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK207" s="2"/>
-    </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL207" s="2"/>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>859</v>
       </c>
@@ -15121,24 +15334,25 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
-      <c r="AD208" s="2" t="s">
+      <c r="AD208" s="2"/>
+      <c r="AE208" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="AE208" s="2"/>
-      <c r="AF208" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG208" s="2"/>
-      <c r="AH208" s="2" t="s">
+      <c r="AF208" s="2"/>
+      <c r="AG208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH208" s="2"/>
+      <c r="AI208" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI208" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ208" s="2"/>
+      <c r="AJ208" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK208" s="2"/>
-    </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL208" s="2"/>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>864</v>
       </c>
@@ -15180,18 +15394,19 @@
       <c r="AC209" s="2"/>
       <c r="AD209" s="2"/>
       <c r="AE209" s="2"/>
-      <c r="AF209" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG209" s="2"/>
+      <c r="AF209" s="2"/>
+      <c r="AG209" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH209" s="2"/>
-      <c r="AI209" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ209" s="2"/>
+      <c r="AI209" s="2"/>
+      <c r="AJ209" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK209" s="2"/>
-    </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL209" s="2"/>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>867</v>
       </c>
@@ -15231,22 +15446,23 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
-      <c r="AD210" s="2" t="s">
+      <c r="AD210" s="2"/>
+      <c r="AE210" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="AE210" s="2"/>
-      <c r="AF210" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG210" s="2"/>
+      <c r="AF210" s="2"/>
+      <c r="AG210" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AH210" s="2"/>
-      <c r="AI210" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ210" s="2"/>
+      <c r="AI210" s="2"/>
+      <c r="AJ210" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK210" s="2"/>
-    </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL210" s="2"/>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>871</v>
       </c>
@@ -15286,26 +15502,27 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
-      <c r="AB211" s="2" t="s">
+      <c r="AB211" s="2"/>
+      <c r="AC211" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="AC211" s="2"/>
       <c r="AD211" s="2"/>
       <c r="AE211" s="2"/>
-      <c r="AF211" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG211" s="2"/>
-      <c r="AH211" s="2" t="s">
+      <c r="AF211" s="2"/>
+      <c r="AG211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH211" s="2"/>
+      <c r="AI211" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI211" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ211" s="2"/>
+      <c r="AJ211" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK211" s="2"/>
-    </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL211" s="2"/>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>875</v>
       </c>
@@ -15349,20 +15566,21 @@
       <c r="AC212" s="2"/>
       <c r="AD212" s="2"/>
       <c r="AE212" s="2"/>
-      <c r="AF212" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG212" s="2"/>
-      <c r="AH212" s="2" t="s">
+      <c r="AF212" s="2"/>
+      <c r="AG212" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH212" s="2"/>
+      <c r="AI212" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI212" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ212" s="2"/>
+      <c r="AJ212" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK212" s="2"/>
-    </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL212" s="2"/>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>878</v>
       </c>
@@ -15406,20 +15624,21 @@
       <c r="AC213" s="2"/>
       <c r="AD213" s="2"/>
       <c r="AE213" s="2"/>
-      <c r="AF213" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG213" s="2"/>
-      <c r="AH213" s="2" t="s">
+      <c r="AF213" s="2"/>
+      <c r="AG213" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH213" s="2"/>
+      <c r="AI213" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI213" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ213" s="2"/>
+      <c r="AJ213" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK213" s="2"/>
-    </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL213" s="2"/>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>881</v>
       </c>
@@ -15459,26 +15678,27 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
-      <c r="AB214" s="2" t="s">
+      <c r="AB214" s="2"/>
+      <c r="AC214" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="AC214" s="2"/>
       <c r="AD214" s="2"/>
       <c r="AE214" s="2"/>
-      <c r="AF214" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG214" s="2"/>
-      <c r="AH214" s="2" t="s">
+      <c r="AF214" s="2"/>
+      <c r="AG214" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH214" s="2"/>
+      <c r="AI214" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AI214" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ214" s="2"/>
+      <c r="AJ214" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK214" s="2"/>
-    </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL214" s="2"/>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>884</v>
       </c>
@@ -15518,26 +15738,27 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
-      <c r="AB215" s="2" t="s">
+      <c r="AB215" s="2"/>
+      <c r="AC215" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="AC215" s="2"/>
       <c r="AD215" s="2"/>
       <c r="AE215" s="2"/>
-      <c r="AF215" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG215" s="2"/>
-      <c r="AH215" s="2" t="s">
+      <c r="AF215" s="2"/>
+      <c r="AG215" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH215" s="2"/>
+      <c r="AI215" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI215" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ215" s="2"/>
+      <c r="AJ215" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK215" s="2"/>
-    </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL215" s="2"/>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>886</v>
       </c>
@@ -15581,24 +15802,25 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
-      <c r="AD216" s="2" t="s">
+      <c r="AD216" s="2"/>
+      <c r="AE216" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="AE216" s="2"/>
-      <c r="AF216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG216" s="2"/>
-      <c r="AH216" s="2" t="s">
+      <c r="AF216" s="2"/>
+      <c r="AG216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH216" s="2"/>
+      <c r="AI216" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI216" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ216" s="2"/>
+      <c r="AJ216" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK216" s="2"/>
-    </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL216" s="2"/>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>890</v>
       </c>
@@ -15639,23 +15861,24 @@
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
       <c r="AD217" s="2"/>
-      <c r="AE217" s="2" t="s">
+      <c r="AE217" s="2"/>
+      <c r="AF217" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="AF217" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG217" s="2"/>
-      <c r="AH217" s="2" t="s">
+      <c r="AG217" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH217" s="2"/>
+      <c r="AI217" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI217" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ217" s="2"/>
+      <c r="AJ217" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK217" s="2"/>
-    </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL217" s="2"/>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>894</v>
       </c>
@@ -15697,20 +15920,21 @@
       <c r="AC218" s="2"/>
       <c r="AD218" s="2"/>
       <c r="AE218" s="2"/>
-      <c r="AF218" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG218" s="2"/>
-      <c r="AH218" s="2" t="s">
+      <c r="AF218" s="2"/>
+      <c r="AG218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH218" s="2"/>
+      <c r="AI218" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="AI218" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ218" s="2"/>
+      <c r="AJ218" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK218" s="2"/>
-    </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL218" s="2"/>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>899</v>
       </c>
@@ -15750,24 +15974,25 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
       <c r="AC219" s="2"/>
-      <c r="AD219" s="2" t="s">
+      <c r="AD219" s="2"/>
+      <c r="AE219" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="AE219" s="2"/>
-      <c r="AF219" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG219" s="2"/>
-      <c r="AH219" s="2" t="s">
+      <c r="AF219" s="2"/>
+      <c r="AG219" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH219" s="2"/>
+      <c r="AI219" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="AI219" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ219" s="2"/>
+      <c r="AJ219" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK219" s="2"/>
-    </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL219" s="2"/>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>904</v>
       </c>
@@ -15807,24 +16032,25 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
       <c r="AC220" s="2"/>
-      <c r="AD220" s="2" t="s">
+      <c r="AD220" s="2"/>
+      <c r="AE220" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="AE220" s="2"/>
-      <c r="AF220" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG220" s="2"/>
-      <c r="AH220" s="2" t="s">
+      <c r="AF220" s="2"/>
+      <c r="AG220" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH220" s="2"/>
+      <c r="AI220" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI220" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ220" s="2"/>
+      <c r="AJ220" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK220" s="2"/>
-    </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL220" s="2"/>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>908</v>
       </c>
@@ -15865,27 +16091,28 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
-      <c r="AA221" s="2" t="s">
+      <c r="AA221" s="2"/>
+      <c r="AB221" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
       <c r="AD221" s="2"/>
       <c r="AE221" s="2"/>
-      <c r="AF221" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG221" s="2"/>
-      <c r="AH221" s="2" t="s">
+      <c r="AF221" s="2"/>
+      <c r="AG221" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH221" s="2"/>
+      <c r="AI221" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AI221" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ221" s="2"/>
+      <c r="AJ221" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK221" s="2"/>
-    </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL221" s="2"/>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>912</v>
       </c>
@@ -15925,24 +16152,25 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
-      <c r="AD222" s="2" t="s">
+      <c r="AD222" s="2"/>
+      <c r="AE222" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="AE222" s="2"/>
-      <c r="AF222" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG222" s="2"/>
-      <c r="AH222" s="2" t="s">
+      <c r="AF222" s="2"/>
+      <c r="AG222" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH222" s="2"/>
+      <c r="AI222" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI222" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ222" s="2"/>
+      <c r="AJ222" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK222" s="2"/>
-    </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL222" s="2"/>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>915</v>
       </c>
@@ -15984,20 +16212,21 @@
       <c r="AC223" s="2"/>
       <c r="AD223" s="2"/>
       <c r="AE223" s="2"/>
-      <c r="AF223" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG223" s="2"/>
-      <c r="AH223" s="2" t="s">
+      <c r="AF223" s="2"/>
+      <c r="AG223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH223" s="2"/>
+      <c r="AI223" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI223" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ223" s="2"/>
+      <c r="AJ223" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK223" s="2"/>
-    </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL223" s="2"/>
+    </row>
+    <row r="224" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>917</v>
       </c>
@@ -16039,20 +16268,21 @@
       <c r="AC224" s="2"/>
       <c r="AD224" s="2"/>
       <c r="AE224" s="2"/>
-      <c r="AF224" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG224" s="2"/>
-      <c r="AH224" s="2" t="s">
+      <c r="AF224" s="2"/>
+      <c r="AG224" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH224" s="2"/>
+      <c r="AI224" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI224" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ224" s="2"/>
+      <c r="AJ224" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK224" s="2"/>
-    </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL224" s="2"/>
+    </row>
+    <row r="225" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>919</v>
       </c>
@@ -16096,20 +16326,21 @@
       <c r="AC225" s="2"/>
       <c r="AD225" s="2"/>
       <c r="AE225" s="2"/>
-      <c r="AF225" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG225" s="2"/>
-      <c r="AH225" s="2" t="s">
+      <c r="AF225" s="2"/>
+      <c r="AG225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH225" s="2"/>
+      <c r="AI225" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AI225" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ225" s="2"/>
+      <c r="AJ225" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK225" s="2"/>
-    </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL225" s="2"/>
+    </row>
+    <row r="226" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>922</v>
       </c>
@@ -16150,23 +16381,24 @@
       <c r="AB226" s="2"/>
       <c r="AC226" s="2"/>
       <c r="AD226" s="2"/>
-      <c r="AE226" s="2" t="s">
+      <c r="AE226" s="2"/>
+      <c r="AF226" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="AF226" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG226" s="2"/>
-      <c r="AH226" s="2" t="s">
+      <c r="AG226" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH226" s="2"/>
+      <c r="AI226" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI226" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ226" s="2"/>
+      <c r="AJ226" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK226" s="2"/>
-    </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL226" s="2"/>
+    </row>
+    <row r="227" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>926</v>
       </c>
@@ -16208,18 +16440,19 @@
       <c r="AC227" s="2"/>
       <c r="AD227" s="2"/>
       <c r="AE227" s="2"/>
-      <c r="AF227" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG227" s="2"/>
-      <c r="AH227" s="2" t="s">
+      <c r="AF227" s="2"/>
+      <c r="AG227" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH227" s="2"/>
+      <c r="AI227" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AI227" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ227" s="2"/>
+      <c r="AJ227" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AK227" s="2"/>
+      <c r="AL227" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL228"/>
+  <dimension ref="A1:AL229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6228,99 +6228,89 @@
       <c r="AL75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050369</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="n"/>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bodily hygiene behaviour </t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="n"/>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="n"/>
-      <c r="K76" s="2" t="n"/>
-      <c r="L76" s="2" t="n"/>
-      <c r="M76" s="2" t="n"/>
-      <c r="N76" s="2" t="n"/>
-      <c r="O76" s="2" t="n"/>
-      <c r="P76" s="2" t="n"/>
-      <c r="Q76" s="2" t="n"/>
-      <c r="R76" s="2" t="n"/>
-      <c r="S76" s="2" t="n"/>
-      <c r="T76" s="2" t="n"/>
-      <c r="U76" s="2" t="n"/>
-      <c r="V76" s="2" t="n"/>
-      <c r="W76" s="2" t="n"/>
-      <c r="X76" s="2" t="n"/>
-      <c r="Y76" s="2" t="n"/>
-      <c r="Z76" s="2" t="n"/>
-      <c r="AA76" s="2" t="n"/>
-      <c r="AB76" s="2" t="n"/>
-      <c r="AC76" s="2" t="n"/>
-      <c r="AD76" s="2" t="n"/>
-      <c r="AE76" s="2" t="n"/>
-      <c r="AF76" s="2" t="n"/>
-      <c r="AG76" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH76" s="2" t="n"/>
-      <c r="AI76" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="AJ76" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="AK76" s="2" t="n"/>
-      <c r="AL76" s="2" t="n"/>
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006158</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr"/>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>An &lt;experience-related behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="4" t="inlineStr"/>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr"/>
+      <c r="I76" s="4" t="inlineStr"/>
+      <c r="J76" s="4" t="inlineStr"/>
+      <c r="K76" s="4" t="inlineStr"/>
+      <c r="L76" s="4" t="inlineStr"/>
+      <c r="M76" s="4" t="inlineStr"/>
+      <c r="N76" s="4" t="inlineStr"/>
+      <c r="O76" s="4" t="inlineStr"/>
+      <c r="P76" s="4" t="inlineStr"/>
+      <c r="Q76" s="4" t="inlineStr"/>
+      <c r="R76" s="4" t="inlineStr"/>
+      <c r="S76" s="4" t="inlineStr"/>
+      <c r="T76" s="4" t="inlineStr"/>
+      <c r="U76" s="4" t="inlineStr"/>
+      <c r="V76" s="4" t="inlineStr"/>
+      <c r="W76" s="4" t="inlineStr"/>
+      <c r="X76" s="4" t="inlineStr"/>
+      <c r="Y76" s="4" t="inlineStr"/>
+      <c r="Z76" s="4" t="inlineStr"/>
+      <c r="AA76" s="4" t="inlineStr"/>
+      <c r="AB76" s="4" t="inlineStr"/>
+      <c r="AC76" s="4" t="inlineStr"/>
+      <c r="AD76" s="4" t="inlineStr"/>
+      <c r="AE76" s="4" t="inlineStr"/>
+      <c r="AF76" s="4" t="inlineStr"/>
+      <c r="AG76" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="4" t="inlineStr"/>
+      <c r="AI76" s="4" t="inlineStr"/>
+      <c r="AJ76" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="AK76" s="4" t="inlineStr"/>
+      <c r="AL76" s="4" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>handwashing</t>
         </is>
       </c>
       <c r="C77" s="2" t="n"/>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t xml:space="preserve">bodily hygiene behaviour </t>
         </is>
       </c>
       <c r="H77" s="2" t="n"/>
@@ -6351,11 +6341,7 @@
       <c r="AC77" s="2" t="n"/>
       <c r="AD77" s="2" t="n"/>
       <c r="AE77" s="2" t="n"/>
-      <c r="AF77" s="2" t="inlineStr">
-        <is>
-          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
-        </is>
-      </c>
+      <c r="AF77" s="2" t="n"/>
       <c r="AG77" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6364,7 +6350,7 @@
       <c r="AH77" s="2" t="n"/>
       <c r="AI77" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ77" s="2" t="inlineStr">
@@ -6378,29 +6364,25 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>harm preventing behaviour</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="C78" s="2" t="n"/>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour'  and 'has behavioural outcome' some 'harm prevention'</t>
-        </is>
-      </c>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="H78" s="2" t="n"/>
@@ -6431,7 +6413,11 @@
       <c r="AC78" s="2" t="n"/>
       <c r="AD78" s="2" t="n"/>
       <c r="AE78" s="2" t="n"/>
-      <c r="AF78" s="2" t="n"/>
+      <c r="AF78" s="2" t="inlineStr">
+        <is>
+          <t>Stalking, Victimization, Sexual misconduct, Insults, Threats</t>
+        </is>
+      </c>
       <c r="AG78" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6440,7 +6426,7 @@
       <c r="AH78" s="2" t="n"/>
       <c r="AI78" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ78" s="2" t="inlineStr">
@@ -6454,25 +6440,29 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>harm prevention</t>
+          <t>harm preventing behaviour</t>
         </is>
       </c>
       <c r="C79" s="2" t="n"/>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="n"/>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour'  and 'has behavioural outcome' some 'harm prevention'</t>
+        </is>
+      </c>
       <c r="F79" s="2" t="n"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H79" s="2" t="n"/>
@@ -6512,7 +6502,7 @@
       <c r="AH79" s="2" t="n"/>
       <c r="AI79" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="AJ79" s="2" t="inlineStr">
@@ -6526,25 +6516,25 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>harm prevention</t>
         </is>
       </c>
       <c r="C80" s="2" t="n"/>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H80" s="2" t="n"/>
@@ -6575,11 +6565,7 @@
       <c r="AC80" s="2" t="n"/>
       <c r="AD80" s="2" t="n"/>
       <c r="AE80" s="2" t="n"/>
-      <c r="AF80" s="2" t="inlineStr">
-        <is>
-          <t>Vandalism, Sabotaging, Polluting</t>
-        </is>
-      </c>
+      <c r="AF80" s="2" t="n"/>
       <c r="AG80" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6588,7 +6574,7 @@
       <c r="AH80" s="2" t="n"/>
       <c r="AI80" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ80" s="2" t="inlineStr">
@@ -6602,25 +6588,25 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="C81" s="2" t="n"/>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H81" s="2" t="n"/>
@@ -6650,15 +6636,10 @@
       <c r="AB81" s="2" t="n"/>
       <c r="AC81" s="2" t="n"/>
       <c r="AD81" s="2" t="n"/>
-      <c r="AE81" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
-        </is>
-      </c>
+      <c r="AE81" s="2" t="n"/>
       <c r="AF81" s="2" t="inlineStr">
         <is>
-          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
+          <t>Vandalism, Sabotaging, Polluting</t>
         </is>
       </c>
       <c r="AG81" s="2" t="inlineStr">
@@ -6669,7 +6650,7 @@
       <c r="AH81" s="2" t="n"/>
       <c r="AI81" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ81" s="2" t="inlineStr">
@@ -6683,25 +6664,25 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>health-promoting behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="C82" s="2" t="n"/>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
+          <t xml:space="preserve">A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning. </t>
         </is>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="H82" s="2" t="n"/>
@@ -6733,12 +6714,13 @@
       <c r="AD82" s="2" t="n"/>
       <c r="AE82" s="2" t="inlineStr">
         <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
       <c r="AF82" s="2" t="inlineStr">
         <is>
-          <t>Engaging in physical activity, eating a diet that limits salt, sugar and fat intake, eating a healthy diet, attending health screening</t>
+          <t>Mistreatment, Sexual assault, Engaging in domestic violence, Physical attack, Abuse behaviour</t>
         </is>
       </c>
       <c r="AG82" s="2" t="inlineStr">
@@ -6763,25 +6745,25 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>health-promoting behaviour</t>
         </is>
       </c>
       <c r="C83" s="2" t="n"/>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
         </is>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H83" s="2" t="n"/>
@@ -6811,8 +6793,16 @@
       <c r="AB83" s="2" t="n"/>
       <c r="AC83" s="2" t="n"/>
       <c r="AD83" s="2" t="n"/>
-      <c r="AE83" s="2" t="n"/>
-      <c r="AF83" s="2" t="n"/>
+      <c r="AE83" s="2" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+        </is>
+      </c>
+      <c r="AF83" s="2" t="inlineStr">
+        <is>
+          <t>Engaging in physical activity, eating a diet that limits salt, sugar and fat intake, eating a healthy diet, attending health screening</t>
+        </is>
+      </c>
       <c r="AG83" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6821,7 +6811,7 @@
       <c r="AH83" s="2" t="n"/>
       <c r="AI83" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ83" s="2" t="inlineStr">
@@ -6835,25 +6825,25 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>high cognitive exertion expended on a behaviour</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="C84" s="2" t="n"/>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>An individual human behaviour that relates to health.</t>
         </is>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H84" s="2" t="n"/>
@@ -6883,21 +6873,17 @@
       <c r="AB84" s="2" t="n"/>
       <c r="AC84" s="2" t="n"/>
       <c r="AD84" s="2" t="n"/>
-      <c r="AE84" s="2" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
+      <c r="AE84" s="2" t="n"/>
       <c r="AF84" s="2" t="n"/>
       <c r="AG84" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH84" s="2" t="n"/>
       <c r="AI84" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ84" s="2" t="inlineStr">
@@ -6911,25 +6897,25 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>high emotional management exertion expended on a behaviour</t>
+          <t>high cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C85" s="2" t="n"/>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H85" s="2" t="n"/>
@@ -6961,7 +6947,7 @@
       <c r="AD85" s="2" t="n"/>
       <c r="AE85" s="2" t="inlineStr">
         <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF85" s="2" t="n"/>
@@ -6987,25 +6973,25 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>high mental exertion expended on a behaviour</t>
+          <t>high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C86" s="2" t="n"/>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H86" s="2" t="n"/>
@@ -7037,7 +7023,7 @@
       <c r="AD86" s="2" t="n"/>
       <c r="AE86" s="2" t="inlineStr">
         <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF86" s="2" t="n"/>
@@ -7063,25 +7049,25 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>high physical exertion expended on behaviour</t>
+          <t>high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C87" s="2" t="n"/>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H87" s="2" t="n"/>
@@ -7113,7 +7099,7 @@
       <c r="AD87" s="2" t="n"/>
       <c r="AE87" s="2" t="inlineStr">
         <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF87" s="2" t="n"/>
@@ -7139,25 +7125,25 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C88" s="2" t="n"/>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H88" s="2" t="n"/>
@@ -7187,11 +7173,15 @@
       <c r="AB88" s="2" t="n"/>
       <c r="AC88" s="2" t="n"/>
       <c r="AD88" s="2" t="n"/>
-      <c r="AE88" s="2" t="n"/>
+      <c r="AE88" s="2" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
       <c r="AF88" s="2" t="n"/>
       <c r="AG88" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AH88" s="2" t="n"/>
@@ -7211,29 +7201,25 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C89" s="2" t="n"/>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A process that is an individual human behaviour or a population behaviour. </t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H89" s="2" t="n"/>
@@ -7264,11 +7250,7 @@
       <c r="AC89" s="2" t="n"/>
       <c r="AD89" s="2" t="n"/>
       <c r="AE89" s="2" t="n"/>
-      <c r="AF89" s="2" t="inlineStr">
-        <is>
-          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
-        </is>
-      </c>
+      <c r="AF89" s="2" t="n"/>
       <c r="AG89" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7277,7 +7259,7 @@
       <c r="AH89" s="2" t="n"/>
       <c r="AI89" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ89" s="2" t="inlineStr">
@@ -7291,25 +7273,29 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>human life function</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C90" s="2" t="n"/>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="n"/>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
+        </is>
+      </c>
       <c r="F90" s="2" t="n"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">function </t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="H90" s="2" t="n"/>
@@ -7334,24 +7320,15 @@
       <c r="W90" s="2" t="n"/>
       <c r="X90" s="2" t="n"/>
       <c r="Y90" s="2" t="n"/>
-      <c r="Z90" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="Z90" s="2" t="n"/>
       <c r="AA90" s="2" t="n"/>
       <c r="AB90" s="2" t="n"/>
       <c r="AC90" s="2" t="n"/>
       <c r="AD90" s="2" t="n"/>
-      <c r="AE90" s="2" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
+      <c r="AE90" s="2" t="n"/>
       <c r="AF90" s="2" t="inlineStr">
         <is>
-          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+          <t>Calling out, Talking, Shouting, Teaching, Messaging, Lying, Exaggerating, Threatening, Greeting, Advising, Instructing, Conversing, Lobbying, Demonstrating, Training, Meeting, Posting on social media, Self-disclosing, Answering, Coaching, Giving a speech, Discussing, Story-telling, Writing an article, Advertising</t>
         </is>
       </c>
       <c r="AG90" s="2" t="inlineStr">
@@ -7362,7 +7339,7 @@
       <c r="AH90" s="2" t="n"/>
       <c r="AI90" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ90" s="2" t="inlineStr">
@@ -7376,25 +7353,25 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>identity congruence</t>
+          <t>human life function</t>
         </is>
       </c>
       <c r="C91" s="2" t="n"/>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t xml:space="preserve">function </t>
         </is>
       </c>
       <c r="H91" s="2" t="n"/>
@@ -7419,20 +7396,37 @@
       <c r="W91" s="2" t="n"/>
       <c r="X91" s="2" t="n"/>
       <c r="Y91" s="2" t="n"/>
-      <c r="Z91" s="2" t="n"/>
+      <c r="Z91" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="AA91" s="2" t="n"/>
       <c r="AB91" s="2" t="n"/>
       <c r="AC91" s="2" t="n"/>
       <c r="AD91" s="2" t="n"/>
-      <c r="AE91" s="2" t="n"/>
-      <c r="AF91" s="2" t="n"/>
+      <c r="AE91" s="2" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="AF91" s="2" t="inlineStr">
+        <is>
+          <t>Learning function (e.g., knowledge development function and skill development function), knowledge or skill maintenance, protection of self, others and the environment, aesthetics function, bodily health function, spiritual function, social organisation function,, excretion function, nutrition function, reproductive function, respiration function,, rest function, travel function, thermoregulation function</t>
+        </is>
+      </c>
       <c r="AG91" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AH91" s="2" t="n"/>
-      <c r="AI91" s="2" t="n"/>
+      <c r="AI91" s="2" t="inlineStr">
+        <is>
+          <t>RW; OC; PS</t>
+        </is>
+      </c>
       <c r="AJ91" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -7444,25 +7438,25 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>impact of behaviour on environment</t>
+          <t>identity congruence</t>
         </is>
       </c>
       <c r="C92" s="2" t="n"/>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H92" s="2" t="n"/>
@@ -7500,11 +7494,7 @@
         </is>
       </c>
       <c r="AH92" s="2" t="n"/>
-      <c r="AI92" s="2" t="inlineStr">
-        <is>
-          <t>LZ; PS</t>
-        </is>
-      </c>
+      <c r="AI92" s="2" t="n"/>
       <c r="AJ92" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -7516,29 +7506,25 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n"/>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
         </is>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H93" s="2" t="n"/>
@@ -7568,11 +7554,7 @@
       <c r="AB93" s="2" t="n"/>
       <c r="AC93" s="2" t="n"/>
       <c r="AD93" s="2" t="n"/>
-      <c r="AE93" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
+      <c r="AE93" s="2" t="n"/>
       <c r="AF93" s="2" t="n"/>
       <c r="AG93" s="2" t="inlineStr">
         <is>
@@ -7582,7 +7564,7 @@
       <c r="AH93" s="2" t="n"/>
       <c r="AI93" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>LZ; PS</t>
         </is>
       </c>
       <c r="AJ93" s="2" t="inlineStr">
@@ -7596,25 +7578,29 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="n"/>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H94" s="2" t="n"/>
@@ -7623,84 +7609,160 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="J94" s="2" t="n"/>
       <c r="K94" s="2" t="n"/>
       <c r="L94" s="2" t="n"/>
-      <c r="M94" s="2" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+      <c r="M94" s="2" t="n"/>
       <c r="N94" s="2" t="n"/>
-      <c r="O94" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="P94" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="Q94" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="R94" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="S94" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="T94" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="U94" s="2" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="V94" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="W94" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="X94" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="Y94" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="O94" s="2" t="n"/>
+      <c r="P94" s="2" t="n"/>
+      <c r="Q94" s="2" t="n"/>
+      <c r="R94" s="2" t="n"/>
+      <c r="S94" s="2" t="n"/>
+      <c r="T94" s="2" t="n"/>
+      <c r="U94" s="2" t="n"/>
+      <c r="V94" s="2" t="n"/>
+      <c r="W94" s="2" t="n"/>
+      <c r="X94" s="2" t="n"/>
+      <c r="Y94" s="2" t="n"/>
       <c r="Z94" s="2" t="n"/>
-      <c r="AA94" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="AA94" s="2" t="n"/>
       <c r="AB94" s="2" t="n"/>
       <c r="AC94" s="2" t="n"/>
       <c r="AD94" s="2" t="n"/>
       <c r="AE94" s="2" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="AF94" s="2" t="n"/>
+      <c r="AG94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH94" s="2" t="n"/>
+      <c r="AI94" s="2" t="inlineStr">
+        <is>
+          <t>OC; PS; RW</t>
+        </is>
+      </c>
+      <c r="AJ94" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="AK94" s="2" t="n"/>
+      <c r="AL94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n"/>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="n"/>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n"/>
+      <c r="L95" s="2" t="n"/>
+      <c r="M95" s="2" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="N95" s="2" t="n"/>
+      <c r="O95" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="P95" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="Q95" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="R95" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="S95" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="T95" s="2" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="U95" s="2" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="V95" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="W95" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="X95" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="Y95" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="Z95" s="2" t="n"/>
+      <c r="AA95" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="AB95" s="2" t="n"/>
+      <c r="AC95" s="2" t="n"/>
+      <c r="AD95" s="2" t="n"/>
+      <c r="AE95" s="2" t="inlineStr">
         <is>
           <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
 Behaviours are usually in response to an internal or external stimuli.
@@ -7709,25 +7771,25 @@
 'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
-      <c r="AF94" s="2" t="n"/>
-      <c r="AG94" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH94" s="2" t="n"/>
-      <c r="AI94" s="2" t="inlineStr">
+      <c r="AF95" s="2" t="n"/>
+      <c r="AG95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH95" s="2" t="n"/>
+      <c r="AI95" s="2" t="inlineStr">
         <is>
           <t>RW; OC; JH</t>
         </is>
       </c>
-      <c r="AJ94" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="AK94" s="2" t="n"/>
-      <c r="AL94" s="2" t="inlineStr">
+      <c r="AJ95" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="AK95" s="2" t="n"/>
+      <c r="AL95" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">We discussed whether we should modify the definition for ‘individual human behaviour’ to include ‘purposefully inaction’ (e.g., fasting).
 o	Instead of changing the definition, we agreed we need to come up with a way to express that a given behaviour does not belong to a particular class. For example, an expression such as ‘X behaviour involves NOT (behaviour class)’.
@@ -7735,129 +7797,37 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="n"/>
-      <c r="K95" s="2" t="n"/>
-      <c r="L95" s="2" t="n"/>
-      <c r="M95" s="2" t="n"/>
-      <c r="N95" s="2" t="n"/>
-      <c r="O95" s="2" t="n"/>
-      <c r="P95" s="2" t="n"/>
-      <c r="Q95" s="2" t="n"/>
-      <c r="R95" s="2" t="n"/>
-      <c r="S95" s="2" t="n"/>
-      <c r="T95" s="2" t="n"/>
-      <c r="U95" s="2" t="n"/>
-      <c r="V95" s="2" t="n"/>
-      <c r="W95" s="2" t="n"/>
-      <c r="X95" s="2" t="n"/>
-      <c r="Y95" s="2" t="n"/>
-      <c r="Z95" s="2" t="n"/>
-      <c r="AA95" s="2" t="n"/>
-      <c r="AB95" s="2" t="n"/>
-      <c r="AC95" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="AD95" s="2" t="n"/>
-      <c r="AE95" s="2" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="AF95" s="2" t="inlineStr">
-        <is>
-          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
-        </is>
-      </c>
-      <c r="AG95" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH95" s="2" t="n"/>
-      <c r="AI95" s="2" t="inlineStr">
-        <is>
-          <t>RW; PS</t>
-        </is>
-      </c>
-      <c r="AJ95" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="AK95" s="2" t="n"/>
-      <c r="AL95" s="2" t="n"/>
-    </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -7883,31 +7853,23 @@
       <c r="Y96" s="2" t="n"/>
       <c r="Z96" s="2" t="n"/>
       <c r="AA96" s="2" t="n"/>
-      <c r="AB96" s="2" t="inlineStr">
-        <is>
-          <t>b is a behaviour pattern means:
-- b is instance_of uniform process aggregate; 
-- X is subtype_of behaviour;  
-- P is the set {p1, ... pn} of process aggregate member parts of b; 
-- For any pi in P, pi is instance_of X;
-- For any x and y in P where x  does not equal y, if x occupies_spatiotemporal_region s, then y occupies_spatiotemporal_region t and s does not equal t;
-- s is instance_of human being; 
-- For any pi in P, s is participant_in pi;</t>
-        </is>
-      </c>
+      <c r="AB96" s="2" t="n"/>
       <c r="AC96" s="2" t="inlineStr">
         <is>
-          <t>behaviour pattern</t>
+          <t>behaviour change</t>
         </is>
       </c>
       <c r="AD96" s="2" t="n"/>
       <c r="AE96" s="2" t="inlineStr">
         <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
-        </is>
-      </c>
-      <c r="AF96" s="2" t="n"/>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="AF96" s="2" t="inlineStr">
+        <is>
+          <t>Non-enactment of a behaviour, cessation of a behaviour pattern, enactment of a behaviour, initiation of a behaviour pattern and change in attributes of a behaviour or behaviour pattern.</t>
+        </is>
+      </c>
       <c r="AG96" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7916,7 +7878,7 @@
       <c r="AH96" s="2" t="n"/>
       <c r="AI96" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="AJ96" s="2" t="inlineStr">
@@ -7930,34 +7892,34 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+          <t>Individual human behaviours of the same type repeated over time.</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+          <t xml:space="preserve">A uniform process aggregate whose member parts are behaviours of the same type and in the same person. </t>
         </is>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -7985,16 +7947,28 @@
       <c r="AA97" s="2" t="n"/>
       <c r="AB97" s="2" t="inlineStr">
         <is>
-          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+          <t>b is a behaviour pattern means:
+- b is instance_of uniform process aggregate; 
+- X is subtype_of behaviour;  
+- P is the set {p1, ... pn} of process aggregate member parts of b; 
+- For any pi in P, pi is instance_of X;
+- For any x and y in P where x  does not equal y, if x occupies_spatiotemporal_region s, then y occupies_spatiotemporal_region t and s does not equal t;
+- s is instance_of human being; 
+- For any pi in P, s is participant_in pi;</t>
         </is>
       </c>
       <c r="AC97" s="2" t="inlineStr">
         <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
+          <t>behaviour pattern</t>
         </is>
       </c>
       <c r="AD97" s="2" t="n"/>
-      <c r="AE97" s="2" t="n"/>
+      <c r="AE97" s="2" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
       <c r="AF97" s="2" t="n"/>
       <c r="AG97" s="2" t="inlineStr">
         <is>
@@ -8004,7 +7978,7 @@
       <c r="AH97" s="2" t="n"/>
       <c r="AI97" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="AJ97" s="2" t="inlineStr">
@@ -8018,28 +7992,36 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="n"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="n"/>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8063,8 +8045,16 @@
       <c r="Y98" s="2" t="n"/>
       <c r="Z98" s="2" t="n"/>
       <c r="AA98" s="2" t="n"/>
-      <c r="AB98" s="2" t="n"/>
-      <c r="AC98" s="2" t="n"/>
+      <c r="AB98" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change and process_part_of some ('history' and has_process_part some ('behaviour pattern' and before value t1) and has_process_part some ((not 'behaviour pattern') and after value t1 and before value t2))</t>
+        </is>
+      </c>
+      <c r="AC98" s="2" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
       <c r="AD98" s="2" t="n"/>
       <c r="AE98" s="2" t="n"/>
       <c r="AF98" s="2" t="n"/>
@@ -8076,7 +8066,7 @@
       <c r="AH98" s="2" t="n"/>
       <c r="AI98" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="AJ98" s="2" t="inlineStr">
@@ -8090,29 +8080,25 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n"/>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H99" s="2" t="n"/>
@@ -8142,11 +8128,7 @@
       <c r="AB99" s="2" t="n"/>
       <c r="AC99" s="2" t="n"/>
       <c r="AD99" s="2" t="n"/>
-      <c r="AE99" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
+      <c r="AE99" s="2" t="n"/>
       <c r="AF99" s="2" t="n"/>
       <c r="AG99" s="2" t="inlineStr">
         <is>
@@ -8170,32 +8152,32 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="n"/>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="n"/>
       <c r="I100" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8222,7 +8204,11 @@
       <c r="AB100" s="2" t="n"/>
       <c r="AC100" s="2" t="n"/>
       <c r="AD100" s="2" t="n"/>
-      <c r="AE100" s="2" t="n"/>
+      <c r="AE100" s="2" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
       <c r="AF100" s="2" t="n"/>
       <c r="AG100" s="2" t="inlineStr">
         <is>
@@ -8232,7 +8218,7 @@
       <c r="AH100" s="2" t="n"/>
       <c r="AI100" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ100" s="2" t="inlineStr">
@@ -8246,28 +8232,32 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C101" s="2" t="n"/>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="H101" s="2" t="n"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8304,7 +8294,7 @@
       <c r="AH101" s="2" t="n"/>
       <c r="AI101" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ101" s="2" t="inlineStr">
@@ -8318,25 +8308,25 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="C102" s="2" t="n"/>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="H102" s="2" t="n"/>
@@ -8390,25 +8380,25 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
         </is>
       </c>
       <c r="C103" s="2" t="n"/>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="2" t="n"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="H103" s="2" t="n"/>
@@ -8436,11 +8426,7 @@
       <c r="Z103" s="2" t="n"/>
       <c r="AA103" s="2" t="n"/>
       <c r="AB103" s="2" t="n"/>
-      <c r="AC103" s="2" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
-        </is>
-      </c>
+      <c r="AC103" s="2" t="n"/>
       <c r="AD103" s="2" t="n"/>
       <c r="AE103" s="2" t="n"/>
       <c r="AF103" s="2" t="n"/>
@@ -8452,7 +8438,7 @@
       <c r="AH103" s="2" t="n"/>
       <c r="AI103" s="2" t="inlineStr">
         <is>
-          <t>PS; JH; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ103" s="2" t="inlineStr">
@@ -8466,30 +8452,25 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="C104" s="2" t="n"/>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
-https://www.merriam-webster.com/dictionary/laugh</t>
-        </is>
-      </c>
+      <c r="F104" s="2" t="n"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H104" s="2" t="n"/>
@@ -8517,7 +8498,11 @@
       <c r="Z104" s="2" t="n"/>
       <c r="AA104" s="2" t="n"/>
       <c r="AB104" s="2" t="n"/>
-      <c r="AC104" s="2" t="n"/>
+      <c r="AC104" s="2" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+        </is>
+      </c>
       <c r="AD104" s="2" t="n"/>
       <c r="AE104" s="2" t="n"/>
       <c r="AF104" s="2" t="n"/>
@@ -8529,7 +8514,7 @@
       <c r="AH104" s="2" t="n"/>
       <c r="AI104" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="AJ104" s="2" t="inlineStr">
@@ -8543,32 +8528,33 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="C105" s="2" t="n"/>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://www.britannica.com/topic/humor#ref126128; 
+https://www.merriam-webster.com/dictionary/laugh</t>
+        </is>
+      </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="n"/>
       <c r="I105" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8596,11 +8582,7 @@
       <c r="AC105" s="2" t="n"/>
       <c r="AD105" s="2" t="n"/>
       <c r="AE105" s="2" t="n"/>
-      <c r="AF105" s="2" t="inlineStr">
-        <is>
-          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
-        </is>
-      </c>
+      <c r="AF105" s="2" t="n"/>
       <c r="AG105" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8609,7 +8591,7 @@
       <c r="AH105" s="2" t="n"/>
       <c r="AI105" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ105" s="2" t="inlineStr">
@@ -8623,28 +8605,32 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="C106" s="2" t="n"/>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H106" s="2" t="n"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8672,7 +8658,11 @@
       <c r="AC106" s="2" t="n"/>
       <c r="AD106" s="2" t="n"/>
       <c r="AE106" s="2" t="n"/>
-      <c r="AF106" s="2" t="n"/>
+      <c r="AF106" s="2" t="inlineStr">
+        <is>
+          <t>Studying, Active learning, Problem-based learning, Collaborative learning, Online learning</t>
+        </is>
+      </c>
       <c r="AG106" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8681,7 +8671,7 @@
       <c r="AH106" s="2" t="n"/>
       <c r="AI106" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ106" s="2" t="inlineStr">
@@ -8695,25 +8685,25 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="C107" s="2" t="n"/>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H107" s="2" t="n"/>
@@ -8753,7 +8743,7 @@
       <c r="AH107" s="2" t="n"/>
       <c r="AI107" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ107" s="2" t="inlineStr">
@@ -8767,32 +8757,28 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C108" s="2" t="n"/>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="n"/>
       <c r="I108" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8820,11 +8806,7 @@
       <c r="AC108" s="2" t="n"/>
       <c r="AD108" s="2" t="n"/>
       <c r="AE108" s="2" t="n"/>
-      <c r="AF108" s="2" t="inlineStr">
-        <is>
-          <t>Walking, Crawling, Climbing</t>
-        </is>
-      </c>
+      <c r="AF108" s="2" t="n"/>
       <c r="AG108" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8833,7 +8815,7 @@
       <c r="AH108" s="2" t="n"/>
       <c r="AI108" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ108" s="2" t="inlineStr">
@@ -8847,28 +8829,32 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>low cognitive exertion expended on a behaviour</t>
+          <t xml:space="preserve">locomotive behaviour </t>
         </is>
       </c>
       <c r="C109" s="2" t="n"/>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="n"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -8895,21 +8881,21 @@
       <c r="AB109" s="2" t="n"/>
       <c r="AC109" s="2" t="n"/>
       <c r="AD109" s="2" t="n"/>
-      <c r="AE109" s="2" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="AF109" s="2" t="n"/>
+      <c r="AE109" s="2" t="n"/>
+      <c r="AF109" s="2" t="inlineStr">
+        <is>
+          <t>Walking, Crawling, Climbing</t>
+        </is>
+      </c>
       <c r="AG109" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH109" s="2" t="n"/>
       <c r="AI109" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ109" s="2" t="inlineStr">
@@ -8923,25 +8909,25 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C110" s="2" t="n"/>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E110" s="2" t="n"/>
       <c r="F110" s="2" t="n"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H110" s="2" t="n"/>
@@ -8973,7 +8959,7 @@
       <c r="AD110" s="2" t="n"/>
       <c r="AE110" s="2" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF110" s="2" t="n"/>
@@ -8999,25 +8985,25 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C111" s="2" t="n"/>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E111" s="2" t="n"/>
       <c r="F111" s="2" t="n"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H111" s="2" t="n"/>
@@ -9049,7 +9035,7 @@
       <c r="AD111" s="2" t="n"/>
       <c r="AE111" s="2" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF111" s="2" t="n"/>
@@ -9075,25 +9061,25 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C112" s="2" t="n"/>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="2" t="n"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H112" s="2" t="n"/>
@@ -9125,7 +9111,7 @@
       <c r="AD112" s="2" t="n"/>
       <c r="AE112" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF112" s="2" t="n"/>
@@ -9151,25 +9137,25 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C113" s="2" t="n"/>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="E113" s="2" t="n"/>
       <c r="F113" s="2" t="n"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H113" s="2" t="n"/>
@@ -9199,17 +9185,21 @@
       <c r="AB113" s="2" t="n"/>
       <c r="AC113" s="2" t="n"/>
       <c r="AD113" s="2" t="n"/>
-      <c r="AE113" s="2" t="n"/>
+      <c r="AE113" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
       <c r="AF113" s="2" t="n"/>
       <c r="AG113" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AH113" s="2" t="n"/>
       <c r="AI113" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ113" s="2" t="inlineStr">
@@ -9223,25 +9213,25 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">making a referral to another health care service </t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="C114" s="2" t="n"/>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="E114" s="2" t="n"/>
       <c r="F114" s="2" t="n"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H114" s="2" t="n"/>
@@ -9281,7 +9271,7 @@
       <c r="AH114" s="2" t="n"/>
       <c r="AI114" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="AJ114" s="2" t="inlineStr">
@@ -9295,25 +9285,25 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing behaviour </t>
+          <t xml:space="preserve">making a referral to another health care service </t>
         </is>
       </c>
       <c r="C115" s="2" t="n"/>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E115" s="2" t="n"/>
       <c r="F115" s="2" t="n"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H115" s="2" t="n"/>
@@ -9344,11 +9334,7 @@
       <c r="AC115" s="2" t="n"/>
       <c r="AD115" s="2" t="n"/>
       <c r="AE115" s="2" t="n"/>
-      <c r="AF115" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
-        </is>
-      </c>
+      <c r="AF115" s="2" t="n"/>
       <c r="AG115" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9357,7 +9343,7 @@
       <c r="AH115" s="2" t="n"/>
       <c r="AI115" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ115" s="2" t="inlineStr">
@@ -9371,25 +9357,25 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">manufacturing behaviour </t>
         </is>
       </c>
       <c r="C116" s="2" t="n"/>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="E116" s="2" t="n"/>
       <c r="F116" s="2" t="n"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="H116" s="2" t="n"/>
@@ -9420,7 +9406,11 @@
       <c r="AC116" s="2" t="n"/>
       <c r="AD116" s="2" t="n"/>
       <c r="AE116" s="2" t="n"/>
-      <c r="AF116" s="2" t="n"/>
+      <c r="AF116" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Building, Constructing, Food production, Production of goods </t>
+        </is>
+      </c>
       <c r="AG116" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9429,7 +9419,7 @@
       <c r="AH116" s="2" t="n"/>
       <c r="AI116" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="AJ116" s="2" t="inlineStr">
@@ -9443,25 +9433,25 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="C117" s="2" t="n"/>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="E117" s="2" t="n"/>
       <c r="F117" s="2" t="n"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H117" s="2" t="n"/>
@@ -9489,17 +9479,9 @@
       <c r="Z117" s="2" t="n"/>
       <c r="AA117" s="2" t="n"/>
       <c r="AB117" s="2" t="n"/>
-      <c r="AC117" s="2" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
+      <c r="AC117" s="2" t="n"/>
       <c r="AD117" s="2" t="n"/>
-      <c r="AE117" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
+      <c r="AE117" s="2" t="n"/>
       <c r="AF117" s="2" t="n"/>
       <c r="AG117" s="2" t="inlineStr">
         <is>
@@ -9509,7 +9491,7 @@
       <c r="AH117" s="2" t="n"/>
       <c r="AI117" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ117" s="2" t="inlineStr">
@@ -9523,29 +9505,25 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n"/>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="E118" s="2" t="n"/>
       <c r="F118" s="2" t="n"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H118" s="2" t="n"/>
@@ -9573,14 +9551,18 @@
       <c r="Z118" s="2" t="n"/>
       <c r="AA118" s="2" t="n"/>
       <c r="AB118" s="2" t="n"/>
-      <c r="AC118" s="2" t="n"/>
+      <c r="AC118" s="2" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
       <c r="AD118" s="2" t="n"/>
-      <c r="AE118" s="2" t="n"/>
-      <c r="AF118" s="2" t="inlineStr">
-        <is>
-          <t>writing has high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="AE118" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="AF118" s="2" t="n"/>
       <c r="AG118" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9589,7 +9571,7 @@
       <c r="AH118" s="2" t="n"/>
       <c r="AI118" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ118" s="2" t="inlineStr">
@@ -9603,25 +9585,29 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="n"/>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="2" t="n"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H119" s="2" t="n"/>
@@ -9654,7 +9640,7 @@
       <c r="AE119" s="2" t="n"/>
       <c r="AF119" s="2" t="inlineStr">
         <is>
-          <t>Yoga, Taichi</t>
+          <t>writing has high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="AG119" s="2" t="inlineStr">
@@ -9665,7 +9651,7 @@
       <c r="AH119" s="2" t="n"/>
       <c r="AI119" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ119" s="2" t="inlineStr">
@@ -9679,25 +9665,25 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="C120" s="2" t="n"/>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="E120" s="2" t="n"/>
       <c r="F120" s="2" t="n"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H120" s="2" t="n"/>
@@ -9727,21 +9713,21 @@
       <c r="AB120" s="2" t="n"/>
       <c r="AC120" s="2" t="n"/>
       <c r="AD120" s="2" t="n"/>
-      <c r="AE120" s="2" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="AF120" s="2" t="n"/>
+      <c r="AE120" s="2" t="n"/>
+      <c r="AF120" s="2" t="inlineStr">
+        <is>
+          <t>Yoga, Taichi</t>
+        </is>
+      </c>
       <c r="AG120" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH120" s="2" t="n"/>
       <c r="AI120" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ120" s="2" t="inlineStr">
@@ -9755,25 +9741,25 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C121" s="2" t="n"/>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="2" t="n"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H121" s="2" t="n"/>
@@ -9805,7 +9791,7 @@
       <c r="AD121" s="2" t="n"/>
       <c r="AE121" s="2" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF121" s="2" t="n"/>
@@ -9831,25 +9817,25 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="n"/>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E122" s="2" t="n"/>
       <c r="F122" s="2" t="n"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H122" s="2" t="n"/>
@@ -9881,7 +9867,7 @@
       <c r="AD122" s="2" t="n"/>
       <c r="AE122" s="2" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF122" s="2" t="n"/>
@@ -9907,25 +9893,25 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C123" s="2" t="n"/>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E123" s="2" t="n"/>
       <c r="F123" s="2" t="n"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H123" s="2" t="n"/>
@@ -9957,7 +9943,7 @@
       <c r="AD123" s="2" t="n"/>
       <c r="AE123" s="2" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF123" s="2" t="n"/>
@@ -9983,25 +9969,25 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>monitoring behaviour</t>
+          <t>moderate physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="C124" s="2" t="n"/>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="E124" s="2" t="n"/>
       <c r="F124" s="2" t="n"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="H124" s="2" t="n"/>
@@ -10033,13 +10019,13 @@
       <c r="AD124" s="2" t="n"/>
       <c r="AE124" s="2" t="inlineStr">
         <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="AF124" s="2" t="n"/>
       <c r="AG124" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AH124" s="2" t="n"/>
@@ -10059,25 +10045,25 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>monitoring behaviour</t>
         </is>
       </c>
       <c r="C125" s="2" t="n"/>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="E125" s="2" t="n"/>
       <c r="F125" s="2" t="n"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="H125" s="2" t="n"/>
@@ -10107,7 +10093,11 @@
       <c r="AB125" s="2" t="n"/>
       <c r="AC125" s="2" t="n"/>
       <c r="AD125" s="2" t="n"/>
-      <c r="AE125" s="2" t="n"/>
+      <c r="AE125" s="2" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+        </is>
+      </c>
       <c r="AF125" s="2" t="n"/>
       <c r="AG125" s="2" t="inlineStr">
         <is>
@@ -10131,25 +10121,25 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C126" s="2" t="n"/>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E126" s="2" t="n"/>
       <c r="F126" s="2" t="n"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="H126" s="2" t="n"/>
@@ -10203,25 +10193,25 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="C127" s="2" t="n"/>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="E127" s="2" t="n"/>
       <c r="F127" s="2" t="n"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="H127" s="2" t="n"/>
@@ -10261,7 +10251,7 @@
       <c r="AH127" s="2" t="n"/>
       <c r="AI127" s="2" t="inlineStr">
         <is>
-          <t>PS; lz</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ127" s="2" t="inlineStr">
@@ -10275,18 +10265,18 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>non-linguistic communication behaviour using eye contact</t>
         </is>
       </c>
       <c r="C128" s="2" t="n"/>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="E128" s="2" t="n"/>
@@ -10333,7 +10323,7 @@
       <c r="AH128" s="2" t="n"/>
       <c r="AI128" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; lz</t>
         </is>
       </c>
       <c r="AJ128" s="2" t="inlineStr">
@@ -10347,25 +10337,25 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>non-linguistic communication behaviour using facial expression</t>
         </is>
       </c>
       <c r="C129" s="2" t="n"/>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t xml:space="preserve">Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
         </is>
       </c>
       <c r="E129" s="2" t="n"/>
       <c r="F129" s="2" t="n"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using body language</t>
+          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
         </is>
       </c>
       <c r="H129" s="2" t="n"/>
@@ -10395,16 +10385,8 @@
       <c r="AB129" s="2" t="n"/>
       <c r="AC129" s="2" t="n"/>
       <c r="AD129" s="2" t="n"/>
-      <c r="AE129" s="2" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="AF129" s="2" t="inlineStr">
-        <is>
-          <t>Pointing</t>
-        </is>
-      </c>
+      <c r="AE129" s="2" t="n"/>
+      <c r="AF129" s="2" t="n"/>
       <c r="AG129" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10413,7 +10395,7 @@
       <c r="AH129" s="2" t="n"/>
       <c r="AI129" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ129" s="2" t="inlineStr">
@@ -10427,25 +10409,25 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>non-linguistic communication behaviour using gesture</t>
         </is>
       </c>
       <c r="C130" s="2" t="n"/>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="E130" s="2" t="n"/>
       <c r="F130" s="2" t="n"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="H130" s="2" t="n"/>
@@ -10475,8 +10457,16 @@
       <c r="AB130" s="2" t="n"/>
       <c r="AC130" s="2" t="n"/>
       <c r="AD130" s="2" t="n"/>
-      <c r="AE130" s="2" t="n"/>
-      <c r="AF130" s="2" t="n"/>
+      <c r="AE130" s="2" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="AF130" s="2" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="AG130" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10485,7 +10475,7 @@
       <c r="AH130" s="2" t="n"/>
       <c r="AI130" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH; RW; OC</t>
         </is>
       </c>
       <c r="AJ130" s="2" t="inlineStr">
@@ -10497,169 +10487,165 @@
       <c r="AL130" s="2" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050373</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="n"/>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="H131" s="2" t="n"/>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J131" s="2" t="n"/>
+      <c r="K131" s="2" t="n"/>
+      <c r="L131" s="2" t="n"/>
+      <c r="M131" s="2" t="n"/>
+      <c r="N131" s="2" t="n"/>
+      <c r="O131" s="2" t="n"/>
+      <c r="P131" s="2" t="n"/>
+      <c r="Q131" s="2" t="n"/>
+      <c r="R131" s="2" t="n"/>
+      <c r="S131" s="2" t="n"/>
+      <c r="T131" s="2" t="n"/>
+      <c r="U131" s="2" t="n"/>
+      <c r="V131" s="2" t="n"/>
+      <c r="W131" s="2" t="n"/>
+      <c r="X131" s="2" t="n"/>
+      <c r="Y131" s="2" t="n"/>
+      <c r="Z131" s="2" t="n"/>
+      <c r="AA131" s="2" t="n"/>
+      <c r="AB131" s="2" t="n"/>
+      <c r="AC131" s="2" t="n"/>
+      <c r="AD131" s="2" t="n"/>
+      <c r="AE131" s="2" t="n"/>
+      <c r="AF131" s="2" t="n"/>
+      <c r="AG131" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH131" s="2" t="n"/>
+      <c r="AI131" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="AJ131" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="AK131" s="2" t="n"/>
+      <c r="AL131" s="2" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
         <is>
           <t>BCIO:006095</t>
         </is>
       </c>
-      <c r="B131" s="4" t="inlineStr">
+      <c r="B132" s="4" t="inlineStr">
         <is>
           <t>normative behaviour</t>
         </is>
       </c>
-      <c r="C131" s="4" t="inlineStr"/>
-      <c r="D131" s="4" t="inlineStr">
+      <c r="C132" s="4" t="n"/>
+      <c r="D132" s="4" t="inlineStr">
         <is>
           <t>An &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr"/>
-      <c r="F131" s="4" t="inlineStr"/>
-      <c r="G131" s="4" t="inlineStr">
+      <c r="E132" s="4" t="n"/>
+      <c r="F132" s="4" t="n"/>
+      <c r="G132" s="4" t="inlineStr">
         <is>
           <t>socially-related behaviour</t>
         </is>
       </c>
-      <c r="H131" s="4" t="inlineStr"/>
-      <c r="I131" s="4" t="inlineStr"/>
-      <c r="J131" s="4" t="inlineStr"/>
-      <c r="K131" s="4" t="inlineStr"/>
-      <c r="L131" s="4" t="inlineStr"/>
-      <c r="M131" s="4" t="inlineStr"/>
-      <c r="N131" s="4" t="inlineStr"/>
-      <c r="O131" s="4" t="inlineStr"/>
-      <c r="P131" s="4" t="inlineStr"/>
-      <c r="Q131" s="4" t="inlineStr"/>
-      <c r="R131" s="4" t="inlineStr"/>
-      <c r="S131" s="4" t="inlineStr"/>
-      <c r="T131" s="4" t="inlineStr"/>
-      <c r="U131" s="4" t="inlineStr"/>
-      <c r="V131" s="4" t="inlineStr"/>
-      <c r="W131" s="4" t="inlineStr"/>
-      <c r="X131" s="4" t="inlineStr"/>
-      <c r="Y131" s="4" t="inlineStr"/>
-      <c r="Z131" s="4" t="inlineStr"/>
-      <c r="AA131" s="4" t="inlineStr"/>
-      <c r="AB131" s="4" t="inlineStr"/>
-      <c r="AC131" s="4" t="inlineStr"/>
-      <c r="AD131" s="4" t="inlineStr"/>
-      <c r="AE131" s="4" t="inlineStr"/>
-      <c r="AF131" s="4" t="inlineStr"/>
-      <c r="AG131" s="4" t="n">
+      <c r="H132" s="4" t="n"/>
+      <c r="I132" s="4" t="n"/>
+      <c r="J132" s="4" t="n"/>
+      <c r="K132" s="4" t="n"/>
+      <c r="L132" s="4" t="n"/>
+      <c r="M132" s="4" t="n"/>
+      <c r="N132" s="4" t="n"/>
+      <c r="O132" s="4" t="n"/>
+      <c r="P132" s="4" t="n"/>
+      <c r="Q132" s="4" t="n"/>
+      <c r="R132" s="4" t="n"/>
+      <c r="S132" s="4" t="n"/>
+      <c r="T132" s="4" t="n"/>
+      <c r="U132" s="4" t="n"/>
+      <c r="V132" s="4" t="n"/>
+      <c r="W132" s="4" t="n"/>
+      <c r="X132" s="4" t="n"/>
+      <c r="Y132" s="4" t="n"/>
+      <c r="Z132" s="4" t="n"/>
+      <c r="AA132" s="4" t="n"/>
+      <c r="AB132" s="4" t="n"/>
+      <c r="AC132" s="4" t="n"/>
+      <c r="AD132" s="4" t="n"/>
+      <c r="AE132" s="4" t="n"/>
+      <c r="AF132" s="4" t="n"/>
+      <c r="AG132" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AH131" s="4" t="inlineStr"/>
-      <c r="AI131" s="4" t="inlineStr"/>
-      <c r="AJ131" s="4" t="inlineStr">
+      <c r="AH132" s="4" t="n"/>
+      <c r="AI132" s="4" t="n"/>
+      <c r="AJ132" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="AK131" s="4" t="inlineStr"/>
-      <c r="AL131" s="4" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">number of behavioural occurrences </t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
-      <c r="G132" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H132" s="2" t="n"/>
-      <c r="I132" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J132" s="2" t="n"/>
-      <c r="K132" s="2" t="n"/>
-      <c r="L132" s="2" t="n"/>
-      <c r="M132" s="2" t="n"/>
-      <c r="N132" s="2" t="n"/>
-      <c r="O132" s="2" t="n"/>
-      <c r="P132" s="2" t="n"/>
-      <c r="Q132" s="2" t="n"/>
-      <c r="R132" s="2" t="n"/>
-      <c r="S132" s="2" t="n"/>
-      <c r="T132" s="2" t="n"/>
-      <c r="U132" s="2" t="n"/>
-      <c r="V132" s="2" t="n"/>
-      <c r="W132" s="2" t="n"/>
-      <c r="X132" s="2" t="n"/>
-      <c r="Y132" s="2" t="n"/>
-      <c r="Z132" s="2" t="n"/>
-      <c r="AA132" s="2" t="n"/>
-      <c r="AB132" s="2" t="n"/>
-      <c r="AC132" s="2" t="n"/>
-      <c r="AD132" s="2" t="n"/>
-      <c r="AE132" s="2" t="n"/>
-      <c r="AF132" s="2" t="inlineStr">
-        <is>
-          <t>harassment behaviour occurred three times</t>
-        </is>
-      </c>
-      <c r="AG132" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH132" s="2" t="n"/>
-      <c r="AI132" s="2" t="inlineStr">
-        <is>
-          <t>PS; RW</t>
-        </is>
-      </c>
-      <c r="AJ132" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="AK132" s="2" t="n"/>
-      <c r="AL132" s="2" t="n"/>
+      <c r="AK132" s="4" t="n"/>
+      <c r="AL132" s="4" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050429</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nurture behaviour </t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="n"/>
+          <t xml:space="preserve">number of behavioural occurrences </t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t xml:space="preserve">A data item that is about the number of times a behaviour has occurred. </t>
         </is>
       </c>
       <c r="E133" s="2" t="n"/>
       <c r="F133" s="2" t="n"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H133" s="2" t="n"/>
@@ -10689,15 +10675,10 @@
       <c r="AB133" s="2" t="n"/>
       <c r="AC133" s="2" t="n"/>
       <c r="AD133" s="2" t="n"/>
-      <c r="AE133" s="2" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
+      <c r="AE133" s="2" t="n"/>
       <c r="AF133" s="2" t="inlineStr">
         <is>
-          <t>Comforting, feeding, encouraging</t>
+          <t>harassment behaviour occurred three times</t>
         </is>
       </c>
       <c r="AG133" s="2" t="inlineStr">
@@ -10708,7 +10689,7 @@
       <c r="AH133" s="2" t="n"/>
       <c r="AI133" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ133" s="2" t="inlineStr">
@@ -10722,25 +10703,25 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object management behaviour </t>
+          <t xml:space="preserve">nurture behaviour </t>
         </is>
       </c>
       <c r="C134" s="2" t="n"/>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="E134" s="2" t="n"/>
       <c r="F134" s="2" t="n"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H134" s="2" t="n"/>
@@ -10772,12 +10753,13 @@
       <c r="AD134" s="2" t="n"/>
       <c r="AE134" s="2" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="AF134" s="2" t="inlineStr">
         <is>
-          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
+          <t>Comforting, feeding, encouraging</t>
         </is>
       </c>
       <c r="AG134" s="2" t="inlineStr">
@@ -10788,7 +10770,7 @@
       <c r="AH134" s="2" t="n"/>
       <c r="AI134" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ134" s="2" t="inlineStr">
@@ -10802,32 +10784,28 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">object management behaviour </t>
         </is>
       </c>
       <c r="C135" s="2" t="n"/>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="E135" s="2" t="n"/>
       <c r="F135" s="2" t="n"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="n"/>
       <c r="I135" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10856,12 +10834,12 @@
       <c r="AD135" s="2" t="n"/>
       <c r="AE135" s="2" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="AF135" s="2" t="inlineStr">
         <is>
-          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+          <t>Storing, Littering, Installing, Assembling, Disassembling, Repairing, Designing, Servicing, Washing, Composting, Planting, Pruning,  Cooking,  Growing food, Recycling, Planting trees, Picking up litter</t>
         </is>
       </c>
       <c r="AG135" s="2" t="inlineStr">
@@ -10886,28 +10864,32 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="C136" s="2" t="n"/>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="E136" s="2" t="n"/>
       <c r="F136" s="2" t="n"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H136" s="2" t="n"/>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -10934,8 +10916,16 @@
       <c r="AB136" s="2" t="n"/>
       <c r="AC136" s="2" t="n"/>
       <c r="AD136" s="2" t="n"/>
-      <c r="AE136" s="2" t="n"/>
-      <c r="AF136" s="2" t="n"/>
+      <c r="AE136" s="2" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="AF136" s="2" t="inlineStr">
+        <is>
+          <t>Shooting, Writing, Using a weapon, Using public transport, Taking a bus, Sailing, Typing, Collecting, Drying, Ironing, Painting, Drawing</t>
+        </is>
+      </c>
       <c r="AG136" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10944,7 +10934,7 @@
       <c r="AH136" s="2" t="n"/>
       <c r="AI136" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ136" s="2" t="inlineStr">
@@ -10958,25 +10948,25 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>parenting behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="C137" s="2" t="n"/>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="E137" s="2" t="n"/>
       <c r="F137" s="2" t="n"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>nurture behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H137" s="2" t="n"/>
@@ -11030,25 +11020,25 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>participating in creative arts therapy</t>
+          <t>parenting behaviour</t>
         </is>
       </c>
       <c r="C138" s="2" t="n"/>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="E138" s="2" t="n"/>
       <c r="F138" s="2" t="n"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>nurture behaviour</t>
         </is>
       </c>
       <c r="H138" s="2" t="n"/>
@@ -11102,25 +11092,25 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in health screening </t>
+          <t>participating in creative arts therapy</t>
         </is>
       </c>
       <c r="C139" s="2" t="n"/>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E139" s="2" t="n"/>
       <c r="F139" s="2" t="n"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="H139" s="2" t="n"/>
@@ -11151,11 +11141,7 @@
       <c r="AC139" s="2" t="n"/>
       <c r="AD139" s="2" t="n"/>
       <c r="AE139" s="2" t="n"/>
-      <c r="AF139" s="2" t="inlineStr">
-        <is>
-          <t>Screen for breast cancer, screen for perinatal depression</t>
-        </is>
-      </c>
+      <c r="AF139" s="2" t="n"/>
       <c r="AG139" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11178,25 +11164,25 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">participating in healthcare testing  </t>
+          <t xml:space="preserve">participating in health screening </t>
         </is>
       </c>
       <c r="C140" s="2" t="n"/>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E140" s="2" t="n"/>
       <c r="F140" s="2" t="n"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="H140" s="2" t="n"/>
@@ -11226,14 +11212,10 @@
       <c r="AB140" s="2" t="n"/>
       <c r="AC140" s="2" t="n"/>
       <c r="AD140" s="2" t="n"/>
-      <c r="AE140" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
+      <c r="AE140" s="2" t="n"/>
       <c r="AF140" s="2" t="inlineStr">
         <is>
-          <t>Blood test to check for anaemia, psychological testing</t>
+          <t>Screen for breast cancer, screen for perinatal depression</t>
         </is>
       </c>
       <c r="AG140" s="2" t="inlineStr">
@@ -11258,18 +11240,18 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t xml:space="preserve">participating in healthcare testing  </t>
         </is>
       </c>
       <c r="C141" s="2" t="n"/>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E141" s="2" t="n"/>
@@ -11306,10 +11288,14 @@
       <c r="AB141" s="2" t="n"/>
       <c r="AC141" s="2" t="n"/>
       <c r="AD141" s="2" t="n"/>
-      <c r="AE141" s="2" t="n"/>
+      <c r="AE141" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
       <c r="AF141" s="2" t="inlineStr">
         <is>
-          <t>Undergoing surgery</t>
+          <t>Blood test to check for anaemia, psychological testing</t>
         </is>
       </c>
       <c r="AG141" s="2" t="inlineStr">
@@ -11334,25 +11320,25 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="C142" s="2" t="n"/>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="E142" s="2" t="n"/>
       <c r="F142" s="2" t="n"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="H142" s="2" t="n"/>
@@ -11383,7 +11369,11 @@
       <c r="AC142" s="2" t="n"/>
       <c r="AD142" s="2" t="n"/>
       <c r="AE142" s="2" t="n"/>
-      <c r="AF142" s="2" t="n"/>
+      <c r="AF142" s="2" t="inlineStr">
+        <is>
+          <t>Undergoing surgery</t>
+        </is>
+      </c>
       <c r="AG142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11406,18 +11396,18 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="C143" s="2" t="n"/>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E143" s="2" t="n"/>
@@ -11478,18 +11468,18 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="C144" s="2" t="n"/>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E144" s="2" t="n"/>
@@ -11550,18 +11540,18 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="C145" s="2" t="n"/>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E145" s="2" t="n"/>
@@ -11622,25 +11612,25 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050827</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>past occurrence of a target behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="C146" s="2" t="n"/>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E146" s="2" t="n"/>
       <c r="F146" s="2" t="n"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="H146" s="2" t="n"/>
@@ -11670,11 +11660,7 @@
       <c r="AB146" s="2" t="n"/>
       <c r="AC146" s="2" t="n"/>
       <c r="AD146" s="2" t="n"/>
-      <c r="AE146" s="2" t="inlineStr">
-        <is>
-          <t>This is a relational class (relates one behaviour to another).</t>
-        </is>
-      </c>
+      <c r="AE146" s="2" t="n"/>
       <c r="AF146" s="2" t="n"/>
       <c r="AG146" s="2" t="inlineStr">
         <is>
@@ -11698,31 +11684,31 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050827</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>past occurrence of a target behaviour</t>
         </is>
       </c>
       <c r="C147" s="2" t="n"/>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
         </is>
       </c>
       <c r="E147" s="2" t="n"/>
       <c r="F147" s="2" t="n"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H147" s="2" t="n"/>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J147" s="2" t="n"/>
@@ -11748,7 +11734,7 @@
       <c r="AD147" s="2" t="n"/>
       <c r="AE147" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>This is a relational class (relates one behaviour to another).</t>
         </is>
       </c>
       <c r="AF147" s="2" t="n"/>
@@ -11760,7 +11746,7 @@
       <c r="AH147" s="2" t="n"/>
       <c r="AI147" s="2" t="inlineStr">
         <is>
-          <t>AW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ147" s="2" t="inlineStr">
@@ -11774,35 +11760,31 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050300</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="C148" s="2" t="n"/>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="E148" s="2" t="n"/>
       <c r="F148" s="2" t="n"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="n"/>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
         </is>
       </c>
       <c r="J148" s="2" t="n"/>
@@ -11828,14 +11810,10 @@
       <c r="AD148" s="2" t="n"/>
       <c r="AE148" s="2" t="inlineStr">
         <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="AF148" s="2" t="inlineStr">
-        <is>
-          <t>Nail-cutting</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+      <c r="AF148" s="2" t="n"/>
       <c r="AG148" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11844,7 +11822,7 @@
       <c r="AH148" s="2" t="n"/>
       <c r="AI148" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>AW; PS</t>
         </is>
       </c>
       <c r="AJ148" s="2" t="inlineStr">
@@ -11858,28 +11836,32 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="C149" s="2" t="n"/>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="E149" s="2" t="n"/>
       <c r="F149" s="2" t="n"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="H149" s="2" t="n"/>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11908,12 +11890,12 @@
       <c r="AD149" s="2" t="n"/>
       <c r="AE149" s="2" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="AF149" s="2" t="inlineStr">
         <is>
-          <t>Wrestling, fencing</t>
+          <t>Nail-cutting</t>
         </is>
       </c>
       <c r="AG149" s="2" t="inlineStr">
@@ -11924,7 +11906,7 @@
       <c r="AH149" s="2" t="n"/>
       <c r="AI149" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="AJ149" s="2" t="inlineStr">
@@ -11938,25 +11920,25 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="C150" s="2" t="n"/>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="E150" s="2" t="n"/>
       <c r="F150" s="2" t="n"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>material entity-related behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H150" s="2" t="n"/>
@@ -11986,10 +11968,14 @@
       <c r="AB150" s="2" t="n"/>
       <c r="AC150" s="2" t="n"/>
       <c r="AD150" s="2" t="n"/>
-      <c r="AE150" s="2" t="n"/>
+      <c r="AE150" s="2" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
       <c r="AF150" s="2" t="inlineStr">
         <is>
-          <t>Touching</t>
+          <t>Wrestling, fencing</t>
         </is>
       </c>
       <c r="AG150" s="2" t="inlineStr">
@@ -12000,7 +11986,7 @@
       <c r="AH150" s="2" t="n"/>
       <c r="AI150" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="AJ150" s="2" t="inlineStr">
@@ -12014,29 +12000,25 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
-        </is>
-      </c>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="n"/>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="E151" s="2" t="n"/>
       <c r="F151" s="2" t="n"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="H151" s="2" t="n"/>
@@ -12069,7 +12051,7 @@
       <c r="AE151" s="2" t="n"/>
       <c r="AF151" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+          <t>Touching</t>
         </is>
       </c>
       <c r="AG151" s="2" t="inlineStr">
@@ -12080,7 +12062,7 @@
       <c r="AH151" s="2" t="n"/>
       <c r="AI151" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ151" s="2" t="inlineStr">
@@ -12094,32 +12076,32 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physical impact behaviour </t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="n"/>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="E152" s="2" t="n"/>
       <c r="F152" s="2" t="n"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="n"/>
       <c r="I152" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12149,20 +12131,18 @@
       <c r="AE152" s="2" t="n"/>
       <c r="AF152" s="2" t="inlineStr">
         <is>
-          <t>Pushing, Kicking, Punching</t>
-        </is>
-      </c>
-      <c r="AG152" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH152" s="2" t="inlineStr">
-        <is>
-          <t>The degree of force is not precisely specified.</t>
-        </is>
-      </c>
+          <t>physical performance behaviour has high physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="AG152" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH152" s="2" t="n"/>
       <c r="AI152" s="2" t="inlineStr">
         <is>
-          <t>RW; OC</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ152" s="2" t="inlineStr">
@@ -12176,28 +12156,32 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t xml:space="preserve">physical impact behaviour </t>
         </is>
       </c>
       <c r="C153" s="2" t="n"/>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="E153" s="2" t="n"/>
       <c r="F153" s="2" t="n"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H153" s="2" t="n"/>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12227,18 +12211,20 @@
       <c r="AE153" s="2" t="n"/>
       <c r="AF153" s="2" t="inlineStr">
         <is>
-          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
-        </is>
-      </c>
-      <c r="AG153" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH153" s="2" t="n"/>
+          <t>Pushing, Kicking, Punching</t>
+        </is>
+      </c>
+      <c r="AG153" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH153" s="2" t="inlineStr">
+        <is>
+          <t>The degree of force is not precisely specified.</t>
+        </is>
+      </c>
       <c r="AI153" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>RW; OC</t>
         </is>
       </c>
       <c r="AJ153" s="2" t="inlineStr">
@@ -12252,32 +12238,28 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C154" s="2" t="n"/>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="E154" s="2" t="n"/>
       <c r="F154" s="2" t="n"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="n"/>
       <c r="I154" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12307,7 +12289,7 @@
       <c r="AE154" s="2" t="n"/>
       <c r="AF154" s="2" t="inlineStr">
         <is>
-          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+          <t>Swimming, Engaging in regular physical activity, Exercising, Playing recreational sport</t>
         </is>
       </c>
       <c r="AG154" s="2" t="inlineStr">
@@ -12318,7 +12300,7 @@
       <c r="AH154" s="2" t="n"/>
       <c r="AI154" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ154" s="2" t="inlineStr">
@@ -12332,28 +12314,32 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="C155" s="2" t="n"/>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="E155" s="2" t="n"/>
       <c r="F155" s="2" t="n"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H155" s="2" t="n"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12381,7 +12367,11 @@
       <c r="AC155" s="2" t="n"/>
       <c r="AD155" s="2" t="n"/>
       <c r="AE155" s="2" t="n"/>
-      <c r="AF155" s="2" t="n"/>
+      <c r="AF155" s="2" t="inlineStr">
+        <is>
+          <t>Voting, Supporting a political campaign, Engaging in political activism, Engaging in protest, Engaging in boycotts, Engaging in strikes, Political opposition, Campaigning to be elected</t>
+        </is>
+      </c>
       <c r="AG155" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12390,7 +12380,7 @@
       <c r="AH155" s="2" t="n"/>
       <c r="AI155" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="AJ155" s="2" t="inlineStr">
@@ -12404,26 +12394,25 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C156" s="2" t="n"/>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
-</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E156" s="2" t="n"/>
       <c r="F156" s="2" t="n"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="H156" s="2" t="n"/>
@@ -12477,25 +12466,26 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="C157" s="2" t="n"/>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t xml:space="preserve">A uniform process aggregate whose members are individual behaviour patterns of a population.
+</t>
         </is>
       </c>
       <c r="E157" s="2" t="n"/>
       <c r="F157" s="2" t="n"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="H157" s="2" t="n"/>
@@ -12535,7 +12525,7 @@
       <c r="AH157" s="2" t="n"/>
       <c r="AI157" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ157" s="2" t="inlineStr">
@@ -12549,25 +12539,25 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural consequence</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="C158" s="2" t="n"/>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="E158" s="2" t="n"/>
       <c r="F158" s="2" t="n"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H158" s="2" t="n"/>
@@ -12607,7 +12597,7 @@
       <c r="AH158" s="2" t="n"/>
       <c r="AI158" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ158" s="2" t="inlineStr">
@@ -12621,29 +12611,25 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>positive behavioural consequence</t>
         </is>
       </c>
       <c r="C159" s="2" t="n"/>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>'posture behaviour' AND 'expressive behaviour'</t>
-        </is>
-      </c>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n"/>
       <c r="F159" s="2" t="n"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>posture behaviour</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H159" s="2" t="n"/>
@@ -12673,11 +12659,7 @@
       <c r="AB159" s="2" t="n"/>
       <c r="AC159" s="2" t="n"/>
       <c r="AD159" s="2" t="n"/>
-      <c r="AE159" s="2" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
-        </is>
-      </c>
+      <c r="AE159" s="2" t="n"/>
       <c r="AF159" s="2" t="n"/>
       <c r="AG159" s="2" t="inlineStr">
         <is>
@@ -12687,7 +12669,7 @@
       <c r="AH159" s="2" t="n"/>
       <c r="AI159" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ159" s="2" t="inlineStr">
@@ -12701,32 +12683,32 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="C160" s="2" t="n"/>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="n"/>
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>'posture behaviour' AND 'expressive behaviour'</t>
+        </is>
+      </c>
       <c r="F160" s="2" t="n"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="H160" s="2" t="n"/>
       <c r="I160" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12753,7 +12735,11 @@
       <c r="AB160" s="2" t="n"/>
       <c r="AC160" s="2" t="n"/>
       <c r="AD160" s="2" t="n"/>
-      <c r="AE160" s="2" t="n"/>
+      <c r="AE160" s="2" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
       <c r="AF160" s="2" t="n"/>
       <c r="AG160" s="2" t="inlineStr">
         <is>
@@ -12763,7 +12749,7 @@
       <c r="AH160" s="2" t="n"/>
       <c r="AI160" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="AJ160" s="2" t="inlineStr">
@@ -12777,28 +12763,32 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="C161" s="2" t="n"/>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="E161" s="2" t="n"/>
       <c r="F161" s="2" t="n"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="H161" s="2" t="n"/>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12835,7 +12825,7 @@
       <c r="AH161" s="2" t="n"/>
       <c r="AI161" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ161" s="2" t="inlineStr">
@@ -12849,25 +12839,25 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">prescribing behavioural regime </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="C162" s="2" t="n"/>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="E162" s="2" t="n"/>
       <c r="F162" s="2" t="n"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H162" s="2" t="n"/>
@@ -12921,18 +12911,18 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t xml:space="preserve">prescribing behavioural regime </t>
         </is>
       </c>
       <c r="C163" s="2" t="n"/>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="E163" s="2" t="n"/>
@@ -12969,12 +12959,7 @@
       <c r="AB163" s="2" t="n"/>
       <c r="AC163" s="2" t="n"/>
       <c r="AD163" s="2" t="n"/>
-      <c r="AE163" s="2" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
+      <c r="AE163" s="2" t="n"/>
       <c r="AF163" s="2" t="n"/>
       <c r="AG163" s="2" t="inlineStr">
         <is>
@@ -12998,32 +12983,28 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">pro-social behaviour </t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="C164" s="2" t="n"/>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="E164" s="2" t="n"/>
       <c r="F164" s="2" t="n"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H164" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="n"/>
       <c r="I164" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13050,12 +13031,13 @@
       <c r="AB164" s="2" t="n"/>
       <c r="AC164" s="2" t="n"/>
       <c r="AD164" s="2" t="n"/>
-      <c r="AE164" s="2" t="n"/>
-      <c r="AF164" s="2" t="inlineStr">
-        <is>
-          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
-        </is>
-      </c>
+      <c r="AE164" s="2" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="AF164" s="2" t="n"/>
       <c r="AG164" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13064,7 +13046,7 @@
       <c r="AH164" s="2" t="n"/>
       <c r="AI164" s="2" t="inlineStr">
         <is>
-          <t>OC; PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ164" s="2" t="inlineStr">
@@ -13078,34 +13060,30 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">pro-social behaviour </t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="n"/>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="E165" s="2" t="n"/>
       <c r="F165" s="2" t="n"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -13131,15 +13109,15 @@
       <c r="Y165" s="2" t="n"/>
       <c r="Z165" s="2" t="n"/>
       <c r="AA165" s="2" t="n"/>
-      <c r="AB165" s="2" t="inlineStr">
-        <is>
-          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
-        </is>
-      </c>
+      <c r="AB165" s="2" t="n"/>
       <c r="AC165" s="2" t="n"/>
       <c r="AD165" s="2" t="n"/>
       <c r="AE165" s="2" t="n"/>
-      <c r="AF165" s="2" t="n"/>
+      <c r="AF165" s="2" t="inlineStr">
+        <is>
+          <t>Advocating, Recycling, Donating, Charitable giving, Charitable working, Volunteering, Participating in research, Co-operation, Altruism, Sharing food, Helping others</t>
+        </is>
+      </c>
       <c r="AG165" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13148,7 +13126,7 @@
       <c r="AH165" s="2" t="n"/>
       <c r="AI165" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>OC; PS; RW</t>
         </is>
       </c>
       <c r="AJ165" s="2" t="inlineStr">
@@ -13162,28 +13140,36 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="n"/>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="E166" s="2" t="n"/>
       <c r="F166" s="2" t="n"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
-      <c r="H166" s="2" t="n"/>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -13207,7 +13193,11 @@
       <c r="Y166" s="2" t="n"/>
       <c r="Z166" s="2" t="n"/>
       <c r="AA166" s="2" t="n"/>
-      <c r="AB166" s="2" t="n"/>
+      <c r="AB166" s="2" t="inlineStr">
+        <is>
+          <t>Process aggregate extends BFO in the same way that object aggregate extends its coverage of material entities. It is required to be able to classify occurrents such as behaviour patterns that are repeated occurrences of classes of process that have properties such as average frequency of occurrence (not to be confused with frequency as a process profile) and temporal patterning of occurrences.</t>
+        </is>
+      </c>
       <c r="AC166" s="2" t="n"/>
       <c r="AD166" s="2" t="n"/>
       <c r="AE166" s="2" t="n"/>
@@ -13220,7 +13210,7 @@
       <c r="AH166" s="2" t="n"/>
       <c r="AI166" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="AJ166" s="2" t="inlineStr">
@@ -13234,25 +13224,25 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>providing health screening</t>
+          <t>providing creative arts therapy</t>
         </is>
       </c>
       <c r="C167" s="2" t="n"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="E167" s="2" t="n"/>
       <c r="F167" s="2" t="n"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="H167" s="2" t="n"/>
@@ -13292,7 +13282,7 @@
       <c r="AH167" s="2" t="n"/>
       <c r="AI167" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ167" s="2" t="inlineStr">
@@ -13306,25 +13296,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>providing health screening</t>
         </is>
       </c>
       <c r="C168" s="2" t="n"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="E168" s="2" t="n"/>
       <c r="F168" s="2" t="n"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="H168" s="2" t="n"/>
@@ -13364,7 +13354,7 @@
       <c r="AH168" s="2" t="n"/>
       <c r="AI168" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ168" s="2" t="inlineStr">
@@ -13378,25 +13368,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare advice </t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="C169" s="2" t="n"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="E169" s="2" t="n"/>
       <c r="F169" s="2" t="n"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H169" s="2" t="n"/>
@@ -13450,18 +13440,18 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">providing healthcare testing </t>
+          <t xml:space="preserve">providing healthcare advice </t>
         </is>
       </c>
       <c r="C170" s="2" t="n"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E170" s="2" t="n"/>
@@ -13522,18 +13512,18 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t xml:space="preserve">providing healthcare testing </t>
         </is>
       </c>
       <c r="C171" s="2" t="n"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E171" s="2" t="n"/>
@@ -13594,25 +13584,25 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="C172" s="2" t="n"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E172" s="2" t="n"/>
       <c r="F172" s="2" t="n"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H172" s="2" t="n"/>
@@ -13666,18 +13656,18 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>providing occupational therapy</t>
         </is>
       </c>
       <c r="C173" s="2" t="n"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="E173" s="2" t="n"/>
@@ -13738,18 +13728,18 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="C174" s="2" t="n"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="E174" s="2" t="n"/>
@@ -13810,18 +13800,18 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="C175" s="2" t="n"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="E175" s="2" t="n"/>
@@ -13882,25 +13872,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>purchasing behaviour</t>
+          <t>providing speech and language therapy</t>
         </is>
       </c>
       <c r="C176" s="2" t="n"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="E176" s="2" t="n"/>
       <c r="F176" s="2" t="n"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="H176" s="2" t="n"/>
@@ -13938,7 +13928,11 @@
         </is>
       </c>
       <c r="AH176" s="2" t="n"/>
-      <c r="AI176" s="2" t="n"/>
+      <c r="AI176" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="AJ176" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -13950,25 +13944,25 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reading behaviour </t>
+          <t>purchasing behaviour</t>
         </is>
       </c>
       <c r="C177" s="2" t="n"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="E177" s="2" t="n"/>
       <c r="F177" s="2" t="n"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">object-using behaviour </t>
+          <t xml:space="preserve">economic behaviour </t>
         </is>
       </c>
       <c r="H177" s="2" t="n"/>
@@ -14006,11 +14000,7 @@
         </is>
       </c>
       <c r="AH177" s="2" t="n"/>
-      <c r="AI177" s="2" t="inlineStr">
-        <is>
-          <t>OC</t>
-        </is>
-      </c>
+      <c r="AI177" s="2" t="n"/>
       <c r="AJ177" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -14022,25 +14012,25 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t xml:space="preserve">reading behaviour </t>
         </is>
       </c>
       <c r="C178" s="2" t="n"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="E178" s="2" t="n"/>
       <c r="F178" s="2" t="n"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t xml:space="preserve">object-using behaviour </t>
         </is>
       </c>
       <c r="H178" s="2" t="n"/>
@@ -14094,25 +14084,25 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>reducing discomfort</t>
+          <t>reclining</t>
         </is>
       </c>
       <c r="C179" s="2" t="n"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="E179" s="2" t="n"/>
       <c r="F179" s="2" t="n"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H179" s="2" t="n"/>
@@ -14141,11 +14131,7 @@
       <c r="AA179" s="2" t="n"/>
       <c r="AB179" s="2" t="n"/>
       <c r="AC179" s="2" t="n"/>
-      <c r="AD179" s="2" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
+      <c r="AD179" s="2" t="n"/>
       <c r="AE179" s="2" t="n"/>
       <c r="AF179" s="2" t="n"/>
       <c r="AG179" s="2" t="inlineStr">
@@ -14156,7 +14142,7 @@
       <c r="AH179" s="2" t="n"/>
       <c r="AI179" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="AJ179" s="2" t="inlineStr">
@@ -14170,18 +14156,18 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
+          <t>BCIO:050830</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>reducing harm</t>
+          <t>reducing discomfort</t>
         </is>
       </c>
       <c r="C180" s="2" t="n"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="E180" s="2" t="n"/>
@@ -14219,7 +14205,7 @@
       <c r="AC180" s="2" t="n"/>
       <c r="AD180" s="2" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="AE180" s="2" t="n"/>
@@ -14246,29 +14232,25 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050831</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>reflective behaviour</t>
+          <t>reducing harm</t>
         </is>
       </c>
       <c r="C181" s="2" t="n"/>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is reflectively driven.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' AND 'has behavioural attribute' some 'reflectively driven'</t>
-        </is>
-      </c>
+          <t>A process in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n"/>
       <c r="F181" s="2" t="n"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H181" s="2" t="n"/>
@@ -14280,11 +14262,7 @@
       <c r="J181" s="2" t="n"/>
       <c r="K181" s="2" t="n"/>
       <c r="L181" s="2" t="n"/>
-      <c r="M181" s="2" t="inlineStr">
-        <is>
-          <t>reflectively driven</t>
-        </is>
-      </c>
+      <c r="M181" s="2" t="n"/>
       <c r="N181" s="2" t="n"/>
       <c r="O181" s="2" t="n"/>
       <c r="P181" s="2" t="n"/>
@@ -14301,7 +14279,11 @@
       <c r="AA181" s="2" t="n"/>
       <c r="AB181" s="2" t="n"/>
       <c r="AC181" s="2" t="n"/>
-      <c r="AD181" s="2" t="n"/>
+      <c r="AD181" s="2" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
       <c r="AE181" s="2" t="n"/>
       <c r="AF181" s="2" t="n"/>
       <c r="AG181" s="2" t="inlineStr">
@@ -14312,7 +14294,7 @@
       <c r="AH181" s="2" t="n"/>
       <c r="AI181" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ181" s="2" t="inlineStr">
@@ -14326,25 +14308,29 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>reflectively driven</t>
+          <t>reflective behaviour</t>
         </is>
       </c>
       <c r="C182" s="2" t="n"/>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by a reflective mental process.</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="n"/>
+          <t>An individual human behaviour that is reflectively driven.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' AND 'has behavioural attribute' some 'reflectively driven'</t>
+        </is>
+      </c>
       <c r="F182" s="2" t="n"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H182" s="2" t="n"/>
@@ -14356,7 +14342,11 @@
       <c r="J182" s="2" t="n"/>
       <c r="K182" s="2" t="n"/>
       <c r="L182" s="2" t="n"/>
-      <c r="M182" s="2" t="n"/>
+      <c r="M182" s="2" t="inlineStr">
+        <is>
+          <t>reflectively driven</t>
+        </is>
+      </c>
       <c r="N182" s="2" t="n"/>
       <c r="O182" s="2" t="n"/>
       <c r="P182" s="2" t="n"/>
@@ -14384,7 +14374,7 @@
       <c r="AH182" s="2" t="n"/>
       <c r="AI182" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="AJ182" s="2" t="inlineStr">
@@ -14398,22 +14388,18 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
+          <t>reflectively driven</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="n"/>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A behavioural attribute in which the behaviour is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="E183" s="2" t="n"/>
@@ -14450,11 +14436,7 @@
       <c r="AB183" s="2" t="n"/>
       <c r="AC183" s="2" t="n"/>
       <c r="AD183" s="2" t="n"/>
-      <c r="AE183" s="2" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
+      <c r="AE183" s="2" t="n"/>
       <c r="AF183" s="2" t="n"/>
       <c r="AG183" s="2" t="inlineStr">
         <is>
@@ -14464,7 +14446,7 @@
       <c r="AH183" s="2" t="n"/>
       <c r="AI183" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ183" s="2" t="inlineStr">
@@ -14478,25 +14460,29 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="n"/>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="E184" s="2" t="n"/>
       <c r="F184" s="2" t="n"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H184" s="2" t="n"/>
@@ -14528,7 +14514,7 @@
       <c r="AD184" s="2" t="n"/>
       <c r="AE184" s="2" t="inlineStr">
         <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
       <c r="AF184" s="2" t="n"/>
@@ -14540,7 +14526,7 @@
       <c r="AH184" s="2" t="n"/>
       <c r="AI184" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ184" s="2" t="inlineStr">
@@ -14554,25 +14540,25 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">reproductive behaviour </t>
+          <t>regulatory behaviour</t>
         </is>
       </c>
       <c r="C185" s="2" t="n"/>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="E185" s="2" t="n"/>
       <c r="F185" s="2" t="n"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H185" s="2" t="n"/>
@@ -14604,14 +14590,10 @@
       <c r="AD185" s="2" t="n"/>
       <c r="AE185" s="2" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="AF185" s="2" t="inlineStr">
-        <is>
-          <t>Fertility preservation</t>
-        </is>
-      </c>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+        </is>
+      </c>
+      <c r="AF185" s="2" t="n"/>
       <c r="AG185" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14620,7 +14602,7 @@
       <c r="AH185" s="2" t="n"/>
       <c r="AI185" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ185" s="2" t="inlineStr">
@@ -14634,25 +14616,25 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>response cost</t>
+          <t xml:space="preserve">reproductive behaviour </t>
         </is>
       </c>
       <c r="C186" s="2" t="n"/>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="E186" s="2" t="n"/>
       <c r="F186" s="2" t="n"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="H186" s="2" t="n"/>
@@ -14682,15 +14664,27 @@
       <c r="AB186" s="2" t="n"/>
       <c r="AC186" s="2" t="n"/>
       <c r="AD186" s="2" t="n"/>
-      <c r="AE186" s="2" t="n"/>
-      <c r="AF186" s="2" t="n"/>
+      <c r="AE186" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="AF186" s="2" t="inlineStr">
+        <is>
+          <t>Fertility preservation</t>
+        </is>
+      </c>
       <c r="AG186" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AH186" s="2" t="n"/>
-      <c r="AI186" s="2" t="n"/>
+      <c r="AI186" s="2" t="inlineStr">
+        <is>
+          <t>OC; PS</t>
+        </is>
+      </c>
       <c r="AJ186" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -14702,25 +14696,25 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>response cost</t>
         </is>
       </c>
       <c r="C187" s="2" t="n"/>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="E187" s="2" t="n"/>
       <c r="F187" s="2" t="n"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="H187" s="2" t="n"/>
@@ -14758,11 +14752,7 @@
         </is>
       </c>
       <c r="AH187" s="2" t="n"/>
-      <c r="AI187" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="AI187" s="2" t="n"/>
       <c r="AJ187" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -14774,25 +14764,25 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>rewarding behaviour</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="C188" s="2" t="n"/>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="E188" s="2" t="n"/>
       <c r="F188" s="2" t="n"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="H188" s="2" t="n"/>
@@ -14846,25 +14836,25 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>self-injecting consumption</t>
+          <t>rewarding behaviour</t>
         </is>
       </c>
       <c r="C189" s="2" t="n"/>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="E189" s="2" t="n"/>
       <c r="F189" s="2" t="n"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="H189" s="2" t="n"/>
@@ -14894,11 +14884,7 @@
       <c r="AB189" s="2" t="n"/>
       <c r="AC189" s="2" t="n"/>
       <c r="AD189" s="2" t="n"/>
-      <c r="AE189" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
+      <c r="AE189" s="2" t="n"/>
       <c r="AF189" s="2" t="n"/>
       <c r="AG189" s="2" t="inlineStr">
         <is>
@@ -14922,25 +14908,25 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="C190" s="2" t="n"/>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="E190" s="2" t="n"/>
       <c r="F190" s="2" t="n"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">harmful behaviour </t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H190" s="2" t="n"/>
@@ -14972,14 +14958,10 @@
       <c r="AD190" s="2" t="n"/>
       <c r="AE190" s="2" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
-        </is>
-      </c>
-      <c r="AF190" s="2" t="inlineStr">
-        <is>
-          <t>Intentional overdose</t>
-        </is>
-      </c>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="AF190" s="2" t="n"/>
       <c r="AG190" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14988,7 +14970,7 @@
       <c r="AH190" s="2" t="n"/>
       <c r="AI190" s="2" t="inlineStr">
         <is>
-          <t>OC; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ190" s="2" t="inlineStr">
@@ -15002,25 +14984,25 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="C191" s="2" t="n"/>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="E191" s="2" t="n"/>
       <c r="F191" s="2" t="n"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t xml:space="preserve">harmful behaviour </t>
         </is>
       </c>
       <c r="H191" s="2" t="n"/>
@@ -15050,8 +15032,16 @@
       <c r="AB191" s="2" t="n"/>
       <c r="AC191" s="2" t="n"/>
       <c r="AD191" s="2" t="n"/>
-      <c r="AE191" s="2" t="n"/>
-      <c r="AF191" s="2" t="n"/>
+      <c r="AE191" s="2" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="AF191" s="2" t="inlineStr">
+        <is>
+          <t>Intentional overdose</t>
+        </is>
+      </c>
       <c r="AG191" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15060,7 +15050,7 @@
       <c r="AH191" s="2" t="n"/>
       <c r="AI191" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; PS</t>
         </is>
       </c>
       <c r="AJ191" s="2" t="inlineStr">
@@ -15074,25 +15064,25 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>selling behaviour</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="C192" s="2" t="n"/>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="E192" s="2" t="n"/>
       <c r="F192" s="2" t="n"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic behaviour </t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H192" s="2" t="n"/>
@@ -15130,7 +15120,11 @@
         </is>
       </c>
       <c r="AH192" s="2" t="n"/>
-      <c r="AI192" s="2" t="n"/>
+      <c r="AI192" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="AJ192" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -15142,32 +15136,28 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sexual behaviour  </t>
+          <t>selling behaviour</t>
         </is>
       </c>
       <c r="C193" s="2" t="n"/>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="E193" s="2" t="n"/>
       <c r="F193" s="2" t="n"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">economic behaviour </t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="n"/>
       <c r="I193" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -15194,27 +15184,15 @@
       <c r="AB193" s="2" t="n"/>
       <c r="AC193" s="2" t="n"/>
       <c r="AD193" s="2" t="n"/>
-      <c r="AE193" s="2" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="AF193" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
-        </is>
-      </c>
+      <c r="AE193" s="2" t="n"/>
+      <c r="AF193" s="2" t="n"/>
       <c r="AG193" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AH193" s="2" t="n"/>
-      <c r="AI193" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
+      <c r="AI193" s="2" t="n"/>
       <c r="AJ193" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -15226,28 +15204,32 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t xml:space="preserve">sexual behaviour  </t>
         </is>
       </c>
       <c r="C194" s="2" t="n"/>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="E194" s="2" t="n"/>
       <c r="F194" s="2" t="n"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
-        </is>
-      </c>
-      <c r="H194" s="2" t="n"/>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I194" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -15274,8 +15256,16 @@
       <c r="AB194" s="2" t="n"/>
       <c r="AC194" s="2" t="n"/>
       <c r="AD194" s="2" t="n"/>
-      <c r="AE194" s="2" t="n"/>
-      <c r="AF194" s="2" t="n"/>
+      <c r="AE194" s="2" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="AF194" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copulating, Masturbating, Flirting, Having intercourse </t>
+        </is>
+      </c>
       <c r="AG194" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15284,7 +15274,7 @@
       <c r="AH194" s="2" t="n"/>
       <c r="AI194" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ194" s="2" t="inlineStr">
@@ -15298,25 +15288,25 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="C195" s="2" t="n"/>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="E195" s="2" t="n"/>
       <c r="F195" s="2" t="n"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>learning behaviour</t>
+          <t xml:space="preserve">posture behaviour </t>
         </is>
       </c>
       <c r="H195" s="2" t="n"/>
@@ -15347,11 +15337,7 @@
       <c r="AC195" s="2" t="n"/>
       <c r="AD195" s="2" t="n"/>
       <c r="AE195" s="2" t="n"/>
-      <c r="AF195" s="2" t="inlineStr">
-        <is>
-          <t>Training, Behavioural practice/rehearsal</t>
-        </is>
-      </c>
+      <c r="AF195" s="2" t="n"/>
       <c r="AG195" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15360,7 +15346,7 @@
       <c r="AH195" s="2" t="n"/>
       <c r="AI195" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; PS</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="AJ195" s="2" t="inlineStr">
@@ -15374,25 +15360,25 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>sniffing consumption</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="C196" s="2" t="n"/>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="E196" s="2" t="n"/>
       <c r="F196" s="2" t="n"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="H196" s="2" t="n"/>
@@ -15423,7 +15409,11 @@
       <c r="AC196" s="2" t="n"/>
       <c r="AD196" s="2" t="n"/>
       <c r="AE196" s="2" t="n"/>
-      <c r="AF196" s="2" t="n"/>
+      <c r="AF196" s="2" t="inlineStr">
+        <is>
+          <t>Training, Behavioural practice/rehearsal</t>
+        </is>
+      </c>
       <c r="AG196" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15432,7 +15422,7 @@
       <c r="AH196" s="2" t="n"/>
       <c r="AI196" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ196" s="2" t="inlineStr">
@@ -15446,25 +15436,25 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>social behavioural consequence</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="C197" s="2" t="n"/>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="E197" s="2" t="n"/>
       <c r="F197" s="2" t="n"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H197" s="2" t="n"/>
@@ -15518,25 +15508,25 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social behavioural consequence</t>
         </is>
       </c>
       <c r="C198" s="2" t="n"/>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
       <c r="E198" s="2" t="n"/>
       <c r="F198" s="2" t="n"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="H198" s="2" t="n"/>
@@ -15567,18 +15557,18 @@
       <c r="AC198" s="2" t="n"/>
       <c r="AD198" s="2" t="n"/>
       <c r="AE198" s="2" t="n"/>
-      <c r="AF198" s="2" t="inlineStr">
-        <is>
-          <t>Social support from social network.</t>
-        </is>
-      </c>
+      <c r="AF198" s="2" t="n"/>
       <c r="AG198" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AH198" s="2" t="n"/>
-      <c r="AI198" s="2" t="n"/>
+      <c r="AI198" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="AJ198" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -15590,32 +15580,28 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C199" s="2" t="n"/>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E199" s="2" t="n"/>
       <c r="F199" s="2" t="n"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="n"/>
       <c r="I199" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -15642,15 +15628,10 @@
       <c r="AB199" s="2" t="n"/>
       <c r="AC199" s="2" t="n"/>
       <c r="AD199" s="2" t="n"/>
-      <c r="AE199" s="2" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
+      <c r="AE199" s="2" t="n"/>
       <c r="AF199" s="2" t="inlineStr">
         <is>
-          <t>Collaborating, coordinating gatherings</t>
+          <t>Social support from social network.</t>
         </is>
       </c>
       <c r="AG199" s="2" t="inlineStr">
@@ -15659,11 +15640,7 @@
         </is>
       </c>
       <c r="AH199" s="2" t="n"/>
-      <c r="AI199" s="2" t="inlineStr">
-        <is>
-          <t>RW; OC; PS</t>
-        </is>
-      </c>
+      <c r="AI199" s="2" t="n"/>
       <c r="AJ199" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -15675,28 +15652,32 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="C200" s="2" t="n"/>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="E200" s="2" t="n"/>
       <c r="F200" s="2" t="n"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="H200" s="2" t="n"/>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -15723,8 +15704,17 @@
       <c r="AB200" s="2" t="n"/>
       <c r="AC200" s="2" t="n"/>
       <c r="AD200" s="2" t="n"/>
-      <c r="AE200" s="2" t="n"/>
-      <c r="AF200" s="2" t="n"/>
+      <c r="AE200" s="2" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="AF200" s="2" t="inlineStr">
+        <is>
+          <t>Collaborating, coordinating gatherings</t>
+        </is>
+      </c>
       <c r="AG200" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15733,7 +15723,7 @@
       <c r="AH200" s="2" t="n"/>
       <c r="AI200" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; PS</t>
         </is>
       </c>
       <c r="AJ200" s="2" t="inlineStr">
@@ -15747,25 +15737,25 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="C201" s="2" t="n"/>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="E201" s="2" t="n"/>
       <c r="F201" s="2" t="n"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="H201" s="2" t="n"/>
@@ -15819,25 +15809,25 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="C202" s="2" t="n"/>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="E202" s="2" t="n"/>
       <c r="F202" s="2" t="n"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="H202" s="2" t="n"/>
@@ -15877,7 +15867,7 @@
       <c r="AH202" s="2" t="n"/>
       <c r="AI202" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ202" s="2" t="inlineStr">
@@ -15891,25 +15881,25 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C203" s="2" t="n"/>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="E203" s="2" t="n"/>
       <c r="F203" s="2" t="n"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H203" s="2" t="n"/>
@@ -15940,11 +15930,7 @@
       <c r="AC203" s="2" t="n"/>
       <c r="AD203" s="2" t="n"/>
       <c r="AE203" s="2" t="n"/>
-      <c r="AF203" s="2" t="inlineStr">
-        <is>
-          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
-        </is>
-      </c>
+      <c r="AF203" s="2" t="n"/>
       <c r="AG203" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15953,7 +15939,7 @@
       <c r="AH203" s="2" t="n"/>
       <c r="AI203" s="2" t="inlineStr">
         <is>
-          <t>OC; JH; PS; RW</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="AJ203" s="2" t="inlineStr">
@@ -15967,25 +15953,25 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050838</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">spontaneous recovery behaviour </t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="C204" s="2" t="n"/>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="E204" s="2" t="n"/>
       <c r="F204" s="2" t="n"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="H204" s="2" t="n"/>
@@ -16016,7 +16002,11 @@
       <c r="AC204" s="2" t="n"/>
       <c r="AD204" s="2" t="n"/>
       <c r="AE204" s="2" t="n"/>
-      <c r="AF204" s="2" t="n"/>
+      <c r="AF204" s="2" t="inlineStr">
+        <is>
+          <t>Praying, participating in rituals, meditation practices for spiritual purposes, fasting for spiritual purposes, participating in a silent retreat</t>
+        </is>
+      </c>
       <c r="AG204" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16025,7 +16015,7 @@
       <c r="AH204" s="2" t="n"/>
       <c r="AI204" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; JH; PS; RW</t>
         </is>
       </c>
       <c r="AJ204" s="2" t="inlineStr">
@@ -16039,25 +16029,25 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050838</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t xml:space="preserve">spontaneous recovery behaviour </t>
         </is>
       </c>
       <c r="C205" s="2" t="n"/>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
         </is>
       </c>
       <c r="E205" s="2" t="n"/>
       <c r="F205" s="2" t="n"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">posture behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H205" s="2" t="n"/>
@@ -16097,7 +16087,7 @@
       <c r="AH205" s="2" t="n"/>
       <c r="AI205" s="2" t="inlineStr">
         <is>
-          <t>OC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="AJ205" s="2" t="inlineStr">
@@ -16111,32 +16101,28 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="C206" s="2" t="n"/>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="E206" s="2" t="n"/>
       <c r="F206" s="2" t="n"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">consumption behaviour </t>
-        </is>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">posture behaviour </t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="n"/>
       <c r="I206" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -16161,17 +16147,9 @@
       <c r="Z206" s="2" t="n"/>
       <c r="AA206" s="2" t="n"/>
       <c r="AB206" s="2" t="n"/>
-      <c r="AC206" s="2" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
+      <c r="AC206" s="2" t="n"/>
       <c r="AD206" s="2" t="n"/>
-      <c r="AE206" s="2" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
+      <c r="AE206" s="2" t="n"/>
       <c r="AF206" s="2" t="n"/>
       <c r="AG206" s="2" t="inlineStr">
         <is>
@@ -16181,7 +16159,7 @@
       <c r="AH206" s="2" t="n"/>
       <c r="AI206" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>OC</t>
         </is>
       </c>
       <c r="AJ206" s="2" t="inlineStr">
@@ -16195,28 +16173,32 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="C207" s="2" t="n"/>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="E207" s="2" t="n"/>
       <c r="F207" s="2" t="n"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H207" s="2" t="n"/>
+          <t xml:space="preserve">consumption behaviour </t>
+        </is>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I207" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -16241,9 +16223,17 @@
       <c r="Z207" s="2" t="n"/>
       <c r="AA207" s="2" t="n"/>
       <c r="AB207" s="2" t="n"/>
-      <c r="AC207" s="2" t="n"/>
+      <c r="AC207" s="2" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
       <c r="AD207" s="2" t="n"/>
-      <c r="AE207" s="2" t="n"/>
+      <c r="AE207" s="2" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
       <c r="AF207" s="2" t="n"/>
       <c r="AG207" s="2" t="inlineStr">
         <is>
@@ -16253,7 +16243,7 @@
       <c r="AH207" s="2" t="n"/>
       <c r="AI207" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="AJ207" s="2" t="inlineStr">
@@ -16267,25 +16257,25 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C208" s="2" t="n"/>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E208" s="2" t="n"/>
       <c r="F208" s="2" t="n"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="H208" s="2" t="n"/>
@@ -16315,11 +16305,7 @@
       <c r="AB208" s="2" t="n"/>
       <c r="AC208" s="2" t="n"/>
       <c r="AD208" s="2" t="n"/>
-      <c r="AE208" s="2" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
+      <c r="AE208" s="2" t="n"/>
       <c r="AF208" s="2" t="n"/>
       <c r="AG208" s="2" t="inlineStr">
         <is>
@@ -16329,7 +16315,7 @@
       <c r="AH208" s="2" t="n"/>
       <c r="AI208" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="AJ208" s="2" t="inlineStr">
@@ -16343,25 +16329,25 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="C209" s="2" t="n"/>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="E209" s="2" t="n"/>
       <c r="F209" s="2" t="n"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="H209" s="2" t="n"/>
@@ -16393,7 +16379,7 @@
       <c r="AD209" s="2" t="n"/>
       <c r="AE209" s="2" t="inlineStr">
         <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
       <c r="AF209" s="2" t="n"/>
@@ -16419,25 +16405,25 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>task complexity</t>
+          <t>talking</t>
         </is>
       </c>
       <c r="C210" s="2" t="n"/>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="E210" s="2" t="n"/>
       <c r="F210" s="2" t="n"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="H210" s="2" t="n"/>
@@ -16467,7 +16453,11 @@
       <c r="AB210" s="2" t="n"/>
       <c r="AC210" s="2" t="n"/>
       <c r="AD210" s="2" t="n"/>
-      <c r="AE210" s="2" t="n"/>
+      <c r="AE210" s="2" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
       <c r="AF210" s="2" t="n"/>
       <c r="AG210" s="2" t="inlineStr">
         <is>
@@ -16475,7 +16465,11 @@
         </is>
       </c>
       <c r="AH210" s="2" t="n"/>
-      <c r="AI210" s="2" t="n"/>
+      <c r="AI210" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="AJ210" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -16487,25 +16481,25 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050839</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>threat-reducing behaviour</t>
+          <t>task complexity</t>
         </is>
       </c>
       <c r="C211" s="2" t="n"/>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="E211" s="2" t="n"/>
       <c r="F211" s="2" t="n"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>goal-directed behaviour</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H211" s="2" t="n"/>
@@ -16535,11 +16529,7 @@
       <c r="AB211" s="2" t="n"/>
       <c r="AC211" s="2" t="n"/>
       <c r="AD211" s="2" t="n"/>
-      <c r="AE211" s="2" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
-        </is>
-      </c>
+      <c r="AE211" s="2" t="n"/>
       <c r="AF211" s="2" t="n"/>
       <c r="AG211" s="2" t="inlineStr">
         <is>
@@ -16559,32 +16549,28 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour</t>
+          <t>threat-reducing behaviour</t>
         </is>
       </c>
       <c r="C212" s="2" t="n"/>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="E212" s="2" t="n"/>
       <c r="F212" s="2" t="n"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="n"/>
       <c r="I212" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -16609,13 +16595,13 @@
       <c r="Z212" s="2" t="n"/>
       <c r="AA212" s="2" t="n"/>
       <c r="AB212" s="2" t="n"/>
-      <c r="AC212" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
+      <c r="AC212" s="2" t="n"/>
       <c r="AD212" s="2" t="n"/>
-      <c r="AE212" s="2" t="n"/>
+      <c r="AE212" s="2" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+        </is>
+      </c>
       <c r="AF212" s="2" t="n"/>
       <c r=